--- a/croc-o-deals-parent/doc/Croc-o-deals-rules-1.0.0.xlsx
+++ b/croc-o-deals-parent/doc/Croc-o-deals-rules-1.0.0.xlsx
@@ -7,15 +7,264 @@
     <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil3" sheetId="3" r:id="rId1"/>
+    <sheet name="Créer un compte PRO" sheetId="3" r:id="rId1"/>
+    <sheet name="Création d'un deal" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Prenium</t>
+  </si>
+  <si>
+    <t>Créer un deal</t>
+  </si>
+  <si>
+    <t>Pass Pro 1 mois (recharger)</t>
+  </si>
+  <si>
+    <t>illimités</t>
+  </si>
+  <si>
+    <t>Priorité visuel</t>
+  </si>
+  <si>
+    <t>Création d'un compte (a vie)</t>
+  </si>
+  <si>
+    <r>
+      <t>La création d'un compte PRO est obligatoirement payant.
+Le prix de base est</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 29.99€</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour se créer un compte à vie.
+Il est possible lors de la création d'un compte de souscrire directement 1 mois d'accès:
+  -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pass  standart </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pour 1 mois à</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 14.99€</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pass prénium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour 1 mois à </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">29.99€ 
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Si aucune pré-séléction: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pass direct</t>
+    </r>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>Nb photos par deal</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Pack 1 * pub</t>
+  </si>
+  <si>
+    <t>Pack 10 * images secondaires</t>
+  </si>
+  <si>
+    <t>Pack 4 * options priorité visuel</t>
+  </si>
+  <si>
+    <t>Exemple financement</t>
+  </si>
+  <si>
+    <t>Total  € / mois:</t>
+  </si>
+  <si>
+    <t>Nb création compte PRO normal</t>
+  </si>
+  <si>
+    <t>Nb création compte PRO direct</t>
+  </si>
+  <si>
+    <t>Nb création compte PRO prenium</t>
+  </si>
+  <si>
+    <t>Cas début / mois</t>
+  </si>
+  <si>
+    <t>Nb pack images</t>
+  </si>
+  <si>
+    <t>Nb pack priorité visuel</t>
+  </si>
+  <si>
+    <t>Nb pack pub</t>
+  </si>
+  <si>
+    <t>Nb pass normal</t>
+  </si>
+  <si>
+    <t>Nb pass prenium</t>
+  </si>
+  <si>
+    <t>Nb pass direct</t>
+  </si>
+  <si>
+    <t>Pub / mois</t>
+  </si>
+  <si>
+    <t>Cas avancé / mois</t>
+  </si>
+  <si>
+    <t>Cas fin / mois</t>
+  </si>
+  <si>
+    <t>Total  € / an</t>
+  </si>
+  <si>
+    <t>Nb Nouveau compte / mois</t>
+  </si>
+  <si>
+    <t>Au bout de x mois</t>
+  </si>
+  <si>
+    <t>Compte normal</t>
+  </si>
+  <si>
+    <t>En considérant que chaque compte PRO rachète un pass chaque mois / sans options</t>
+  </si>
+  <si>
+    <t>Compte prenium</t>
+  </si>
+  <si>
+    <t>Compte direct</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +272,133 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -40,15 +406,285 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
+    <cellStyle name="Neutre" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -58,6 +694,1410 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Client normal 1/ mois</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Créer un compte PRO'!$A$77:$B$88</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Créer un compte PRO'!$C$77:$C$88</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>54.980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.960000000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144.92000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>159.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>189.89000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>204.88000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>219.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Client normal 2/mois</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Créer un compte PRO'!$A$77:$B$87</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Créer un compte PRO'!$D$77:$D$88</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>109.96000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169.92000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>229.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>259.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>289.84000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>319.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>349.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>379.78000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>409.76000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>439.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>Client normal 3/mois</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Créer un compte PRO'!$A$77:$B$88</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Créer un compte PRO'!$E$77:$E$88</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>164.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>209.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>254.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>299.85000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>344.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>389.78999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>434.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>479.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>524.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>569.66999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>659.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>Client normal 4/mois</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Créer un compte PRO'!$A$77:$B$88</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Créer un compte PRO'!$F$77:$F$88</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>219.92000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>279.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>339.84000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>399.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>459.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>519.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>579.68000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>639.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>699.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>759.56000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>819.5200000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>879.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>Client normal 5/mois</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Créer un compte PRO'!$A$77:$B$88</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Créer un compte PRO'!$G$77:$G$88</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>274.90000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>349.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>424.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>499.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>574.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>649.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>724.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>799.55000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>874.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>949.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1099.3499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>Client normal 6/mois</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Créer un compte PRO'!$A$77:$B$88</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Créer un compte PRO'!$H$77:$H$88</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>329.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>419.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>509.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>599.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>689.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>779.57999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>869.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>959.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1049.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1139.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1229.28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1319.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Client normal 1/ mois</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'[Croc-o-deals-rules-1.0.0.xlsx]Créer un compte PRO'!$A$76:$B$87</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Créer un compte PRO'!$C$77:$C$88</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>54.980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.960000000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144.92000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>159.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>189.89000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>204.88000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>219.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Client normal 2/mois</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'[Croc-o-deals-rules-1.0.0.xlsx]Créer un compte PRO'!$A$76:$B$86</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Créer un compte PRO'!$D$77:$D$88</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>109.96000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169.92000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>229.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>259.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>289.84000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>319.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>349.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>379.78000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>409.76000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>439.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Client normal 3/mois</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'[Croc-o-deals-rules-1.0.0.xlsx]Créer un compte PRO'!$A$76:$B$87</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Créer un compte PRO'!$E$77:$E$88</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>164.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>209.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>254.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>299.85000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>344.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>389.78999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>434.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>479.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>524.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>569.66999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>659.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Client normal 4/mois</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'[Croc-o-deals-rules-1.0.0.xlsx]Créer un compte PRO'!$A$76:$B$87</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Créer un compte PRO'!$F$77:$F$88</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>219.92000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>279.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>339.84000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>399.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>459.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>519.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>579.68000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>639.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>699.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>759.56000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>819.5200000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>879.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Client normal 5/mois</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'[Croc-o-deals-rules-1.0.0.xlsx]Créer un compte PRO'!$A$76:$B$87</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Créer un compte PRO'!$G$77:$G$88</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>274.90000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>349.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>424.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>499.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>574.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>649.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>724.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>799.55000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>874.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>949.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1099.3499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Client normal 6/mois</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'[Croc-o-deals-rules-1.0.0.xlsx]Créer un compte PRO'!$A$76:$B$87</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Créer un compte PRO'!$H$77:$H$88</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>329.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>419.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>509.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>599.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>689.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>779.57999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>869.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>959.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1049.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1139.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1229.28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1319.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="l"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="78097216"/>
+        <c:axId val="134768896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="78097216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134768896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="134768896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="#,##0.00\ &quot;€&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78097216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="15875"/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6677025" cy="4123788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63489</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19051" y="4143375"/>
+          <a:ext cx="6654788" cy="4143376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,13 +2387,2415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Z121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="L2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="11">
+        <v>14.99</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="11">
+        <v>29.99</v>
+      </c>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="11">
+        <v>29.99</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="6" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17"/>
+    </row>
+    <row r="7" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="23"/>
+    </row>
+    <row r="22" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="L22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="4"/>
+      <c r="P22" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="25"/>
+    </row>
+    <row r="23" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="30">
+        <v>39.99</v>
+      </c>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="32"/>
+    </row>
+    <row r="24" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="28">
+        <v>14.99</v>
+      </c>
+      <c r="M24" s="29"/>
+      <c r="N24" s="28">
+        <v>29.99</v>
+      </c>
+      <c r="O24" s="29"/>
+      <c r="P24" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="34"/>
+    </row>
+    <row r="25" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="50">
+        <v>0</v>
+      </c>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50">
+        <v>0</v>
+      </c>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50">
+        <v>6.99</v>
+      </c>
+      <c r="Q25" s="50"/>
+    </row>
+    <row r="26" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c r="N26" s="8">
+        <v>2</v>
+      </c>
+      <c r="O26" s="9"/>
+      <c r="P26" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9"/>
+    </row>
+    <row r="27" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="8">
+        <v>1</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c r="N27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="9"/>
+      <c r="P27" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="27"/>
+      <c r="N28" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O28" s="27"/>
+      <c r="P28" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="27"/>
+    </row>
+    <row r="29" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="14">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="M29" s="14"/>
+      <c r="N29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" s="10"/>
+      <c r="P29" s="14">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="Q29" s="14"/>
+    </row>
+    <row r="30" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="14">
+        <v>6.99</v>
+      </c>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14">
+        <v>6.99</v>
+      </c>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14">
+        <v>6.99</v>
+      </c>
+      <c r="Q30" s="14"/>
+    </row>
+    <row r="31" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="14">
+        <v>2.99</v>
+      </c>
+      <c r="M31" s="14"/>
+      <c r="N31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31" s="10"/>
+      <c r="P31" s="14">
+        <v>2.99</v>
+      </c>
+      <c r="Q31" s="14"/>
+    </row>
+    <row r="35" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K35" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="36"/>
+    </row>
+    <row r="36" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K36" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+    </row>
+    <row r="37" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K37" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="39">
+        <v>6</v>
+      </c>
+      <c r="M37" s="40">
+        <f>L37 * $L$23</f>
+        <v>239.94</v>
+      </c>
+      <c r="N37" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37" s="40">
+        <f>SUM(M37:M45)</f>
+        <v>959.56999999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="39">
+        <v>4</v>
+      </c>
+      <c r="M38" s="40">
+        <f>L38*$L$23</f>
+        <v>159.96</v>
+      </c>
+      <c r="N38" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="40">
+        <f>O37*12</f>
+        <v>11514.84</v>
+      </c>
+    </row>
+    <row r="39" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K39" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" s="39">
+        <v>2</v>
+      </c>
+      <c r="M39" s="40">
+        <f>L39*$L$23</f>
+        <v>79.98</v>
+      </c>
+    </row>
+    <row r="40" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="39">
+        <v>12</v>
+      </c>
+      <c r="M40" s="40">
+        <f>L40*$L$24</f>
+        <v>179.88</v>
+      </c>
+    </row>
+    <row r="41" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K41" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" s="39">
+        <v>8</v>
+      </c>
+      <c r="M41" s="40">
+        <f>L41*$N$24</f>
+        <v>239.92</v>
+      </c>
+    </row>
+    <row r="42" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" s="39">
+        <v>6</v>
+      </c>
+      <c r="M42" s="40">
+        <f>L42*$P$25</f>
+        <v>41.94</v>
+      </c>
+    </row>
+    <row r="43" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K43" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="39">
+        <v>2</v>
+      </c>
+      <c r="M43" s="40">
+        <f>L43*$L$29</f>
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="39">
+        <v>1</v>
+      </c>
+      <c r="M44" s="40">
+        <f>L44*$L$30</f>
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="45" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K45" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="39">
+        <v>2</v>
+      </c>
+      <c r="M45" s="40">
+        <f>L31*$L$45</f>
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="47" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K47" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+    </row>
+    <row r="48" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K48" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="39">
+        <v>8</v>
+      </c>
+      <c r="M48" s="40">
+        <f>L48 * $L$23</f>
+        <v>319.92</v>
+      </c>
+      <c r="N48" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="O48" s="40">
+        <f>SUM(M48:M56)</f>
+        <v>2154.96</v>
+      </c>
+    </row>
+    <row r="49" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="39">
+        <v>6</v>
+      </c>
+      <c r="M49" s="40">
+        <f>L49*$L$23</f>
+        <v>239.94</v>
+      </c>
+      <c r="N49" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="O49" s="40">
+        <f>O48*12</f>
+        <v>25859.52</v>
+      </c>
+    </row>
+    <row r="50" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K50" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="39">
+        <v>4</v>
+      </c>
+      <c r="M50" s="40">
+        <f>L50*$L$23</f>
+        <v>159.96</v>
+      </c>
+    </row>
+    <row r="51" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K51" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" s="39">
+        <v>36</v>
+      </c>
+      <c r="M51" s="40">
+        <f>L51*$L$24</f>
+        <v>539.64</v>
+      </c>
+    </row>
+    <row r="52" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K52" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52" s="39">
+        <v>24</v>
+      </c>
+      <c r="M52" s="40">
+        <f>L52*$N$24</f>
+        <v>719.76</v>
+      </c>
+    </row>
+    <row r="53" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K53" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" s="39">
+        <v>16</v>
+      </c>
+      <c r="M53" s="40">
+        <f>L53*$P$25</f>
+        <v>111.84</v>
+      </c>
+    </row>
+    <row r="54" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K54" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" s="39">
+        <v>4</v>
+      </c>
+      <c r="M54" s="40">
+        <f>L54*$L$29</f>
+        <v>9.9600000000000009</v>
+      </c>
+    </row>
+    <row r="55" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K55" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55" s="39">
+        <v>6</v>
+      </c>
+      <c r="M55" s="40">
+        <f>L55*$L$30</f>
+        <v>41.94</v>
+      </c>
+    </row>
+    <row r="56" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K56" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" s="39">
+        <v>8</v>
+      </c>
+      <c r="M56" s="40">
+        <f>L42*$L$45</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K58" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+    </row>
+    <row r="59" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K59" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="39">
+        <v>10</v>
+      </c>
+      <c r="M59" s="40">
+        <f>L59 * $L$23</f>
+        <v>399.90000000000003</v>
+      </c>
+      <c r="N59" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="O59" s="40">
+        <f>SUM(M59:M67)</f>
+        <v>3805.1</v>
+      </c>
+    </row>
+    <row r="60" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K60" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="39">
+        <v>8</v>
+      </c>
+      <c r="M60" s="40">
+        <f>L60*$L$23</f>
+        <v>319.92</v>
+      </c>
+      <c r="N60" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="O60" s="40">
+        <f>O59*12</f>
+        <v>45661.2</v>
+      </c>
+    </row>
+    <row r="61" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K61" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61" s="39">
+        <v>6</v>
+      </c>
+      <c r="M61" s="40">
+        <f>L61*$L$23</f>
+        <v>239.94</v>
+      </c>
+    </row>
+    <row r="62" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K62" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L62" s="39">
+        <v>72</v>
+      </c>
+      <c r="M62" s="40">
+        <f>L62*$L$24</f>
+        <v>1079.28</v>
+      </c>
+    </row>
+    <row r="63" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K63" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L63" s="39">
+        <v>48</v>
+      </c>
+      <c r="M63" s="40">
+        <f>L63*$N$24</f>
+        <v>1439.52</v>
+      </c>
+    </row>
+    <row r="64" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K64" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L64" s="39">
+        <v>32</v>
+      </c>
+      <c r="M64" s="40">
+        <f>L64*$P$25</f>
+        <v>223.68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K65" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" s="39">
+        <v>6</v>
+      </c>
+      <c r="M65" s="40">
+        <f>L65*$L$29</f>
+        <v>14.940000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K66" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" s="39">
+        <v>8</v>
+      </c>
+      <c r="M66" s="40">
+        <f>L66*$L$30</f>
+        <v>55.92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K67" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L67" s="39">
+        <v>10</v>
+      </c>
+      <c r="M67" s="40">
+        <f>L53*$L$45</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="49"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="J74" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="K74" s="49"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="49"/>
+      <c r="Q74" s="49"/>
+      <c r="S74" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="T74" s="49"/>
+      <c r="U74" s="49"/>
+      <c r="V74" s="49"/>
+      <c r="W74" s="49"/>
+      <c r="X74" s="49"/>
+      <c r="Y74" s="49"/>
+      <c r="Z74" s="49"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" s="47"/>
+      <c r="C75" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="J75" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="K75" s="47"/>
+      <c r="L75" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
+      <c r="P75" s="42"/>
+      <c r="Q75" s="42"/>
+      <c r="S75" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="T75" s="47"/>
+      <c r="U75" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="V75" s="42"/>
+      <c r="W75" s="42"/>
+      <c r="X75" s="42"/>
+      <c r="Y75" s="42"/>
+      <c r="Z75" s="42"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="44"/>
+      <c r="C76" s="45">
+        <v>1</v>
+      </c>
+      <c r="D76" s="45">
+        <v>2</v>
+      </c>
+      <c r="E76" s="46">
+        <v>3</v>
+      </c>
+      <c r="F76" s="46">
+        <v>4</v>
+      </c>
+      <c r="G76" s="46">
+        <v>5</v>
+      </c>
+      <c r="H76" s="46">
+        <v>6</v>
+      </c>
+      <c r="J76" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="K76" s="44"/>
+      <c r="L76" s="45">
+        <v>1</v>
+      </c>
+      <c r="M76" s="45">
+        <v>2</v>
+      </c>
+      <c r="N76" s="46">
+        <v>3</v>
+      </c>
+      <c r="O76" s="46">
+        <v>4</v>
+      </c>
+      <c r="P76" s="46">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="46">
+        <v>6</v>
+      </c>
+      <c r="S76" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="T76" s="44"/>
+      <c r="U76" s="45">
+        <v>1</v>
+      </c>
+      <c r="V76" s="45">
+        <v>2</v>
+      </c>
+      <c r="W76" s="46">
+        <v>3</v>
+      </c>
+      <c r="X76" s="46">
+        <v>4</v>
+      </c>
+      <c r="Y76" s="46">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="26">
+        <v>1</v>
+      </c>
+      <c r="B77" s="27"/>
+      <c r="C77" s="48">
+        <f>C76 * ($L$23 +$L$24)</f>
+        <v>54.980000000000004</v>
+      </c>
+      <c r="D77" s="48">
+        <f t="shared" ref="D77:H77" si="0">D76 * ($L$23 +$L$24)</f>
+        <v>109.96000000000001</v>
+      </c>
+      <c r="E77" s="48">
+        <f t="shared" si="0"/>
+        <v>164.94</v>
+      </c>
+      <c r="F77" s="48">
+        <f t="shared" si="0"/>
+        <v>219.92000000000002</v>
+      </c>
+      <c r="G77" s="48">
+        <f t="shared" si="0"/>
+        <v>274.90000000000003</v>
+      </c>
+      <c r="H77" s="48">
+        <f t="shared" si="0"/>
+        <v>329.88</v>
+      </c>
+      <c r="J77" s="26">
+        <v>1</v>
+      </c>
+      <c r="K77" s="27"/>
+      <c r="L77" s="48">
+        <f>L76 * ($L$23 +$N$24)</f>
+        <v>69.98</v>
+      </c>
+      <c r="M77" s="48">
+        <f>M76 * ($L$23 +$N$24)</f>
+        <v>139.96</v>
+      </c>
+      <c r="N77" s="48">
+        <f>N76 * ($L$23 +$N$24)</f>
+        <v>209.94</v>
+      </c>
+      <c r="O77" s="48">
+        <f>O76 * ($L$23 +$N$24)</f>
+        <v>279.92</v>
+      </c>
+      <c r="P77" s="48">
+        <f>P76 * ($L$23 +$N$24)</f>
+        <v>349.90000000000003</v>
+      </c>
+      <c r="Q77" s="48">
+        <f>Q76 * ($L$23 +$N$24)</f>
+        <v>419.88</v>
+      </c>
+      <c r="S77" s="26">
+        <v>1</v>
+      </c>
+      <c r="T77" s="27"/>
+      <c r="U77" s="48">
+        <f>U76 * ($L$23 +$N$24)</f>
+        <v>69.98</v>
+      </c>
+      <c r="V77" s="48">
+        <f>V76 * ($L$23 +$N$24)</f>
+        <v>139.96</v>
+      </c>
+      <c r="W77" s="48">
+        <f>W76 * ($L$23 +$N$24)</f>
+        <v>209.94</v>
+      </c>
+      <c r="X77" s="48">
+        <f>X76 * ($L$23 +$N$24)</f>
+        <v>279.92</v>
+      </c>
+      <c r="Y77" s="48">
+        <f>Y76 * ($L$23 +$N$24)</f>
+        <v>349.90000000000003</v>
+      </c>
+      <c r="Z77" s="48">
+        <f>Z76 * ($L$23 +$N$24)</f>
+        <v>419.88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="26">
+        <v>2</v>
+      </c>
+      <c r="B78" s="27"/>
+      <c r="C78" s="40">
+        <f>($L$23*$C$76)+($A78*$C$76)*$L$24</f>
+        <v>69.97</v>
+      </c>
+      <c r="D78" s="40">
+        <f>($L$23*$D$76)+($A78*$D$76)*$L$24</f>
+        <v>139.94</v>
+      </c>
+      <c r="E78" s="40">
+        <f>($L$23*$E$76)+($A78*$E$76)*$L$24</f>
+        <v>209.91</v>
+      </c>
+      <c r="F78" s="40">
+        <f>($L$23*$F$76)+($A78*$F$76)*$L$24</f>
+        <v>279.88</v>
+      </c>
+      <c r="G78" s="40">
+        <f>($L$23*$G$76)+($A78*$G$76)*$L$24</f>
+        <v>349.85</v>
+      </c>
+      <c r="H78" s="40">
+        <f>($L$23*$H$76)+($A78*$H$76)*$L$24</f>
+        <v>419.82</v>
+      </c>
+      <c r="J78" s="26">
+        <v>2</v>
+      </c>
+      <c r="K78" s="27"/>
+      <c r="L78" s="40">
+        <f>($L$23*$C$76)+($A78*$C$76)*$N$24</f>
+        <v>99.97</v>
+      </c>
+      <c r="M78" s="40">
+        <f>($L$23*$D$76)+($A78*$D$76)*$N$24</f>
+        <v>199.94</v>
+      </c>
+      <c r="N78" s="40">
+        <f>($L$23*$E$76)+($A78*$E$76)*$N$24</f>
+        <v>299.90999999999997</v>
+      </c>
+      <c r="O78" s="40">
+        <f>($L$23*$F$76)+($A78*$F$76)*$N$24</f>
+        <v>399.88</v>
+      </c>
+      <c r="P78" s="40">
+        <f>($L$23*$G$76)+($A78*$G$76)*$N$24</f>
+        <v>499.85</v>
+      </c>
+      <c r="Q78" s="40">
+        <f>($L$23*$H$76)+($A78*$H$76)*$N$24</f>
+        <v>599.81999999999994</v>
+      </c>
+      <c r="S78" s="26">
+        <v>2</v>
+      </c>
+      <c r="T78" s="27"/>
+      <c r="U78" s="40">
+        <f>($L$23*$C$76)+($A78*$C$76)*$N$24</f>
+        <v>99.97</v>
+      </c>
+      <c r="V78" s="40">
+        <f>($L$23*$D$76)+($A78*$D$76)*$N$24</f>
+        <v>199.94</v>
+      </c>
+      <c r="W78" s="40">
+        <f>($L$23*$E$76)+($A78*$E$76)*$N$24</f>
+        <v>299.90999999999997</v>
+      </c>
+      <c r="X78" s="40">
+        <f>($L$23*$F$76)+($A78*$F$76)*$N$24</f>
+        <v>399.88</v>
+      </c>
+      <c r="Y78" s="40">
+        <f>($L$23*$G$76)+($A78*$G$76)*$N$24</f>
+        <v>499.85</v>
+      </c>
+      <c r="Z78" s="40">
+        <f>($L$23*$H$76)+($A78*$H$76)*$N$24</f>
+        <v>599.81999999999994</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="26">
+        <v>3</v>
+      </c>
+      <c r="B79" s="27"/>
+      <c r="C79" s="40">
+        <f>($L$23*$C$76)+($A79*$C$76)*$L$24</f>
+        <v>84.960000000000008</v>
+      </c>
+      <c r="D79" s="40">
+        <f>($L$23*$D$76)+($A79*$D$76)*$L$24</f>
+        <v>169.92000000000002</v>
+      </c>
+      <c r="E79" s="40">
+        <f>($L$23*$E$76)+($A79*$E$76)*$L$24</f>
+        <v>254.88</v>
+      </c>
+      <c r="F79" s="40">
+        <f>($L$23*$F$76)+($A79*$F$76)*$L$24</f>
+        <v>339.84000000000003</v>
+      </c>
+      <c r="G79" s="40">
+        <f>($L$23*$G$76)+($A79*$G$76)*$L$24</f>
+        <v>424.8</v>
+      </c>
+      <c r="H79" s="40">
+        <f>($L$23*$H$76)+($A79*$H$76)*$L$24</f>
+        <v>509.76</v>
+      </c>
+      <c r="J79" s="26">
+        <v>3</v>
+      </c>
+      <c r="K79" s="27"/>
+      <c r="L79" s="40">
+        <f>($L$23*$C$76)+($A79*$C$76)*$N$24</f>
+        <v>129.96</v>
+      </c>
+      <c r="M79" s="40">
+        <f>($L$23*$D$76)+($A79*$D$76)*$N$24</f>
+        <v>259.92</v>
+      </c>
+      <c r="N79" s="40">
+        <f>($L$23*$E$76)+($A79*$E$76)*$N$24</f>
+        <v>389.88</v>
+      </c>
+      <c r="O79" s="40">
+        <f>($L$23*$F$76)+($A79*$F$76)*$N$24</f>
+        <v>519.84</v>
+      </c>
+      <c r="P79" s="40">
+        <f>($L$23*$G$76)+($A79*$G$76)*$N$24</f>
+        <v>649.79999999999995</v>
+      </c>
+      <c r="Q79" s="40">
+        <f>($L$23*$H$76)+($A79*$H$76)*$N$24</f>
+        <v>779.76</v>
+      </c>
+      <c r="S79" s="26">
+        <v>3</v>
+      </c>
+      <c r="T79" s="27"/>
+      <c r="U79" s="40">
+        <f>($L$23*$C$76)+($A79*$C$76)*$N$24</f>
+        <v>129.96</v>
+      </c>
+      <c r="V79" s="40">
+        <f>($L$23*$D$76)+($A79*$D$76)*$N$24</f>
+        <v>259.92</v>
+      </c>
+      <c r="W79" s="40">
+        <f>($L$23*$E$76)+($A79*$E$76)*$N$24</f>
+        <v>389.88</v>
+      </c>
+      <c r="X79" s="40">
+        <f>($L$23*$F$76)+($A79*$F$76)*$N$24</f>
+        <v>519.84</v>
+      </c>
+      <c r="Y79" s="40">
+        <f>($L$23*$G$76)+($A79*$G$76)*$N$24</f>
+        <v>649.79999999999995</v>
+      </c>
+      <c r="Z79" s="40">
+        <f>($L$23*$H$76)+($A79*$H$76)*$N$24</f>
+        <v>779.76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="26">
+        <v>4</v>
+      </c>
+      <c r="B80" s="27"/>
+      <c r="C80" s="40">
+        <f>($L$23*$C$76)+($A80*$C$76)*$L$24</f>
+        <v>99.95</v>
+      </c>
+      <c r="D80" s="40">
+        <f>($L$23*$D$76)+($A80*$D$76)*$L$24</f>
+        <v>199.9</v>
+      </c>
+      <c r="E80" s="40">
+        <f>($L$23*$E$76)+($A80*$E$76)*$L$24</f>
+        <v>299.85000000000002</v>
+      </c>
+      <c r="F80" s="40">
+        <f>($L$23*$F$76)+($A80*$F$76)*$L$24</f>
+        <v>399.8</v>
+      </c>
+      <c r="G80" s="40">
+        <f>($L$23*$G$76)+($A80*$G$76)*$L$24</f>
+        <v>499.75</v>
+      </c>
+      <c r="H80" s="40">
+        <f>($L$23*$H$76)+($A80*$H$76)*$L$24</f>
+        <v>599.70000000000005</v>
+      </c>
+      <c r="J80" s="26">
+        <v>4</v>
+      </c>
+      <c r="K80" s="27"/>
+      <c r="L80" s="40">
+        <f>($L$23*$C$76)+($A80*$C$76)*$N$24</f>
+        <v>159.94999999999999</v>
+      </c>
+      <c r="M80" s="40">
+        <f>($L$23*$D$76)+($A80*$D$76)*$N$24</f>
+        <v>319.89999999999998</v>
+      </c>
+      <c r="N80" s="40">
+        <f>($L$23*$E$76)+($A80*$E$76)*$N$24</f>
+        <v>479.85</v>
+      </c>
+      <c r="O80" s="40">
+        <f>($L$23*$F$76)+($A80*$F$76)*$N$24</f>
+        <v>639.79999999999995</v>
+      </c>
+      <c r="P80" s="40">
+        <f>($L$23*$G$76)+($A80*$G$76)*$N$24</f>
+        <v>799.75</v>
+      </c>
+      <c r="Q80" s="40">
+        <f>($L$23*$H$76)+($A80*$H$76)*$N$24</f>
+        <v>959.7</v>
+      </c>
+      <c r="S80" s="26">
+        <v>4</v>
+      </c>
+      <c r="T80" s="27"/>
+      <c r="U80" s="40">
+        <f>($L$23*$C$76)+($A80*$C$76)*$N$24</f>
+        <v>159.94999999999999</v>
+      </c>
+      <c r="V80" s="40">
+        <f>($L$23*$D$76)+($A80*$D$76)*$N$24</f>
+        <v>319.89999999999998</v>
+      </c>
+      <c r="W80" s="40">
+        <f>($L$23*$E$76)+($A80*$E$76)*$N$24</f>
+        <v>479.85</v>
+      </c>
+      <c r="X80" s="40">
+        <f>($L$23*$F$76)+($A80*$F$76)*$N$24</f>
+        <v>639.79999999999995</v>
+      </c>
+      <c r="Y80" s="40">
+        <f>($L$23*$G$76)+($A80*$G$76)*$N$24</f>
+        <v>799.75</v>
+      </c>
+      <c r="Z80" s="40">
+        <f>($L$23*$H$76)+($A80*$H$76)*$N$24</f>
+        <v>959.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="26">
+        <v>5</v>
+      </c>
+      <c r="B81" s="27"/>
+      <c r="C81" s="40">
+        <f>($L$23*$C$76)+($A81*$C$76)*$L$24</f>
+        <v>114.94</v>
+      </c>
+      <c r="D81" s="40">
+        <f>($L$23*$D$76)+($A81*$D$76)*$L$24</f>
+        <v>229.88</v>
+      </c>
+      <c r="E81" s="40">
+        <f>($L$23*$E$76)+($A81*$E$76)*$L$24</f>
+        <v>344.82</v>
+      </c>
+      <c r="F81" s="40">
+        <f>($L$23*$F$76)+($A81*$F$76)*$L$24</f>
+        <v>459.76</v>
+      </c>
+      <c r="G81" s="40">
+        <f>($L$23*$G$76)+($A81*$G$76)*$L$24</f>
+        <v>574.70000000000005</v>
+      </c>
+      <c r="H81" s="40">
+        <f>($L$23*$H$76)+($A81*$H$76)*$L$24</f>
+        <v>689.64</v>
+      </c>
+      <c r="J81" s="26">
+        <v>5</v>
+      </c>
+      <c r="K81" s="27"/>
+      <c r="L81" s="40">
+        <f>($L$23*$C$76)+($A81*$C$76)*$N$24</f>
+        <v>189.94</v>
+      </c>
+      <c r="M81" s="40">
+        <f>($L$23*$D$76)+($A81*$D$76)*$N$24</f>
+        <v>379.88</v>
+      </c>
+      <c r="N81" s="40">
+        <f>($L$23*$E$76)+($A81*$E$76)*$N$24</f>
+        <v>569.81999999999994</v>
+      </c>
+      <c r="O81" s="40">
+        <f>($L$23*$F$76)+($A81*$F$76)*$N$24</f>
+        <v>759.76</v>
+      </c>
+      <c r="P81" s="40">
+        <f>($L$23*$G$76)+($A81*$G$76)*$N$24</f>
+        <v>949.7</v>
+      </c>
+      <c r="Q81" s="40">
+        <f>($L$23*$H$76)+($A81*$H$76)*$N$24</f>
+        <v>1139.6399999999999</v>
+      </c>
+      <c r="S81" s="26">
+        <v>5</v>
+      </c>
+      <c r="T81" s="27"/>
+      <c r="U81" s="40">
+        <f>($L$23*$C$76)+($A81*$C$76)*$N$24</f>
+        <v>189.94</v>
+      </c>
+      <c r="V81" s="40">
+        <f>($L$23*$D$76)+($A81*$D$76)*$N$24</f>
+        <v>379.88</v>
+      </c>
+      <c r="W81" s="40">
+        <f>($L$23*$E$76)+($A81*$E$76)*$N$24</f>
+        <v>569.81999999999994</v>
+      </c>
+      <c r="X81" s="40">
+        <f>($L$23*$F$76)+($A81*$F$76)*$N$24</f>
+        <v>759.76</v>
+      </c>
+      <c r="Y81" s="40">
+        <f>($L$23*$G$76)+($A81*$G$76)*$N$24</f>
+        <v>949.7</v>
+      </c>
+      <c r="Z81" s="40">
+        <f>($L$23*$H$76)+($A81*$H$76)*$N$24</f>
+        <v>1139.6399999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="26">
+        <v>6</v>
+      </c>
+      <c r="B82" s="27"/>
+      <c r="C82" s="40">
+        <f>($L$23*$C$76)+($A82*$C$76)*$L$24</f>
+        <v>129.93</v>
+      </c>
+      <c r="D82" s="40">
+        <f>($L$23*$D$76)+($A82*$D$76)*$L$24</f>
+        <v>259.86</v>
+      </c>
+      <c r="E82" s="40">
+        <f>($L$23*$E$76)+($A82*$E$76)*$L$24</f>
+        <v>389.78999999999996</v>
+      </c>
+      <c r="F82" s="40">
+        <f>($L$23*$F$76)+($A82*$F$76)*$L$24</f>
+        <v>519.72</v>
+      </c>
+      <c r="G82" s="40">
+        <f>($L$23*$G$76)+($A82*$G$76)*$L$24</f>
+        <v>649.65</v>
+      </c>
+      <c r="H82" s="40">
+        <f>($L$23*$H$76)+($A82*$H$76)*$L$24</f>
+        <v>779.57999999999993</v>
+      </c>
+      <c r="J82" s="26">
+        <v>6</v>
+      </c>
+      <c r="K82" s="27"/>
+      <c r="L82" s="40">
+        <f>($L$23*$C$76)+($A82*$C$76)*$N$24</f>
+        <v>219.93</v>
+      </c>
+      <c r="M82" s="40">
+        <f>($L$23*$D$76)+($A82*$D$76)*$N$24</f>
+        <v>439.86</v>
+      </c>
+      <c r="N82" s="40">
+        <f>($L$23*$E$76)+($A82*$E$76)*$N$24</f>
+        <v>659.79</v>
+      </c>
+      <c r="O82" s="40">
+        <f>($L$23*$F$76)+($A82*$F$76)*$N$24</f>
+        <v>879.72</v>
+      </c>
+      <c r="P82" s="40">
+        <f>($L$23*$G$76)+($A82*$G$76)*$N$24</f>
+        <v>1099.6499999999999</v>
+      </c>
+      <c r="Q82" s="40">
+        <f>($L$23*$H$76)+($A82*$H$76)*$N$24</f>
+        <v>1319.58</v>
+      </c>
+      <c r="S82" s="26">
+        <v>6</v>
+      </c>
+      <c r="T82" s="27"/>
+      <c r="U82" s="40">
+        <f>($L$23*$C$76)+($A82*$C$76)*$N$24</f>
+        <v>219.93</v>
+      </c>
+      <c r="V82" s="40">
+        <f>($L$23*$D$76)+($A82*$D$76)*$N$24</f>
+        <v>439.86</v>
+      </c>
+      <c r="W82" s="40">
+        <f>($L$23*$E$76)+($A82*$E$76)*$N$24</f>
+        <v>659.79</v>
+      </c>
+      <c r="X82" s="40">
+        <f>($L$23*$F$76)+($A82*$F$76)*$N$24</f>
+        <v>879.72</v>
+      </c>
+      <c r="Y82" s="40">
+        <f>($L$23*$G$76)+($A82*$G$76)*$N$24</f>
+        <v>1099.6499999999999</v>
+      </c>
+      <c r="Z82" s="40">
+        <f>($L$23*$H$76)+($A82*$H$76)*$N$24</f>
+        <v>1319.58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="26">
+        <v>7</v>
+      </c>
+      <c r="B83" s="27"/>
+      <c r="C83" s="40">
+        <f>($L$23*$C$76)+($A83*$C$76)*$L$24</f>
+        <v>144.92000000000002</v>
+      </c>
+      <c r="D83" s="40">
+        <f>($L$23*$D$76)+($A83*$D$76)*$L$24</f>
+        <v>289.84000000000003</v>
+      </c>
+      <c r="E83" s="40">
+        <f>($L$23*$E$76)+($A83*$E$76)*$L$24</f>
+        <v>434.76</v>
+      </c>
+      <c r="F83" s="40">
+        <f>($L$23*$F$76)+($A83*$F$76)*$L$24</f>
+        <v>579.68000000000006</v>
+      </c>
+      <c r="G83" s="40">
+        <f>($L$23*$G$76)+($A83*$G$76)*$L$24</f>
+        <v>724.6</v>
+      </c>
+      <c r="H83" s="40">
+        <f>($L$23*$H$76)+($A83*$H$76)*$L$24</f>
+        <v>869.52</v>
+      </c>
+      <c r="J83" s="26">
+        <v>7</v>
+      </c>
+      <c r="K83" s="27"/>
+      <c r="L83" s="40">
+        <f>($L$23*$C$76)+($A83*$C$76)*$N$24</f>
+        <v>249.92</v>
+      </c>
+      <c r="M83" s="40">
+        <f>($L$23*$D$76)+($A83*$D$76)*$N$24</f>
+        <v>499.84</v>
+      </c>
+      <c r="N83" s="40">
+        <f>($L$23*$E$76)+($A83*$E$76)*$N$24</f>
+        <v>749.76</v>
+      </c>
+      <c r="O83" s="40">
+        <f>($L$23*$F$76)+($A83*$F$76)*$N$24</f>
+        <v>999.68</v>
+      </c>
+      <c r="P83" s="40">
+        <f>($L$23*$G$76)+($A83*$G$76)*$N$24</f>
+        <v>1249.5999999999999</v>
+      </c>
+      <c r="Q83" s="40">
+        <f>($L$23*$H$76)+($A83*$H$76)*$N$24</f>
+        <v>1499.52</v>
+      </c>
+      <c r="S83" s="26">
+        <v>7</v>
+      </c>
+      <c r="T83" s="27"/>
+      <c r="U83" s="40">
+        <f>($L$23*$C$76)+($A83*$C$76)*$N$24</f>
+        <v>249.92</v>
+      </c>
+      <c r="V83" s="40">
+        <f>($L$23*$D$76)+($A83*$D$76)*$N$24</f>
+        <v>499.84</v>
+      </c>
+      <c r="W83" s="40">
+        <f>($L$23*$E$76)+($A83*$E$76)*$N$24</f>
+        <v>749.76</v>
+      </c>
+      <c r="X83" s="40">
+        <f>($L$23*$F$76)+($A83*$F$76)*$N$24</f>
+        <v>999.68</v>
+      </c>
+      <c r="Y83" s="40">
+        <f>($L$23*$G$76)+($A83*$G$76)*$N$24</f>
+        <v>1249.5999999999999</v>
+      </c>
+      <c r="Z83" s="40">
+        <f>($L$23*$H$76)+($A83*$H$76)*$N$24</f>
+        <v>1499.52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="26">
+        <v>8</v>
+      </c>
+      <c r="B84" s="27"/>
+      <c r="C84" s="40">
+        <f>($L$23*$C$76)+($A84*$C$76)*$L$24</f>
+        <v>159.91</v>
+      </c>
+      <c r="D84" s="40">
+        <f>($L$23*$D$76)+($A84*$D$76)*$L$24</f>
+        <v>319.82</v>
+      </c>
+      <c r="E84" s="40">
+        <f>($L$23*$E$76)+($A84*$E$76)*$L$24</f>
+        <v>479.73</v>
+      </c>
+      <c r="F84" s="40">
+        <f>($L$23*$F$76)+($A84*$F$76)*$L$24</f>
+        <v>639.64</v>
+      </c>
+      <c r="G84" s="40">
+        <f>($L$23*$G$76)+($A84*$G$76)*$L$24</f>
+        <v>799.55000000000007</v>
+      </c>
+      <c r="H84" s="40">
+        <f>($L$23*$H$76)+($A84*$H$76)*$L$24</f>
+        <v>959.46</v>
+      </c>
+      <c r="J84" s="26">
+        <v>8</v>
+      </c>
+      <c r="K84" s="27"/>
+      <c r="L84" s="40">
+        <f>($L$23*$C$76)+($A84*$C$76)*$N$24</f>
+        <v>279.90999999999997</v>
+      </c>
+      <c r="M84" s="40">
+        <f>($L$23*$D$76)+($A84*$D$76)*$N$24</f>
+        <v>559.81999999999994</v>
+      </c>
+      <c r="N84" s="40">
+        <f>($L$23*$E$76)+($A84*$E$76)*$N$24</f>
+        <v>839.73</v>
+      </c>
+      <c r="O84" s="40">
+        <f>($L$23*$F$76)+($A84*$F$76)*$N$24</f>
+        <v>1119.6399999999999</v>
+      </c>
+      <c r="P84" s="40">
+        <f>($L$23*$G$76)+($A84*$G$76)*$N$24</f>
+        <v>1399.55</v>
+      </c>
+      <c r="Q84" s="40">
+        <f>($L$23*$H$76)+($A84*$H$76)*$N$24</f>
+        <v>1679.46</v>
+      </c>
+      <c r="S84" s="26">
+        <v>8</v>
+      </c>
+      <c r="T84" s="27"/>
+      <c r="U84" s="40">
+        <f>($L$23*$C$76)+($A84*$C$76)*$N$24</f>
+        <v>279.90999999999997</v>
+      </c>
+      <c r="V84" s="40">
+        <f>($L$23*$D$76)+($A84*$D$76)*$N$24</f>
+        <v>559.81999999999994</v>
+      </c>
+      <c r="W84" s="40">
+        <f>($L$23*$E$76)+($A84*$E$76)*$N$24</f>
+        <v>839.73</v>
+      </c>
+      <c r="X84" s="40">
+        <f>($L$23*$F$76)+($A84*$F$76)*$N$24</f>
+        <v>1119.6399999999999</v>
+      </c>
+      <c r="Y84" s="40">
+        <f>($L$23*$G$76)+($A84*$G$76)*$N$24</f>
+        <v>1399.55</v>
+      </c>
+      <c r="Z84" s="40">
+        <f>($L$23*$H$76)+($A84*$H$76)*$N$24</f>
+        <v>1679.46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="26">
+        <v>9</v>
+      </c>
+      <c r="B85" s="27"/>
+      <c r="C85" s="40">
+        <f>($L$23*$C$76)+($A85*$C$76)*$L$24</f>
+        <v>174.9</v>
+      </c>
+      <c r="D85" s="40">
+        <f>($L$23*$D$76)+($A85*$D$76)*$L$24</f>
+        <v>349.8</v>
+      </c>
+      <c r="E85" s="40">
+        <f>($L$23*$E$76)+($A85*$E$76)*$L$24</f>
+        <v>524.70000000000005</v>
+      </c>
+      <c r="F85" s="40">
+        <f>($L$23*$F$76)+($A85*$F$76)*$L$24</f>
+        <v>699.6</v>
+      </c>
+      <c r="G85" s="40">
+        <f>($L$23*$G$76)+($A85*$G$76)*$L$24</f>
+        <v>874.5</v>
+      </c>
+      <c r="H85" s="40">
+        <f>($L$23*$H$76)+($A85*$H$76)*$L$24</f>
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="J85" s="26">
+        <v>9</v>
+      </c>
+      <c r="K85" s="27"/>
+      <c r="L85" s="40">
+        <f>($L$23*$C$76)+($A85*$C$76)*$N$24</f>
+        <v>309.89999999999998</v>
+      </c>
+      <c r="M85" s="40">
+        <f>($L$23*$D$76)+($A85*$D$76)*$N$24</f>
+        <v>619.79999999999995</v>
+      </c>
+      <c r="N85" s="40">
+        <f>($L$23*$E$76)+($A85*$E$76)*$N$24</f>
+        <v>929.69999999999993</v>
+      </c>
+      <c r="O85" s="40">
+        <f>($L$23*$F$76)+($A85*$F$76)*$N$24</f>
+        <v>1239.5999999999999</v>
+      </c>
+      <c r="P85" s="40">
+        <f>($L$23*$G$76)+($A85*$G$76)*$N$24</f>
+        <v>1549.5</v>
+      </c>
+      <c r="Q85" s="40">
+        <f>($L$23*$H$76)+($A85*$H$76)*$N$24</f>
+        <v>1859.3999999999999</v>
+      </c>
+      <c r="S85" s="26">
+        <v>9</v>
+      </c>
+      <c r="T85" s="27"/>
+      <c r="U85" s="40">
+        <f>($L$23*$C$76)+($A85*$C$76)*$N$24</f>
+        <v>309.89999999999998</v>
+      </c>
+      <c r="V85" s="40">
+        <f>($L$23*$D$76)+($A85*$D$76)*$N$24</f>
+        <v>619.79999999999995</v>
+      </c>
+      <c r="W85" s="40">
+        <f>($L$23*$E$76)+($A85*$E$76)*$N$24</f>
+        <v>929.69999999999993</v>
+      </c>
+      <c r="X85" s="40">
+        <f>($L$23*$F$76)+($A85*$F$76)*$N$24</f>
+        <v>1239.5999999999999</v>
+      </c>
+      <c r="Y85" s="40">
+        <f>($L$23*$G$76)+($A85*$G$76)*$N$24</f>
+        <v>1549.5</v>
+      </c>
+      <c r="Z85" s="40">
+        <f>($L$23*$H$76)+($A85*$H$76)*$N$24</f>
+        <v>1859.3999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="26">
+        <v>10</v>
+      </c>
+      <c r="B86" s="27"/>
+      <c r="C86" s="40">
+        <f>($L$23*$C$76)+($A86*$C$76)*$L$24</f>
+        <v>189.89000000000001</v>
+      </c>
+      <c r="D86" s="40">
+        <f>($L$23*$D$76)+($A86*$D$76)*$L$24</f>
+        <v>379.78000000000003</v>
+      </c>
+      <c r="E86" s="40">
+        <f>($L$23*$E$76)+($A86*$E$76)*$L$24</f>
+        <v>569.66999999999996</v>
+      </c>
+      <c r="F86" s="40">
+        <f>($L$23*$F$76)+($A86*$F$76)*$L$24</f>
+        <v>759.56000000000006</v>
+      </c>
+      <c r="G86" s="40">
+        <f>($L$23*$G$76)+($A86*$G$76)*$L$24</f>
+        <v>949.45</v>
+      </c>
+      <c r="H86" s="40">
+        <f>($L$23*$H$76)+($A86*$H$76)*$L$24</f>
+        <v>1139.3399999999999</v>
+      </c>
+      <c r="J86" s="26">
+        <v>10</v>
+      </c>
+      <c r="K86" s="27"/>
+      <c r="L86" s="40">
+        <f>($L$23*$C$76)+($A86*$C$76)*$N$24</f>
+        <v>339.89</v>
+      </c>
+      <c r="M86" s="40">
+        <f>($L$23*$D$76)+($A86*$D$76)*$N$24</f>
+        <v>679.78</v>
+      </c>
+      <c r="N86" s="40">
+        <f>($L$23*$E$76)+($A86*$E$76)*$N$24</f>
+        <v>1019.67</v>
+      </c>
+      <c r="O86" s="40">
+        <f>($L$23*$F$76)+($A86*$F$76)*$N$24</f>
+        <v>1359.56</v>
+      </c>
+      <c r="P86" s="40">
+        <f>($L$23*$G$76)+($A86*$G$76)*$N$24</f>
+        <v>1699.45</v>
+      </c>
+      <c r="Q86" s="40">
+        <f>($L$23*$H$76)+($A86*$H$76)*$N$24</f>
+        <v>2039.34</v>
+      </c>
+      <c r="S86" s="26">
+        <v>10</v>
+      </c>
+      <c r="T86" s="27"/>
+      <c r="U86" s="40">
+        <f>($L$23*$C$76)+($A86*$C$76)*$N$24</f>
+        <v>339.89</v>
+      </c>
+      <c r="V86" s="40">
+        <f>($L$23*$D$76)+($A86*$D$76)*$N$24</f>
+        <v>679.78</v>
+      </c>
+      <c r="W86" s="40">
+        <f>($L$23*$E$76)+($A86*$E$76)*$N$24</f>
+        <v>1019.67</v>
+      </c>
+      <c r="X86" s="40">
+        <f>($L$23*$F$76)+($A86*$F$76)*$N$24</f>
+        <v>1359.56</v>
+      </c>
+      <c r="Y86" s="40">
+        <f>($L$23*$G$76)+($A86*$G$76)*$N$24</f>
+        <v>1699.45</v>
+      </c>
+      <c r="Z86" s="40">
+        <f>($L$23*$H$76)+($A86*$H$76)*$N$24</f>
+        <v>2039.34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="26">
+        <v>11</v>
+      </c>
+      <c r="B87" s="27"/>
+      <c r="C87" s="40">
+        <f>($L$23*$C$76)+($A87*$C$76)*$L$24</f>
+        <v>204.88000000000002</v>
+      </c>
+      <c r="D87" s="40">
+        <f>($L$23*$D$76)+($A87*$D$76)*$L$24</f>
+        <v>409.76000000000005</v>
+      </c>
+      <c r="E87" s="40">
+        <f>($L$23*$E$76)+($A87*$E$76)*$L$24</f>
+        <v>614.64</v>
+      </c>
+      <c r="F87" s="40">
+        <f>($L$23*$F$76)+($A87*$F$76)*$L$24</f>
+        <v>819.5200000000001</v>
+      </c>
+      <c r="G87" s="40">
+        <f>($L$23*$G$76)+($A87*$G$76)*$L$24</f>
+        <v>1024.4000000000001</v>
+      </c>
+      <c r="H87" s="40">
+        <f>($L$23*$H$76)+($A87*$H$76)*$L$24</f>
+        <v>1229.28</v>
+      </c>
+      <c r="J87" s="26">
+        <v>11</v>
+      </c>
+      <c r="K87" s="27"/>
+      <c r="L87" s="40">
+        <f>($L$23*$C$76)+($A87*$C$76)*$N$24</f>
+        <v>369.88</v>
+      </c>
+      <c r="M87" s="40">
+        <f>($L$23*$D$76)+($A87*$D$76)*$N$24</f>
+        <v>739.76</v>
+      </c>
+      <c r="N87" s="40">
+        <f>($L$23*$E$76)+($A87*$E$76)*$N$24</f>
+        <v>1109.6399999999999</v>
+      </c>
+      <c r="O87" s="40">
+        <f>($L$23*$F$76)+($A87*$F$76)*$N$24</f>
+        <v>1479.52</v>
+      </c>
+      <c r="P87" s="40">
+        <f>($L$23*$G$76)+($A87*$G$76)*$N$24</f>
+        <v>1849.3999999999999</v>
+      </c>
+      <c r="Q87" s="40">
+        <f>($L$23*$H$76)+($A87*$H$76)*$N$24</f>
+        <v>2219.2799999999997</v>
+      </c>
+      <c r="S87" s="26">
+        <v>11</v>
+      </c>
+      <c r="T87" s="27"/>
+      <c r="U87" s="40">
+        <f>($L$23*$C$76)+($A87*$C$76)*$N$24</f>
+        <v>369.88</v>
+      </c>
+      <c r="V87" s="40">
+        <f>($L$23*$D$76)+($A87*$D$76)*$N$24</f>
+        <v>739.76</v>
+      </c>
+      <c r="W87" s="40">
+        <f>($L$23*$E$76)+($A87*$E$76)*$N$24</f>
+        <v>1109.6399999999999</v>
+      </c>
+      <c r="X87" s="40">
+        <f>($L$23*$F$76)+($A87*$F$76)*$N$24</f>
+        <v>1479.52</v>
+      </c>
+      <c r="Y87" s="40">
+        <f>($L$23*$G$76)+($A87*$G$76)*$N$24</f>
+        <v>1849.3999999999999</v>
+      </c>
+      <c r="Z87" s="40">
+        <f>($L$23*$H$76)+($A87*$H$76)*$N$24</f>
+        <v>2219.2799999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="26">
+        <v>12</v>
+      </c>
+      <c r="B88" s="27"/>
+      <c r="C88" s="40">
+        <f>($L$23*$C$76)+($A88*$C$76)*$L$24</f>
+        <v>219.87</v>
+      </c>
+      <c r="D88" s="40">
+        <f>($L$23*$D$76)+($A88*$D$76)*$L$24</f>
+        <v>439.74</v>
+      </c>
+      <c r="E88" s="40">
+        <f>($L$23*$E$76)+($A88*$E$76)*$L$24</f>
+        <v>659.61</v>
+      </c>
+      <c r="F88" s="40">
+        <f>($L$23*$F$76)+($A88*$F$76)*$L$24</f>
+        <v>879.48</v>
+      </c>
+      <c r="G88" s="40">
+        <f>($L$23*$G$76)+($A88*$G$76)*$L$24</f>
+        <v>1099.3499999999999</v>
+      </c>
+      <c r="H88" s="40">
+        <f>($L$23*$H$76)+($A88*$H$76)*$L$24</f>
+        <v>1319.22</v>
+      </c>
+      <c r="J88" s="26">
+        <v>12</v>
+      </c>
+      <c r="K88" s="27"/>
+      <c r="L88" s="40">
+        <f>($L$23*$C$76)+($A88*$C$76)*$N$24</f>
+        <v>399.87</v>
+      </c>
+      <c r="M88" s="40">
+        <f>($L$23*$D$76)+($A88*$D$76)*$N$24</f>
+        <v>799.74</v>
+      </c>
+      <c r="N88" s="40">
+        <f>($L$23*$E$76)+($A88*$E$76)*$N$24</f>
+        <v>1199.6099999999999</v>
+      </c>
+      <c r="O88" s="40">
+        <f>($L$23*$F$76)+($A88*$F$76)*$N$24</f>
+        <v>1599.48</v>
+      </c>
+      <c r="P88" s="40">
+        <f>($L$23*$G$76)+($A88*$G$76)*$N$24</f>
+        <v>1999.35</v>
+      </c>
+      <c r="Q88" s="40">
+        <f>($L$23*$H$76)+($A88*$H$76)*$N$24</f>
+        <v>2399.2199999999998</v>
+      </c>
+      <c r="S88" s="26">
+        <v>12</v>
+      </c>
+      <c r="T88" s="27"/>
+      <c r="U88" s="40">
+        <f>($L$23*$C$76)+($A88*$C$76)*$N$24</f>
+        <v>399.87</v>
+      </c>
+      <c r="V88" s="40">
+        <f>($L$23*$D$76)+($A88*$D$76)*$N$24</f>
+        <v>799.74</v>
+      </c>
+      <c r="W88" s="40">
+        <f>($L$23*$E$76)+($A88*$E$76)*$N$24</f>
+        <v>1199.6099999999999</v>
+      </c>
+      <c r="X88" s="40">
+        <f>($L$23*$F$76)+($A88*$F$76)*$N$24</f>
+        <v>1599.48</v>
+      </c>
+      <c r="Y88" s="40">
+        <f>($L$23*$G$76)+($A88*$G$76)*$N$24</f>
+        <v>1999.35</v>
+      </c>
+      <c r="Z88" s="40">
+        <f>($L$23*$H$76)+($A88*$H$76)*$N$24</f>
+        <v>2399.2199999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B107" s="49"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="49"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="49"/>
+      <c r="G107" s="49"/>
+      <c r="H107" s="49"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B108" s="47"/>
+      <c r="C108" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" s="44"/>
+      <c r="C109" s="45">
+        <v>1</v>
+      </c>
+      <c r="D109" s="45">
+        <v>2</v>
+      </c>
+      <c r="E109" s="46">
+        <v>3</v>
+      </c>
+      <c r="F109" s="46">
+        <v>4</v>
+      </c>
+      <c r="G109" s="46">
+        <v>5</v>
+      </c>
+      <c r="H109" s="46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="26">
+        <v>1</v>
+      </c>
+      <c r="B110" s="27"/>
+      <c r="C110" s="48">
+        <f>C77+L77+U77</f>
+        <v>194.94</v>
+      </c>
+      <c r="D110" s="48">
+        <f t="shared" ref="D110:H121" si="1">D77+M77+V77</f>
+        <v>389.88</v>
+      </c>
+      <c r="E110" s="48">
+        <f t="shared" si="1"/>
+        <v>584.81999999999994</v>
+      </c>
+      <c r="F110" s="48">
+        <f t="shared" si="1"/>
+        <v>779.76</v>
+      </c>
+      <c r="G110" s="48">
+        <f t="shared" si="1"/>
+        <v>974.7</v>
+      </c>
+      <c r="H110" s="48">
+        <f>H77+Q77+Z77</f>
+        <v>1169.6399999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="26">
+        <v>2</v>
+      </c>
+      <c r="B111" s="27"/>
+      <c r="C111" s="48">
+        <f t="shared" ref="C111:C120" si="2">C78+L78+U78</f>
+        <v>269.90999999999997</v>
+      </c>
+      <c r="D111" s="48">
+        <f t="shared" si="1"/>
+        <v>539.81999999999994</v>
+      </c>
+      <c r="E111" s="48">
+        <f t="shared" si="1"/>
+        <v>809.7299999999999</v>
+      </c>
+      <c r="F111" s="48">
+        <f t="shared" si="1"/>
+        <v>1079.6399999999999</v>
+      </c>
+      <c r="G111" s="48">
+        <f t="shared" si="1"/>
+        <v>1349.5500000000002</v>
+      </c>
+      <c r="H111" s="48">
+        <f t="shared" ref="H111:H121" si="3">H78+Q78+Z78</f>
+        <v>1619.4599999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="26">
+        <v>3</v>
+      </c>
+      <c r="B112" s="27"/>
+      <c r="C112" s="48">
+        <f t="shared" si="2"/>
+        <v>344.88</v>
+      </c>
+      <c r="D112" s="48">
+        <f t="shared" si="1"/>
+        <v>689.76</v>
+      </c>
+      <c r="E112" s="48">
+        <f t="shared" si="1"/>
+        <v>1034.6399999999999</v>
+      </c>
+      <c r="F112" s="48">
+        <f t="shared" si="1"/>
+        <v>1379.52</v>
+      </c>
+      <c r="G112" s="48">
+        <f t="shared" si="1"/>
+        <v>1724.3999999999999</v>
+      </c>
+      <c r="H112" s="48">
+        <f t="shared" si="3"/>
+        <v>2069.2799999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="26">
+        <v>4</v>
+      </c>
+      <c r="B113" s="27"/>
+      <c r="C113" s="48">
+        <f t="shared" si="2"/>
+        <v>419.84999999999997</v>
+      </c>
+      <c r="D113" s="48">
+        <f t="shared" si="1"/>
+        <v>839.69999999999993</v>
+      </c>
+      <c r="E113" s="48">
+        <f t="shared" si="1"/>
+        <v>1259.5500000000002</v>
+      </c>
+      <c r="F113" s="48">
+        <f t="shared" si="1"/>
+        <v>1679.3999999999999</v>
+      </c>
+      <c r="G113" s="48">
+        <f t="shared" si="1"/>
+        <v>2099.25</v>
+      </c>
+      <c r="H113" s="48">
+        <f t="shared" si="3"/>
+        <v>2519.1000000000004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="26">
+        <v>5</v>
+      </c>
+      <c r="B114" s="27"/>
+      <c r="C114" s="48">
+        <f t="shared" si="2"/>
+        <v>494.82</v>
+      </c>
+      <c r="D114" s="48">
+        <f t="shared" si="1"/>
+        <v>989.64</v>
+      </c>
+      <c r="E114" s="48">
+        <f t="shared" si="1"/>
+        <v>1484.4599999999998</v>
+      </c>
+      <c r="F114" s="48">
+        <f t="shared" si="1"/>
+        <v>1979.28</v>
+      </c>
+      <c r="G114" s="48">
+        <f t="shared" si="1"/>
+        <v>2474.1000000000004</v>
+      </c>
+      <c r="H114" s="48">
+        <f t="shared" si="3"/>
+        <v>2968.9199999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="26">
+        <v>6</v>
+      </c>
+      <c r="B115" s="27"/>
+      <c r="C115" s="48">
+        <f t="shared" si="2"/>
+        <v>569.79</v>
+      </c>
+      <c r="D115" s="48">
+        <f t="shared" si="1"/>
+        <v>1139.58</v>
+      </c>
+      <c r="E115" s="48">
+        <f t="shared" si="1"/>
+        <v>1709.37</v>
+      </c>
+      <c r="F115" s="48">
+        <f t="shared" si="1"/>
+        <v>2279.16</v>
+      </c>
+      <c r="G115" s="48">
+        <f t="shared" si="1"/>
+        <v>2848.95</v>
+      </c>
+      <c r="H115" s="48">
+        <f t="shared" si="3"/>
+        <v>3418.74</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="26">
+        <v>7</v>
+      </c>
+      <c r="B116" s="27"/>
+      <c r="C116" s="48">
+        <f t="shared" si="2"/>
+        <v>644.76</v>
+      </c>
+      <c r="D116" s="48">
+        <f t="shared" si="1"/>
+        <v>1289.52</v>
+      </c>
+      <c r="E116" s="48">
+        <f t="shared" si="1"/>
+        <v>1934.28</v>
+      </c>
+      <c r="F116" s="48">
+        <f t="shared" si="1"/>
+        <v>2579.04</v>
+      </c>
+      <c r="G116" s="48">
+        <f t="shared" si="1"/>
+        <v>3223.7999999999997</v>
+      </c>
+      <c r="H116" s="48">
+        <f t="shared" si="3"/>
+        <v>3868.56</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="26">
+        <v>8</v>
+      </c>
+      <c r="B117" s="27"/>
+      <c r="C117" s="48">
+        <f t="shared" si="2"/>
+        <v>719.7299999999999</v>
+      </c>
+      <c r="D117" s="48">
+        <f t="shared" si="1"/>
+        <v>1439.4599999999998</v>
+      </c>
+      <c r="E117" s="48">
+        <f t="shared" si="1"/>
+        <v>2159.19</v>
+      </c>
+      <c r="F117" s="48">
+        <f t="shared" si="1"/>
+        <v>2878.9199999999996</v>
+      </c>
+      <c r="G117" s="48">
+        <f t="shared" si="1"/>
+        <v>3598.6499999999996</v>
+      </c>
+      <c r="H117" s="48">
+        <f t="shared" si="3"/>
+        <v>4318.38</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="26">
+        <v>9</v>
+      </c>
+      <c r="B118" s="27"/>
+      <c r="C118" s="48">
+        <f t="shared" si="2"/>
+        <v>794.69999999999993</v>
+      </c>
+      <c r="D118" s="48">
+        <f t="shared" si="1"/>
+        <v>1589.3999999999999</v>
+      </c>
+      <c r="E118" s="48">
+        <f t="shared" si="1"/>
+        <v>2384.1</v>
+      </c>
+      <c r="F118" s="48">
+        <f t="shared" si="1"/>
+        <v>3178.7999999999997</v>
+      </c>
+      <c r="G118" s="48">
+        <f t="shared" si="1"/>
+        <v>3973.5</v>
+      </c>
+      <c r="H118" s="48">
+        <f t="shared" si="3"/>
+        <v>4768.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="26">
+        <v>10</v>
+      </c>
+      <c r="B119" s="27"/>
+      <c r="C119" s="48">
+        <f t="shared" si="2"/>
+        <v>869.67</v>
+      </c>
+      <c r="D119" s="48">
+        <f t="shared" si="1"/>
+        <v>1739.34</v>
+      </c>
+      <c r="E119" s="48">
+        <f t="shared" si="1"/>
+        <v>2609.0099999999998</v>
+      </c>
+      <c r="F119" s="48">
+        <f t="shared" si="1"/>
+        <v>3478.68</v>
+      </c>
+      <c r="G119" s="48">
+        <f t="shared" si="1"/>
+        <v>4348.3500000000004</v>
+      </c>
+      <c r="H119" s="48">
+        <f t="shared" si="3"/>
+        <v>5218.0199999999995</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="26">
+        <v>11</v>
+      </c>
+      <c r="B120" s="27"/>
+      <c r="C120" s="48">
+        <f t="shared" si="2"/>
+        <v>944.64</v>
+      </c>
+      <c r="D120" s="48">
+        <f t="shared" si="1"/>
+        <v>1889.28</v>
+      </c>
+      <c r="E120" s="48">
+        <f t="shared" si="1"/>
+        <v>2833.9199999999996</v>
+      </c>
+      <c r="F120" s="48">
+        <f t="shared" si="1"/>
+        <v>3778.56</v>
+      </c>
+      <c r="G120" s="48">
+        <f t="shared" si="1"/>
+        <v>4723.2</v>
+      </c>
+      <c r="H120" s="48">
+        <f t="shared" si="3"/>
+        <v>5667.8399999999992</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="26">
+        <v>12</v>
+      </c>
+      <c r="B121" s="27"/>
+      <c r="C121" s="48">
+        <f>C88+L88+U88</f>
+        <v>1019.61</v>
+      </c>
+      <c r="D121" s="48">
+        <f t="shared" si="1"/>
+        <v>2039.22</v>
+      </c>
+      <c r="E121" s="48">
+        <f t="shared" si="1"/>
+        <v>3058.83</v>
+      </c>
+      <c r="F121" s="48">
+        <f t="shared" si="1"/>
+        <v>4078.44</v>
+      </c>
+      <c r="G121" s="48">
+        <f t="shared" si="1"/>
+        <v>5098.0499999999993</v>
+      </c>
+      <c r="H121" s="48">
+        <f t="shared" si="3"/>
+        <v>6117.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="102">
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="U75:Z75"/>
+    <mergeCell ref="S76:T76"/>
+    <mergeCell ref="S88:T88"/>
+    <mergeCell ref="A107:H107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="S83:T83"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="S85:T85"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="S87:T87"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="S74:Z74"/>
+    <mergeCell ref="S77:T77"/>
+    <mergeCell ref="S78:T78"/>
+    <mergeCell ref="S79:T79"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="S82:T82"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="J74:Q74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:Q75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="K6:O18"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/croc-o-deals-parent/doc/Croc-o-deals-rules-1.0.0.xlsx
+++ b/croc-o-deals-parent/doc/Croc-o-deals-rules-1.0.0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>Normal</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>En considérant que chaque compte direct créé 1 deals chaque mois / sans options</t>
   </si>
 </sst>
 </file>
@@ -547,6 +550,81 @@
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,34 +637,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -612,71 +667,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1324,44 +1327,44 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'[Croc-o-deals-rules-1.0.0.xlsx]Créer un compte PRO'!$A$76:$B$87</c:f>
+              <c:f>'Créer un compte PRO'!$A$76:$B$87</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Au bout de x mois</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1424,41 +1427,41 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'[Croc-o-deals-rules-1.0.0.xlsx]Créer un compte PRO'!$A$76:$B$86</c:f>
+              <c:f>'Créer un compte PRO'!$A$76:$B$86</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>Au bout de x mois</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1521,44 +1524,44 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'[Croc-o-deals-rules-1.0.0.xlsx]Créer un compte PRO'!$A$76:$B$87</c:f>
+              <c:f>'Créer un compte PRO'!$A$76:$B$87</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Au bout de x mois</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1621,44 +1624,44 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'[Croc-o-deals-rules-1.0.0.xlsx]Créer un compte PRO'!$A$76:$B$87</c:f>
+              <c:f>'Créer un compte PRO'!$A$76:$B$87</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Au bout de x mois</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1721,44 +1724,44 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'[Croc-o-deals-rules-1.0.0.xlsx]Créer un compte PRO'!$A$76:$B$87</c:f>
+              <c:f>'Créer un compte PRO'!$A$76:$B$87</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Au bout de x mois</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1821,44 +1824,44 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'[Croc-o-deals-rules-1.0.0.xlsx]Créer un compte PRO'!$A$76:$B$87</c:f>
+              <c:f>'Créer un compte PRO'!$A$76:$B$87</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Au bout de x mois</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1911,7 +1914,6 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="l"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1919,11 +1921,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="78097216"/>
-        <c:axId val="134768896"/>
+        <c:axId val="73449472"/>
+        <c:axId val="73450048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78097216"/>
+        <c:axId val="73449472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1938,12 +1940,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134768896"/>
+        <c:crossAx val="73450048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134768896"/>
+        <c:axId val="73450048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1954,7 +1956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78097216"/>
+        <c:crossAx val="73449472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2389,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2406,2349 +2408,2295 @@
   </cols>
   <sheetData>
     <row r="2" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="49"/>
+      <c r="N2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="15"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="46">
         <v>14.99</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="11">
+      <c r="M3" s="48"/>
+      <c r="N3" s="46">
         <v>29.99</v>
       </c>
-      <c r="O3" s="13"/>
+      <c r="O3" s="48"/>
     </row>
     <row r="4" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="46">
         <v>29.99</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="48"/>
     </row>
     <row r="6" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="39"/>
     </row>
     <row r="7" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="42"/>
     </row>
     <row r="9" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="42"/>
     </row>
     <row r="10" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="42"/>
     </row>
     <row r="11" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="42"/>
     </row>
     <row r="12" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="42"/>
     </row>
     <row r="13" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="42"/>
     </row>
     <row r="14" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K14" s="18"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="20"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="42"/>
     </row>
     <row r="15" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K15" s="18"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="20"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="42"/>
     </row>
     <row r="16" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="20"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="42"/>
     </row>
     <row r="17" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K17" s="18"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="20"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="42"/>
     </row>
     <row r="18" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="23"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="45"/>
     </row>
     <row r="22" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="3" t="s">
+      <c r="M22" s="33"/>
+      <c r="N22" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="25" t="s">
+      <c r="O22" s="35"/>
+      <c r="P22" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="25"/>
+      <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="30">
+      <c r="L23" s="29">
         <v>39.99</v>
       </c>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="32"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="31"/>
     </row>
     <row r="24" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="28">
+      <c r="L24" s="27">
         <v>14.99</v>
       </c>
-      <c r="M24" s="29"/>
-      <c r="N24" s="28">
+      <c r="M24" s="28"/>
+      <c r="N24" s="27">
         <v>29.99</v>
       </c>
-      <c r="O24" s="29"/>
-      <c r="P24" s="33">
+      <c r="O24" s="28"/>
+      <c r="P24" s="19">
         <v>0</v>
       </c>
-      <c r="Q24" s="34"/>
+      <c r="Q24" s="20"/>
     </row>
     <row r="25" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="50">
+      <c r="L25" s="17">
         <v>0</v>
       </c>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50">
+      <c r="M25" s="17"/>
+      <c r="N25" s="17">
         <v>0</v>
       </c>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50">
+      <c r="O25" s="17"/>
+      <c r="P25" s="17">
         <v>6.99</v>
       </c>
-      <c r="Q25" s="50"/>
+      <c r="Q25" s="17"/>
     </row>
     <row r="26" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="23">
         <v>0</v>
       </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="8">
+      <c r="M26" s="24"/>
+      <c r="N26" s="23">
         <v>2</v>
       </c>
-      <c r="O26" s="9"/>
-      <c r="P26" s="8">
+      <c r="O26" s="24"/>
+      <c r="P26" s="23">
         <v>0</v>
       </c>
-      <c r="Q26" s="9"/>
+      <c r="Q26" s="24"/>
     </row>
     <row r="27" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="23">
         <v>1</v>
       </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="8" t="s">
+      <c r="M27" s="24"/>
+      <c r="N27" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="O27" s="9"/>
-      <c r="P27" s="8">
+      <c r="O27" s="24"/>
+      <c r="P27" s="23">
         <v>1</v>
       </c>
-      <c r="Q27" s="9"/>
+      <c r="Q27" s="24"/>
     </row>
     <row r="28" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L28" s="26" t="s">
+      <c r="L28" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M28" s="27"/>
-      <c r="N28" s="26" t="s">
+      <c r="M28" s="11"/>
+      <c r="N28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O28" s="27"/>
-      <c r="P28" s="26" t="s">
+      <c r="O28" s="11"/>
+      <c r="P28" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q28" s="27"/>
+      <c r="Q28" s="11"/>
     </row>
     <row r="29" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="25">
         <v>2.4900000000000002</v>
       </c>
-      <c r="M29" s="14"/>
-      <c r="N29" s="10" t="s">
+      <c r="M29" s="25"/>
+      <c r="N29" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="O29" s="10"/>
-      <c r="P29" s="14">
+      <c r="O29" s="26"/>
+      <c r="P29" s="25">
         <v>2.4900000000000002</v>
       </c>
-      <c r="Q29" s="14"/>
+      <c r="Q29" s="25"/>
     </row>
     <row r="30" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L30" s="25">
         <v>6.99</v>
       </c>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14">
+      <c r="M30" s="25"/>
+      <c r="N30" s="25">
         <v>6.99</v>
       </c>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14">
+      <c r="O30" s="25"/>
+      <c r="P30" s="25">
         <v>6.99</v>
       </c>
-      <c r="Q30" s="14"/>
+      <c r="Q30" s="25"/>
     </row>
     <row r="31" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L31" s="25">
         <v>2.99</v>
       </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="10" t="s">
+      <c r="M31" s="25"/>
+      <c r="N31" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="O31" s="10"/>
-      <c r="P31" s="14">
+      <c r="O31" s="26"/>
+      <c r="P31" s="25">
         <v>2.99</v>
       </c>
-      <c r="Q31" s="14"/>
+      <c r="Q31" s="25"/>
     </row>
     <row r="35" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K35" s="35" t="s">
+      <c r="K35" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="36"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="22"/>
     </row>
     <row r="36" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K36" s="37" t="s">
+      <c r="K36" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
     </row>
     <row r="37" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K37" s="38" t="s">
+      <c r="K37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="4">
         <v>6</v>
       </c>
-      <c r="M37" s="40">
+      <c r="M37" s="5">
         <f>L37 * $L$23</f>
         <v>239.94</v>
       </c>
-      <c r="N37" s="41" t="s">
+      <c r="N37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O37" s="40">
+      <c r="O37" s="5">
         <f>SUM(M37:M45)</f>
         <v>959.56999999999994</v>
       </c>
     </row>
     <row r="38" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K38" s="6" t="s">
+      <c r="K38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="39">
+      <c r="L38" s="4">
         <v>4</v>
       </c>
-      <c r="M38" s="40">
+      <c r="M38" s="5">
         <f>L38*$L$23</f>
         <v>159.96</v>
       </c>
-      <c r="N38" s="41" t="s">
+      <c r="N38" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O38" s="40">
+      <c r="O38" s="5">
         <f>O37*12</f>
         <v>11514.84</v>
       </c>
     </row>
     <row r="39" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K39" s="38" t="s">
+      <c r="K39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L39" s="39">
+      <c r="L39" s="4">
         <v>2</v>
       </c>
-      <c r="M39" s="40">
+      <c r="M39" s="5">
         <f>L39*$L$23</f>
         <v>79.98</v>
       </c>
     </row>
     <row r="40" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K40" s="6" t="s">
+      <c r="K40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="39">
+      <c r="L40" s="4">
         <v>12</v>
       </c>
-      <c r="M40" s="40">
+      <c r="M40" s="5">
         <f>L40*$L$24</f>
         <v>179.88</v>
       </c>
     </row>
     <row r="41" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K41" s="38" t="s">
+      <c r="K41" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L41" s="39">
+      <c r="L41" s="4">
         <v>8</v>
       </c>
-      <c r="M41" s="40">
+      <c r="M41" s="5">
         <f>L41*$N$24</f>
         <v>239.92</v>
       </c>
     </row>
     <row r="42" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K42" s="6" t="s">
+      <c r="K42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L42" s="39">
+      <c r="L42" s="4">
         <v>6</v>
       </c>
-      <c r="M42" s="40">
+      <c r="M42" s="5">
         <f>L42*$P$25</f>
         <v>41.94</v>
       </c>
     </row>
     <row r="43" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K43" s="38" t="s">
+      <c r="K43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L43" s="39">
+      <c r="L43" s="4">
         <v>2</v>
       </c>
-      <c r="M43" s="40">
+      <c r="M43" s="5">
         <f>L43*$L$29</f>
         <v>4.9800000000000004</v>
       </c>
     </row>
     <row r="44" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K44" s="6" t="s">
+      <c r="K44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="39">
+      <c r="L44" s="4">
         <v>1</v>
       </c>
-      <c r="M44" s="40">
+      <c r="M44" s="5">
         <f>L44*$L$30</f>
         <v>6.99</v>
       </c>
     </row>
     <row r="45" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K45" s="38" t="s">
+      <c r="K45" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L45" s="39">
+      <c r="L45" s="4">
         <v>2</v>
       </c>
-      <c r="M45" s="40">
+      <c r="M45" s="5">
         <f>L31*$L$45</f>
         <v>5.98</v>
       </c>
     </row>
     <row r="47" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K47" s="37" t="s">
+      <c r="K47" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
     </row>
     <row r="48" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K48" s="38" t="s">
+      <c r="K48" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="39">
+      <c r="L48" s="4">
         <v>8</v>
       </c>
-      <c r="M48" s="40">
+      <c r="M48" s="5">
         <f>L48 * $L$23</f>
         <v>319.92</v>
       </c>
-      <c r="N48" s="41" t="s">
+      <c r="N48" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O48" s="40">
+      <c r="O48" s="5">
         <f>SUM(M48:M56)</f>
         <v>2154.96</v>
       </c>
     </row>
     <row r="49" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K49" s="6" t="s">
+      <c r="K49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="39">
+      <c r="L49" s="4">
         <v>6</v>
       </c>
-      <c r="M49" s="40">
+      <c r="M49" s="5">
         <f>L49*$L$23</f>
         <v>239.94</v>
       </c>
-      <c r="N49" s="41" t="s">
+      <c r="N49" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O49" s="40">
+      <c r="O49" s="5">
         <f>O48*12</f>
         <v>25859.52</v>
       </c>
     </row>
     <row r="50" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K50" s="38" t="s">
+      <c r="K50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L50" s="39">
+      <c r="L50" s="4">
         <v>4</v>
       </c>
-      <c r="M50" s="40">
+      <c r="M50" s="5">
         <f>L50*$L$23</f>
         <v>159.96</v>
       </c>
     </row>
     <row r="51" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K51" s="6" t="s">
+      <c r="K51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L51" s="39">
+      <c r="L51" s="4">
         <v>36</v>
       </c>
-      <c r="M51" s="40">
+      <c r="M51" s="5">
         <f>L51*$L$24</f>
         <v>539.64</v>
       </c>
     </row>
     <row r="52" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K52" s="38" t="s">
+      <c r="K52" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L52" s="39">
+      <c r="L52" s="4">
         <v>24</v>
       </c>
-      <c r="M52" s="40">
+      <c r="M52" s="5">
         <f>L52*$N$24</f>
         <v>719.76</v>
       </c>
     </row>
     <row r="53" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K53" s="6" t="s">
+      <c r="K53" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L53" s="39">
+      <c r="L53" s="4">
         <v>16</v>
       </c>
-      <c r="M53" s="40">
+      <c r="M53" s="5">
         <f>L53*$P$25</f>
         <v>111.84</v>
       </c>
     </row>
     <row r="54" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K54" s="38" t="s">
+      <c r="K54" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L54" s="39">
+      <c r="L54" s="4">
         <v>4</v>
       </c>
-      <c r="M54" s="40">
+      <c r="M54" s="5">
         <f>L54*$L$29</f>
         <v>9.9600000000000009</v>
       </c>
     </row>
     <row r="55" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K55" s="6" t="s">
+      <c r="K55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L55" s="39">
+      <c r="L55" s="4">
         <v>6</v>
       </c>
-      <c r="M55" s="40">
+      <c r="M55" s="5">
         <f>L55*$L$30</f>
         <v>41.94</v>
       </c>
     </row>
     <row r="56" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K56" s="38" t="s">
+      <c r="K56" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L56" s="39">
+      <c r="L56" s="4">
         <v>8</v>
       </c>
-      <c r="M56" s="40">
+      <c r="M56" s="5">
         <f>L42*$L$45</f>
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K58" s="37" t="s">
+      <c r="K58" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
     </row>
     <row r="59" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K59" s="38" t="s">
+      <c r="K59" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L59" s="39">
+      <c r="L59" s="4">
         <v>10</v>
       </c>
-      <c r="M59" s="40">
+      <c r="M59" s="5">
         <f>L59 * $L$23</f>
         <v>399.90000000000003</v>
       </c>
-      <c r="N59" s="41" t="s">
+      <c r="N59" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O59" s="40">
+      <c r="O59" s="5">
         <f>SUM(M59:M67)</f>
         <v>3805.1</v>
       </c>
     </row>
     <row r="60" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K60" s="6" t="s">
+      <c r="K60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L60" s="39">
+      <c r="L60" s="4">
         <v>8</v>
       </c>
-      <c r="M60" s="40">
+      <c r="M60" s="5">
         <f>L60*$L$23</f>
         <v>319.92</v>
       </c>
-      <c r="N60" s="41" t="s">
+      <c r="N60" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O60" s="40">
+      <c r="O60" s="5">
         <f>O59*12</f>
         <v>45661.2</v>
       </c>
     </row>
     <row r="61" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K61" s="38" t="s">
+      <c r="K61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L61" s="39">
+      <c r="L61" s="4">
         <v>6</v>
       </c>
-      <c r="M61" s="40">
+      <c r="M61" s="5">
         <f>L61*$L$23</f>
         <v>239.94</v>
       </c>
     </row>
     <row r="62" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K62" s="6" t="s">
+      <c r="K62" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L62" s="39">
+      <c r="L62" s="4">
         <v>72</v>
       </c>
-      <c r="M62" s="40">
+      <c r="M62" s="5">
         <f>L62*$L$24</f>
         <v>1079.28</v>
       </c>
     </row>
     <row r="63" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K63" s="38" t="s">
+      <c r="K63" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L63" s="39">
+      <c r="L63" s="4">
         <v>48</v>
       </c>
-      <c r="M63" s="40">
+      <c r="M63" s="5">
         <f>L63*$N$24</f>
         <v>1439.52</v>
       </c>
     </row>
     <row r="64" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K64" s="6" t="s">
+      <c r="K64" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L64" s="39">
+      <c r="L64" s="4">
         <v>32</v>
       </c>
-      <c r="M64" s="40">
+      <c r="M64" s="5">
         <f>L64*$P$25</f>
         <v>223.68</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K65" s="38" t="s">
+      <c r="K65" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L65" s="39">
+      <c r="L65" s="4">
         <v>6</v>
       </c>
-      <c r="M65" s="40">
+      <c r="M65" s="5">
         <f>L65*$L$29</f>
         <v>14.940000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K66" s="6" t="s">
+      <c r="K66" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L66" s="39">
+      <c r="L66" s="4">
         <v>8</v>
       </c>
-      <c r="M66" s="40">
+      <c r="M66" s="5">
         <f>L66*$L$30</f>
         <v>55.92</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K67" s="38" t="s">
+      <c r="K67" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L67" s="39">
+      <c r="L67" s="4">
         <v>10</v>
       </c>
-      <c r="M67" s="40">
+      <c r="M67" s="5">
         <f>L53*$L$45</f>
         <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="49" t="s">
+      <c r="A74" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="J74" s="49" t="s">
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="J74" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="49"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="49"/>
-      <c r="O74" s="49"/>
-      <c r="P74" s="49"/>
-      <c r="Q74" s="49"/>
-      <c r="S74" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="T74" s="49"/>
-      <c r="U74" s="49"/>
-      <c r="V74" s="49"/>
-      <c r="W74" s="49"/>
-      <c r="X74" s="49"/>
-      <c r="Y74" s="49"/>
-      <c r="Z74" s="49"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="S74" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="16"/>
+      <c r="W74" s="16"/>
+      <c r="X74" s="16"/>
+      <c r="Y74" s="16"/>
+      <c r="Z74" s="16"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="47"/>
-      <c r="C75" s="42" t="s">
+      <c r="B75" s="14"/>
+      <c r="C75" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="J75" s="47" t="s">
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="J75" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K75" s="47"/>
-      <c r="L75" s="42" t="s">
+      <c r="K75" s="14"/>
+      <c r="L75" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M75" s="42"/>
-      <c r="N75" s="42"/>
-      <c r="O75" s="42"/>
-      <c r="P75" s="42"/>
-      <c r="Q75" s="42"/>
-      <c r="S75" s="47" t="s">
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="S75" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="T75" s="47"/>
-      <c r="U75" s="42" t="s">
+      <c r="T75" s="14"/>
+      <c r="U75" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="V75" s="42"/>
-      <c r="W75" s="42"/>
-      <c r="X75" s="42"/>
-      <c r="Y75" s="42"/>
-      <c r="Z75" s="42"/>
+      <c r="V75" s="15"/>
+      <c r="W75" s="15"/>
+      <c r="X75" s="15"/>
+      <c r="Y75" s="15"/>
+      <c r="Z75" s="15"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="43" t="s">
+      <c r="A76" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="44"/>
-      <c r="C76" s="45">
+      <c r="B76" s="13"/>
+      <c r="C76" s="7">
         <v>1</v>
       </c>
-      <c r="D76" s="45">
+      <c r="D76" s="7">
         <v>2</v>
       </c>
-      <c r="E76" s="46">
+      <c r="E76" s="8">
         <v>3</v>
       </c>
-      <c r="F76" s="46">
+      <c r="F76" s="8">
         <v>4</v>
       </c>
-      <c r="G76" s="46">
+      <c r="G76" s="8">
         <v>5</v>
       </c>
-      <c r="H76" s="46">
+      <c r="H76" s="8">
         <v>6</v>
       </c>
-      <c r="J76" s="43" t="s">
+      <c r="J76" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K76" s="44"/>
-      <c r="L76" s="45">
+      <c r="K76" s="13"/>
+      <c r="L76" s="7">
         <v>1</v>
       </c>
-      <c r="M76" s="45">
+      <c r="M76" s="7">
         <v>2</v>
       </c>
-      <c r="N76" s="46">
+      <c r="N76" s="8">
         <v>3</v>
       </c>
-      <c r="O76" s="46">
+      <c r="O76" s="8">
         <v>4</v>
       </c>
-      <c r="P76" s="46">
+      <c r="P76" s="8">
         <v>5</v>
       </c>
-      <c r="Q76" s="46">
+      <c r="Q76" s="8">
         <v>6</v>
       </c>
-      <c r="S76" s="43" t="s">
+      <c r="S76" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="T76" s="44"/>
-      <c r="U76" s="45">
+      <c r="T76" s="13"/>
+      <c r="U76" s="7">
         <v>1</v>
       </c>
-      <c r="V76" s="45">
+      <c r="V76" s="7">
         <v>2</v>
       </c>
-      <c r="W76" s="46">
+      <c r="W76" s="8">
         <v>3</v>
       </c>
-      <c r="X76" s="46">
+      <c r="X76" s="8">
         <v>4</v>
       </c>
-      <c r="Y76" s="46">
+      <c r="Y76" s="8">
         <v>5</v>
       </c>
-      <c r="Z76" s="46">
+      <c r="Z76" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="26">
+      <c r="A77" s="10">
         <v>1</v>
       </c>
-      <c r="B77" s="27"/>
-      <c r="C77" s="48">
+      <c r="B77" s="11"/>
+      <c r="C77" s="9">
         <f>C76 * ($L$23 +$L$24)</f>
         <v>54.980000000000004</v>
       </c>
-      <c r="D77" s="48">
+      <c r="D77" s="9">
         <f t="shared" ref="D77:H77" si="0">D76 * ($L$23 +$L$24)</f>
         <v>109.96000000000001</v>
       </c>
-      <c r="E77" s="48">
+      <c r="E77" s="9">
         <f t="shared" si="0"/>
         <v>164.94</v>
       </c>
-      <c r="F77" s="48">
+      <c r="F77" s="9">
         <f t="shared" si="0"/>
         <v>219.92000000000002</v>
       </c>
-      <c r="G77" s="48">
+      <c r="G77" s="9">
         <f t="shared" si="0"/>
         <v>274.90000000000003</v>
       </c>
-      <c r="H77" s="48">
+      <c r="H77" s="9">
         <f t="shared" si="0"/>
         <v>329.88</v>
       </c>
-      <c r="J77" s="26">
+      <c r="J77" s="10">
         <v>1</v>
       </c>
-      <c r="K77" s="27"/>
-      <c r="L77" s="48">
-        <f>L76 * ($L$23 +$N$24)</f>
+      <c r="K77" s="11"/>
+      <c r="L77" s="9">
+        <f t="shared" ref="L77:Q77" si="1">L76 * ($L$23 +$N$24)</f>
         <v>69.98</v>
       </c>
-      <c r="M77" s="48">
-        <f>M76 * ($L$23 +$N$24)</f>
+      <c r="M77" s="9">
+        <f t="shared" si="1"/>
         <v>139.96</v>
       </c>
-      <c r="N77" s="48">
-        <f>N76 * ($L$23 +$N$24)</f>
+      <c r="N77" s="9">
+        <f t="shared" si="1"/>
         <v>209.94</v>
       </c>
-      <c r="O77" s="48">
-        <f>O76 * ($L$23 +$N$24)</f>
+      <c r="O77" s="9">
+        <f t="shared" si="1"/>
         <v>279.92</v>
       </c>
-      <c r="P77" s="48">
-        <f>P76 * ($L$23 +$N$24)</f>
+      <c r="P77" s="9">
+        <f t="shared" si="1"/>
         <v>349.90000000000003</v>
       </c>
-      <c r="Q77" s="48">
-        <f>Q76 * ($L$23 +$N$24)</f>
+      <c r="Q77" s="9">
+        <f t="shared" si="1"/>
         <v>419.88</v>
       </c>
-      <c r="S77" s="26">
+      <c r="S77" s="10">
         <v>1</v>
       </c>
-      <c r="T77" s="27"/>
-      <c r="U77" s="48">
-        <f>U76 * ($L$23 +$N$24)</f>
-        <v>69.98</v>
-      </c>
-      <c r="V77" s="48">
-        <f>V76 * ($L$23 +$N$24)</f>
-        <v>139.96</v>
-      </c>
-      <c r="W77" s="48">
-        <f>W76 * ($L$23 +$N$24)</f>
-        <v>209.94</v>
-      </c>
-      <c r="X77" s="48">
-        <f>X76 * ($L$23 +$N$24)</f>
-        <v>279.92</v>
-      </c>
-      <c r="Y77" s="48">
-        <f>Y76 * ($L$23 +$N$24)</f>
-        <v>349.90000000000003</v>
-      </c>
-      <c r="Z77" s="48">
-        <f>Z76 * ($L$23 +$N$24)</f>
-        <v>419.88</v>
+      <c r="T77" s="11"/>
+      <c r="U77" s="9">
+        <f>U76 * ($L$23 +$P$25)</f>
+        <v>46.980000000000004</v>
+      </c>
+      <c r="V77" s="9">
+        <f>V76 * ($L$23 +$P$25)</f>
+        <v>93.960000000000008</v>
+      </c>
+      <c r="W77" s="9">
+        <f>W76 * ($L$23 +$P$25)</f>
+        <v>140.94</v>
+      </c>
+      <c r="X77" s="9">
+        <f>X76 * ($L$23 +$P$25)</f>
+        <v>187.92000000000002</v>
+      </c>
+      <c r="Y77" s="9">
+        <f>Y76 * ($L$23 +$P$25)</f>
+        <v>234.90000000000003</v>
+      </c>
+      <c r="Z77" s="9">
+        <f>Z76 * ($L$23 +$P$25)</f>
+        <v>281.88</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="26">
+      <c r="A78" s="10">
         <v>2</v>
       </c>
-      <c r="B78" s="27"/>
-      <c r="C78" s="40">
-        <f>($L$23*$C$76)+($A78*$C$76)*$L$24</f>
+      <c r="B78" s="11"/>
+      <c r="C78" s="5">
+        <f t="shared" ref="C78:C88" si="2">($L$23*$C$76)+($A78*$C$76)*$L$24</f>
         <v>69.97</v>
       </c>
-      <c r="D78" s="40">
-        <f>($L$23*$D$76)+($A78*$D$76)*$L$24</f>
+      <c r="D78" s="5">
+        <f t="shared" ref="D78:D88" si="3">($L$23*$D$76)+($A78*$D$76)*$L$24</f>
         <v>139.94</v>
       </c>
-      <c r="E78" s="40">
-        <f>($L$23*$E$76)+($A78*$E$76)*$L$24</f>
+      <c r="E78" s="5">
+        <f t="shared" ref="E78:E88" si="4">($L$23*$E$76)+($A78*$E$76)*$L$24</f>
         <v>209.91</v>
       </c>
-      <c r="F78" s="40">
-        <f>($L$23*$F$76)+($A78*$F$76)*$L$24</f>
+      <c r="F78" s="5">
+        <f t="shared" ref="F78:F88" si="5">($L$23*$F$76)+($A78*$F$76)*$L$24</f>
         <v>279.88</v>
       </c>
-      <c r="G78" s="40">
-        <f>($L$23*$G$76)+($A78*$G$76)*$L$24</f>
+      <c r="G78" s="5">
+        <f t="shared" ref="G78:G88" si="6">($L$23*$G$76)+($A78*$G$76)*$L$24</f>
         <v>349.85</v>
       </c>
-      <c r="H78" s="40">
-        <f>($L$23*$H$76)+($A78*$H$76)*$L$24</f>
+      <c r="H78" s="5">
+        <f t="shared" ref="H78:H88" si="7">($L$23*$H$76)+($A78*$H$76)*$L$24</f>
         <v>419.82</v>
       </c>
-      <c r="J78" s="26">
+      <c r="J78" s="10">
         <v>2</v>
       </c>
-      <c r="K78" s="27"/>
-      <c r="L78" s="40">
-        <f>($L$23*$C$76)+($A78*$C$76)*$N$24</f>
+      <c r="K78" s="11"/>
+      <c r="L78" s="5">
+        <f t="shared" ref="L78:L88" si="8">($L$23*$C$76)+($A78*$C$76)*$N$24</f>
         <v>99.97</v>
       </c>
-      <c r="M78" s="40">
-        <f>($L$23*$D$76)+($A78*$D$76)*$N$24</f>
+      <c r="M78" s="5">
+        <f t="shared" ref="M78:M88" si="9">($L$23*$D$76)+($A78*$D$76)*$N$24</f>
         <v>199.94</v>
       </c>
-      <c r="N78" s="40">
-        <f>($L$23*$E$76)+($A78*$E$76)*$N$24</f>
+      <c r="N78" s="5">
+        <f t="shared" ref="N78:N88" si="10">($L$23*$E$76)+($A78*$E$76)*$N$24</f>
         <v>299.90999999999997</v>
       </c>
-      <c r="O78" s="40">
-        <f>($L$23*$F$76)+($A78*$F$76)*$N$24</f>
+      <c r="O78" s="5">
+        <f t="shared" ref="O78:O88" si="11">($L$23*$F$76)+($A78*$F$76)*$N$24</f>
         <v>399.88</v>
       </c>
-      <c r="P78" s="40">
-        <f>($L$23*$G$76)+($A78*$G$76)*$N$24</f>
+      <c r="P78" s="5">
+        <f t="shared" ref="P78:P88" si="12">($L$23*$G$76)+($A78*$G$76)*$N$24</f>
         <v>499.85</v>
       </c>
-      <c r="Q78" s="40">
-        <f>($L$23*$H$76)+($A78*$H$76)*$N$24</f>
+      <c r="Q78" s="5">
+        <f t="shared" ref="Q78:Q88" si="13">($L$23*$H$76)+($A78*$H$76)*$N$24</f>
         <v>599.81999999999994</v>
       </c>
-      <c r="S78" s="26">
+      <c r="S78" s="10">
         <v>2</v>
       </c>
-      <c r="T78" s="27"/>
-      <c r="U78" s="40">
-        <f>($L$23*$C$76)+($A78*$C$76)*$N$24</f>
-        <v>99.97</v>
-      </c>
-      <c r="V78" s="40">
-        <f>($L$23*$D$76)+($A78*$D$76)*$N$24</f>
-        <v>199.94</v>
-      </c>
-      <c r="W78" s="40">
-        <f>($L$23*$E$76)+($A78*$E$76)*$N$24</f>
-        <v>299.90999999999997</v>
-      </c>
-      <c r="X78" s="40">
-        <f>($L$23*$F$76)+($A78*$F$76)*$N$24</f>
-        <v>399.88</v>
-      </c>
-      <c r="Y78" s="40">
-        <f>($L$23*$G$76)+($A78*$G$76)*$N$24</f>
-        <v>499.85</v>
-      </c>
-      <c r="Z78" s="40">
-        <f>($L$23*$H$76)+($A78*$H$76)*$N$24</f>
-        <v>599.81999999999994</v>
+      <c r="T78" s="11"/>
+      <c r="U78" s="5">
+        <f>($L$23*$C$76)+($A78*$C$76)*$P$25</f>
+        <v>53.97</v>
+      </c>
+      <c r="V78" s="5">
+        <f>($L$23*$D$76)+($A78*$D$76)*$P$25</f>
+        <v>107.94</v>
+      </c>
+      <c r="W78" s="5">
+        <f>($L$23*$E$76)+($A78*$E$76)*$P$25</f>
+        <v>161.91</v>
+      </c>
+      <c r="X78" s="5">
+        <f>($L$23*$F$76)+($A78*$F$76)*$P$25</f>
+        <v>215.88</v>
+      </c>
+      <c r="Y78" s="5">
+        <f>($L$23*$G$76)+($A78*$G$76)*$P$25</f>
+        <v>269.85000000000002</v>
+      </c>
+      <c r="Z78" s="5">
+        <f>($L$23*$H$76)+($A78*$H$76)*$P$25</f>
+        <v>323.82</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" s="26">
+      <c r="A79" s="10">
         <v>3</v>
       </c>
-      <c r="B79" s="27"/>
-      <c r="C79" s="40">
-        <f>($L$23*$C$76)+($A79*$C$76)*$L$24</f>
+      <c r="B79" s="11"/>
+      <c r="C79" s="5">
+        <f t="shared" si="2"/>
         <v>84.960000000000008</v>
       </c>
-      <c r="D79" s="40">
-        <f>($L$23*$D$76)+($A79*$D$76)*$L$24</f>
+      <c r="D79" s="5">
+        <f t="shared" si="3"/>
         <v>169.92000000000002</v>
       </c>
-      <c r="E79" s="40">
-        <f>($L$23*$E$76)+($A79*$E$76)*$L$24</f>
+      <c r="E79" s="5">
+        <f t="shared" si="4"/>
         <v>254.88</v>
       </c>
-      <c r="F79" s="40">
-        <f>($L$23*$F$76)+($A79*$F$76)*$L$24</f>
+      <c r="F79" s="5">
+        <f t="shared" si="5"/>
         <v>339.84000000000003</v>
       </c>
-      <c r="G79" s="40">
-        <f>($L$23*$G$76)+($A79*$G$76)*$L$24</f>
+      <c r="G79" s="5">
+        <f t="shared" si="6"/>
         <v>424.8</v>
       </c>
-      <c r="H79" s="40">
-        <f>($L$23*$H$76)+($A79*$H$76)*$L$24</f>
+      <c r="H79" s="5">
+        <f t="shared" si="7"/>
         <v>509.76</v>
       </c>
-      <c r="J79" s="26">
+      <c r="J79" s="10">
         <v>3</v>
       </c>
-      <c r="K79" s="27"/>
-      <c r="L79" s="40">
-        <f>($L$23*$C$76)+($A79*$C$76)*$N$24</f>
+      <c r="K79" s="11"/>
+      <c r="L79" s="5">
+        <f t="shared" si="8"/>
         <v>129.96</v>
       </c>
-      <c r="M79" s="40">
-        <f>($L$23*$D$76)+($A79*$D$76)*$N$24</f>
+      <c r="M79" s="5">
+        <f t="shared" si="9"/>
         <v>259.92</v>
       </c>
-      <c r="N79" s="40">
-        <f>($L$23*$E$76)+($A79*$E$76)*$N$24</f>
+      <c r="N79" s="5">
+        <f t="shared" si="10"/>
         <v>389.88</v>
       </c>
-      <c r="O79" s="40">
-        <f>($L$23*$F$76)+($A79*$F$76)*$N$24</f>
+      <c r="O79" s="5">
+        <f t="shared" si="11"/>
         <v>519.84</v>
       </c>
-      <c r="P79" s="40">
-        <f>($L$23*$G$76)+($A79*$G$76)*$N$24</f>
+      <c r="P79" s="5">
+        <f t="shared" si="12"/>
         <v>649.79999999999995</v>
       </c>
-      <c r="Q79" s="40">
-        <f>($L$23*$H$76)+($A79*$H$76)*$N$24</f>
+      <c r="Q79" s="5">
+        <f t="shared" si="13"/>
         <v>779.76</v>
       </c>
-      <c r="S79" s="26">
+      <c r="S79" s="10">
         <v>3</v>
       </c>
-      <c r="T79" s="27"/>
-      <c r="U79" s="40">
-        <f>($L$23*$C$76)+($A79*$C$76)*$N$24</f>
-        <v>129.96</v>
-      </c>
-      <c r="V79" s="40">
-        <f>($L$23*$D$76)+($A79*$D$76)*$N$24</f>
-        <v>259.92</v>
-      </c>
-      <c r="W79" s="40">
-        <f>($L$23*$E$76)+($A79*$E$76)*$N$24</f>
-        <v>389.88</v>
-      </c>
-      <c r="X79" s="40">
-        <f>($L$23*$F$76)+($A79*$F$76)*$N$24</f>
-        <v>519.84</v>
-      </c>
-      <c r="Y79" s="40">
-        <f>($L$23*$G$76)+($A79*$G$76)*$N$24</f>
-        <v>649.79999999999995</v>
-      </c>
-      <c r="Z79" s="40">
-        <f>($L$23*$H$76)+($A79*$H$76)*$N$24</f>
-        <v>779.76</v>
+      <c r="T79" s="11"/>
+      <c r="U79" s="5">
+        <f t="shared" ref="U79:U88" si="14">($L$23*$C$76)+($A79*$C$76)*$P$25</f>
+        <v>60.96</v>
+      </c>
+      <c r="V79" s="5">
+        <f t="shared" ref="V79:V88" si="15">($L$23*$D$76)+($A79*$D$76)*$P$25</f>
+        <v>121.92</v>
+      </c>
+      <c r="W79" s="5">
+        <f t="shared" ref="W79:W87" si="16">($L$23*$E$76)+($A79*$E$76)*$P$25</f>
+        <v>182.88</v>
+      </c>
+      <c r="X79" s="5">
+        <f t="shared" ref="X79:X88" si="17">($L$23*$F$76)+($A79*$F$76)*$P$25</f>
+        <v>243.84</v>
+      </c>
+      <c r="Y79" s="5">
+        <f t="shared" ref="Y79:Y88" si="18">($L$23*$G$76)+($A79*$G$76)*$P$25</f>
+        <v>304.8</v>
+      </c>
+      <c r="Z79" s="5">
+        <f t="shared" ref="Z79:Z88" si="19">($L$23*$H$76)+($A79*$H$76)*$P$25</f>
+        <v>365.76</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A80" s="26">
+      <c r="A80" s="10">
         <v>4</v>
       </c>
-      <c r="B80" s="27"/>
-      <c r="C80" s="40">
-        <f>($L$23*$C$76)+($A80*$C$76)*$L$24</f>
+      <c r="B80" s="11"/>
+      <c r="C80" s="5">
+        <f t="shared" si="2"/>
         <v>99.95</v>
       </c>
-      <c r="D80" s="40">
-        <f>($L$23*$D$76)+($A80*$D$76)*$L$24</f>
+      <c r="D80" s="5">
+        <f t="shared" si="3"/>
         <v>199.9</v>
       </c>
-      <c r="E80" s="40">
-        <f>($L$23*$E$76)+($A80*$E$76)*$L$24</f>
+      <c r="E80" s="5">
+        <f t="shared" si="4"/>
         <v>299.85000000000002</v>
       </c>
-      <c r="F80" s="40">
-        <f>($L$23*$F$76)+($A80*$F$76)*$L$24</f>
+      <c r="F80" s="5">
+        <f t="shared" si="5"/>
         <v>399.8</v>
       </c>
-      <c r="G80" s="40">
-        <f>($L$23*$G$76)+($A80*$G$76)*$L$24</f>
+      <c r="G80" s="5">
+        <f t="shared" si="6"/>
         <v>499.75</v>
       </c>
-      <c r="H80" s="40">
-        <f>($L$23*$H$76)+($A80*$H$76)*$L$24</f>
+      <c r="H80" s="5">
+        <f t="shared" si="7"/>
         <v>599.70000000000005</v>
       </c>
-      <c r="J80" s="26">
+      <c r="J80" s="10">
         <v>4</v>
       </c>
-      <c r="K80" s="27"/>
-      <c r="L80" s="40">
-        <f>($L$23*$C$76)+($A80*$C$76)*$N$24</f>
+      <c r="K80" s="11"/>
+      <c r="L80" s="5">
+        <f t="shared" si="8"/>
         <v>159.94999999999999</v>
       </c>
-      <c r="M80" s="40">
-        <f>($L$23*$D$76)+($A80*$D$76)*$N$24</f>
+      <c r="M80" s="5">
+        <f t="shared" si="9"/>
         <v>319.89999999999998</v>
       </c>
-      <c r="N80" s="40">
-        <f>($L$23*$E$76)+($A80*$E$76)*$N$24</f>
+      <c r="N80" s="5">
+        <f t="shared" si="10"/>
         <v>479.85</v>
       </c>
-      <c r="O80" s="40">
-        <f>($L$23*$F$76)+($A80*$F$76)*$N$24</f>
+      <c r="O80" s="5">
+        <f t="shared" si="11"/>
         <v>639.79999999999995</v>
       </c>
-      <c r="P80" s="40">
-        <f>($L$23*$G$76)+($A80*$G$76)*$N$24</f>
+      <c r="P80" s="5">
+        <f t="shared" si="12"/>
         <v>799.75</v>
       </c>
-      <c r="Q80" s="40">
-        <f>($L$23*$H$76)+($A80*$H$76)*$N$24</f>
+      <c r="Q80" s="5">
+        <f t="shared" si="13"/>
         <v>959.7</v>
       </c>
-      <c r="S80" s="26">
+      <c r="S80" s="10">
         <v>4</v>
       </c>
-      <c r="T80" s="27"/>
-      <c r="U80" s="40">
-        <f>($L$23*$C$76)+($A80*$C$76)*$N$24</f>
-        <v>159.94999999999999</v>
-      </c>
-      <c r="V80" s="40">
-        <f>($L$23*$D$76)+($A80*$D$76)*$N$24</f>
-        <v>319.89999999999998</v>
-      </c>
-      <c r="W80" s="40">
-        <f>($L$23*$E$76)+($A80*$E$76)*$N$24</f>
-        <v>479.85</v>
-      </c>
-      <c r="X80" s="40">
-        <f>($L$23*$F$76)+($A80*$F$76)*$N$24</f>
-        <v>639.79999999999995</v>
-      </c>
-      <c r="Y80" s="40">
-        <f>($L$23*$G$76)+($A80*$G$76)*$N$24</f>
-        <v>799.75</v>
-      </c>
-      <c r="Z80" s="40">
-        <f>($L$23*$H$76)+($A80*$H$76)*$N$24</f>
-        <v>959.7</v>
+      <c r="T80" s="11"/>
+      <c r="U80" s="5">
+        <f t="shared" si="14"/>
+        <v>67.95</v>
+      </c>
+      <c r="V80" s="5">
+        <f t="shared" si="15"/>
+        <v>135.9</v>
+      </c>
+      <c r="W80" s="5">
+        <f t="shared" si="16"/>
+        <v>203.85</v>
+      </c>
+      <c r="X80" s="5">
+        <f t="shared" si="17"/>
+        <v>271.8</v>
+      </c>
+      <c r="Y80" s="5">
+        <f t="shared" si="18"/>
+        <v>339.75</v>
+      </c>
+      <c r="Z80" s="5">
+        <f t="shared" si="19"/>
+        <v>407.7</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A81" s="26">
+      <c r="A81" s="10">
         <v>5</v>
       </c>
-      <c r="B81" s="27"/>
-      <c r="C81" s="40">
-        <f>($L$23*$C$76)+($A81*$C$76)*$L$24</f>
+      <c r="B81" s="11"/>
+      <c r="C81" s="5">
+        <f t="shared" si="2"/>
         <v>114.94</v>
       </c>
-      <c r="D81" s="40">
-        <f>($L$23*$D$76)+($A81*$D$76)*$L$24</f>
+      <c r="D81" s="5">
+        <f t="shared" si="3"/>
         <v>229.88</v>
       </c>
-      <c r="E81" s="40">
-        <f>($L$23*$E$76)+($A81*$E$76)*$L$24</f>
+      <c r="E81" s="5">
+        <f t="shared" si="4"/>
         <v>344.82</v>
       </c>
-      <c r="F81" s="40">
-        <f>($L$23*$F$76)+($A81*$F$76)*$L$24</f>
+      <c r="F81" s="5">
+        <f t="shared" si="5"/>
         <v>459.76</v>
       </c>
-      <c r="G81" s="40">
-        <f>($L$23*$G$76)+($A81*$G$76)*$L$24</f>
+      <c r="G81" s="5">
+        <f t="shared" si="6"/>
         <v>574.70000000000005</v>
       </c>
-      <c r="H81" s="40">
-        <f>($L$23*$H$76)+($A81*$H$76)*$L$24</f>
+      <c r="H81" s="5">
+        <f t="shared" si="7"/>
         <v>689.64</v>
       </c>
-      <c r="J81" s="26">
+      <c r="J81" s="10">
         <v>5</v>
       </c>
-      <c r="K81" s="27"/>
-      <c r="L81" s="40">
-        <f>($L$23*$C$76)+($A81*$C$76)*$N$24</f>
+      <c r="K81" s="11"/>
+      <c r="L81" s="5">
+        <f t="shared" si="8"/>
         <v>189.94</v>
       </c>
-      <c r="M81" s="40">
-        <f>($L$23*$D$76)+($A81*$D$76)*$N$24</f>
+      <c r="M81" s="5">
+        <f t="shared" si="9"/>
         <v>379.88</v>
       </c>
-      <c r="N81" s="40">
-        <f>($L$23*$E$76)+($A81*$E$76)*$N$24</f>
+      <c r="N81" s="5">
+        <f t="shared" si="10"/>
         <v>569.81999999999994</v>
       </c>
-      <c r="O81" s="40">
-        <f>($L$23*$F$76)+($A81*$F$76)*$N$24</f>
+      <c r="O81" s="5">
+        <f t="shared" si="11"/>
         <v>759.76</v>
       </c>
-      <c r="P81" s="40">
-        <f>($L$23*$G$76)+($A81*$G$76)*$N$24</f>
+      <c r="P81" s="5">
+        <f t="shared" si="12"/>
         <v>949.7</v>
       </c>
-      <c r="Q81" s="40">
-        <f>($L$23*$H$76)+($A81*$H$76)*$N$24</f>
+      <c r="Q81" s="5">
+        <f t="shared" si="13"/>
         <v>1139.6399999999999</v>
       </c>
-      <c r="S81" s="26">
+      <c r="S81" s="10">
         <v>5</v>
       </c>
-      <c r="T81" s="27"/>
-      <c r="U81" s="40">
-        <f>($L$23*$C$76)+($A81*$C$76)*$N$24</f>
-        <v>189.94</v>
-      </c>
-      <c r="V81" s="40">
-        <f>($L$23*$D$76)+($A81*$D$76)*$N$24</f>
-        <v>379.88</v>
-      </c>
-      <c r="W81" s="40">
-        <f>($L$23*$E$76)+($A81*$E$76)*$N$24</f>
-        <v>569.81999999999994</v>
-      </c>
-      <c r="X81" s="40">
-        <f>($L$23*$F$76)+($A81*$F$76)*$N$24</f>
-        <v>759.76</v>
-      </c>
-      <c r="Y81" s="40">
-        <f>($L$23*$G$76)+($A81*$G$76)*$N$24</f>
-        <v>949.7</v>
-      </c>
-      <c r="Z81" s="40">
-        <f>($L$23*$H$76)+($A81*$H$76)*$N$24</f>
-        <v>1139.6399999999999</v>
+      <c r="T81" s="11"/>
+      <c r="U81" s="5">
+        <f t="shared" si="14"/>
+        <v>74.94</v>
+      </c>
+      <c r="V81" s="5">
+        <f t="shared" si="15"/>
+        <v>149.88</v>
+      </c>
+      <c r="W81" s="5">
+        <f t="shared" si="16"/>
+        <v>224.82</v>
+      </c>
+      <c r="X81" s="5">
+        <f t="shared" si="17"/>
+        <v>299.76</v>
+      </c>
+      <c r="Y81" s="5">
+        <f t="shared" si="18"/>
+        <v>374.70000000000005</v>
+      </c>
+      <c r="Z81" s="5">
+        <f t="shared" si="19"/>
+        <v>449.64</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A82" s="26">
+      <c r="A82" s="10">
         <v>6</v>
       </c>
-      <c r="B82" s="27"/>
-      <c r="C82" s="40">
-        <f>($L$23*$C$76)+($A82*$C$76)*$L$24</f>
+      <c r="B82" s="11"/>
+      <c r="C82" s="5">
+        <f t="shared" si="2"/>
         <v>129.93</v>
       </c>
-      <c r="D82" s="40">
-        <f>($L$23*$D$76)+($A82*$D$76)*$L$24</f>
+      <c r="D82" s="5">
+        <f t="shared" si="3"/>
         <v>259.86</v>
       </c>
-      <c r="E82" s="40">
-        <f>($L$23*$E$76)+($A82*$E$76)*$L$24</f>
+      <c r="E82" s="5">
+        <f t="shared" si="4"/>
         <v>389.78999999999996</v>
       </c>
-      <c r="F82" s="40">
-        <f>($L$23*$F$76)+($A82*$F$76)*$L$24</f>
+      <c r="F82" s="5">
+        <f t="shared" si="5"/>
         <v>519.72</v>
       </c>
-      <c r="G82" s="40">
-        <f>($L$23*$G$76)+($A82*$G$76)*$L$24</f>
+      <c r="G82" s="5">
+        <f t="shared" si="6"/>
         <v>649.65</v>
       </c>
-      <c r="H82" s="40">
-        <f>($L$23*$H$76)+($A82*$H$76)*$L$24</f>
+      <c r="H82" s="5">
+        <f t="shared" si="7"/>
         <v>779.57999999999993</v>
       </c>
-      <c r="J82" s="26">
+      <c r="J82" s="10">
         <v>6</v>
       </c>
-      <c r="K82" s="27"/>
-      <c r="L82" s="40">
-        <f>($L$23*$C$76)+($A82*$C$76)*$N$24</f>
+      <c r="K82" s="11"/>
+      <c r="L82" s="5">
+        <f t="shared" si="8"/>
         <v>219.93</v>
       </c>
-      <c r="M82" s="40">
-        <f>($L$23*$D$76)+($A82*$D$76)*$N$24</f>
+      <c r="M82" s="5">
+        <f t="shared" si="9"/>
         <v>439.86</v>
       </c>
-      <c r="N82" s="40">
-        <f>($L$23*$E$76)+($A82*$E$76)*$N$24</f>
+      <c r="N82" s="5">
+        <f t="shared" si="10"/>
         <v>659.79</v>
       </c>
-      <c r="O82" s="40">
-        <f>($L$23*$F$76)+($A82*$F$76)*$N$24</f>
+      <c r="O82" s="5">
+        <f t="shared" si="11"/>
         <v>879.72</v>
       </c>
-      <c r="P82" s="40">
-        <f>($L$23*$G$76)+($A82*$G$76)*$N$24</f>
+      <c r="P82" s="5">
+        <f t="shared" si="12"/>
         <v>1099.6499999999999</v>
       </c>
-      <c r="Q82" s="40">
-        <f>($L$23*$H$76)+($A82*$H$76)*$N$24</f>
+      <c r="Q82" s="5">
+        <f t="shared" si="13"/>
         <v>1319.58</v>
       </c>
-      <c r="S82" s="26">
+      <c r="S82" s="10">
         <v>6</v>
       </c>
-      <c r="T82" s="27"/>
-      <c r="U82" s="40">
-        <f>($L$23*$C$76)+($A82*$C$76)*$N$24</f>
-        <v>219.93</v>
-      </c>
-      <c r="V82" s="40">
-        <f>($L$23*$D$76)+($A82*$D$76)*$N$24</f>
-        <v>439.86</v>
-      </c>
-      <c r="W82" s="40">
-        <f>($L$23*$E$76)+($A82*$E$76)*$N$24</f>
-        <v>659.79</v>
-      </c>
-      <c r="X82" s="40">
-        <f>($L$23*$F$76)+($A82*$F$76)*$N$24</f>
-        <v>879.72</v>
-      </c>
-      <c r="Y82" s="40">
-        <f>($L$23*$G$76)+($A82*$G$76)*$N$24</f>
-        <v>1099.6499999999999</v>
-      </c>
-      <c r="Z82" s="40">
-        <f>($L$23*$H$76)+($A82*$H$76)*$N$24</f>
-        <v>1319.58</v>
+      <c r="T82" s="11"/>
+      <c r="U82" s="5">
+        <f t="shared" si="14"/>
+        <v>81.93</v>
+      </c>
+      <c r="V82" s="5">
+        <f t="shared" si="15"/>
+        <v>163.86</v>
+      </c>
+      <c r="W82" s="5">
+        <f t="shared" si="16"/>
+        <v>245.79000000000002</v>
+      </c>
+      <c r="X82" s="5">
+        <f t="shared" si="17"/>
+        <v>327.72</v>
+      </c>
+      <c r="Y82" s="5">
+        <f t="shared" si="18"/>
+        <v>409.65000000000003</v>
+      </c>
+      <c r="Z82" s="5">
+        <f t="shared" si="19"/>
+        <v>491.58000000000004</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A83" s="26">
+      <c r="A83" s="10">
         <v>7</v>
       </c>
-      <c r="B83" s="27"/>
-      <c r="C83" s="40">
-        <f>($L$23*$C$76)+($A83*$C$76)*$L$24</f>
+      <c r="B83" s="11"/>
+      <c r="C83" s="5">
+        <f t="shared" si="2"/>
         <v>144.92000000000002</v>
       </c>
-      <c r="D83" s="40">
-        <f>($L$23*$D$76)+($A83*$D$76)*$L$24</f>
+      <c r="D83" s="5">
+        <f t="shared" si="3"/>
         <v>289.84000000000003</v>
       </c>
-      <c r="E83" s="40">
-        <f>($L$23*$E$76)+($A83*$E$76)*$L$24</f>
+      <c r="E83" s="5">
+        <f t="shared" si="4"/>
         <v>434.76</v>
       </c>
-      <c r="F83" s="40">
-        <f>($L$23*$F$76)+($A83*$F$76)*$L$24</f>
+      <c r="F83" s="5">
+        <f t="shared" si="5"/>
         <v>579.68000000000006</v>
       </c>
-      <c r="G83" s="40">
-        <f>($L$23*$G$76)+($A83*$G$76)*$L$24</f>
+      <c r="G83" s="5">
+        <f t="shared" si="6"/>
         <v>724.6</v>
       </c>
-      <c r="H83" s="40">
-        <f>($L$23*$H$76)+($A83*$H$76)*$L$24</f>
+      <c r="H83" s="5">
+        <f t="shared" si="7"/>
         <v>869.52</v>
       </c>
-      <c r="J83" s="26">
+      <c r="J83" s="10">
         <v>7</v>
       </c>
-      <c r="K83" s="27"/>
-      <c r="L83" s="40">
-        <f>($L$23*$C$76)+($A83*$C$76)*$N$24</f>
+      <c r="K83" s="11"/>
+      <c r="L83" s="5">
+        <f t="shared" si="8"/>
         <v>249.92</v>
       </c>
-      <c r="M83" s="40">
-        <f>($L$23*$D$76)+($A83*$D$76)*$N$24</f>
+      <c r="M83" s="5">
+        <f t="shared" si="9"/>
         <v>499.84</v>
       </c>
-      <c r="N83" s="40">
-        <f>($L$23*$E$76)+($A83*$E$76)*$N$24</f>
+      <c r="N83" s="5">
+        <f t="shared" si="10"/>
         <v>749.76</v>
       </c>
-      <c r="O83" s="40">
-        <f>($L$23*$F$76)+($A83*$F$76)*$N$24</f>
+      <c r="O83" s="5">
+        <f t="shared" si="11"/>
         <v>999.68</v>
       </c>
-      <c r="P83" s="40">
-        <f>($L$23*$G$76)+($A83*$G$76)*$N$24</f>
+      <c r="P83" s="5">
+        <f t="shared" si="12"/>
         <v>1249.5999999999999</v>
       </c>
-      <c r="Q83" s="40">
-        <f>($L$23*$H$76)+($A83*$H$76)*$N$24</f>
+      <c r="Q83" s="5">
+        <f t="shared" si="13"/>
         <v>1499.52</v>
       </c>
-      <c r="S83" s="26">
+      <c r="S83" s="10">
         <v>7</v>
       </c>
-      <c r="T83" s="27"/>
-      <c r="U83" s="40">
-        <f>($L$23*$C$76)+($A83*$C$76)*$N$24</f>
-        <v>249.92</v>
-      </c>
-      <c r="V83" s="40">
-        <f>($L$23*$D$76)+($A83*$D$76)*$N$24</f>
-        <v>499.84</v>
-      </c>
-      <c r="W83" s="40">
-        <f>($L$23*$E$76)+($A83*$E$76)*$N$24</f>
-        <v>749.76</v>
-      </c>
-      <c r="X83" s="40">
-        <f>($L$23*$F$76)+($A83*$F$76)*$N$24</f>
-        <v>999.68</v>
-      </c>
-      <c r="Y83" s="40">
-        <f>($L$23*$G$76)+($A83*$G$76)*$N$24</f>
-        <v>1249.5999999999999</v>
-      </c>
-      <c r="Z83" s="40">
-        <f>($L$23*$H$76)+($A83*$H$76)*$N$24</f>
-        <v>1499.52</v>
+      <c r="T83" s="11"/>
+      <c r="U83" s="5">
+        <f t="shared" si="14"/>
+        <v>88.92</v>
+      </c>
+      <c r="V83" s="5">
+        <f t="shared" si="15"/>
+        <v>177.84</v>
+      </c>
+      <c r="W83" s="5">
+        <f t="shared" si="16"/>
+        <v>266.76</v>
+      </c>
+      <c r="X83" s="5">
+        <f t="shared" si="17"/>
+        <v>355.68</v>
+      </c>
+      <c r="Y83" s="5">
+        <f t="shared" si="18"/>
+        <v>444.6</v>
+      </c>
+      <c r="Z83" s="5">
+        <f t="shared" si="19"/>
+        <v>533.52</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A84" s="26">
+      <c r="A84" s="10">
         <v>8</v>
       </c>
-      <c r="B84" s="27"/>
-      <c r="C84" s="40">
-        <f>($L$23*$C$76)+($A84*$C$76)*$L$24</f>
+      <c r="B84" s="11"/>
+      <c r="C84" s="5">
+        <f t="shared" si="2"/>
         <v>159.91</v>
       </c>
-      <c r="D84" s="40">
-        <f>($L$23*$D$76)+($A84*$D$76)*$L$24</f>
+      <c r="D84" s="5">
+        <f t="shared" si="3"/>
         <v>319.82</v>
       </c>
-      <c r="E84" s="40">
-        <f>($L$23*$E$76)+($A84*$E$76)*$L$24</f>
+      <c r="E84" s="5">
+        <f t="shared" si="4"/>
         <v>479.73</v>
       </c>
-      <c r="F84" s="40">
-        <f>($L$23*$F$76)+($A84*$F$76)*$L$24</f>
+      <c r="F84" s="5">
+        <f t="shared" si="5"/>
         <v>639.64</v>
       </c>
-      <c r="G84" s="40">
-        <f>($L$23*$G$76)+($A84*$G$76)*$L$24</f>
+      <c r="G84" s="5">
+        <f t="shared" si="6"/>
         <v>799.55000000000007</v>
       </c>
-      <c r="H84" s="40">
-        <f>($L$23*$H$76)+($A84*$H$76)*$L$24</f>
+      <c r="H84" s="5">
+        <f t="shared" si="7"/>
         <v>959.46</v>
       </c>
-      <c r="J84" s="26">
+      <c r="J84" s="10">
         <v>8</v>
       </c>
-      <c r="K84" s="27"/>
-      <c r="L84" s="40">
-        <f>($L$23*$C$76)+($A84*$C$76)*$N$24</f>
+      <c r="K84" s="11"/>
+      <c r="L84" s="5">
+        <f t="shared" si="8"/>
         <v>279.90999999999997</v>
       </c>
-      <c r="M84" s="40">
-        <f>($L$23*$D$76)+($A84*$D$76)*$N$24</f>
+      <c r="M84" s="5">
+        <f t="shared" si="9"/>
         <v>559.81999999999994</v>
       </c>
-      <c r="N84" s="40">
-        <f>($L$23*$E$76)+($A84*$E$76)*$N$24</f>
+      <c r="N84" s="5">
+        <f t="shared" si="10"/>
         <v>839.73</v>
       </c>
-      <c r="O84" s="40">
-        <f>($L$23*$F$76)+($A84*$F$76)*$N$24</f>
+      <c r="O84" s="5">
+        <f t="shared" si="11"/>
         <v>1119.6399999999999</v>
       </c>
-      <c r="P84" s="40">
-        <f>($L$23*$G$76)+($A84*$G$76)*$N$24</f>
+      <c r="P84" s="5">
+        <f t="shared" si="12"/>
         <v>1399.55</v>
       </c>
-      <c r="Q84" s="40">
-        <f>($L$23*$H$76)+($A84*$H$76)*$N$24</f>
+      <c r="Q84" s="5">
+        <f t="shared" si="13"/>
         <v>1679.46</v>
       </c>
-      <c r="S84" s="26">
+      <c r="S84" s="10">
         <v>8</v>
       </c>
-      <c r="T84" s="27"/>
-      <c r="U84" s="40">
-        <f>($L$23*$C$76)+($A84*$C$76)*$N$24</f>
-        <v>279.90999999999997</v>
-      </c>
-      <c r="V84" s="40">
-        <f>($L$23*$D$76)+($A84*$D$76)*$N$24</f>
-        <v>559.81999999999994</v>
-      </c>
-      <c r="W84" s="40">
-        <f>($L$23*$E$76)+($A84*$E$76)*$N$24</f>
-        <v>839.73</v>
-      </c>
-      <c r="X84" s="40">
-        <f>($L$23*$F$76)+($A84*$F$76)*$N$24</f>
-        <v>1119.6399999999999</v>
-      </c>
-      <c r="Y84" s="40">
-        <f>($L$23*$G$76)+($A84*$G$76)*$N$24</f>
-        <v>1399.55</v>
-      </c>
-      <c r="Z84" s="40">
-        <f>($L$23*$H$76)+($A84*$H$76)*$N$24</f>
-        <v>1679.46</v>
+      <c r="T84" s="11"/>
+      <c r="U84" s="5">
+        <f t="shared" si="14"/>
+        <v>95.91</v>
+      </c>
+      <c r="V84" s="5">
+        <f t="shared" si="15"/>
+        <v>191.82</v>
+      </c>
+      <c r="W84" s="5">
+        <f t="shared" si="16"/>
+        <v>287.73</v>
+      </c>
+      <c r="X84" s="5">
+        <f t="shared" si="17"/>
+        <v>383.64</v>
+      </c>
+      <c r="Y84" s="5">
+        <f t="shared" si="18"/>
+        <v>479.55000000000007</v>
+      </c>
+      <c r="Z84" s="5">
+        <f t="shared" si="19"/>
+        <v>575.46</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A85" s="26">
+      <c r="A85" s="10">
         <v>9</v>
       </c>
-      <c r="B85" s="27"/>
-      <c r="C85" s="40">
-        <f>($L$23*$C$76)+($A85*$C$76)*$L$24</f>
+      <c r="B85" s="11"/>
+      <c r="C85" s="5">
+        <f t="shared" si="2"/>
         <v>174.9</v>
       </c>
-      <c r="D85" s="40">
-        <f>($L$23*$D$76)+($A85*$D$76)*$L$24</f>
+      <c r="D85" s="5">
+        <f t="shared" si="3"/>
         <v>349.8</v>
       </c>
-      <c r="E85" s="40">
-        <f>($L$23*$E$76)+($A85*$E$76)*$L$24</f>
+      <c r="E85" s="5">
+        <f t="shared" si="4"/>
         <v>524.70000000000005</v>
       </c>
-      <c r="F85" s="40">
-        <f>($L$23*$F$76)+($A85*$F$76)*$L$24</f>
+      <c r="F85" s="5">
+        <f t="shared" si="5"/>
         <v>699.6</v>
       </c>
-      <c r="G85" s="40">
-        <f>($L$23*$G$76)+($A85*$G$76)*$L$24</f>
+      <c r="G85" s="5">
+        <f t="shared" si="6"/>
         <v>874.5</v>
       </c>
-      <c r="H85" s="40">
-        <f>($L$23*$H$76)+($A85*$H$76)*$L$24</f>
+      <c r="H85" s="5">
+        <f t="shared" si="7"/>
         <v>1049.4000000000001</v>
       </c>
-      <c r="J85" s="26">
+      <c r="J85" s="10">
         <v>9</v>
       </c>
-      <c r="K85" s="27"/>
-      <c r="L85" s="40">
-        <f>($L$23*$C$76)+($A85*$C$76)*$N$24</f>
+      <c r="K85" s="11"/>
+      <c r="L85" s="5">
+        <f t="shared" si="8"/>
         <v>309.89999999999998</v>
       </c>
-      <c r="M85" s="40">
-        <f>($L$23*$D$76)+($A85*$D$76)*$N$24</f>
+      <c r="M85" s="5">
+        <f t="shared" si="9"/>
         <v>619.79999999999995</v>
       </c>
-      <c r="N85" s="40">
-        <f>($L$23*$E$76)+($A85*$E$76)*$N$24</f>
+      <c r="N85" s="5">
+        <f t="shared" si="10"/>
         <v>929.69999999999993</v>
       </c>
-      <c r="O85" s="40">
-        <f>($L$23*$F$76)+($A85*$F$76)*$N$24</f>
+      <c r="O85" s="5">
+        <f t="shared" si="11"/>
         <v>1239.5999999999999</v>
       </c>
-      <c r="P85" s="40">
-        <f>($L$23*$G$76)+($A85*$G$76)*$N$24</f>
+      <c r="P85" s="5">
+        <f t="shared" si="12"/>
         <v>1549.5</v>
       </c>
-      <c r="Q85" s="40">
-        <f>($L$23*$H$76)+($A85*$H$76)*$N$24</f>
+      <c r="Q85" s="5">
+        <f t="shared" si="13"/>
         <v>1859.3999999999999</v>
       </c>
-      <c r="S85" s="26">
+      <c r="S85" s="10">
         <v>9</v>
       </c>
-      <c r="T85" s="27"/>
-      <c r="U85" s="40">
-        <f>($L$23*$C$76)+($A85*$C$76)*$N$24</f>
-        <v>309.89999999999998</v>
-      </c>
-      <c r="V85" s="40">
-        <f>($L$23*$D$76)+($A85*$D$76)*$N$24</f>
-        <v>619.79999999999995</v>
-      </c>
-      <c r="W85" s="40">
-        <f>($L$23*$E$76)+($A85*$E$76)*$N$24</f>
-        <v>929.69999999999993</v>
-      </c>
-      <c r="X85" s="40">
-        <f>($L$23*$F$76)+($A85*$F$76)*$N$24</f>
-        <v>1239.5999999999999</v>
-      </c>
-      <c r="Y85" s="40">
-        <f>($L$23*$G$76)+($A85*$G$76)*$N$24</f>
-        <v>1549.5</v>
-      </c>
-      <c r="Z85" s="40">
-        <f>($L$23*$H$76)+($A85*$H$76)*$N$24</f>
-        <v>1859.3999999999999</v>
+      <c r="T85" s="11"/>
+      <c r="U85" s="5">
+        <f t="shared" si="14"/>
+        <v>102.9</v>
+      </c>
+      <c r="V85" s="5">
+        <f t="shared" si="15"/>
+        <v>205.8</v>
+      </c>
+      <c r="W85" s="5">
+        <f t="shared" si="16"/>
+        <v>308.70000000000005</v>
+      </c>
+      <c r="X85" s="5">
+        <f t="shared" si="17"/>
+        <v>411.6</v>
+      </c>
+      <c r="Y85" s="5">
+        <f t="shared" si="18"/>
+        <v>514.5</v>
+      </c>
+      <c r="Z85" s="5">
+        <f t="shared" si="19"/>
+        <v>617.40000000000009</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A86" s="26">
+      <c r="A86" s="10">
         <v>10</v>
       </c>
-      <c r="B86" s="27"/>
-      <c r="C86" s="40">
-        <f>($L$23*$C$76)+($A86*$C$76)*$L$24</f>
+      <c r="B86" s="11"/>
+      <c r="C86" s="5">
+        <f t="shared" si="2"/>
         <v>189.89000000000001</v>
       </c>
-      <c r="D86" s="40">
-        <f>($L$23*$D$76)+($A86*$D$76)*$L$24</f>
+      <c r="D86" s="5">
+        <f t="shared" si="3"/>
         <v>379.78000000000003</v>
       </c>
-      <c r="E86" s="40">
-        <f>($L$23*$E$76)+($A86*$E$76)*$L$24</f>
+      <c r="E86" s="5">
+        <f t="shared" si="4"/>
         <v>569.66999999999996</v>
       </c>
-      <c r="F86" s="40">
-        <f>($L$23*$F$76)+($A86*$F$76)*$L$24</f>
+      <c r="F86" s="5">
+        <f t="shared" si="5"/>
         <v>759.56000000000006</v>
       </c>
-      <c r="G86" s="40">
-        <f>($L$23*$G$76)+($A86*$G$76)*$L$24</f>
+      <c r="G86" s="5">
+        <f t="shared" si="6"/>
         <v>949.45</v>
       </c>
-      <c r="H86" s="40">
-        <f>($L$23*$H$76)+($A86*$H$76)*$L$24</f>
+      <c r="H86" s="5">
+        <f t="shared" si="7"/>
         <v>1139.3399999999999</v>
       </c>
-      <c r="J86" s="26">
+      <c r="J86" s="10">
         <v>10</v>
       </c>
-      <c r="K86" s="27"/>
-      <c r="L86" s="40">
-        <f>($L$23*$C$76)+($A86*$C$76)*$N$24</f>
+      <c r="K86" s="11"/>
+      <c r="L86" s="5">
+        <f t="shared" si="8"/>
         <v>339.89</v>
       </c>
-      <c r="M86" s="40">
-        <f>($L$23*$D$76)+($A86*$D$76)*$N$24</f>
+      <c r="M86" s="5">
+        <f t="shared" si="9"/>
         <v>679.78</v>
       </c>
-      <c r="N86" s="40">
-        <f>($L$23*$E$76)+($A86*$E$76)*$N$24</f>
+      <c r="N86" s="5">
+        <f t="shared" si="10"/>
         <v>1019.67</v>
       </c>
-      <c r="O86" s="40">
-        <f>($L$23*$F$76)+($A86*$F$76)*$N$24</f>
+      <c r="O86" s="5">
+        <f t="shared" si="11"/>
         <v>1359.56</v>
       </c>
-      <c r="P86" s="40">
-        <f>($L$23*$G$76)+($A86*$G$76)*$N$24</f>
+      <c r="P86" s="5">
+        <f t="shared" si="12"/>
         <v>1699.45</v>
       </c>
-      <c r="Q86" s="40">
-        <f>($L$23*$H$76)+($A86*$H$76)*$N$24</f>
+      <c r="Q86" s="5">
+        <f t="shared" si="13"/>
         <v>2039.34</v>
       </c>
-      <c r="S86" s="26">
+      <c r="S86" s="10">
         <v>10</v>
       </c>
-      <c r="T86" s="27"/>
-      <c r="U86" s="40">
-        <f>($L$23*$C$76)+($A86*$C$76)*$N$24</f>
-        <v>339.89</v>
-      </c>
-      <c r="V86" s="40">
-        <f>($L$23*$D$76)+($A86*$D$76)*$N$24</f>
-        <v>679.78</v>
-      </c>
-      <c r="W86" s="40">
-        <f>($L$23*$E$76)+($A86*$E$76)*$N$24</f>
-        <v>1019.67</v>
-      </c>
-      <c r="X86" s="40">
-        <f>($L$23*$F$76)+($A86*$F$76)*$N$24</f>
-        <v>1359.56</v>
-      </c>
-      <c r="Y86" s="40">
-        <f>($L$23*$G$76)+($A86*$G$76)*$N$24</f>
-        <v>1699.45</v>
-      </c>
-      <c r="Z86" s="40">
-        <f>($L$23*$H$76)+($A86*$H$76)*$N$24</f>
-        <v>2039.34</v>
+      <c r="T86" s="11"/>
+      <c r="U86" s="5">
+        <f t="shared" si="14"/>
+        <v>109.89000000000001</v>
+      </c>
+      <c r="V86" s="5">
+        <f t="shared" si="15"/>
+        <v>219.78000000000003</v>
+      </c>
+      <c r="W86" s="5">
+        <f t="shared" si="16"/>
+        <v>329.67</v>
+      </c>
+      <c r="X86" s="5">
+        <f t="shared" si="17"/>
+        <v>439.56000000000006</v>
+      </c>
+      <c r="Y86" s="5">
+        <f t="shared" si="18"/>
+        <v>549.45000000000005</v>
+      </c>
+      <c r="Z86" s="5">
+        <f t="shared" si="19"/>
+        <v>659.34</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A87" s="26">
+      <c r="A87" s="10">
         <v>11</v>
       </c>
-      <c r="B87" s="27"/>
-      <c r="C87" s="40">
-        <f>($L$23*$C$76)+($A87*$C$76)*$L$24</f>
+      <c r="B87" s="11"/>
+      <c r="C87" s="5">
+        <f t="shared" si="2"/>
         <v>204.88000000000002</v>
       </c>
-      <c r="D87" s="40">
-        <f>($L$23*$D$76)+($A87*$D$76)*$L$24</f>
+      <c r="D87" s="5">
+        <f t="shared" si="3"/>
         <v>409.76000000000005</v>
       </c>
-      <c r="E87" s="40">
-        <f>($L$23*$E$76)+($A87*$E$76)*$L$24</f>
+      <c r="E87" s="5">
+        <f t="shared" si="4"/>
         <v>614.64</v>
       </c>
-      <c r="F87" s="40">
-        <f>($L$23*$F$76)+($A87*$F$76)*$L$24</f>
+      <c r="F87" s="5">
+        <f t="shared" si="5"/>
         <v>819.5200000000001</v>
       </c>
-      <c r="G87" s="40">
-        <f>($L$23*$G$76)+($A87*$G$76)*$L$24</f>
+      <c r="G87" s="5">
+        <f t="shared" si="6"/>
         <v>1024.4000000000001</v>
       </c>
-      <c r="H87" s="40">
-        <f>($L$23*$H$76)+($A87*$H$76)*$L$24</f>
+      <c r="H87" s="5">
+        <f t="shared" si="7"/>
         <v>1229.28</v>
       </c>
-      <c r="J87" s="26">
+      <c r="J87" s="10">
         <v>11</v>
       </c>
-      <c r="K87" s="27"/>
-      <c r="L87" s="40">
-        <f>($L$23*$C$76)+($A87*$C$76)*$N$24</f>
+      <c r="K87" s="11"/>
+      <c r="L87" s="5">
+        <f t="shared" si="8"/>
         <v>369.88</v>
       </c>
-      <c r="M87" s="40">
-        <f>($L$23*$D$76)+($A87*$D$76)*$N$24</f>
+      <c r="M87" s="5">
+        <f t="shared" si="9"/>
         <v>739.76</v>
       </c>
-      <c r="N87" s="40">
-        <f>($L$23*$E$76)+($A87*$E$76)*$N$24</f>
+      <c r="N87" s="5">
+        <f t="shared" si="10"/>
         <v>1109.6399999999999</v>
       </c>
-      <c r="O87" s="40">
-        <f>($L$23*$F$76)+($A87*$F$76)*$N$24</f>
+      <c r="O87" s="5">
+        <f t="shared" si="11"/>
         <v>1479.52</v>
       </c>
-      <c r="P87" s="40">
-        <f>($L$23*$G$76)+($A87*$G$76)*$N$24</f>
+      <c r="P87" s="5">
+        <f t="shared" si="12"/>
         <v>1849.3999999999999</v>
       </c>
-      <c r="Q87" s="40">
-        <f>($L$23*$H$76)+($A87*$H$76)*$N$24</f>
+      <c r="Q87" s="5">
+        <f t="shared" si="13"/>
         <v>2219.2799999999997</v>
       </c>
-      <c r="S87" s="26">
+      <c r="S87" s="10">
         <v>11</v>
       </c>
-      <c r="T87" s="27"/>
-      <c r="U87" s="40">
-        <f>($L$23*$C$76)+($A87*$C$76)*$N$24</f>
-        <v>369.88</v>
-      </c>
-      <c r="V87" s="40">
-        <f>($L$23*$D$76)+($A87*$D$76)*$N$24</f>
-        <v>739.76</v>
-      </c>
-      <c r="W87" s="40">
-        <f>($L$23*$E$76)+($A87*$E$76)*$N$24</f>
-        <v>1109.6399999999999</v>
-      </c>
-      <c r="X87" s="40">
-        <f>($L$23*$F$76)+($A87*$F$76)*$N$24</f>
-        <v>1479.52</v>
-      </c>
-      <c r="Y87" s="40">
-        <f>($L$23*$G$76)+($A87*$G$76)*$N$24</f>
-        <v>1849.3999999999999</v>
-      </c>
-      <c r="Z87" s="40">
-        <f>($L$23*$H$76)+($A87*$H$76)*$N$24</f>
-        <v>2219.2799999999997</v>
+      <c r="T87" s="11"/>
+      <c r="U87" s="5">
+        <f t="shared" si="14"/>
+        <v>116.88</v>
+      </c>
+      <c r="V87" s="5">
+        <f t="shared" si="15"/>
+        <v>233.76</v>
+      </c>
+      <c r="W87" s="5">
+        <f t="shared" si="16"/>
+        <v>350.64</v>
+      </c>
+      <c r="X87" s="5">
+        <f t="shared" si="17"/>
+        <v>467.52</v>
+      </c>
+      <c r="Y87" s="5">
+        <f t="shared" si="18"/>
+        <v>584.4</v>
+      </c>
+      <c r="Z87" s="5">
+        <f t="shared" si="19"/>
+        <v>701.28</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="26">
+      <c r="A88" s="10">
         <v>12</v>
       </c>
-      <c r="B88" s="27"/>
-      <c r="C88" s="40">
-        <f>($L$23*$C$76)+($A88*$C$76)*$L$24</f>
+      <c r="B88" s="11"/>
+      <c r="C88" s="5">
+        <f t="shared" si="2"/>
         <v>219.87</v>
       </c>
-      <c r="D88" s="40">
-        <f>($L$23*$D$76)+($A88*$D$76)*$L$24</f>
+      <c r="D88" s="5">
+        <f t="shared" si="3"/>
         <v>439.74</v>
       </c>
-      <c r="E88" s="40">
-        <f>($L$23*$E$76)+($A88*$E$76)*$L$24</f>
+      <c r="E88" s="5">
+        <f t="shared" si="4"/>
         <v>659.61</v>
       </c>
-      <c r="F88" s="40">
-        <f>($L$23*$F$76)+($A88*$F$76)*$L$24</f>
+      <c r="F88" s="5">
+        <f t="shared" si="5"/>
         <v>879.48</v>
       </c>
-      <c r="G88" s="40">
-        <f>($L$23*$G$76)+($A88*$G$76)*$L$24</f>
+      <c r="G88" s="5">
+        <f t="shared" si="6"/>
         <v>1099.3499999999999</v>
       </c>
-      <c r="H88" s="40">
-        <f>($L$23*$H$76)+($A88*$H$76)*$L$24</f>
+      <c r="H88" s="5">
+        <f t="shared" si="7"/>
         <v>1319.22</v>
       </c>
-      <c r="J88" s="26">
+      <c r="J88" s="10">
         <v>12</v>
       </c>
-      <c r="K88" s="27"/>
-      <c r="L88" s="40">
-        <f>($L$23*$C$76)+($A88*$C$76)*$N$24</f>
+      <c r="K88" s="11"/>
+      <c r="L88" s="5">
+        <f t="shared" si="8"/>
         <v>399.87</v>
       </c>
-      <c r="M88" s="40">
-        <f>($L$23*$D$76)+($A88*$D$76)*$N$24</f>
+      <c r="M88" s="5">
+        <f t="shared" si="9"/>
         <v>799.74</v>
       </c>
-      <c r="N88" s="40">
-        <f>($L$23*$E$76)+($A88*$E$76)*$N$24</f>
+      <c r="N88" s="5">
+        <f t="shared" si="10"/>
         <v>1199.6099999999999</v>
       </c>
-      <c r="O88" s="40">
-        <f>($L$23*$F$76)+($A88*$F$76)*$N$24</f>
+      <c r="O88" s="5">
+        <f t="shared" si="11"/>
         <v>1599.48</v>
       </c>
-      <c r="P88" s="40">
-        <f>($L$23*$G$76)+($A88*$G$76)*$N$24</f>
+      <c r="P88" s="5">
+        <f t="shared" si="12"/>
         <v>1999.35</v>
       </c>
-      <c r="Q88" s="40">
-        <f>($L$23*$H$76)+($A88*$H$76)*$N$24</f>
+      <c r="Q88" s="5">
+        <f t="shared" si="13"/>
         <v>2399.2199999999998</v>
       </c>
-      <c r="S88" s="26">
+      <c r="S88" s="10">
         <v>12</v>
       </c>
-      <c r="T88" s="27"/>
-      <c r="U88" s="40">
-        <f>($L$23*$C$76)+($A88*$C$76)*$N$24</f>
-        <v>399.87</v>
-      </c>
-      <c r="V88" s="40">
-        <f>($L$23*$D$76)+($A88*$D$76)*$N$24</f>
-        <v>799.74</v>
-      </c>
-      <c r="W88" s="40">
-        <f>($L$23*$E$76)+($A88*$E$76)*$N$24</f>
-        <v>1199.6099999999999</v>
-      </c>
-      <c r="X88" s="40">
-        <f>($L$23*$F$76)+($A88*$F$76)*$N$24</f>
-        <v>1599.48</v>
-      </c>
-      <c r="Y88" s="40">
-        <f>($L$23*$G$76)+($A88*$G$76)*$N$24</f>
-        <v>1999.35</v>
-      </c>
-      <c r="Z88" s="40">
-        <f>($L$23*$H$76)+($A88*$H$76)*$N$24</f>
-        <v>2399.2199999999998</v>
+      <c r="T88" s="11"/>
+      <c r="U88" s="5">
+        <f t="shared" si="14"/>
+        <v>123.87</v>
+      </c>
+      <c r="V88" s="5">
+        <f t="shared" si="15"/>
+        <v>247.74</v>
+      </c>
+      <c r="W88" s="5">
+        <f>($L$23*$E$76)+($A88*$E$76)*$P$25</f>
+        <v>371.61</v>
+      </c>
+      <c r="X88" s="5">
+        <f t="shared" si="17"/>
+        <v>495.48</v>
+      </c>
+      <c r="Y88" s="5">
+        <f t="shared" si="18"/>
+        <v>619.35</v>
+      </c>
+      <c r="Z88" s="5">
+        <f t="shared" si="19"/>
+        <v>743.22</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="49" t="s">
+      <c r="A107" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B107" s="49"/>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
-      <c r="E107" s="49"/>
-      <c r="F107" s="49"/>
-      <c r="G107" s="49"/>
-      <c r="H107" s="49"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="47" t="s">
+      <c r="A108" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B108" s="47"/>
-      <c r="C108" s="42" t="s">
+      <c r="B108" s="14"/>
+      <c r="C108" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D108" s="42"/>
-      <c r="E108" s="42"/>
-      <c r="F108" s="42"/>
-      <c r="G108" s="42"/>
-      <c r="H108" s="42"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="43" t="s">
+      <c r="A109" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B109" s="44"/>
-      <c r="C109" s="45">
+      <c r="B109" s="13"/>
+      <c r="C109" s="7">
         <v>1</v>
       </c>
-      <c r="D109" s="45">
+      <c r="D109" s="7">
         <v>2</v>
       </c>
-      <c r="E109" s="46">
+      <c r="E109" s="8">
         <v>3</v>
       </c>
-      <c r="F109" s="46">
+      <c r="F109" s="8">
         <v>4</v>
       </c>
-      <c r="G109" s="46">
+      <c r="G109" s="8">
         <v>5</v>
       </c>
-      <c r="H109" s="46">
+      <c r="H109" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="26">
+      <c r="A110" s="10">
         <v>1</v>
       </c>
-      <c r="B110" s="27"/>
-      <c r="C110" s="48">
+      <c r="B110" s="11"/>
+      <c r="C110" s="9">
         <f>C77+L77+U77</f>
-        <v>194.94</v>
-      </c>
-      <c r="D110" s="48">
-        <f t="shared" ref="D110:H121" si="1">D77+M77+V77</f>
-        <v>389.88</v>
-      </c>
-      <c r="E110" s="48">
-        <f t="shared" si="1"/>
-        <v>584.81999999999994</v>
-      </c>
-      <c r="F110" s="48">
-        <f t="shared" si="1"/>
-        <v>779.76</v>
-      </c>
-      <c r="G110" s="48">
-        <f t="shared" si="1"/>
-        <v>974.7</v>
-      </c>
-      <c r="H110" s="48">
+        <v>171.94</v>
+      </c>
+      <c r="D110" s="9">
+        <f t="shared" ref="D110:G121" si="20">D77+M77+V77</f>
+        <v>343.88</v>
+      </c>
+      <c r="E110" s="9">
+        <f t="shared" si="20"/>
+        <v>515.81999999999994</v>
+      </c>
+      <c r="F110" s="9">
+        <f t="shared" si="20"/>
+        <v>687.76</v>
+      </c>
+      <c r="G110" s="9">
+        <f t="shared" si="20"/>
+        <v>859.7</v>
+      </c>
+      <c r="H110" s="9">
         <f>H77+Q77+Z77</f>
-        <v>1169.6399999999999</v>
+        <v>1031.6399999999999</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="26">
+      <c r="A111" s="10">
         <v>2</v>
       </c>
-      <c r="B111" s="27"/>
-      <c r="C111" s="48">
-        <f t="shared" ref="C111:C120" si="2">C78+L78+U78</f>
-        <v>269.90999999999997</v>
-      </c>
-      <c r="D111" s="48">
-        <f t="shared" si="1"/>
-        <v>539.81999999999994</v>
-      </c>
-      <c r="E111" s="48">
-        <f t="shared" si="1"/>
-        <v>809.7299999999999</v>
-      </c>
-      <c r="F111" s="48">
-        <f t="shared" si="1"/>
-        <v>1079.6399999999999</v>
-      </c>
-      <c r="G111" s="48">
-        <f t="shared" si="1"/>
-        <v>1349.5500000000002</v>
-      </c>
-      <c r="H111" s="48">
-        <f t="shared" ref="H111:H121" si="3">H78+Q78+Z78</f>
-        <v>1619.4599999999998</v>
+      <c r="B111" s="11"/>
+      <c r="C111" s="9">
+        <f t="shared" ref="C111:C120" si="21">C78+L78+U78</f>
+        <v>223.91</v>
+      </c>
+      <c r="D111" s="9">
+        <f t="shared" si="20"/>
+        <v>447.82</v>
+      </c>
+      <c r="E111" s="9">
+        <f t="shared" si="20"/>
+        <v>671.7299999999999</v>
+      </c>
+      <c r="F111" s="9">
+        <f t="shared" si="20"/>
+        <v>895.64</v>
+      </c>
+      <c r="G111" s="9">
+        <f t="shared" si="20"/>
+        <v>1119.5500000000002</v>
+      </c>
+      <c r="H111" s="9">
+        <f t="shared" ref="H111:H121" si="22">H78+Q78+Z78</f>
+        <v>1343.4599999999998</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="26">
+      <c r="A112" s="10">
         <v>3</v>
       </c>
-      <c r="B112" s="27"/>
-      <c r="C112" s="48">
-        <f t="shared" si="2"/>
-        <v>344.88</v>
-      </c>
-      <c r="D112" s="48">
-        <f t="shared" si="1"/>
-        <v>689.76</v>
-      </c>
-      <c r="E112" s="48">
-        <f t="shared" si="1"/>
-        <v>1034.6399999999999</v>
-      </c>
-      <c r="F112" s="48">
-        <f t="shared" si="1"/>
-        <v>1379.52</v>
-      </c>
-      <c r="G112" s="48">
-        <f t="shared" si="1"/>
-        <v>1724.3999999999999</v>
-      </c>
-      <c r="H112" s="48">
-        <f t="shared" si="3"/>
-        <v>2069.2799999999997</v>
+      <c r="B112" s="11"/>
+      <c r="C112" s="9">
+        <f t="shared" si="21"/>
+        <v>275.88</v>
+      </c>
+      <c r="D112" s="9">
+        <f t="shared" si="20"/>
+        <v>551.76</v>
+      </c>
+      <c r="E112" s="9">
+        <f t="shared" si="20"/>
+        <v>827.64</v>
+      </c>
+      <c r="F112" s="9">
+        <f t="shared" si="20"/>
+        <v>1103.52</v>
+      </c>
+      <c r="G112" s="9">
+        <f t="shared" si="20"/>
+        <v>1379.3999999999999</v>
+      </c>
+      <c r="H112" s="9">
+        <f t="shared" si="22"/>
+        <v>1655.28</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="26">
+      <c r="A113" s="10">
         <v>4</v>
       </c>
-      <c r="B113" s="27"/>
-      <c r="C113" s="48">
-        <f t="shared" si="2"/>
-        <v>419.84999999999997</v>
-      </c>
-      <c r="D113" s="48">
-        <f t="shared" si="1"/>
-        <v>839.69999999999993</v>
-      </c>
-      <c r="E113" s="48">
-        <f t="shared" si="1"/>
-        <v>1259.5500000000002</v>
-      </c>
-      <c r="F113" s="48">
-        <f t="shared" si="1"/>
-        <v>1679.3999999999999</v>
-      </c>
-      <c r="G113" s="48">
-        <f t="shared" si="1"/>
-        <v>2099.25</v>
-      </c>
-      <c r="H113" s="48">
-        <f t="shared" si="3"/>
-        <v>2519.1000000000004</v>
+      <c r="B113" s="11"/>
+      <c r="C113" s="9">
+        <f t="shared" si="21"/>
+        <v>327.84999999999997</v>
+      </c>
+      <c r="D113" s="9">
+        <f t="shared" si="20"/>
+        <v>655.69999999999993</v>
+      </c>
+      <c r="E113" s="9">
+        <f t="shared" si="20"/>
+        <v>983.55000000000007</v>
+      </c>
+      <c r="F113" s="9">
+        <f t="shared" si="20"/>
+        <v>1311.3999999999999</v>
+      </c>
+      <c r="G113" s="9">
+        <f t="shared" si="20"/>
+        <v>1639.25</v>
+      </c>
+      <c r="H113" s="9">
+        <f t="shared" si="22"/>
+        <v>1967.1000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="26">
+      <c r="A114" s="10">
         <v>5</v>
       </c>
-      <c r="B114" s="27"/>
-      <c r="C114" s="48">
-        <f t="shared" si="2"/>
-        <v>494.82</v>
-      </c>
-      <c r="D114" s="48">
-        <f t="shared" si="1"/>
-        <v>989.64</v>
-      </c>
-      <c r="E114" s="48">
-        <f t="shared" si="1"/>
-        <v>1484.4599999999998</v>
-      </c>
-      <c r="F114" s="48">
-        <f t="shared" si="1"/>
-        <v>1979.28</v>
-      </c>
-      <c r="G114" s="48">
-        <f t="shared" si="1"/>
-        <v>2474.1000000000004</v>
-      </c>
-      <c r="H114" s="48">
-        <f t="shared" si="3"/>
-        <v>2968.9199999999996</v>
+      <c r="B114" s="11"/>
+      <c r="C114" s="9">
+        <f t="shared" si="21"/>
+        <v>379.82</v>
+      </c>
+      <c r="D114" s="9">
+        <f t="shared" si="20"/>
+        <v>759.64</v>
+      </c>
+      <c r="E114" s="9">
+        <f t="shared" si="20"/>
+        <v>1139.4599999999998</v>
+      </c>
+      <c r="F114" s="9">
+        <f t="shared" si="20"/>
+        <v>1519.28</v>
+      </c>
+      <c r="G114" s="9">
+        <f t="shared" si="20"/>
+        <v>1899.1000000000001</v>
+      </c>
+      <c r="H114" s="9">
+        <f t="shared" si="22"/>
+        <v>2278.9199999999996</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="26">
+      <c r="A115" s="10">
         <v>6</v>
       </c>
-      <c r="B115" s="27"/>
-      <c r="C115" s="48">
-        <f t="shared" si="2"/>
-        <v>569.79</v>
-      </c>
-      <c r="D115" s="48">
-        <f t="shared" si="1"/>
-        <v>1139.58</v>
-      </c>
-      <c r="E115" s="48">
-        <f t="shared" si="1"/>
-        <v>1709.37</v>
-      </c>
-      <c r="F115" s="48">
-        <f t="shared" si="1"/>
-        <v>2279.16</v>
-      </c>
-      <c r="G115" s="48">
-        <f t="shared" si="1"/>
-        <v>2848.95</v>
-      </c>
-      <c r="H115" s="48">
-        <f t="shared" si="3"/>
-        <v>3418.74</v>
+      <c r="B115" s="11"/>
+      <c r="C115" s="9">
+        <f t="shared" si="21"/>
+        <v>431.79</v>
+      </c>
+      <c r="D115" s="9">
+        <f t="shared" si="20"/>
+        <v>863.58</v>
+      </c>
+      <c r="E115" s="9">
+        <f t="shared" si="20"/>
+        <v>1295.3699999999999</v>
+      </c>
+      <c r="F115" s="9">
+        <f t="shared" si="20"/>
+        <v>1727.16</v>
+      </c>
+      <c r="G115" s="9">
+        <f t="shared" si="20"/>
+        <v>2158.9499999999998</v>
+      </c>
+      <c r="H115" s="9">
+        <f t="shared" si="22"/>
+        <v>2590.7399999999998</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="26">
+      <c r="A116" s="10">
         <v>7</v>
       </c>
-      <c r="B116" s="27"/>
-      <c r="C116" s="48">
-        <f t="shared" si="2"/>
-        <v>644.76</v>
-      </c>
-      <c r="D116" s="48">
-        <f t="shared" si="1"/>
-        <v>1289.52</v>
-      </c>
-      <c r="E116" s="48">
-        <f t="shared" si="1"/>
-        <v>1934.28</v>
-      </c>
-      <c r="F116" s="48">
-        <f t="shared" si="1"/>
-        <v>2579.04</v>
-      </c>
-      <c r="G116" s="48">
-        <f t="shared" si="1"/>
-        <v>3223.7999999999997</v>
-      </c>
-      <c r="H116" s="48">
-        <f t="shared" si="3"/>
-        <v>3868.56</v>
+      <c r="B116" s="11"/>
+      <c r="C116" s="9">
+        <f t="shared" si="21"/>
+        <v>483.76000000000005</v>
+      </c>
+      <c r="D116" s="9">
+        <f t="shared" si="20"/>
+        <v>967.5200000000001</v>
+      </c>
+      <c r="E116" s="9">
+        <f t="shared" si="20"/>
+        <v>1451.28</v>
+      </c>
+      <c r="F116" s="9">
+        <f t="shared" si="20"/>
+        <v>1935.0400000000002</v>
+      </c>
+      <c r="G116" s="9">
+        <f t="shared" si="20"/>
+        <v>2418.7999999999997</v>
+      </c>
+      <c r="H116" s="9">
+        <f t="shared" si="22"/>
+        <v>2902.56</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="26">
+      <c r="A117" s="10">
         <v>8</v>
       </c>
-      <c r="B117" s="27"/>
-      <c r="C117" s="48">
-        <f t="shared" si="2"/>
-        <v>719.7299999999999</v>
-      </c>
-      <c r="D117" s="48">
-        <f t="shared" si="1"/>
-        <v>1439.4599999999998</v>
-      </c>
-      <c r="E117" s="48">
-        <f t="shared" si="1"/>
-        <v>2159.19</v>
-      </c>
-      <c r="F117" s="48">
-        <f t="shared" si="1"/>
-        <v>2878.9199999999996</v>
-      </c>
-      <c r="G117" s="48">
-        <f t="shared" si="1"/>
-        <v>3598.6499999999996</v>
-      </c>
-      <c r="H117" s="48">
-        <f t="shared" si="3"/>
-        <v>4318.38</v>
+      <c r="B117" s="11"/>
+      <c r="C117" s="9">
+        <f t="shared" si="21"/>
+        <v>535.7299999999999</v>
+      </c>
+      <c r="D117" s="9">
+        <f t="shared" si="20"/>
+        <v>1071.4599999999998</v>
+      </c>
+      <c r="E117" s="9">
+        <f t="shared" si="20"/>
+        <v>1607.19</v>
+      </c>
+      <c r="F117" s="9">
+        <f t="shared" si="20"/>
+        <v>2142.9199999999996</v>
+      </c>
+      <c r="G117" s="9">
+        <f t="shared" si="20"/>
+        <v>2678.65</v>
+      </c>
+      <c r="H117" s="9">
+        <f t="shared" si="22"/>
+        <v>3214.38</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="26">
+      <c r="A118" s="10">
         <v>9</v>
       </c>
-      <c r="B118" s="27"/>
-      <c r="C118" s="48">
-        <f t="shared" si="2"/>
-        <v>794.69999999999993</v>
-      </c>
-      <c r="D118" s="48">
-        <f t="shared" si="1"/>
-        <v>1589.3999999999999</v>
-      </c>
-      <c r="E118" s="48">
-        <f t="shared" si="1"/>
-        <v>2384.1</v>
-      </c>
-      <c r="F118" s="48">
-        <f t="shared" si="1"/>
-        <v>3178.7999999999997</v>
-      </c>
-      <c r="G118" s="48">
-        <f t="shared" si="1"/>
-        <v>3973.5</v>
-      </c>
-      <c r="H118" s="48">
-        <f t="shared" si="3"/>
-        <v>4768.2</v>
+      <c r="B118" s="11"/>
+      <c r="C118" s="9">
+        <f t="shared" si="21"/>
+        <v>587.69999999999993</v>
+      </c>
+      <c r="D118" s="9">
+        <f t="shared" si="20"/>
+        <v>1175.3999999999999</v>
+      </c>
+      <c r="E118" s="9">
+        <f t="shared" si="20"/>
+        <v>1763.1000000000001</v>
+      </c>
+      <c r="F118" s="9">
+        <f t="shared" si="20"/>
+        <v>2350.7999999999997</v>
+      </c>
+      <c r="G118" s="9">
+        <f t="shared" si="20"/>
+        <v>2938.5</v>
+      </c>
+      <c r="H118" s="9">
+        <f t="shared" si="22"/>
+        <v>3526.2000000000003</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="26">
+      <c r="A119" s="10">
         <v>10</v>
       </c>
-      <c r="B119" s="27"/>
-      <c r="C119" s="48">
-        <f t="shared" si="2"/>
-        <v>869.67</v>
-      </c>
-      <c r="D119" s="48">
-        <f t="shared" si="1"/>
-        <v>1739.34</v>
-      </c>
-      <c r="E119" s="48">
-        <f t="shared" si="1"/>
-        <v>2609.0099999999998</v>
-      </c>
-      <c r="F119" s="48">
-        <f t="shared" si="1"/>
-        <v>3478.68</v>
-      </c>
-      <c r="G119" s="48">
-        <f t="shared" si="1"/>
-        <v>4348.3500000000004</v>
-      </c>
-      <c r="H119" s="48">
-        <f t="shared" si="3"/>
-        <v>5218.0199999999995</v>
+      <c r="B119" s="11"/>
+      <c r="C119" s="9">
+        <f t="shared" si="21"/>
+        <v>639.66999999999996</v>
+      </c>
+      <c r="D119" s="9">
+        <f t="shared" si="20"/>
+        <v>1279.3399999999999</v>
+      </c>
+      <c r="E119" s="9">
+        <f t="shared" si="20"/>
+        <v>1919.01</v>
+      </c>
+      <c r="F119" s="9">
+        <f t="shared" si="20"/>
+        <v>2558.6799999999998</v>
+      </c>
+      <c r="G119" s="9">
+        <f t="shared" si="20"/>
+        <v>3198.3500000000004</v>
+      </c>
+      <c r="H119" s="9">
+        <f t="shared" si="22"/>
+        <v>3838.02</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="26">
+      <c r="A120" s="10">
         <v>11</v>
       </c>
-      <c r="B120" s="27"/>
-      <c r="C120" s="48">
-        <f t="shared" si="2"/>
-        <v>944.64</v>
-      </c>
-      <c r="D120" s="48">
-        <f t="shared" si="1"/>
-        <v>1889.28</v>
-      </c>
-      <c r="E120" s="48">
-        <f t="shared" si="1"/>
-        <v>2833.9199999999996</v>
-      </c>
-      <c r="F120" s="48">
-        <f t="shared" si="1"/>
-        <v>3778.56</v>
-      </c>
-      <c r="G120" s="48">
-        <f t="shared" si="1"/>
-        <v>4723.2</v>
-      </c>
-      <c r="H120" s="48">
-        <f t="shared" si="3"/>
-        <v>5667.8399999999992</v>
+      <c r="B120" s="11"/>
+      <c r="C120" s="9">
+        <f t="shared" si="21"/>
+        <v>691.64</v>
+      </c>
+      <c r="D120" s="9">
+        <f t="shared" si="20"/>
+        <v>1383.28</v>
+      </c>
+      <c r="E120" s="9">
+        <f t="shared" si="20"/>
+        <v>2074.9199999999996</v>
+      </c>
+      <c r="F120" s="9">
+        <f t="shared" si="20"/>
+        <v>2766.56</v>
+      </c>
+      <c r="G120" s="9">
+        <f t="shared" si="20"/>
+        <v>3458.2000000000003</v>
+      </c>
+      <c r="H120" s="9">
+        <f t="shared" si="22"/>
+        <v>4149.8399999999992</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="26">
+      <c r="A121" s="10">
         <v>12</v>
       </c>
-      <c r="B121" s="27"/>
-      <c r="C121" s="48">
+      <c r="B121" s="11"/>
+      <c r="C121" s="9">
         <f>C88+L88+U88</f>
-        <v>1019.61</v>
-      </c>
-      <c r="D121" s="48">
-        <f t="shared" si="1"/>
-        <v>2039.22</v>
-      </c>
-      <c r="E121" s="48">
-        <f t="shared" si="1"/>
-        <v>3058.83</v>
-      </c>
-      <c r="F121" s="48">
-        <f t="shared" si="1"/>
-        <v>4078.44</v>
-      </c>
-      <c r="G121" s="48">
-        <f t="shared" si="1"/>
-        <v>5098.0499999999993</v>
-      </c>
-      <c r="H121" s="48">
-        <f t="shared" si="3"/>
-        <v>6117.66</v>
+        <v>743.61</v>
+      </c>
+      <c r="D121" s="9">
+        <f t="shared" si="20"/>
+        <v>1487.22</v>
+      </c>
+      <c r="E121" s="9">
+        <f t="shared" si="20"/>
+        <v>2230.83</v>
+      </c>
+      <c r="F121" s="9">
+        <f t="shared" si="20"/>
+        <v>2974.44</v>
+      </c>
+      <c r="G121" s="9">
+        <f t="shared" si="20"/>
+        <v>3718.0499999999997</v>
+      </c>
+      <c r="H121" s="9">
+        <f t="shared" si="22"/>
+        <v>4461.66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="S75:T75"/>
-    <mergeCell ref="U75:Z75"/>
-    <mergeCell ref="S76:T76"/>
-    <mergeCell ref="S88:T88"/>
-    <mergeCell ref="A107:H107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="S83:T83"/>
-    <mergeCell ref="S84:T84"/>
-    <mergeCell ref="S85:T85"/>
-    <mergeCell ref="S86:T86"/>
-    <mergeCell ref="S87:T87"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="S74:Z74"/>
-    <mergeCell ref="S77:T77"/>
-    <mergeCell ref="S78:T78"/>
-    <mergeCell ref="S79:T79"/>
-    <mergeCell ref="S80:T80"/>
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="S82:T82"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="A74:H74"/>
-    <mergeCell ref="J74:Q74"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:Q75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="K6:O18"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="K35:O35"/>
     <mergeCell ref="K36:O36"/>
@@ -4765,22 +4713,76 @@
     <mergeCell ref="N30:O30"/>
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="K6:O18"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="J74:Q74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:Q75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="S74:Z74"/>
+    <mergeCell ref="S77:T77"/>
+    <mergeCell ref="S78:T78"/>
+    <mergeCell ref="S79:T79"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="U75:Z75"/>
+    <mergeCell ref="S76:T76"/>
+    <mergeCell ref="S88:T88"/>
+    <mergeCell ref="A107:H107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="S83:T83"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="S85:T85"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="S87:T87"/>
+    <mergeCell ref="S82:T82"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/croc-o-deals-parent/doc/Croc-o-deals-rules-1.0.0.xlsx
+++ b/croc-o-deals-parent/doc/Croc-o-deals-rules-1.0.0.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700"/>
   </bookViews>
   <sheets>
-    <sheet name="Créer un compte PRO" sheetId="3" r:id="rId1"/>
-    <sheet name="Création d'un deal" sheetId="4" r:id="rId2"/>
+    <sheet name="Compte PRO" sheetId="3" r:id="rId1"/>
+    <sheet name="Compte Client" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
   <si>
     <t>Normal</t>
   </si>
@@ -259,6 +259,89 @@
   <si>
     <t>En considérant que chaque compte direct créé 1 deals chaque mois / sans options</t>
   </si>
+  <si>
+    <t>Super Prenium</t>
+  </si>
+  <si>
+    <t>Souscrire à un deal</t>
+  </si>
+  <si>
+    <t>Souscription en avance</t>
+  </si>
+  <si>
+    <t>Participation concours</t>
+  </si>
+  <si>
+    <t>Souscription deal  prenium</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>oui (1jour)</t>
+  </si>
+  <si>
+    <t>La création d'un compte client est gratuit.
+Il y aura au final 3 types de passe pour les clients du site. 
+Au lancement de l'application, il n'y en aura que 2:
+  - Le normal, entierement gratuit.
+  - Le prenium, payant, mais des avantages.</t>
+  </si>
+  <si>
+    <t>Pub</t>
+  </si>
+  <si>
+    <t>oui (6h)</t>
+  </si>
+  <si>
+    <r>
+      <t>Il manque des options intéressantes pour justifier ce</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pass super prenium</t>
+    </r>
+  </si>
+  <si>
+    <t>En considérant que chaque compte  rachète un pass prenium chaque mois</t>
+  </si>
+  <si>
+    <t>Nb de deals / mois</t>
+  </si>
+  <si>
+    <t>illimité</t>
+  </si>
+  <si>
+    <t>Peu d'options</t>
+  </si>
+  <si>
+    <t>Moyen d'options</t>
+  </si>
+  <si>
+    <t>Beaucoup d'options</t>
+  </si>
+  <si>
+    <t>Compte pro normal avec options</t>
+  </si>
+  <si>
+    <t>au bout de 12 mois, x pass</t>
+  </si>
+  <si>
+    <t>Compte pro prenium avec options</t>
+  </si>
+  <si>
+    <t>Compte pro direct avec options</t>
+  </si>
+  <si>
+    <t>Trouver de nouvelles options qui peuvent être payante, mais sans être bloquante pour les pros.</t>
+  </si>
 </sst>
 </file>
 
@@ -312,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +480,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,7 +637,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -559,128 +648,206 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -730,7 +897,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'Créer un compte PRO'!$A$77:$B$88</c:f>
+              <c:f>'Compte PRO'!$A$77:$B$88</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -774,7 +941,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Créer un compte PRO'!$C$77:$C$88</c:f>
+              <c:f>'Compte PRO'!$C$77:$C$88</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
@@ -830,7 +997,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'Créer un compte PRO'!$A$77:$B$87</c:f>
+              <c:f>'Compte PRO'!$A$77:$B$87</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -871,7 +1038,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Créer un compte PRO'!$D$77:$D$88</c:f>
+              <c:f>'Compte PRO'!$D$77:$D$88</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
@@ -927,7 +1094,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'Créer un compte PRO'!$A$77:$B$88</c:f>
+              <c:f>'Compte PRO'!$A$77:$B$88</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -971,7 +1138,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Créer un compte PRO'!$E$77:$E$88</c:f>
+              <c:f>'Compte PRO'!$E$77:$E$88</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1027,7 +1194,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'Créer un compte PRO'!$A$77:$B$88</c:f>
+              <c:f>'Compte PRO'!$A$77:$B$88</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1071,7 +1238,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Créer un compte PRO'!$F$77:$F$88</c:f>
+              <c:f>'Compte PRO'!$F$77:$F$88</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1127,7 +1294,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'Créer un compte PRO'!$A$77:$B$88</c:f>
+              <c:f>'Compte PRO'!$A$77:$B$88</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1171,7 +1338,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Créer un compte PRO'!$G$77:$G$88</c:f>
+              <c:f>'Compte PRO'!$G$77:$G$88</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1227,7 +1394,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'Créer un compte PRO'!$A$77:$B$88</c:f>
+              <c:f>'Compte PRO'!$A$77:$B$88</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1271,7 +1438,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Créer un compte PRO'!$H$77:$H$88</c:f>
+              <c:f>'Compte PRO'!$H$77:$H$88</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1327,7 +1494,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'Créer un compte PRO'!$A$76:$B$87</c:f>
+              <c:f>'Compte PRO'!$A$76:$B$87</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1371,7 +1538,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Créer un compte PRO'!$C$77:$C$88</c:f>
+              <c:f>'Compte PRO'!$C$77:$C$88</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1427,7 +1594,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'Créer un compte PRO'!$A$76:$B$86</c:f>
+              <c:f>'Compte PRO'!$A$76:$B$86</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1468,7 +1635,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Créer un compte PRO'!$D$77:$D$88</c:f>
+              <c:f>'Compte PRO'!$D$77:$D$88</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1524,7 +1691,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'Créer un compte PRO'!$A$76:$B$87</c:f>
+              <c:f>'Compte PRO'!$A$76:$B$87</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1568,7 +1735,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Créer un compte PRO'!$E$77:$E$88</c:f>
+              <c:f>'Compte PRO'!$E$77:$E$88</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1624,7 +1791,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'Créer un compte PRO'!$A$76:$B$87</c:f>
+              <c:f>'Compte PRO'!$A$76:$B$87</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1668,7 +1835,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Créer un compte PRO'!$F$77:$F$88</c:f>
+              <c:f>'Compte PRO'!$F$77:$F$88</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1724,7 +1891,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'Créer un compte PRO'!$A$76:$B$87</c:f>
+              <c:f>'Compte PRO'!$A$76:$B$87</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1768,7 +1935,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Créer un compte PRO'!$G$77:$G$88</c:f>
+              <c:f>'Compte PRO'!$G$77:$G$88</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1824,7 +1991,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'Créer un compte PRO'!$A$76:$B$87</c:f>
+              <c:f>'Compte PRO'!$A$76:$B$87</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1868,7 +2035,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Créer un compte PRO'!$H$77:$H$88</c:f>
+              <c:f>'Compte PRO'!$H$77:$H$88</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1921,11 +2088,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="73449472"/>
-        <c:axId val="73450048"/>
+        <c:axId val="69163200"/>
+        <c:axId val="69163776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73449472"/>
+        <c:axId val="69163200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,12 +2107,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73450048"/>
+        <c:crossAx val="69163776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73450048"/>
+        <c:axId val="69163776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,7 +2123,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73449472"/>
+        <c:crossAx val="69163200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2079,7 +2246,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2097,6 +2264,119 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>319088</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Flèche vers le bas 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="15563850" y="4171951"/>
+          <a:ext cx="1038225" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flèche vers le bas 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6981825" y="1971675"/>
+          <a:ext cx="1038225" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2389,10 +2669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z121"/>
+  <dimension ref="A2:Z123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71"/>
+    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24:X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,312 +2688,346 @@
   </cols>
   <sheetData>
     <row r="2" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="50" t="s">
+      <c r="M2" s="22"/>
+      <c r="N2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="50"/>
+      <c r="O2" s="23"/>
     </row>
     <row r="3" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="46">
+      <c r="L3" s="19">
         <v>14.99</v>
       </c>
-      <c r="M3" s="48"/>
-      <c r="N3" s="46">
+      <c r="M3" s="21"/>
+      <c r="N3" s="19">
         <v>29.99</v>
       </c>
-      <c r="O3" s="48"/>
+      <c r="O3" s="21"/>
     </row>
     <row r="4" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="46">
+      <c r="L4" s="19">
         <v>29.99</v>
       </c>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="48"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
     </row>
     <row r="6" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="39"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12"/>
     </row>
     <row r="7" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K7" s="40"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="42"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
     </row>
     <row r="8" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K8" s="40"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="42"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="15"/>
     </row>
     <row r="9" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K9" s="40"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="42"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
     </row>
     <row r="10" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="42"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
     </row>
     <row r="11" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="42"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
     </row>
     <row r="12" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="42"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
     </row>
     <row r="13" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K13" s="40"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="42"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
     </row>
     <row r="14" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K14" s="40"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="42"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="15"/>
     </row>
     <row r="15" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K15" s="40"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="42"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
     </row>
     <row r="16" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K16" s="40"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="42"/>
-    </row>
-    <row r="17" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K17" s="40"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="42"/>
-    </row>
-    <row r="18" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K18" s="43"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="45"/>
-    </row>
-    <row r="22" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="L22" s="32" t="s">
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15"/>
+    </row>
+    <row r="18" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="18"/>
+    </row>
+    <row r="22" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="L22" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="33"/>
-      <c r="N22" s="34" t="s">
+      <c r="M22" s="32"/>
+      <c r="N22" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="O22" s="35"/>
-      <c r="P22" s="36" t="s">
+      <c r="O22" s="34"/>
+      <c r="P22" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="36"/>
-    </row>
-    <row r="23" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="Q22" s="35"/>
+    </row>
+    <row r="23" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L23" s="24">
         <v>39.99</v>
       </c>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="31"/>
-    </row>
-    <row r="24" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="26"/>
+    </row>
+    <row r="24" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L24" s="41">
         <v>14.99</v>
       </c>
-      <c r="M24" s="28"/>
-      <c r="N24" s="27">
+      <c r="M24" s="42"/>
+      <c r="N24" s="41">
         <v>29.99</v>
       </c>
-      <c r="O24" s="28"/>
-      <c r="P24" s="19">
+      <c r="O24" s="42"/>
+      <c r="P24" s="36">
         <v>0</v>
       </c>
-      <c r="Q24" s="20"/>
-    </row>
-    <row r="25" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="Q24" s="37"/>
+      <c r="U24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="V24" s="76"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="65"/>
+    </row>
+    <row r="25" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="50">
         <v>0</v>
       </c>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17">
+      <c r="M25" s="50"/>
+      <c r="N25" s="50">
         <v>0</v>
       </c>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17">
+      <c r="O25" s="50"/>
+      <c r="P25" s="50">
         <v>6.99</v>
       </c>
-      <c r="Q25" s="17"/>
-    </row>
-    <row r="26" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="Q25" s="50"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="67"/>
+    </row>
+    <row r="26" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="29">
         <v>0</v>
       </c>
-      <c r="M26" s="24"/>
-      <c r="N26" s="23">
+      <c r="M26" s="30"/>
+      <c r="N26" s="29">
         <v>2</v>
       </c>
-      <c r="O26" s="24"/>
-      <c r="P26" s="23">
+      <c r="O26" s="30"/>
+      <c r="P26" s="29">
         <v>0</v>
       </c>
-      <c r="Q26" s="24"/>
-    </row>
-    <row r="27" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="Q26" s="30"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="67"/>
+    </row>
+    <row r="27" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="29">
         <v>1</v>
       </c>
-      <c r="M27" s="24"/>
-      <c r="N27" s="23" t="s">
+      <c r="M27" s="30"/>
+      <c r="N27" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O27" s="24"/>
-      <c r="P27" s="23">
+      <c r="O27" s="30"/>
+      <c r="P27" s="29">
         <v>1</v>
       </c>
-      <c r="Q27" s="24"/>
-    </row>
-    <row r="28" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="Q27" s="30"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="67"/>
+    </row>
+    <row r="28" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="L28" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="M28" s="11"/>
-      <c r="N28" s="10" t="s">
+      <c r="M28" s="44"/>
+      <c r="N28" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="O28" s="11"/>
-      <c r="P28" s="10" t="s">
+      <c r="O28" s="44"/>
+      <c r="P28" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="Q28" s="11"/>
-    </row>
-    <row r="29" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="Q28" s="44"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="67"/>
+    </row>
+    <row r="29" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="27">
         <v>2.4900000000000002</v>
       </c>
-      <c r="M29" s="25"/>
-      <c r="N29" s="26" t="s">
+      <c r="M29" s="27"/>
+      <c r="N29" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="O29" s="26"/>
-      <c r="P29" s="25">
+      <c r="O29" s="28"/>
+      <c r="P29" s="27">
         <v>2.4900000000000002</v>
       </c>
-      <c r="Q29" s="25"/>
-    </row>
-    <row r="30" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="Q29" s="27"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="77"/>
+      <c r="W29" s="77"/>
+      <c r="X29" s="67"/>
+    </row>
+    <row r="30" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="27">
         <v>6.99</v>
       </c>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25">
+      <c r="M30" s="27"/>
+      <c r="N30" s="27">
         <v>6.99</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25">
+      <c r="O30" s="27"/>
+      <c r="P30" s="27">
         <v>6.99</v>
       </c>
-      <c r="Q30" s="25"/>
-    </row>
-    <row r="31" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="Q30" s="27"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="77"/>
+      <c r="W30" s="77"/>
+      <c r="X30" s="67"/>
+    </row>
+    <row r="31" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L31" s="25">
+      <c r="L31" s="27">
         <v>2.99</v>
       </c>
-      <c r="M31" s="25"/>
-      <c r="N31" s="26" t="s">
+      <c r="M31" s="27"/>
+      <c r="N31" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="O31" s="26"/>
-      <c r="P31" s="25">
+      <c r="O31" s="28"/>
+      <c r="P31" s="27">
         <v>2.99</v>
       </c>
-      <c r="Q31" s="25"/>
+      <c r="Q31" s="27"/>
+      <c r="U31" s="68"/>
+      <c r="V31" s="78"/>
+      <c r="W31" s="78"/>
+      <c r="X31" s="69"/>
     </row>
     <row r="35" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K35" s="21" t="s">
+      <c r="K35" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="22"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="39"/>
     </row>
     <row r="36" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K36" s="18" t="s">
+      <c r="K36" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
     </row>
     <row r="37" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K37" s="3" t="s">
@@ -2838,13 +3152,13 @@
       </c>
     </row>
     <row r="47" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K47" s="18" t="s">
+      <c r="K47" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
     </row>
     <row r="48" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K48" s="3" t="s">
@@ -2969,13 +3283,13 @@
       </c>
     </row>
     <row r="58" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K58" s="18" t="s">
+      <c r="K58" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
     </row>
     <row r="59" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K59" s="3" t="s">
@@ -3100,80 +3414,80 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="J74" s="16" t="s">
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="J74" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="S74" s="16" t="s">
+      <c r="K74" s="45"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="45"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="45"/>
+      <c r="P74" s="45"/>
+      <c r="Q74" s="45"/>
+      <c r="S74" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="T74" s="16"/>
-      <c r="U74" s="16"/>
-      <c r="V74" s="16"/>
-      <c r="W74" s="16"/>
-      <c r="X74" s="16"/>
-      <c r="Y74" s="16"/>
-      <c r="Z74" s="16"/>
+      <c r="T74" s="45"/>
+      <c r="U74" s="45"/>
+      <c r="V74" s="45"/>
+      <c r="W74" s="45"/>
+      <c r="X74" s="45"/>
+      <c r="Y74" s="45"/>
+      <c r="Z74" s="45"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="15" t="s">
+      <c r="B75" s="46"/>
+      <c r="C75" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="J75" s="14" t="s">
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="J75" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="K75" s="14"/>
-      <c r="L75" s="15" t="s">
+      <c r="K75" s="46"/>
+      <c r="L75" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="S75" s="14" t="s">
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="47"/>
+      <c r="P75" s="47"/>
+      <c r="Q75" s="47"/>
+      <c r="S75" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="T75" s="14"/>
-      <c r="U75" s="15" t="s">
+      <c r="T75" s="46"/>
+      <c r="U75" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="V75" s="15"/>
-      <c r="W75" s="15"/>
-      <c r="X75" s="15"/>
-      <c r="Y75" s="15"/>
-      <c r="Z75" s="15"/>
+      <c r="V75" s="47"/>
+      <c r="W75" s="47"/>
+      <c r="X75" s="47"/>
+      <c r="Y75" s="47"/>
+      <c r="Z75" s="47"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="13"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="7">
         <v>1</v>
       </c>
@@ -3192,10 +3506,10 @@
       <c r="H76" s="8">
         <v>6</v>
       </c>
-      <c r="J76" s="12" t="s">
+      <c r="J76" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="K76" s="13"/>
+      <c r="K76" s="49"/>
       <c r="L76" s="7">
         <v>1</v>
       </c>
@@ -3214,10 +3528,10 @@
       <c r="Q76" s="8">
         <v>6</v>
       </c>
-      <c r="S76" s="12" t="s">
+      <c r="S76" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="T76" s="13"/>
+      <c r="T76" s="49"/>
       <c r="U76" s="7">
         <v>1</v>
       </c>
@@ -3238,10 +3552,10 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="10">
+      <c r="A77" s="43">
         <v>1</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="9">
         <f>C76 * ($L$23 +$L$24)</f>
         <v>54.980000000000004</v>
@@ -3266,10 +3580,10 @@
         <f t="shared" si="0"/>
         <v>329.88</v>
       </c>
-      <c r="J77" s="10">
+      <c r="J77" s="43">
         <v>1</v>
       </c>
-      <c r="K77" s="11"/>
+      <c r="K77" s="44"/>
       <c r="L77" s="9">
         <f t="shared" ref="L77:Q77" si="1">L76 * ($L$23 +$N$24)</f>
         <v>69.98</v>
@@ -3294,96 +3608,96 @@
         <f t="shared" si="1"/>
         <v>419.88</v>
       </c>
-      <c r="S77" s="10">
+      <c r="S77" s="43">
         <v>1</v>
       </c>
-      <c r="T77" s="11"/>
+      <c r="T77" s="44"/>
       <c r="U77" s="9">
-        <f>U76 * ($L$23 +$P$25)</f>
+        <f t="shared" ref="U77:Z77" si="2">U76 * ($L$23 +$P$25)</f>
         <v>46.980000000000004</v>
       </c>
       <c r="V77" s="9">
-        <f>V76 * ($L$23 +$P$25)</f>
+        <f t="shared" si="2"/>
         <v>93.960000000000008</v>
       </c>
       <c r="W77" s="9">
-        <f>W76 * ($L$23 +$P$25)</f>
+        <f t="shared" si="2"/>
         <v>140.94</v>
       </c>
       <c r="X77" s="9">
-        <f>X76 * ($L$23 +$P$25)</f>
+        <f t="shared" si="2"/>
         <v>187.92000000000002</v>
       </c>
       <c r="Y77" s="9">
-        <f>Y76 * ($L$23 +$P$25)</f>
+        <f t="shared" si="2"/>
         <v>234.90000000000003</v>
       </c>
       <c r="Z77" s="9">
-        <f>Z76 * ($L$23 +$P$25)</f>
+        <f t="shared" si="2"/>
         <v>281.88</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
+      <c r="A78" s="43">
         <v>2</v>
       </c>
-      <c r="B78" s="11"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="5">
-        <f t="shared" ref="C78:C88" si="2">($L$23*$C$76)+($A78*$C$76)*$L$24</f>
+        <f t="shared" ref="C78:C88" si="3">($L$23*$C$76)+($A78*$C$76)*$L$24</f>
         <v>69.97</v>
       </c>
       <c r="D78" s="5">
-        <f t="shared" ref="D78:D88" si="3">($L$23*$D$76)+($A78*$D$76)*$L$24</f>
+        <f t="shared" ref="D78:D88" si="4">($L$23*$D$76)+($A78*$D$76)*$L$24</f>
         <v>139.94</v>
       </c>
       <c r="E78" s="5">
-        <f t="shared" ref="E78:E88" si="4">($L$23*$E$76)+($A78*$E$76)*$L$24</f>
+        <f t="shared" ref="E78:E88" si="5">($L$23*$E$76)+($A78*$E$76)*$L$24</f>
         <v>209.91</v>
       </c>
       <c r="F78" s="5">
-        <f t="shared" ref="F78:F88" si="5">($L$23*$F$76)+($A78*$F$76)*$L$24</f>
+        <f t="shared" ref="F78:F88" si="6">($L$23*$F$76)+($A78*$F$76)*$L$24</f>
         <v>279.88</v>
       </c>
       <c r="G78" s="5">
-        <f t="shared" ref="G78:G88" si="6">($L$23*$G$76)+($A78*$G$76)*$L$24</f>
+        <f t="shared" ref="G78:G88" si="7">($L$23*$G$76)+($A78*$G$76)*$L$24</f>
         <v>349.85</v>
       </c>
       <c r="H78" s="5">
-        <f t="shared" ref="H78:H88" si="7">($L$23*$H$76)+($A78*$H$76)*$L$24</f>
+        <f t="shared" ref="H78:H88" si="8">($L$23*$H$76)+($A78*$H$76)*$L$24</f>
         <v>419.82</v>
       </c>
-      <c r="J78" s="10">
+      <c r="J78" s="43">
         <v>2</v>
       </c>
-      <c r="K78" s="11"/>
+      <c r="K78" s="44"/>
       <c r="L78" s="5">
-        <f t="shared" ref="L78:L88" si="8">($L$23*$C$76)+($A78*$C$76)*$N$24</f>
+        <f t="shared" ref="L78:L88" si="9">($L$23*$C$76)+($A78*$C$76)*$N$24</f>
         <v>99.97</v>
       </c>
       <c r="M78" s="5">
-        <f t="shared" ref="M78:M88" si="9">($L$23*$D$76)+($A78*$D$76)*$N$24</f>
+        <f t="shared" ref="M78:M88" si="10">($L$23*$D$76)+($A78*$D$76)*$N$24</f>
         <v>199.94</v>
       </c>
       <c r="N78" s="5">
-        <f t="shared" ref="N78:N88" si="10">($L$23*$E$76)+($A78*$E$76)*$N$24</f>
+        <f t="shared" ref="N78:N88" si="11">($L$23*$E$76)+($A78*$E$76)*$N$24</f>
         <v>299.90999999999997</v>
       </c>
       <c r="O78" s="5">
-        <f t="shared" ref="O78:O88" si="11">($L$23*$F$76)+($A78*$F$76)*$N$24</f>
+        <f t="shared" ref="O78:O88" si="12">($L$23*$F$76)+($A78*$F$76)*$N$24</f>
         <v>399.88</v>
       </c>
       <c r="P78" s="5">
-        <f t="shared" ref="P78:P88" si="12">($L$23*$G$76)+($A78*$G$76)*$N$24</f>
+        <f t="shared" ref="P78:P88" si="13">($L$23*$G$76)+($A78*$G$76)*$N$24</f>
         <v>499.85</v>
       </c>
       <c r="Q78" s="5">
-        <f t="shared" ref="Q78:Q88" si="13">($L$23*$H$76)+($A78*$H$76)*$N$24</f>
+        <f t="shared" ref="Q78:Q88" si="14">($L$23*$H$76)+($A78*$H$76)*$N$24</f>
         <v>599.81999999999994</v>
       </c>
-      <c r="S78" s="10">
+      <c r="S78" s="43">
         <v>2</v>
       </c>
-      <c r="T78" s="11"/>
+      <c r="T78" s="44"/>
       <c r="U78" s="5">
         <f>($L$23*$C$76)+($A78*$C$76)*$P$25</f>
         <v>53.97</v>
@@ -3410,846 +3724,846 @@
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" s="10">
+      <c r="A79" s="43">
         <v>3</v>
       </c>
-      <c r="B79" s="11"/>
+      <c r="B79" s="44"/>
       <c r="C79" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84.960000000000008</v>
       </c>
       <c r="D79" s="5">
+        <f t="shared" si="4"/>
+        <v>169.92000000000002</v>
+      </c>
+      <c r="E79" s="5">
+        <f t="shared" si="5"/>
+        <v>254.88</v>
+      </c>
+      <c r="F79" s="5">
+        <f t="shared" si="6"/>
+        <v>339.84000000000003</v>
+      </c>
+      <c r="G79" s="5">
+        <f t="shared" si="7"/>
+        <v>424.8</v>
+      </c>
+      <c r="H79" s="5">
+        <f t="shared" si="8"/>
+        <v>509.76</v>
+      </c>
+      <c r="J79" s="43">
+        <v>3</v>
+      </c>
+      <c r="K79" s="44"/>
+      <c r="L79" s="5">
+        <f t="shared" si="9"/>
+        <v>129.96</v>
+      </c>
+      <c r="M79" s="5">
+        <f t="shared" si="10"/>
+        <v>259.92</v>
+      </c>
+      <c r="N79" s="5">
+        <f t="shared" si="11"/>
+        <v>389.88</v>
+      </c>
+      <c r="O79" s="5">
+        <f t="shared" si="12"/>
+        <v>519.84</v>
+      </c>
+      <c r="P79" s="5">
+        <f t="shared" si="13"/>
+        <v>649.79999999999995</v>
+      </c>
+      <c r="Q79" s="5">
+        <f t="shared" si="14"/>
+        <v>779.76</v>
+      </c>
+      <c r="S79" s="43">
+        <v>3</v>
+      </c>
+      <c r="T79" s="44"/>
+      <c r="U79" s="5">
+        <f t="shared" ref="U79:U88" si="15">($L$23*$C$76)+($A79*$C$76)*$P$25</f>
+        <v>60.96</v>
+      </c>
+      <c r="V79" s="5">
+        <f t="shared" ref="V79:V88" si="16">($L$23*$D$76)+($A79*$D$76)*$P$25</f>
+        <v>121.92</v>
+      </c>
+      <c r="W79" s="5">
+        <f t="shared" ref="W79:W87" si="17">($L$23*$E$76)+($A79*$E$76)*$P$25</f>
+        <v>182.88</v>
+      </c>
+      <c r="X79" s="5">
+        <f t="shared" ref="X79:X88" si="18">($L$23*$F$76)+($A79*$F$76)*$P$25</f>
+        <v>243.84</v>
+      </c>
+      <c r="Y79" s="5">
+        <f t="shared" ref="Y79:Y88" si="19">($L$23*$G$76)+($A79*$G$76)*$P$25</f>
+        <v>304.8</v>
+      </c>
+      <c r="Z79" s="5">
+        <f t="shared" ref="Z79:Z88" si="20">($L$23*$H$76)+($A79*$H$76)*$P$25</f>
+        <v>365.76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="43">
+        <v>4</v>
+      </c>
+      <c r="B80" s="44"/>
+      <c r="C80" s="5">
         <f t="shared" si="3"/>
-        <v>169.92000000000002</v>
-      </c>
-      <c r="E79" s="5">
+        <v>99.95</v>
+      </c>
+      <c r="D80" s="5">
         <f t="shared" si="4"/>
-        <v>254.88</v>
-      </c>
-      <c r="F79" s="5">
+        <v>199.9</v>
+      </c>
+      <c r="E80" s="5">
         <f t="shared" si="5"/>
-        <v>339.84000000000003</v>
-      </c>
-      <c r="G79" s="5">
+        <v>299.85000000000002</v>
+      </c>
+      <c r="F80" s="5">
         <f t="shared" si="6"/>
-        <v>424.8</v>
-      </c>
-      <c r="H79" s="5">
+        <v>399.8</v>
+      </c>
+      <c r="G80" s="5">
         <f t="shared" si="7"/>
-        <v>509.76</v>
-      </c>
-      <c r="J79" s="10">
-        <v>3</v>
-      </c>
-      <c r="K79" s="11"/>
-      <c r="L79" s="5">
+        <v>499.75</v>
+      </c>
+      <c r="H80" s="5">
         <f t="shared" si="8"/>
-        <v>129.96</v>
-      </c>
-      <c r="M79" s="5">
+        <v>599.70000000000005</v>
+      </c>
+      <c r="J80" s="43">
+        <v>4</v>
+      </c>
+      <c r="K80" s="44"/>
+      <c r="L80" s="5">
         <f t="shared" si="9"/>
-        <v>259.92</v>
-      </c>
-      <c r="N79" s="5">
+        <v>159.94999999999999</v>
+      </c>
+      <c r="M80" s="5">
         <f t="shared" si="10"/>
-        <v>389.88</v>
-      </c>
-      <c r="O79" s="5">
+        <v>319.89999999999998</v>
+      </c>
+      <c r="N80" s="5">
         <f t="shared" si="11"/>
-        <v>519.84</v>
-      </c>
-      <c r="P79" s="5">
+        <v>479.85</v>
+      </c>
+      <c r="O80" s="5">
         <f t="shared" si="12"/>
-        <v>649.79999999999995</v>
-      </c>
-      <c r="Q79" s="5">
+        <v>639.79999999999995</v>
+      </c>
+      <c r="P80" s="5">
         <f t="shared" si="13"/>
-        <v>779.76</v>
-      </c>
-      <c r="S79" s="10">
-        <v>3</v>
-      </c>
-      <c r="T79" s="11"/>
-      <c r="U79" s="5">
-        <f t="shared" ref="U79:U88" si="14">($L$23*$C$76)+($A79*$C$76)*$P$25</f>
-        <v>60.96</v>
-      </c>
-      <c r="V79" s="5">
-        <f t="shared" ref="V79:V88" si="15">($L$23*$D$76)+($A79*$D$76)*$P$25</f>
-        <v>121.92</v>
-      </c>
-      <c r="W79" s="5">
-        <f t="shared" ref="W79:W87" si="16">($L$23*$E$76)+($A79*$E$76)*$P$25</f>
-        <v>182.88</v>
-      </c>
-      <c r="X79" s="5">
-        <f t="shared" ref="X79:X88" si="17">($L$23*$F$76)+($A79*$F$76)*$P$25</f>
-        <v>243.84</v>
-      </c>
-      <c r="Y79" s="5">
-        <f t="shared" ref="Y79:Y88" si="18">($L$23*$G$76)+($A79*$G$76)*$P$25</f>
-        <v>304.8</v>
-      </c>
-      <c r="Z79" s="5">
-        <f t="shared" ref="Z79:Z88" si="19">($L$23*$H$76)+($A79*$H$76)*$P$25</f>
-        <v>365.76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
+        <v>799.75</v>
+      </c>
+      <c r="Q80" s="5">
+        <f t="shared" si="14"/>
+        <v>959.7</v>
+      </c>
+      <c r="S80" s="43">
         <v>4</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="5">
-        <f t="shared" si="2"/>
-        <v>99.95</v>
-      </c>
-      <c r="D80" s="5">
+      <c r="T80" s="44"/>
+      <c r="U80" s="5">
+        <f t="shared" si="15"/>
+        <v>67.95</v>
+      </c>
+      <c r="V80" s="5">
+        <f t="shared" si="16"/>
+        <v>135.9</v>
+      </c>
+      <c r="W80" s="5">
+        <f t="shared" si="17"/>
+        <v>203.85</v>
+      </c>
+      <c r="X80" s="5">
+        <f t="shared" si="18"/>
+        <v>271.8</v>
+      </c>
+      <c r="Y80" s="5">
+        <f t="shared" si="19"/>
+        <v>339.75</v>
+      </c>
+      <c r="Z80" s="5">
+        <f t="shared" si="20"/>
+        <v>407.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="43">
+        <v>5</v>
+      </c>
+      <c r="B81" s="44"/>
+      <c r="C81" s="5">
         <f t="shared" si="3"/>
-        <v>199.9</v>
-      </c>
-      <c r="E80" s="5">
+        <v>114.94</v>
+      </c>
+      <c r="D81" s="5">
         <f t="shared" si="4"/>
-        <v>299.85000000000002</v>
-      </c>
-      <c r="F80" s="5">
+        <v>229.88</v>
+      </c>
+      <c r="E81" s="5">
         <f t="shared" si="5"/>
-        <v>399.8</v>
-      </c>
-      <c r="G80" s="5">
+        <v>344.82</v>
+      </c>
+      <c r="F81" s="5">
         <f t="shared" si="6"/>
-        <v>499.75</v>
-      </c>
-      <c r="H80" s="5">
+        <v>459.76</v>
+      </c>
+      <c r="G81" s="5">
         <f t="shared" si="7"/>
-        <v>599.70000000000005</v>
-      </c>
-      <c r="J80" s="10">
-        <v>4</v>
-      </c>
-      <c r="K80" s="11"/>
-      <c r="L80" s="5">
+        <v>574.70000000000005</v>
+      </c>
+      <c r="H81" s="5">
         <f t="shared" si="8"/>
-        <v>159.94999999999999</v>
-      </c>
-      <c r="M80" s="5">
+        <v>689.64</v>
+      </c>
+      <c r="J81" s="43">
+        <v>5</v>
+      </c>
+      <c r="K81" s="44"/>
+      <c r="L81" s="5">
         <f t="shared" si="9"/>
-        <v>319.89999999999998</v>
-      </c>
-      <c r="N80" s="5">
+        <v>189.94</v>
+      </c>
+      <c r="M81" s="5">
         <f t="shared" si="10"/>
-        <v>479.85</v>
-      </c>
-      <c r="O80" s="5">
+        <v>379.88</v>
+      </c>
+      <c r="N81" s="5">
         <f t="shared" si="11"/>
-        <v>639.79999999999995</v>
-      </c>
-      <c r="P80" s="5">
+        <v>569.81999999999994</v>
+      </c>
+      <c r="O81" s="5">
         <f t="shared" si="12"/>
-        <v>799.75</v>
-      </c>
-      <c r="Q80" s="5">
+        <v>759.76</v>
+      </c>
+      <c r="P81" s="5">
         <f t="shared" si="13"/>
-        <v>959.7</v>
-      </c>
-      <c r="S80" s="10">
-        <v>4</v>
-      </c>
-      <c r="T80" s="11"/>
-      <c r="U80" s="5">
+        <v>949.7</v>
+      </c>
+      <c r="Q81" s="5">
         <f t="shared" si="14"/>
-        <v>67.95</v>
-      </c>
-      <c r="V80" s="5">
+        <v>1139.6399999999999</v>
+      </c>
+      <c r="S81" s="43">
+        <v>5</v>
+      </c>
+      <c r="T81" s="44"/>
+      <c r="U81" s="5">
         <f t="shared" si="15"/>
-        <v>135.9</v>
-      </c>
-      <c r="W80" s="5">
+        <v>74.94</v>
+      </c>
+      <c r="V81" s="5">
         <f t="shared" si="16"/>
-        <v>203.85</v>
-      </c>
-      <c r="X80" s="5">
+        <v>149.88</v>
+      </c>
+      <c r="W81" s="5">
         <f t="shared" si="17"/>
-        <v>271.8</v>
-      </c>
-      <c r="Y80" s="5">
+        <v>224.82</v>
+      </c>
+      <c r="X81" s="5">
         <f t="shared" si="18"/>
-        <v>339.75</v>
-      </c>
-      <c r="Z80" s="5">
+        <v>299.76</v>
+      </c>
+      <c r="Y81" s="5">
         <f t="shared" si="19"/>
-        <v>407.7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
-        <v>5</v>
-      </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="5">
-        <f t="shared" si="2"/>
-        <v>114.94</v>
-      </c>
-      <c r="D81" s="5">
+        <v>374.70000000000005</v>
+      </c>
+      <c r="Z81" s="5">
+        <f t="shared" si="20"/>
+        <v>449.64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="43">
+        <v>6</v>
+      </c>
+      <c r="B82" s="44"/>
+      <c r="C82" s="5">
         <f t="shared" si="3"/>
-        <v>229.88</v>
-      </c>
-      <c r="E81" s="5">
+        <v>129.93</v>
+      </c>
+      <c r="D82" s="5">
         <f t="shared" si="4"/>
-        <v>344.82</v>
-      </c>
-      <c r="F81" s="5">
+        <v>259.86</v>
+      </c>
+      <c r="E82" s="5">
         <f t="shared" si="5"/>
-        <v>459.76</v>
-      </c>
-      <c r="G81" s="5">
+        <v>389.78999999999996</v>
+      </c>
+      <c r="F82" s="5">
         <f t="shared" si="6"/>
-        <v>574.70000000000005</v>
-      </c>
-      <c r="H81" s="5">
+        <v>519.72</v>
+      </c>
+      <c r="G82" s="5">
         <f t="shared" si="7"/>
-        <v>689.64</v>
-      </c>
-      <c r="J81" s="10">
-        <v>5</v>
-      </c>
-      <c r="K81" s="11"/>
-      <c r="L81" s="5">
+        <v>649.65</v>
+      </c>
+      <c r="H82" s="5">
         <f t="shared" si="8"/>
-        <v>189.94</v>
-      </c>
-      <c r="M81" s="5">
+        <v>779.57999999999993</v>
+      </c>
+      <c r="J82" s="43">
+        <v>6</v>
+      </c>
+      <c r="K82" s="44"/>
+      <c r="L82" s="5">
         <f t="shared" si="9"/>
-        <v>379.88</v>
-      </c>
-      <c r="N81" s="5">
+        <v>219.93</v>
+      </c>
+      <c r="M82" s="5">
         <f t="shared" si="10"/>
-        <v>569.81999999999994</v>
-      </c>
-      <c r="O81" s="5">
+        <v>439.86</v>
+      </c>
+      <c r="N82" s="5">
         <f t="shared" si="11"/>
-        <v>759.76</v>
-      </c>
-      <c r="P81" s="5">
+        <v>659.79</v>
+      </c>
+      <c r="O82" s="5">
         <f t="shared" si="12"/>
-        <v>949.7</v>
-      </c>
-      <c r="Q81" s="5">
+        <v>879.72</v>
+      </c>
+      <c r="P82" s="5">
         <f t="shared" si="13"/>
-        <v>1139.6399999999999</v>
-      </c>
-      <c r="S81" s="10">
-        <v>5</v>
-      </c>
-      <c r="T81" s="11"/>
-      <c r="U81" s="5">
+        <v>1099.6499999999999</v>
+      </c>
+      <c r="Q82" s="5">
         <f t="shared" si="14"/>
-        <v>74.94</v>
-      </c>
-      <c r="V81" s="5">
+        <v>1319.58</v>
+      </c>
+      <c r="S82" s="43">
+        <v>6</v>
+      </c>
+      <c r="T82" s="44"/>
+      <c r="U82" s="5">
         <f t="shared" si="15"/>
-        <v>149.88</v>
-      </c>
-      <c r="W81" s="5">
+        <v>81.93</v>
+      </c>
+      <c r="V82" s="5">
         <f t="shared" si="16"/>
-        <v>224.82</v>
-      </c>
-      <c r="X81" s="5">
+        <v>163.86</v>
+      </c>
+      <c r="W82" s="5">
         <f t="shared" si="17"/>
-        <v>299.76</v>
-      </c>
-      <c r="Y81" s="5">
+        <v>245.79000000000002</v>
+      </c>
+      <c r="X82" s="5">
         <f t="shared" si="18"/>
-        <v>374.70000000000005</v>
-      </c>
-      <c r="Z81" s="5">
+        <v>327.72</v>
+      </c>
+      <c r="Y82" s="5">
         <f t="shared" si="19"/>
-        <v>449.64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A82" s="10">
-        <v>6</v>
-      </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="5">
-        <f t="shared" si="2"/>
-        <v>129.93</v>
-      </c>
-      <c r="D82" s="5">
+        <v>409.65000000000003</v>
+      </c>
+      <c r="Z82" s="5">
+        <f t="shared" si="20"/>
+        <v>491.58000000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="43">
+        <v>7</v>
+      </c>
+      <c r="B83" s="44"/>
+      <c r="C83" s="5">
         <f t="shared" si="3"/>
-        <v>259.86</v>
-      </c>
-      <c r="E82" s="5">
+        <v>144.92000000000002</v>
+      </c>
+      <c r="D83" s="5">
         <f t="shared" si="4"/>
-        <v>389.78999999999996</v>
-      </c>
-      <c r="F82" s="5">
+        <v>289.84000000000003</v>
+      </c>
+      <c r="E83" s="5">
         <f t="shared" si="5"/>
-        <v>519.72</v>
-      </c>
-      <c r="G82" s="5">
+        <v>434.76</v>
+      </c>
+      <c r="F83" s="5">
         <f t="shared" si="6"/>
-        <v>649.65</v>
-      </c>
-      <c r="H82" s="5">
+        <v>579.68000000000006</v>
+      </c>
+      <c r="G83" s="5">
         <f t="shared" si="7"/>
-        <v>779.57999999999993</v>
-      </c>
-      <c r="J82" s="10">
-        <v>6</v>
-      </c>
-      <c r="K82" s="11"/>
-      <c r="L82" s="5">
+        <v>724.6</v>
+      </c>
+      <c r="H83" s="5">
         <f t="shared" si="8"/>
-        <v>219.93</v>
-      </c>
-      <c r="M82" s="5">
+        <v>869.52</v>
+      </c>
+      <c r="J83" s="43">
+        <v>7</v>
+      </c>
+      <c r="K83" s="44"/>
+      <c r="L83" s="5">
         <f t="shared" si="9"/>
-        <v>439.86</v>
-      </c>
-      <c r="N82" s="5">
+        <v>249.92</v>
+      </c>
+      <c r="M83" s="5">
         <f t="shared" si="10"/>
-        <v>659.79</v>
-      </c>
-      <c r="O82" s="5">
+        <v>499.84</v>
+      </c>
+      <c r="N83" s="5">
         <f t="shared" si="11"/>
-        <v>879.72</v>
-      </c>
-      <c r="P82" s="5">
+        <v>749.76</v>
+      </c>
+      <c r="O83" s="5">
         <f t="shared" si="12"/>
-        <v>1099.6499999999999</v>
-      </c>
-      <c r="Q82" s="5">
+        <v>999.68</v>
+      </c>
+      <c r="P83" s="5">
         <f t="shared" si="13"/>
-        <v>1319.58</v>
-      </c>
-      <c r="S82" s="10">
-        <v>6</v>
-      </c>
-      <c r="T82" s="11"/>
-      <c r="U82" s="5">
+        <v>1249.5999999999999</v>
+      </c>
+      <c r="Q83" s="5">
         <f t="shared" si="14"/>
-        <v>81.93</v>
-      </c>
-      <c r="V82" s="5">
+        <v>1499.52</v>
+      </c>
+      <c r="S83" s="43">
+        <v>7</v>
+      </c>
+      <c r="T83" s="44"/>
+      <c r="U83" s="5">
         <f t="shared" si="15"/>
-        <v>163.86</v>
-      </c>
-      <c r="W82" s="5">
+        <v>88.92</v>
+      </c>
+      <c r="V83" s="5">
         <f t="shared" si="16"/>
-        <v>245.79000000000002</v>
-      </c>
-      <c r="X82" s="5">
+        <v>177.84</v>
+      </c>
+      <c r="W83" s="5">
         <f t="shared" si="17"/>
-        <v>327.72</v>
-      </c>
-      <c r="Y82" s="5">
+        <v>266.76</v>
+      </c>
+      <c r="X83" s="5">
         <f t="shared" si="18"/>
-        <v>409.65000000000003</v>
-      </c>
-      <c r="Z82" s="5">
+        <v>355.68</v>
+      </c>
+      <c r="Y83" s="5">
         <f t="shared" si="19"/>
-        <v>491.58000000000004</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A83" s="10">
-        <v>7</v>
-      </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="5">
-        <f t="shared" si="2"/>
-        <v>144.92000000000002</v>
-      </c>
-      <c r="D83" s="5">
+        <v>444.6</v>
+      </c>
+      <c r="Z83" s="5">
+        <f t="shared" si="20"/>
+        <v>533.52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="43">
+        <v>8</v>
+      </c>
+      <c r="B84" s="44"/>
+      <c r="C84" s="5">
         <f t="shared" si="3"/>
-        <v>289.84000000000003</v>
-      </c>
-      <c r="E83" s="5">
+        <v>159.91</v>
+      </c>
+      <c r="D84" s="5">
         <f t="shared" si="4"/>
-        <v>434.76</v>
-      </c>
-      <c r="F83" s="5">
+        <v>319.82</v>
+      </c>
+      <c r="E84" s="5">
         <f t="shared" si="5"/>
-        <v>579.68000000000006</v>
-      </c>
-      <c r="G83" s="5">
+        <v>479.73</v>
+      </c>
+      <c r="F84" s="5">
         <f t="shared" si="6"/>
-        <v>724.6</v>
-      </c>
-      <c r="H83" s="5">
+        <v>639.64</v>
+      </c>
+      <c r="G84" s="5">
         <f t="shared" si="7"/>
-        <v>869.52</v>
-      </c>
-      <c r="J83" s="10">
-        <v>7</v>
-      </c>
-      <c r="K83" s="11"/>
-      <c r="L83" s="5">
+        <v>799.55000000000007</v>
+      </c>
+      <c r="H84" s="5">
         <f t="shared" si="8"/>
-        <v>249.92</v>
-      </c>
-      <c r="M83" s="5">
+        <v>959.46</v>
+      </c>
+      <c r="J84" s="43">
+        <v>8</v>
+      </c>
+      <c r="K84" s="44"/>
+      <c r="L84" s="5">
         <f t="shared" si="9"/>
-        <v>499.84</v>
-      </c>
-      <c r="N83" s="5">
+        <v>279.90999999999997</v>
+      </c>
+      <c r="M84" s="5">
         <f t="shared" si="10"/>
-        <v>749.76</v>
-      </c>
-      <c r="O83" s="5">
+        <v>559.81999999999994</v>
+      </c>
+      <c r="N84" s="5">
         <f t="shared" si="11"/>
-        <v>999.68</v>
-      </c>
-      <c r="P83" s="5">
+        <v>839.73</v>
+      </c>
+      <c r="O84" s="5">
         <f t="shared" si="12"/>
-        <v>1249.5999999999999</v>
-      </c>
-      <c r="Q83" s="5">
+        <v>1119.6399999999999</v>
+      </c>
+      <c r="P84" s="5">
         <f t="shared" si="13"/>
-        <v>1499.52</v>
-      </c>
-      <c r="S83" s="10">
-        <v>7</v>
-      </c>
-      <c r="T83" s="11"/>
-      <c r="U83" s="5">
+        <v>1399.55</v>
+      </c>
+      <c r="Q84" s="5">
         <f t="shared" si="14"/>
-        <v>88.92</v>
-      </c>
-      <c r="V83" s="5">
+        <v>1679.46</v>
+      </c>
+      <c r="S84" s="43">
+        <v>8</v>
+      </c>
+      <c r="T84" s="44"/>
+      <c r="U84" s="5">
         <f t="shared" si="15"/>
-        <v>177.84</v>
-      </c>
-      <c r="W83" s="5">
+        <v>95.91</v>
+      </c>
+      <c r="V84" s="5">
         <f t="shared" si="16"/>
-        <v>266.76</v>
-      </c>
-      <c r="X83" s="5">
+        <v>191.82</v>
+      </c>
+      <c r="W84" s="5">
         <f t="shared" si="17"/>
-        <v>355.68</v>
-      </c>
-      <c r="Y83" s="5">
+        <v>287.73</v>
+      </c>
+      <c r="X84" s="5">
         <f t="shared" si="18"/>
-        <v>444.6</v>
-      </c>
-      <c r="Z83" s="5">
+        <v>383.64</v>
+      </c>
+      <c r="Y84" s="5">
         <f t="shared" si="19"/>
-        <v>533.52</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A84" s="10">
-        <v>8</v>
-      </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="5">
-        <f t="shared" si="2"/>
-        <v>159.91</v>
-      </c>
-      <c r="D84" s="5">
+        <v>479.55000000000007</v>
+      </c>
+      <c r="Z84" s="5">
+        <f t="shared" si="20"/>
+        <v>575.46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="43">
+        <v>9</v>
+      </c>
+      <c r="B85" s="44"/>
+      <c r="C85" s="5">
         <f t="shared" si="3"/>
-        <v>319.82</v>
-      </c>
-      <c r="E84" s="5">
+        <v>174.9</v>
+      </c>
+      <c r="D85" s="5">
         <f t="shared" si="4"/>
-        <v>479.73</v>
-      </c>
-      <c r="F84" s="5">
+        <v>349.8</v>
+      </c>
+      <c r="E85" s="5">
         <f t="shared" si="5"/>
-        <v>639.64</v>
-      </c>
-      <c r="G84" s="5">
+        <v>524.70000000000005</v>
+      </c>
+      <c r="F85" s="5">
         <f t="shared" si="6"/>
-        <v>799.55000000000007</v>
-      </c>
-      <c r="H84" s="5">
+        <v>699.6</v>
+      </c>
+      <c r="G85" s="5">
         <f t="shared" si="7"/>
-        <v>959.46</v>
-      </c>
-      <c r="J84" s="10">
-        <v>8</v>
-      </c>
-      <c r="K84" s="11"/>
-      <c r="L84" s="5">
+        <v>874.5</v>
+      </c>
+      <c r="H85" s="5">
         <f t="shared" si="8"/>
-        <v>279.90999999999997</v>
-      </c>
-      <c r="M84" s="5">
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="J85" s="43">
+        <v>9</v>
+      </c>
+      <c r="K85" s="44"/>
+      <c r="L85" s="5">
         <f t="shared" si="9"/>
-        <v>559.81999999999994</v>
-      </c>
-      <c r="N84" s="5">
+        <v>309.89999999999998</v>
+      </c>
+      <c r="M85" s="5">
         <f t="shared" si="10"/>
-        <v>839.73</v>
-      </c>
-      <c r="O84" s="5">
+        <v>619.79999999999995</v>
+      </c>
+      <c r="N85" s="5">
         <f t="shared" si="11"/>
-        <v>1119.6399999999999</v>
-      </c>
-      <c r="P84" s="5">
+        <v>929.69999999999993</v>
+      </c>
+      <c r="O85" s="5">
         <f t="shared" si="12"/>
-        <v>1399.55</v>
-      </c>
-      <c r="Q84" s="5">
+        <v>1239.5999999999999</v>
+      </c>
+      <c r="P85" s="5">
         <f t="shared" si="13"/>
-        <v>1679.46</v>
-      </c>
-      <c r="S84" s="10">
-        <v>8</v>
-      </c>
-      <c r="T84" s="11"/>
-      <c r="U84" s="5">
+        <v>1549.5</v>
+      </c>
+      <c r="Q85" s="5">
         <f t="shared" si="14"/>
-        <v>95.91</v>
-      </c>
-      <c r="V84" s="5">
+        <v>1859.3999999999999</v>
+      </c>
+      <c r="S85" s="43">
+        <v>9</v>
+      </c>
+      <c r="T85" s="44"/>
+      <c r="U85" s="5">
         <f t="shared" si="15"/>
-        <v>191.82</v>
-      </c>
-      <c r="W84" s="5">
+        <v>102.9</v>
+      </c>
+      <c r="V85" s="5">
         <f t="shared" si="16"/>
-        <v>287.73</v>
-      </c>
-      <c r="X84" s="5">
+        <v>205.8</v>
+      </c>
+      <c r="W85" s="5">
         <f t="shared" si="17"/>
-        <v>383.64</v>
-      </c>
-      <c r="Y84" s="5">
+        <v>308.70000000000005</v>
+      </c>
+      <c r="X85" s="5">
         <f t="shared" si="18"/>
-        <v>479.55000000000007</v>
-      </c>
-      <c r="Z84" s="5">
+        <v>411.6</v>
+      </c>
+      <c r="Y85" s="5">
         <f t="shared" si="19"/>
-        <v>575.46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A85" s="10">
-        <v>9</v>
-      </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="5">
-        <f t="shared" si="2"/>
-        <v>174.9</v>
-      </c>
-      <c r="D85" s="5">
+        <v>514.5</v>
+      </c>
+      <c r="Z85" s="5">
+        <f t="shared" si="20"/>
+        <v>617.40000000000009</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="43">
+        <v>10</v>
+      </c>
+      <c r="B86" s="44"/>
+      <c r="C86" s="5">
         <f t="shared" si="3"/>
-        <v>349.8</v>
-      </c>
-      <c r="E85" s="5">
+        <v>189.89000000000001</v>
+      </c>
+      <c r="D86" s="5">
         <f t="shared" si="4"/>
-        <v>524.70000000000005</v>
-      </c>
-      <c r="F85" s="5">
+        <v>379.78000000000003</v>
+      </c>
+      <c r="E86" s="5">
         <f t="shared" si="5"/>
-        <v>699.6</v>
-      </c>
-      <c r="G85" s="5">
+        <v>569.66999999999996</v>
+      </c>
+      <c r="F86" s="5">
         <f t="shared" si="6"/>
-        <v>874.5</v>
-      </c>
-      <c r="H85" s="5">
+        <v>759.56000000000006</v>
+      </c>
+      <c r="G86" s="5">
         <f t="shared" si="7"/>
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="J85" s="10">
-        <v>9</v>
-      </c>
-      <c r="K85" s="11"/>
-      <c r="L85" s="5">
+        <v>949.45</v>
+      </c>
+      <c r="H86" s="5">
         <f t="shared" si="8"/>
-        <v>309.89999999999998</v>
-      </c>
-      <c r="M85" s="5">
+        <v>1139.3399999999999</v>
+      </c>
+      <c r="J86" s="43">
+        <v>10</v>
+      </c>
+      <c r="K86" s="44"/>
+      <c r="L86" s="5">
         <f t="shared" si="9"/>
-        <v>619.79999999999995</v>
-      </c>
-      <c r="N85" s="5">
+        <v>339.89</v>
+      </c>
+      <c r="M86" s="5">
         <f t="shared" si="10"/>
-        <v>929.69999999999993</v>
-      </c>
-      <c r="O85" s="5">
+        <v>679.78</v>
+      </c>
+      <c r="N86" s="5">
         <f t="shared" si="11"/>
-        <v>1239.5999999999999</v>
-      </c>
-      <c r="P85" s="5">
+        <v>1019.67</v>
+      </c>
+      <c r="O86" s="5">
         <f t="shared" si="12"/>
-        <v>1549.5</v>
-      </c>
-      <c r="Q85" s="5">
+        <v>1359.56</v>
+      </c>
+      <c r="P86" s="5">
         <f t="shared" si="13"/>
-        <v>1859.3999999999999</v>
-      </c>
-      <c r="S85" s="10">
-        <v>9</v>
-      </c>
-      <c r="T85" s="11"/>
-      <c r="U85" s="5">
+        <v>1699.45</v>
+      </c>
+      <c r="Q86" s="5">
         <f t="shared" si="14"/>
-        <v>102.9</v>
-      </c>
-      <c r="V85" s="5">
+        <v>2039.34</v>
+      </c>
+      <c r="S86" s="43">
+        <v>10</v>
+      </c>
+      <c r="T86" s="44"/>
+      <c r="U86" s="5">
         <f t="shared" si="15"/>
-        <v>205.8</v>
-      </c>
-      <c r="W85" s="5">
+        <v>109.89000000000001</v>
+      </c>
+      <c r="V86" s="5">
         <f t="shared" si="16"/>
-        <v>308.70000000000005</v>
-      </c>
-      <c r="X85" s="5">
+        <v>219.78000000000003</v>
+      </c>
+      <c r="W86" s="5">
         <f t="shared" si="17"/>
-        <v>411.6</v>
-      </c>
-      <c r="Y85" s="5">
+        <v>329.67</v>
+      </c>
+      <c r="X86" s="5">
         <f t="shared" si="18"/>
-        <v>514.5</v>
-      </c>
-      <c r="Z85" s="5">
+        <v>439.56000000000006</v>
+      </c>
+      <c r="Y86" s="5">
         <f t="shared" si="19"/>
-        <v>617.40000000000009</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A86" s="10">
-        <v>10</v>
-      </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="5">
-        <f t="shared" si="2"/>
-        <v>189.89000000000001</v>
-      </c>
-      <c r="D86" s="5">
+        <v>549.45000000000005</v>
+      </c>
+      <c r="Z86" s="5">
+        <f t="shared" si="20"/>
+        <v>659.34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="43">
+        <v>11</v>
+      </c>
+      <c r="B87" s="44"/>
+      <c r="C87" s="5">
         <f t="shared" si="3"/>
-        <v>379.78000000000003</v>
-      </c>
-      <c r="E86" s="5">
+        <v>204.88000000000002</v>
+      </c>
+      <c r="D87" s="5">
         <f t="shared" si="4"/>
-        <v>569.66999999999996</v>
-      </c>
-      <c r="F86" s="5">
+        <v>409.76000000000005</v>
+      </c>
+      <c r="E87" s="5">
         <f t="shared" si="5"/>
-        <v>759.56000000000006</v>
-      </c>
-      <c r="G86" s="5">
+        <v>614.64</v>
+      </c>
+      <c r="F87" s="5">
         <f t="shared" si="6"/>
-        <v>949.45</v>
-      </c>
-      <c r="H86" s="5">
+        <v>819.5200000000001</v>
+      </c>
+      <c r="G87" s="5">
         <f t="shared" si="7"/>
-        <v>1139.3399999999999</v>
-      </c>
-      <c r="J86" s="10">
-        <v>10</v>
-      </c>
-      <c r="K86" s="11"/>
-      <c r="L86" s="5">
+        <v>1024.4000000000001</v>
+      </c>
+      <c r="H87" s="5">
         <f t="shared" si="8"/>
-        <v>339.89</v>
-      </c>
-      <c r="M86" s="5">
+        <v>1229.28</v>
+      </c>
+      <c r="J87" s="43">
+        <v>11</v>
+      </c>
+      <c r="K87" s="44"/>
+      <c r="L87" s="5">
         <f t="shared" si="9"/>
-        <v>679.78</v>
-      </c>
-      <c r="N86" s="5">
+        <v>369.88</v>
+      </c>
+      <c r="M87" s="5">
         <f t="shared" si="10"/>
-        <v>1019.67</v>
-      </c>
-      <c r="O86" s="5">
+        <v>739.76</v>
+      </c>
+      <c r="N87" s="5">
         <f t="shared" si="11"/>
-        <v>1359.56</v>
-      </c>
-      <c r="P86" s="5">
+        <v>1109.6399999999999</v>
+      </c>
+      <c r="O87" s="5">
         <f t="shared" si="12"/>
-        <v>1699.45</v>
-      </c>
-      <c r="Q86" s="5">
+        <v>1479.52</v>
+      </c>
+      <c r="P87" s="5">
         <f t="shared" si="13"/>
-        <v>2039.34</v>
-      </c>
-      <c r="S86" s="10">
-        <v>10</v>
-      </c>
-      <c r="T86" s="11"/>
-      <c r="U86" s="5">
+        <v>1849.3999999999999</v>
+      </c>
+      <c r="Q87" s="5">
         <f t="shared" si="14"/>
-        <v>109.89000000000001</v>
-      </c>
-      <c r="V86" s="5">
+        <v>2219.2799999999997</v>
+      </c>
+      <c r="S87" s="43">
+        <v>11</v>
+      </c>
+      <c r="T87" s="44"/>
+      <c r="U87" s="5">
         <f t="shared" si="15"/>
-        <v>219.78000000000003</v>
-      </c>
-      <c r="W86" s="5">
+        <v>116.88</v>
+      </c>
+      <c r="V87" s="5">
         <f t="shared" si="16"/>
-        <v>329.67</v>
-      </c>
-      <c r="X86" s="5">
+        <v>233.76</v>
+      </c>
+      <c r="W87" s="5">
         <f t="shared" si="17"/>
-        <v>439.56000000000006</v>
-      </c>
-      <c r="Y86" s="5">
+        <v>350.64</v>
+      </c>
+      <c r="X87" s="5">
         <f t="shared" si="18"/>
-        <v>549.45000000000005</v>
-      </c>
-      <c r="Z86" s="5">
+        <v>467.52</v>
+      </c>
+      <c r="Y87" s="5">
         <f t="shared" si="19"/>
-        <v>659.34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A87" s="10">
-        <v>11</v>
-      </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="5">
-        <f t="shared" si="2"/>
-        <v>204.88000000000002</v>
-      </c>
-      <c r="D87" s="5">
+        <v>584.4</v>
+      </c>
+      <c r="Z87" s="5">
+        <f t="shared" si="20"/>
+        <v>701.28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="43">
+        <v>12</v>
+      </c>
+      <c r="B88" s="44"/>
+      <c r="C88" s="5">
         <f t="shared" si="3"/>
-        <v>409.76000000000005</v>
-      </c>
-      <c r="E87" s="5">
+        <v>219.87</v>
+      </c>
+      <c r="D88" s="5">
         <f t="shared" si="4"/>
-        <v>614.64</v>
-      </c>
-      <c r="F87" s="5">
+        <v>439.74</v>
+      </c>
+      <c r="E88" s="5">
         <f t="shared" si="5"/>
-        <v>819.5200000000001</v>
-      </c>
-      <c r="G87" s="5">
+        <v>659.61</v>
+      </c>
+      <c r="F88" s="5">
         <f t="shared" si="6"/>
-        <v>1024.4000000000001</v>
-      </c>
-      <c r="H87" s="5">
+        <v>879.48</v>
+      </c>
+      <c r="G88" s="5">
         <f t="shared" si="7"/>
-        <v>1229.28</v>
-      </c>
-      <c r="J87" s="10">
-        <v>11</v>
-      </c>
-      <c r="K87" s="11"/>
-      <c r="L87" s="5">
+        <v>1099.3499999999999</v>
+      </c>
+      <c r="H88" s="5">
         <f t="shared" si="8"/>
-        <v>369.88</v>
-      </c>
-      <c r="M87" s="5">
+        <v>1319.22</v>
+      </c>
+      <c r="J88" s="43">
+        <v>12</v>
+      </c>
+      <c r="K88" s="44"/>
+      <c r="L88" s="5">
         <f t="shared" si="9"/>
-        <v>739.76</v>
-      </c>
-      <c r="N87" s="5">
+        <v>399.87</v>
+      </c>
+      <c r="M88" s="5">
         <f t="shared" si="10"/>
-        <v>1109.6399999999999</v>
-      </c>
-      <c r="O87" s="5">
+        <v>799.74</v>
+      </c>
+      <c r="N88" s="5">
         <f t="shared" si="11"/>
-        <v>1479.52</v>
-      </c>
-      <c r="P87" s="5">
+        <v>1199.6099999999999</v>
+      </c>
+      <c r="O88" s="5">
         <f t="shared" si="12"/>
-        <v>1849.3999999999999</v>
-      </c>
-      <c r="Q87" s="5">
+        <v>1599.48</v>
+      </c>
+      <c r="P88" s="5">
         <f t="shared" si="13"/>
-        <v>2219.2799999999997</v>
-      </c>
-      <c r="S87" s="10">
-        <v>11</v>
-      </c>
-      <c r="T87" s="11"/>
-      <c r="U87" s="5">
+        <v>1999.35</v>
+      </c>
+      <c r="Q88" s="5">
         <f t="shared" si="14"/>
-        <v>116.88</v>
-      </c>
-      <c r="V87" s="5">
+        <v>2399.2199999999998</v>
+      </c>
+      <c r="S88" s="43">
+        <v>12</v>
+      </c>
+      <c r="T88" s="44"/>
+      <c r="U88" s="5">
         <f t="shared" si="15"/>
-        <v>233.76</v>
-      </c>
-      <c r="W87" s="5">
+        <v>123.87</v>
+      </c>
+      <c r="V88" s="5">
         <f t="shared" si="16"/>
-        <v>350.64</v>
-      </c>
-      <c r="X87" s="5">
-        <f t="shared" si="17"/>
-        <v>467.52</v>
-      </c>
-      <c r="Y87" s="5">
-        <f t="shared" si="18"/>
-        <v>584.4</v>
-      </c>
-      <c r="Z87" s="5">
-        <f t="shared" si="19"/>
-        <v>701.28</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="10">
-        <v>12</v>
-      </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="5">
-        <f t="shared" si="2"/>
-        <v>219.87</v>
-      </c>
-      <c r="D88" s="5">
-        <f t="shared" si="3"/>
-        <v>439.74</v>
-      </c>
-      <c r="E88" s="5">
-        <f t="shared" si="4"/>
-        <v>659.61</v>
-      </c>
-      <c r="F88" s="5">
-        <f t="shared" si="5"/>
-        <v>879.48</v>
-      </c>
-      <c r="G88" s="5">
-        <f t="shared" si="6"/>
-        <v>1099.3499999999999</v>
-      </c>
-      <c r="H88" s="5">
-        <f t="shared" si="7"/>
-        <v>1319.22</v>
-      </c>
-      <c r="J88" s="10">
-        <v>12</v>
-      </c>
-      <c r="K88" s="11"/>
-      <c r="L88" s="5">
-        <f t="shared" si="8"/>
-        <v>399.87</v>
-      </c>
-      <c r="M88" s="5">
-        <f t="shared" si="9"/>
-        <v>799.74</v>
-      </c>
-      <c r="N88" s="5">
-        <f t="shared" si="10"/>
-        <v>1199.6099999999999</v>
-      </c>
-      <c r="O88" s="5">
-        <f t="shared" si="11"/>
-        <v>1599.48</v>
-      </c>
-      <c r="P88" s="5">
-        <f t="shared" si="12"/>
-        <v>1999.35</v>
-      </c>
-      <c r="Q88" s="5">
-        <f t="shared" si="13"/>
-        <v>2399.2199999999998</v>
-      </c>
-      <c r="S88" s="10">
-        <v>12</v>
-      </c>
-      <c r="T88" s="11"/>
-      <c r="U88" s="5">
-        <f t="shared" si="14"/>
-        <v>123.87</v>
-      </c>
-      <c r="V88" s="5">
-        <f t="shared" si="15"/>
         <v>247.74</v>
       </c>
       <c r="W88" s="5">
@@ -4257,430 +4571,945 @@
         <v>371.61</v>
       </c>
       <c r="X88" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>495.48</v>
       </c>
       <c r="Y88" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>619.35</v>
       </c>
       <c r="Z88" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>743.22</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="16" t="s">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J93" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="K93" s="45"/>
+      <c r="L93" s="45"/>
+      <c r="M93" s="45"/>
+      <c r="N93" s="45"/>
+      <c r="O93" s="45"/>
+      <c r="P93" s="45"/>
+      <c r="Q93" s="45"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J94" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="K94" s="74"/>
+      <c r="L94" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="M94" s="71"/>
+      <c r="N94" s="71"/>
+      <c r="O94" s="71"/>
+      <c r="P94" s="71"/>
+      <c r="Q94" s="72"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J95" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="K95" s="58"/>
+      <c r="L95" s="75">
+        <v>12</v>
+      </c>
+      <c r="M95" s="75">
+        <v>24</v>
+      </c>
+      <c r="N95" s="75">
+        <v>36</v>
+      </c>
+      <c r="O95" s="75">
+        <v>48</v>
+      </c>
+      <c r="P95" s="75">
+        <v>60</v>
+      </c>
+      <c r="Q95" s="75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J96" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="K96" s="58"/>
+      <c r="L96" s="5">
+        <f>C88 + L95 * (L29 + L30 + L31) * 5%</f>
+        <v>227.352</v>
+      </c>
+      <c r="M96" s="5">
+        <f>D88 + M95 * (L29 + L30 + L31) * 5%</f>
+        <v>454.70400000000001</v>
+      </c>
+      <c r="N96" s="5">
+        <f>E88 + N95 * (L29 + L30 + L31) * 5%</f>
+        <v>682.05600000000004</v>
+      </c>
+      <c r="O96" s="5">
+        <f>F88 +O95 * (L29 + L30 + L31) * 5%</f>
+        <v>909.40800000000002</v>
+      </c>
+      <c r="P96" s="5">
+        <f>G88 + P95 * (L29 + L30 + L31) * 5%</f>
+        <v>1136.76</v>
+      </c>
+      <c r="Q96" s="5">
+        <f>H88 + Q95 * (L29 + L30 + L31) * 5%</f>
+        <v>1364.1120000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J97" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="K97" s="58"/>
+      <c r="L97" s="5">
+        <f>C88 + L95 * (L29 + L30 + L31) * 15%</f>
+        <v>242.316</v>
+      </c>
+      <c r="M97" s="5">
+        <f>D88 + M95 * (L29 + L30 + L31) * 15%</f>
+        <v>484.63200000000001</v>
+      </c>
+      <c r="N97" s="5">
+        <f>E88 +N95 * (L29 + L30 + L31) * 15%</f>
+        <v>726.94799999999998</v>
+      </c>
+      <c r="O97" s="5">
+        <f>F88 + O95 * (L29 + L30 + L31) * 15%</f>
+        <v>969.26400000000001</v>
+      </c>
+      <c r="P97" s="5">
+        <f>G88 + P95 * (L29 + L30 + L31) * 15%</f>
+        <v>1211.58</v>
+      </c>
+      <c r="Q97" s="5">
+        <f>H88 + Q95 * (L29 + L30 + L31) * 15%</f>
+        <v>1453.896</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J98" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="K98" s="58"/>
+      <c r="L98" s="5">
+        <f>C88 + L95 * (L29 + L30 + L31) * 25%</f>
+        <v>257.28000000000003</v>
+      </c>
+      <c r="M98" s="5">
+        <f>D88 + M95 * (L29 + L30 + L31) * 25%</f>
+        <v>514.56000000000006</v>
+      </c>
+      <c r="N98" s="5">
+        <f>E88 +N95 * (L29 + L30 + L31) * 25%</f>
+        <v>771.84</v>
+      </c>
+      <c r="O98" s="5">
+        <f>F88 + O95 * (L29 + L30 + L31) * 25%</f>
+        <v>1029.1200000000001</v>
+      </c>
+      <c r="P98" s="5">
+        <f>G88 + P95 * (L29 + L30 + L31) * 25%</f>
+        <v>1286.3999999999999</v>
+      </c>
+      <c r="Q98" s="5">
+        <f>H88 + Q95 * (L29 + L30 + L31) * 25%</f>
+        <v>1543.68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J101" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="K101" s="45"/>
+      <c r="L101" s="45"/>
+      <c r="M101" s="45"/>
+      <c r="N101" s="45"/>
+      <c r="O101" s="45"/>
+      <c r="P101" s="45"/>
+      <c r="Q101" s="45"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J102" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="K102" s="74"/>
+      <c r="L102" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="M102" s="71"/>
+      <c r="N102" s="71"/>
+      <c r="O102" s="71"/>
+      <c r="P102" s="71"/>
+      <c r="Q102" s="72"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J103" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="K103" s="58"/>
+      <c r="L103" s="75">
+        <v>12</v>
+      </c>
+      <c r="M103" s="75">
+        <v>24</v>
+      </c>
+      <c r="N103" s="75">
+        <v>36</v>
+      </c>
+      <c r="O103" s="75">
+        <v>48</v>
+      </c>
+      <c r="P103" s="75">
+        <v>60</v>
+      </c>
+      <c r="Q103" s="75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J104" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="K104" s="58"/>
+      <c r="L104" s="5">
+        <f>C96 + L103 * (L37 + L38 + L39) * 5%</f>
+        <v>7.2</v>
+      </c>
+      <c r="M104" s="5">
+        <f>D96 + M103 * (L37 + L38 + L39) * 5%</f>
+        <v>14.4</v>
+      </c>
+      <c r="N104" s="5">
+        <f>E96 + N103 * (L37 + L38 + L39) * 5%</f>
+        <v>21.6</v>
+      </c>
+      <c r="O104" s="5">
+        <f>F96 +O103 * (L37 + L38 + L39) * 5%</f>
+        <v>28.8</v>
+      </c>
+      <c r="P104" s="5">
+        <f>G96 + P103 * (L37 + L38 + L39) * 5%</f>
+        <v>36</v>
+      </c>
+      <c r="Q104" s="5">
+        <f>H96 + Q103 * (L37 + L38 + L39) * 5%</f>
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J105" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="K105" s="58"/>
+      <c r="L105" s="5">
+        <f>C96 + L103 * (L37 + L38 + L39) * 15%</f>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="M105" s="5">
+        <f>D96 + M103 * (L37 + L38 + L39) * 15%</f>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="N105" s="5">
+        <f>E96 +N103 * (L37 + L38 + L39) * 15%</f>
+        <v>64.8</v>
+      </c>
+      <c r="O105" s="5">
+        <f>F96 + O103 * (L37 + L38 + L39) * 15%</f>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="P105" s="5">
+        <f>G96 + P103 * (L37 + L38 + L39) * 15%</f>
+        <v>108</v>
+      </c>
+      <c r="Q105" s="5">
+        <f>H96 + Q103 * (L37 + L38 + L39) * 15%</f>
+        <v>129.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J106" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="K106" s="58"/>
+      <c r="L106" s="5">
+        <f>C96 + L103 * (L37 + L38 + L39) * 25%</f>
+        <v>36</v>
+      </c>
+      <c r="M106" s="5">
+        <f>D96 + M103 * (L37 + L38 + L39) * 25%</f>
+        <v>72</v>
+      </c>
+      <c r="N106" s="5">
+        <f>E96 +N103 * (L37 + L38 + L39) * 25%</f>
+        <v>108</v>
+      </c>
+      <c r="O106" s="5">
+        <f>F96 + O103 * (L37 + L38 + L39) * 25%</f>
+        <v>144</v>
+      </c>
+      <c r="P106" s="5">
+        <f>G96 + P103 * (L37 + L38 + L39) * 25%</f>
+        <v>180</v>
+      </c>
+      <c r="Q106" s="5">
+        <f>H96 + Q103 * (L37 + L38 + L39) * 25%</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
+      <c r="B109" s="45"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="45"/>
+      <c r="J109" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="K109" s="45"/>
+      <c r="L109" s="45"/>
+      <c r="M109" s="45"/>
+      <c r="N109" s="45"/>
+      <c r="O109" s="45"/>
+      <c r="P109" s="45"/>
+      <c r="Q109" s="45"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="15" t="s">
+      <c r="B110" s="46"/>
+      <c r="C110" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
+      <c r="D110" s="47"/>
+      <c r="E110" s="47"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="47"/>
+      <c r="H110" s="47"/>
+      <c r="J110" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="K110" s="74"/>
+      <c r="L110" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="M110" s="71"/>
+      <c r="N110" s="71"/>
+      <c r="O110" s="71"/>
+      <c r="P110" s="71"/>
+      <c r="Q110" s="72"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B109" s="13"/>
-      <c r="C109" s="7">
+      <c r="B111" s="49"/>
+      <c r="C111" s="7">
         <v>1</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D111" s="7">
         <v>2</v>
       </c>
-      <c r="E109" s="8">
+      <c r="E111" s="8">
         <v>3</v>
       </c>
-      <c r="F109" s="8">
+      <c r="F111" s="8">
         <v>4</v>
       </c>
-      <c r="G109" s="8">
+      <c r="G111" s="8">
         <v>5</v>
       </c>
-      <c r="H109" s="8">
+      <c r="H111" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="10">
+      <c r="J111" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="K111" s="58"/>
+      <c r="L111" s="75">
+        <v>12</v>
+      </c>
+      <c r="M111" s="75">
+        <v>24</v>
+      </c>
+      <c r="N111" s="75">
+        <v>36</v>
+      </c>
+      <c r="O111" s="75">
+        <v>48</v>
+      </c>
+      <c r="P111" s="75">
+        <v>60</v>
+      </c>
+      <c r="Q111" s="75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112" s="43">
         <v>1</v>
       </c>
-      <c r="B110" s="11"/>
-      <c r="C110" s="9">
+      <c r="B112" s="44"/>
+      <c r="C112" s="9">
         <f>C77+L77+U77</f>
         <v>171.94</v>
       </c>
-      <c r="D110" s="9">
-        <f t="shared" ref="D110:G121" si="20">D77+M77+V77</f>
+      <c r="D112" s="9">
+        <f t="shared" ref="D112:G123" si="21">D77+M77+V77</f>
         <v>343.88</v>
       </c>
-      <c r="E110" s="9">
-        <f t="shared" si="20"/>
+      <c r="E112" s="9">
+        <f t="shared" si="21"/>
         <v>515.81999999999994</v>
       </c>
-      <c r="F110" s="9">
-        <f t="shared" si="20"/>
+      <c r="F112" s="9">
+        <f t="shared" si="21"/>
         <v>687.76</v>
       </c>
-      <c r="G110" s="9">
-        <f t="shared" si="20"/>
+      <c r="G112" s="9">
+        <f t="shared" si="21"/>
         <v>859.7</v>
       </c>
-      <c r="H110" s="9">
+      <c r="H112" s="9">
         <f>H77+Q77+Z77</f>
         <v>1031.6399999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="10">
+      <c r="J112" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="K112" s="58"/>
+      <c r="L112" s="5">
+        <f>C104 + L111 * (L45 + L46 + L47) * 5%</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="M112" s="5">
+        <f>D104 + M111 * (L45 + L46 + L47) * 5%</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="N112" s="5">
+        <f>E104 + N111 * (L45 + L46 + L47) * 5%</f>
+        <v>3.6</v>
+      </c>
+      <c r="O112" s="5">
+        <f>F104 +O111 * (L45 + L46 + L47) * 5%</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="P112" s="5">
+        <f>G104 + P111 * (L45 + L46 + L47) * 5%</f>
+        <v>6</v>
+      </c>
+      <c r="Q112" s="5">
+        <f>H104 + Q111 * (L45 + L46 + L47) * 5%</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113" s="43">
         <v>2</v>
       </c>
-      <c r="B111" s="11"/>
-      <c r="C111" s="9">
-        <f t="shared" ref="C111:C120" si="21">C78+L78+U78</f>
+      <c r="B113" s="44"/>
+      <c r="C113" s="9">
+        <f t="shared" ref="C113:C122" si="22">C78+L78+U78</f>
         <v>223.91</v>
       </c>
-      <c r="D111" s="9">
-        <f t="shared" si="20"/>
+      <c r="D113" s="9">
+        <f t="shared" si="21"/>
         <v>447.82</v>
       </c>
-      <c r="E111" s="9">
-        <f t="shared" si="20"/>
+      <c r="E113" s="9">
+        <f t="shared" si="21"/>
         <v>671.7299999999999</v>
       </c>
-      <c r="F111" s="9">
-        <f t="shared" si="20"/>
+      <c r="F113" s="9">
+        <f t="shared" si="21"/>
         <v>895.64</v>
       </c>
-      <c r="G111" s="9">
-        <f t="shared" si="20"/>
+      <c r="G113" s="9">
+        <f t="shared" si="21"/>
         <v>1119.5500000000002</v>
       </c>
-      <c r="H111" s="9">
-        <f t="shared" ref="H111:H121" si="22">H78+Q78+Z78</f>
+      <c r="H113" s="9">
+        <f t="shared" ref="H113:H123" si="23">H78+Q78+Z78</f>
         <v>1343.4599999999998</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="10">
+      <c r="J113" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="K113" s="58"/>
+      <c r="L113" s="5">
+        <f>C104 + L111 * (L45 + L46 + L47) * 15%</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="M113" s="5">
+        <f>D104 + M111 * (L45 + L46 + L47) * 15%</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="N113" s="5">
+        <f>E104 +N111 * (L45 + L46 + L47) * 15%</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="O113" s="5">
+        <f>F104 + O111 * (L45 + L46 + L47) * 15%</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="P113" s="5">
+        <f>G104 + P111 * (L45 + L46 + L47) * 15%</f>
+        <v>18</v>
+      </c>
+      <c r="Q113" s="5">
+        <f>H104 + Q111 * (L45 + L46 + L47) * 15%</f>
+        <v>21.599999999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114" s="43">
         <v>3</v>
       </c>
-      <c r="B112" s="11"/>
-      <c r="C112" s="9">
+      <c r="B114" s="44"/>
+      <c r="C114" s="9">
+        <f t="shared" si="22"/>
+        <v>275.88</v>
+      </c>
+      <c r="D114" s="9">
         <f t="shared" si="21"/>
-        <v>275.88</v>
-      </c>
-      <c r="D112" s="9">
-        <f t="shared" si="20"/>
         <v>551.76</v>
       </c>
-      <c r="E112" s="9">
-        <f t="shared" si="20"/>
+      <c r="E114" s="9">
+        <f t="shared" si="21"/>
         <v>827.64</v>
       </c>
-      <c r="F112" s="9">
-        <f t="shared" si="20"/>
+      <c r="F114" s="9">
+        <f t="shared" si="21"/>
         <v>1103.52</v>
       </c>
-      <c r="G112" s="9">
-        <f t="shared" si="20"/>
+      <c r="G114" s="9">
+        <f t="shared" si="21"/>
         <v>1379.3999999999999</v>
       </c>
-      <c r="H112" s="9">
+      <c r="H114" s="9">
+        <f t="shared" si="23"/>
+        <v>1655.28</v>
+      </c>
+      <c r="J114" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="K114" s="58"/>
+      <c r="L114" s="5">
+        <f>C104 + L111 * (L45 + L46 + L47) * 25%</f>
+        <v>6</v>
+      </c>
+      <c r="M114" s="5">
+        <f>D104 + M111 * (L45 + L46 + L47) * 25%</f>
+        <v>12</v>
+      </c>
+      <c r="N114" s="5">
+        <f>E104 +N111 * (L45 + L46 + L47) * 25%</f>
+        <v>18</v>
+      </c>
+      <c r="O114" s="5">
+        <f>F104 + O111 * (L45 + L46 + L47) * 25%</f>
+        <v>24</v>
+      </c>
+      <c r="P114" s="5">
+        <f>G104 + P111 * (L45 + L46 + L47) * 25%</f>
+        <v>30</v>
+      </c>
+      <c r="Q114" s="5">
+        <f>H104 + Q111 * (L45 + L46 + L47) * 25%</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115" s="43">
+        <v>4</v>
+      </c>
+      <c r="B115" s="44"/>
+      <c r="C115" s="9">
         <f t="shared" si="22"/>
-        <v>1655.28</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="10">
-        <v>4</v>
-      </c>
-      <c r="B113" s="11"/>
-      <c r="C113" s="9">
+        <v>327.84999999999997</v>
+      </c>
+      <c r="D115" s="9">
         <f t="shared" si="21"/>
-        <v>327.84999999999997</v>
-      </c>
-      <c r="D113" s="9">
-        <f t="shared" si="20"/>
         <v>655.69999999999993</v>
       </c>
-      <c r="E113" s="9">
-        <f t="shared" si="20"/>
+      <c r="E115" s="9">
+        <f t="shared" si="21"/>
         <v>983.55000000000007</v>
       </c>
-      <c r="F113" s="9">
-        <f t="shared" si="20"/>
+      <c r="F115" s="9">
+        <f t="shared" si="21"/>
         <v>1311.3999999999999</v>
       </c>
-      <c r="G113" s="9">
-        <f t="shared" si="20"/>
+      <c r="G115" s="9">
+        <f t="shared" si="21"/>
         <v>1639.25</v>
       </c>
-      <c r="H113" s="9">
+      <c r="H115" s="9">
+        <f t="shared" si="23"/>
+        <v>1967.1000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A116" s="43">
+        <v>5</v>
+      </c>
+      <c r="B116" s="44"/>
+      <c r="C116" s="9">
         <f t="shared" si="22"/>
-        <v>1967.1000000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="10">
-        <v>5</v>
-      </c>
-      <c r="B114" s="11"/>
-      <c r="C114" s="9">
+        <v>379.82</v>
+      </c>
+      <c r="D116" s="9">
         <f t="shared" si="21"/>
-        <v>379.82</v>
-      </c>
-      <c r="D114" s="9">
-        <f t="shared" si="20"/>
         <v>759.64</v>
       </c>
-      <c r="E114" s="9">
-        <f t="shared" si="20"/>
+      <c r="E116" s="9">
+        <f t="shared" si="21"/>
         <v>1139.4599999999998</v>
       </c>
-      <c r="F114" s="9">
-        <f t="shared" si="20"/>
+      <c r="F116" s="9">
+        <f t="shared" si="21"/>
         <v>1519.28</v>
       </c>
-      <c r="G114" s="9">
-        <f t="shared" si="20"/>
+      <c r="G116" s="9">
+        <f t="shared" si="21"/>
         <v>1899.1000000000001</v>
       </c>
-      <c r="H114" s="9">
+      <c r="H116" s="9">
+        <f t="shared" si="23"/>
+        <v>2278.9199999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117" s="43">
+        <v>6</v>
+      </c>
+      <c r="B117" s="44"/>
+      <c r="C117" s="9">
         <f t="shared" si="22"/>
-        <v>2278.9199999999996</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="10">
-        <v>6</v>
-      </c>
-      <c r="B115" s="11"/>
-      <c r="C115" s="9">
+        <v>431.79</v>
+      </c>
+      <c r="D117" s="9">
         <f t="shared" si="21"/>
-        <v>431.79</v>
-      </c>
-      <c r="D115" s="9">
-        <f t="shared" si="20"/>
         <v>863.58</v>
       </c>
-      <c r="E115" s="9">
-        <f t="shared" si="20"/>
+      <c r="E117" s="9">
+        <f t="shared" si="21"/>
         <v>1295.3699999999999</v>
       </c>
-      <c r="F115" s="9">
-        <f t="shared" si="20"/>
+      <c r="F117" s="9">
+        <f t="shared" si="21"/>
         <v>1727.16</v>
       </c>
-      <c r="G115" s="9">
-        <f t="shared" si="20"/>
+      <c r="G117" s="9">
+        <f t="shared" si="21"/>
         <v>2158.9499999999998</v>
       </c>
-      <c r="H115" s="9">
+      <c r="H117" s="9">
+        <f t="shared" si="23"/>
+        <v>2590.7399999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118" s="43">
+        <v>7</v>
+      </c>
+      <c r="B118" s="44"/>
+      <c r="C118" s="9">
         <f t="shared" si="22"/>
-        <v>2590.7399999999998</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="10">
-        <v>7</v>
-      </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="9">
+        <v>483.76000000000005</v>
+      </c>
+      <c r="D118" s="9">
         <f t="shared" si="21"/>
-        <v>483.76000000000005</v>
-      </c>
-      <c r="D116" s="9">
-        <f t="shared" si="20"/>
         <v>967.5200000000001</v>
       </c>
-      <c r="E116" s="9">
-        <f t="shared" si="20"/>
+      <c r="E118" s="9">
+        <f t="shared" si="21"/>
         <v>1451.28</v>
       </c>
-      <c r="F116" s="9">
-        <f t="shared" si="20"/>
+      <c r="F118" s="9">
+        <f t="shared" si="21"/>
         <v>1935.0400000000002</v>
       </c>
-      <c r="G116" s="9">
-        <f t="shared" si="20"/>
+      <c r="G118" s="9">
+        <f t="shared" si="21"/>
         <v>2418.7999999999997</v>
       </c>
-      <c r="H116" s="9">
+      <c r="H118" s="9">
+        <f t="shared" si="23"/>
+        <v>2902.56</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A119" s="43">
+        <v>8</v>
+      </c>
+      <c r="B119" s="44"/>
+      <c r="C119" s="9">
         <f t="shared" si="22"/>
-        <v>2902.56</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="10">
-        <v>8</v>
-      </c>
-      <c r="B117" s="11"/>
-      <c r="C117" s="9">
+        <v>535.7299999999999</v>
+      </c>
+      <c r="D119" s="9">
         <f t="shared" si="21"/>
-        <v>535.7299999999999</v>
-      </c>
-      <c r="D117" s="9">
-        <f t="shared" si="20"/>
         <v>1071.4599999999998</v>
       </c>
-      <c r="E117" s="9">
-        <f t="shared" si="20"/>
+      <c r="E119" s="9">
+        <f t="shared" si="21"/>
         <v>1607.19</v>
       </c>
-      <c r="F117" s="9">
-        <f t="shared" si="20"/>
+      <c r="F119" s="9">
+        <f t="shared" si="21"/>
         <v>2142.9199999999996</v>
       </c>
-      <c r="G117" s="9">
-        <f t="shared" si="20"/>
+      <c r="G119" s="9">
+        <f t="shared" si="21"/>
         <v>2678.65</v>
       </c>
-      <c r="H117" s="9">
+      <c r="H119" s="9">
+        <f t="shared" si="23"/>
+        <v>3214.38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A120" s="43">
+        <v>9</v>
+      </c>
+      <c r="B120" s="44"/>
+      <c r="C120" s="9">
         <f t="shared" si="22"/>
-        <v>3214.38</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="10">
-        <v>9</v>
-      </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="9">
+        <v>587.69999999999993</v>
+      </c>
+      <c r="D120" s="9">
         <f t="shared" si="21"/>
-        <v>587.69999999999993</v>
-      </c>
-      <c r="D118" s="9">
-        <f t="shared" si="20"/>
         <v>1175.3999999999999</v>
       </c>
-      <c r="E118" s="9">
-        <f t="shared" si="20"/>
+      <c r="E120" s="9">
+        <f t="shared" si="21"/>
         <v>1763.1000000000001</v>
       </c>
-      <c r="F118" s="9">
-        <f t="shared" si="20"/>
+      <c r="F120" s="9">
+        <f t="shared" si="21"/>
         <v>2350.7999999999997</v>
       </c>
-      <c r="G118" s="9">
-        <f t="shared" si="20"/>
+      <c r="G120" s="9">
+        <f t="shared" si="21"/>
         <v>2938.5</v>
       </c>
-      <c r="H118" s="9">
+      <c r="H120" s="9">
+        <f t="shared" si="23"/>
+        <v>3526.2000000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A121" s="43">
+        <v>10</v>
+      </c>
+      <c r="B121" s="44"/>
+      <c r="C121" s="9">
         <f t="shared" si="22"/>
-        <v>3526.2000000000003</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="10">
-        <v>10</v>
-      </c>
-      <c r="B119" s="11"/>
-      <c r="C119" s="9">
+        <v>639.66999999999996</v>
+      </c>
+      <c r="D121" s="9">
         <f t="shared" si="21"/>
-        <v>639.66999999999996</v>
-      </c>
-      <c r="D119" s="9">
-        <f t="shared" si="20"/>
         <v>1279.3399999999999</v>
       </c>
-      <c r="E119" s="9">
-        <f t="shared" si="20"/>
+      <c r="E121" s="9">
+        <f t="shared" si="21"/>
         <v>1919.01</v>
       </c>
-      <c r="F119" s="9">
-        <f t="shared" si="20"/>
+      <c r="F121" s="9">
+        <f t="shared" si="21"/>
         <v>2558.6799999999998</v>
       </c>
-      <c r="G119" s="9">
-        <f t="shared" si="20"/>
+      <c r="G121" s="9">
+        <f t="shared" si="21"/>
         <v>3198.3500000000004</v>
       </c>
-      <c r="H119" s="9">
+      <c r="H121" s="9">
+        <f t="shared" si="23"/>
+        <v>3838.02</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A122" s="43">
+        <v>11</v>
+      </c>
+      <c r="B122" s="44"/>
+      <c r="C122" s="9">
         <f t="shared" si="22"/>
-        <v>3838.02</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="10">
-        <v>11</v>
-      </c>
-      <c r="B120" s="11"/>
-      <c r="C120" s="9">
+        <v>691.64</v>
+      </c>
+      <c r="D122" s="9">
         <f t="shared" si="21"/>
-        <v>691.64</v>
-      </c>
-      <c r="D120" s="9">
-        <f t="shared" si="20"/>
         <v>1383.28</v>
       </c>
-      <c r="E120" s="9">
-        <f t="shared" si="20"/>
+      <c r="E122" s="9">
+        <f t="shared" si="21"/>
         <v>2074.9199999999996</v>
       </c>
-      <c r="F120" s="9">
-        <f t="shared" si="20"/>
+      <c r="F122" s="9">
+        <f t="shared" si="21"/>
         <v>2766.56</v>
       </c>
-      <c r="G120" s="9">
-        <f t="shared" si="20"/>
+      <c r="G122" s="9">
+        <f t="shared" si="21"/>
         <v>3458.2000000000003</v>
       </c>
-      <c r="H120" s="9">
-        <f t="shared" si="22"/>
+      <c r="H122" s="9">
+        <f t="shared" si="23"/>
         <v>4149.8399999999992</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="10">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A123" s="43">
         <v>12</v>
       </c>
-      <c r="B121" s="11"/>
-      <c r="C121" s="9">
+      <c r="B123" s="44"/>
+      <c r="C123" s="9">
         <f>C88+L88+U88</f>
         <v>743.61</v>
       </c>
-      <c r="D121" s="9">
-        <f t="shared" si="20"/>
+      <c r="D123" s="9">
+        <f t="shared" si="21"/>
         <v>1487.22</v>
       </c>
-      <c r="E121" s="9">
-        <f t="shared" si="20"/>
+      <c r="E123" s="9">
+        <f t="shared" si="21"/>
         <v>2230.83</v>
       </c>
-      <c r="F121" s="9">
-        <f t="shared" si="20"/>
+      <c r="F123" s="9">
+        <f t="shared" si="21"/>
         <v>2974.44</v>
       </c>
-      <c r="G121" s="9">
-        <f t="shared" si="20"/>
+      <c r="G123" s="9">
+        <f t="shared" si="21"/>
         <v>3718.0499999999997</v>
       </c>
-      <c r="H121" s="9">
-        <f t="shared" si="22"/>
+      <c r="H123" s="9">
+        <f t="shared" si="23"/>
         <v>4461.66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="124">
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="U24:X31"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="J109:Q109"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="L110:Q110"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="S82:T82"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="S88:T88"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:H110"/>
+    <mergeCell ref="S83:T83"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="S85:T85"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="S87:T87"/>
+    <mergeCell ref="J93:Q93"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:Q94"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="J101:Q101"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="L102:Q102"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="S74:Z74"/>
+    <mergeCell ref="S77:T77"/>
+    <mergeCell ref="S78:T78"/>
+    <mergeCell ref="S79:T79"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="U75:Z75"/>
+    <mergeCell ref="S76:T76"/>
+    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="J74:Q74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:Q75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
     <mergeCell ref="K6:O18"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="L2:M2"/>
@@ -4698,91 +5527,6 @@
     <mergeCell ref="N22:O22"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="K36:O36"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A74:H74"/>
-    <mergeCell ref="J74:Q74"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:Q75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="S74:Z74"/>
-    <mergeCell ref="S77:T77"/>
-    <mergeCell ref="S78:T78"/>
-    <mergeCell ref="S79:T79"/>
-    <mergeCell ref="S80:T80"/>
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="S75:T75"/>
-    <mergeCell ref="U75:Z75"/>
-    <mergeCell ref="S76:T76"/>
-    <mergeCell ref="S88:T88"/>
-    <mergeCell ref="A107:H107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="S83:T83"/>
-    <mergeCell ref="S84:T84"/>
-    <mergeCell ref="S85:T85"/>
-    <mergeCell ref="S86:T86"/>
-    <mergeCell ref="S87:T87"/>
-    <mergeCell ref="S82:T82"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4792,12 +5536,776 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:H23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="J2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="41">
+        <v>0</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="41">
+        <v>4.99</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="55">
+        <v>9.99</v>
+      </c>
+      <c r="H4" s="56"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="50">
+        <v>0</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50">
+        <v>0</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="53">
+        <v>0</v>
+      </c>
+      <c r="H5" s="54"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="44"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="43">
+        <v>5</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="44"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="51"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="51"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="51"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="51"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="51"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="60"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="49"/>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>2</v>
+      </c>
+      <c r="F31" s="8">
+        <v>3</v>
+      </c>
+      <c r="G31" s="8">
+        <v>4</v>
+      </c>
+      <c r="H31" s="8">
+        <v>5</v>
+      </c>
+      <c r="I31" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="43">
+        <v>1</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="9">
+        <f>$E$4 *D31</f>
+        <v>4.99</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" ref="E32:I32" si="0">$E$4 *E31</f>
+        <v>9.98</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="0"/>
+        <v>14.97</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" si="0"/>
+        <v>19.96</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="0"/>
+        <v>24.950000000000003</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" si="0"/>
+        <v>29.94</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="43">
+        <v>2</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="5">
+        <f>D32+$D$31*$E$4</f>
+        <v>9.98</v>
+      </c>
+      <c r="E33" s="5">
+        <f>E32+$E$31*$E$4</f>
+        <v>19.96</v>
+      </c>
+      <c r="F33" s="5">
+        <f>F32+$F$31*$E$4</f>
+        <v>29.94</v>
+      </c>
+      <c r="G33" s="5">
+        <f>G32+$G$31*$E$4</f>
+        <v>39.92</v>
+      </c>
+      <c r="H33" s="5">
+        <f>H32+$H$31*$E$4</f>
+        <v>49.900000000000006</v>
+      </c>
+      <c r="I33" s="5">
+        <f>I32+$I$31*$E$4</f>
+        <v>59.88</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="43">
+        <v>3</v>
+      </c>
+      <c r="C34" s="44"/>
+      <c r="D34" s="5">
+        <f t="shared" ref="D34:D43" si="1">D33+$D$31*$E$4</f>
+        <v>14.97</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" ref="E34:E43" si="2">E33+$E$31*$E$4</f>
+        <v>29.94</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" ref="F34:F43" si="3">F33+$F$31*$E$4</f>
+        <v>44.910000000000004</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" ref="G34:G43" si="4">G33+$G$31*$E$4</f>
+        <v>59.88</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" ref="H34:H42" si="5">H33+$H$31*$E$4</f>
+        <v>74.850000000000009</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" ref="I34:I43" si="6">I33+$I$31*$E$4</f>
+        <v>89.820000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="43">
+        <v>4</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="5">
+        <f t="shared" si="1"/>
+        <v>19.96</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="2"/>
+        <v>39.92</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="3"/>
+        <v>59.88</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="4"/>
+        <v>79.84</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="5"/>
+        <v>99.800000000000011</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="6"/>
+        <v>119.76</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="43">
+        <v>5</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="5">
+        <f t="shared" si="1"/>
+        <v>24.950000000000003</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="2"/>
+        <v>49.900000000000006</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="3"/>
+        <v>74.850000000000009</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="4"/>
+        <v>99.800000000000011</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="5"/>
+        <v>124.75000000000001</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="6"/>
+        <v>149.70000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="43">
+        <v>6</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="5">
+        <f t="shared" si="1"/>
+        <v>29.940000000000005</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="2"/>
+        <v>59.88000000000001</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="3"/>
+        <v>89.820000000000007</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="4"/>
+        <v>119.76000000000002</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="5"/>
+        <v>149.70000000000002</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="6"/>
+        <v>179.64000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="43">
+        <v>7</v>
+      </c>
+      <c r="C38" s="44"/>
+      <c r="D38" s="5">
+        <f t="shared" si="1"/>
+        <v>34.930000000000007</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="2"/>
+        <v>69.860000000000014</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="3"/>
+        <v>104.79</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="4"/>
+        <v>139.72000000000003</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="5"/>
+        <v>174.65000000000003</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="6"/>
+        <v>209.58</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="43">
+        <v>8</v>
+      </c>
+      <c r="C39" s="44"/>
+      <c r="D39" s="5">
+        <f t="shared" si="1"/>
+        <v>39.920000000000009</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="2"/>
+        <v>79.840000000000018</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="3"/>
+        <v>119.76</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="4"/>
+        <v>159.68000000000004</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="5"/>
+        <v>199.60000000000002</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="6"/>
+        <v>239.52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="43">
+        <v>9</v>
+      </c>
+      <c r="C40" s="44"/>
+      <c r="D40" s="5">
+        <f t="shared" si="1"/>
+        <v>44.910000000000011</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="2"/>
+        <v>89.820000000000022</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="3"/>
+        <v>134.73000000000002</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="4"/>
+        <v>179.64000000000004</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="5"/>
+        <v>224.55</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="6"/>
+        <v>269.46000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="43">
+        <v>10</v>
+      </c>
+      <c r="C41" s="44"/>
+      <c r="D41" s="5">
+        <f t="shared" si="1"/>
+        <v>49.900000000000013</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="2"/>
+        <v>99.800000000000026</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="3"/>
+        <v>149.70000000000002</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="4"/>
+        <v>199.60000000000005</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="5"/>
+        <v>249.5</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="6"/>
+        <v>299.40000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="43">
+        <v>11</v>
+      </c>
+      <c r="C42" s="44"/>
+      <c r="D42" s="5">
+        <f t="shared" si="1"/>
+        <v>54.890000000000015</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="2"/>
+        <v>109.78000000000003</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="3"/>
+        <v>164.67000000000002</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="4"/>
+        <v>219.56000000000006</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="5"/>
+        <v>274.45</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="6"/>
+        <v>329.34000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="43">
+        <v>12</v>
+      </c>
+      <c r="C43" s="44"/>
+      <c r="D43" s="5">
+        <f t="shared" si="1"/>
+        <v>59.880000000000017</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="2"/>
+        <v>119.76000000000003</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="3"/>
+        <v>179.64000000000001</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="4"/>
+        <v>239.52000000000007</v>
+      </c>
+      <c r="H43" s="5">
+        <f>H42+$H$31*$E$4</f>
+        <v>299.39999999999998</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="6"/>
+        <v>359.28000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J2:N14"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G20:H23"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/croc-o-deals-parent/doc/Croc-o-deals-rules-1.0.0.xlsx
+++ b/croc-o-deals-parent/doc/Croc-o-deals-rules-1.0.0.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Compte PRO" sheetId="3" r:id="rId1"/>
     <sheet name="Compte Client" sheetId="4" r:id="rId2"/>
+    <sheet name="Dépences" sheetId="5" r:id="rId3"/>
+    <sheet name="Total" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
   <si>
     <t>Normal</t>
   </si>
@@ -36,132 +38,6 @@
   </si>
   <si>
     <t>Création d'un compte (a vie)</t>
-  </si>
-  <si>
-    <r>
-      <t>La création d'un compte PRO est obligatoirement payant.
-Le prix de base est</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 29.99€</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour se créer un compte à vie.
-Il est possible lors de la création d'un compte de souscrire directement 1 mois d'accès:
-  -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Pass  standart </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pour 1 mois à</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 14.99€</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pass prénium</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour 1 mois à </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">29.99€ 
-  - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Si aucune pré-séléction: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pass direct</t>
-    </r>
   </si>
   <si>
     <t>Direct</t>
@@ -342,6 +218,153 @@
   <si>
     <t>Trouver de nouvelles options qui peuvent être payante, mais sans être bloquante pour les pros.</t>
   </si>
+  <si>
+    <t>Normal: Achat de deal / mois</t>
+  </si>
+  <si>
+    <t>Nb achats</t>
+  </si>
+  <si>
+    <t>Prix</t>
+  </si>
+  <si>
+    <t>150 clients pros</t>
+  </si>
+  <si>
+    <t>75 clients pro</t>
+  </si>
+  <si>
+    <t>25 clients pro</t>
+  </si>
+  <si>
+    <t>Prenium: Achat de deal / mois</t>
+  </si>
+  <si>
+    <r>
+      <t>La création d'un compte PRO est obligatoirement payant.
+Le prix de base est</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 29.99€</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour se créer un compte à vie.
+Il est possible lors de la création d'un compte de souscrire directement 1 mois d'accès:
+  -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pass  standart </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pour 1 mois à</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 19.99€</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pass prénium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour 1 mois à </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">39.99€ 
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Si aucune pré-séléction: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pass direct</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -395,7 +418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,6 +509,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,7 +666,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -648,8 +677,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -699,18 +827,6 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -732,65 +848,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -809,45 +866,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -946,40 +996,40 @@
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>54.980000000000004</c:v>
+                  <c:v>49.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>69.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84.960000000000008</c:v>
+                  <c:v>89.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.95</c:v>
+                  <c:v>109.94999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114.94</c:v>
+                  <c:v>129.94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>129.93</c:v>
+                  <c:v>149.93</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>144.92000000000002</c:v>
+                  <c:v>169.92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>159.91</c:v>
+                  <c:v>189.91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>174.9</c:v>
+                  <c:v>209.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>189.89000000000001</c:v>
+                  <c:v>229.89</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>204.88000000000002</c:v>
+                  <c:v>249.88</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>219.87</c:v>
+                  <c:v>269.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1043,40 +1093,40 @@
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>109.96000000000001</c:v>
+                  <c:v>99.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>139.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>169.92000000000002</c:v>
+                  <c:v>179.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>199.9</c:v>
+                  <c:v>219.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>229.88</c:v>
+                  <c:v>259.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>259.86</c:v>
+                  <c:v>299.86</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>289.84000000000003</c:v>
+                  <c:v>339.84</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>319.82</c:v>
+                  <c:v>379.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>349.8</c:v>
+                  <c:v>419.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>379.78000000000003</c:v>
+                  <c:v>459.78</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>409.76000000000005</c:v>
+                  <c:v>499.76</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>439.74</c:v>
+                  <c:v>539.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1143,40 +1193,40 @@
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>164.94</c:v>
+                  <c:v>149.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>209.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>254.88</c:v>
+                  <c:v>269.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>299.85000000000002</c:v>
+                  <c:v>329.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>344.82</c:v>
+                  <c:v>389.81999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>389.78999999999996</c:v>
+                  <c:v>449.78999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>434.76</c:v>
+                  <c:v>509.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>479.73</c:v>
+                  <c:v>569.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>524.70000000000005</c:v>
+                  <c:v>629.69999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>569.66999999999996</c:v>
+                  <c:v>689.67</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>614.64</c:v>
+                  <c:v>749.64</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>659.61</c:v>
+                  <c:v>809.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1243,40 +1293,40 @@
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>219.92000000000002</c:v>
+                  <c:v>199.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>279.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>339.84000000000003</c:v>
+                  <c:v>359.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>399.8</c:v>
+                  <c:v>439.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>459.76</c:v>
+                  <c:v>519.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>519.72</c:v>
+                  <c:v>599.72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>579.68000000000006</c:v>
+                  <c:v>679.68</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>639.64</c:v>
+                  <c:v>759.64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>699.6</c:v>
+                  <c:v>839.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>759.56000000000006</c:v>
+                  <c:v>919.56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>819.5200000000001</c:v>
+                  <c:v>999.52</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>879.48</c:v>
+                  <c:v>1079.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1343,40 +1393,40 @@
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>274.90000000000003</c:v>
+                  <c:v>249.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>349.85</c:v>
+                  <c:v>349.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>424.8</c:v>
+                  <c:v>449.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>499.75</c:v>
+                  <c:v>549.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>574.70000000000005</c:v>
+                  <c:v>649.69999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>649.65</c:v>
+                  <c:v>749.64999999999986</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>724.6</c:v>
+                  <c:v>849.59999999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>799.55000000000007</c:v>
+                  <c:v>949.55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>874.5</c:v>
+                  <c:v>1049.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>949.45</c:v>
+                  <c:v>1149.4499999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1024.4000000000001</c:v>
+                  <c:v>1249.3999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1099.3499999999999</c:v>
+                  <c:v>1349.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,40 +1493,40 @@
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>329.88</c:v>
+                  <c:v>299.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>419.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>509.76</c:v>
+                  <c:v>539.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>599.70000000000005</c:v>
+                  <c:v>659.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>689.64</c:v>
+                  <c:v>779.63999999999987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>779.57999999999993</c:v>
+                  <c:v>899.57999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>869.52</c:v>
+                  <c:v>1019.52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>959.46</c:v>
+                  <c:v>1139.46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1049.4000000000001</c:v>
+                  <c:v>1259.3999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1139.3399999999999</c:v>
+                  <c:v>1379.34</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1229.28</c:v>
+                  <c:v>1499.28</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1319.22</c:v>
+                  <c:v>1619.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1543,40 +1593,40 @@
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>54.980000000000004</c:v>
+                  <c:v>49.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>69.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84.960000000000008</c:v>
+                  <c:v>89.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.95</c:v>
+                  <c:v>109.94999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114.94</c:v>
+                  <c:v>129.94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>129.93</c:v>
+                  <c:v>149.93</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>144.92000000000002</c:v>
+                  <c:v>169.92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>159.91</c:v>
+                  <c:v>189.91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>174.9</c:v>
+                  <c:v>209.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>189.89000000000001</c:v>
+                  <c:v>229.89</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>204.88000000000002</c:v>
+                  <c:v>249.88</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>219.87</c:v>
+                  <c:v>269.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1640,40 +1690,40 @@
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>109.96000000000001</c:v>
+                  <c:v>99.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>139.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>169.92000000000002</c:v>
+                  <c:v>179.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>199.9</c:v>
+                  <c:v>219.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>229.88</c:v>
+                  <c:v>259.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>259.86</c:v>
+                  <c:v>299.86</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>289.84000000000003</c:v>
+                  <c:v>339.84</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>319.82</c:v>
+                  <c:v>379.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>349.8</c:v>
+                  <c:v>419.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>379.78000000000003</c:v>
+                  <c:v>459.78</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>409.76000000000005</c:v>
+                  <c:v>499.76</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>439.74</c:v>
+                  <c:v>539.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1740,40 +1790,40 @@
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>164.94</c:v>
+                  <c:v>149.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>209.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>254.88</c:v>
+                  <c:v>269.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>299.85000000000002</c:v>
+                  <c:v>329.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>344.82</c:v>
+                  <c:v>389.81999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>389.78999999999996</c:v>
+                  <c:v>449.78999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>434.76</c:v>
+                  <c:v>509.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>479.73</c:v>
+                  <c:v>569.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>524.70000000000005</c:v>
+                  <c:v>629.69999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>569.66999999999996</c:v>
+                  <c:v>689.67</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>614.64</c:v>
+                  <c:v>749.64</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>659.61</c:v>
+                  <c:v>809.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1840,40 +1890,40 @@
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>219.92000000000002</c:v>
+                  <c:v>199.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>279.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>339.84000000000003</c:v>
+                  <c:v>359.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>399.8</c:v>
+                  <c:v>439.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>459.76</c:v>
+                  <c:v>519.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>519.72</c:v>
+                  <c:v>599.72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>579.68000000000006</c:v>
+                  <c:v>679.68</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>639.64</c:v>
+                  <c:v>759.64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>699.6</c:v>
+                  <c:v>839.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>759.56000000000006</c:v>
+                  <c:v>919.56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>819.5200000000001</c:v>
+                  <c:v>999.52</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>879.48</c:v>
+                  <c:v>1079.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1940,40 +1990,40 @@
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>274.90000000000003</c:v>
+                  <c:v>249.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>349.85</c:v>
+                  <c:v>349.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>424.8</c:v>
+                  <c:v>449.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>499.75</c:v>
+                  <c:v>549.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>574.70000000000005</c:v>
+                  <c:v>649.69999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>649.65</c:v>
+                  <c:v>749.64999999999986</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>724.6</c:v>
+                  <c:v>849.59999999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>799.55000000000007</c:v>
+                  <c:v>949.55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>874.5</c:v>
+                  <c:v>1049.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>949.45</c:v>
+                  <c:v>1149.4499999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1024.4000000000001</c:v>
+                  <c:v>1249.3999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1099.3499999999999</c:v>
+                  <c:v>1349.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2040,40 +2090,40 @@
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>329.88</c:v>
+                  <c:v>299.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>419.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>509.76</c:v>
+                  <c:v>539.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>599.70000000000005</c:v>
+                  <c:v>659.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>689.64</c:v>
+                  <c:v>779.63999999999987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>779.57999999999993</c:v>
+                  <c:v>899.57999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>869.52</c:v>
+                  <c:v>1019.52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>959.46</c:v>
+                  <c:v>1139.46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1049.4000000000001</c:v>
+                  <c:v>1259.3999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1139.3399999999999</c:v>
+                  <c:v>1379.34</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1229.28</c:v>
+                  <c:v>1499.28</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1319.22</c:v>
+                  <c:v>1619.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2088,11 +2138,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="69163200"/>
-        <c:axId val="69163776"/>
+        <c:axId val="68254464"/>
+        <c:axId val="68255040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69163200"/>
+        <c:axId val="68254464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2107,12 +2157,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69163776"/>
+        <c:crossAx val="68255040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69163776"/>
+        <c:axId val="68255040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,7 +2173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69163200"/>
+        <c:crossAx val="68254464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2671,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24:X31"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2688,436 +2738,444 @@
   </cols>
   <sheetData>
     <row r="2" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23" t="s">
+      <c r="M2" s="57"/>
+      <c r="N2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="23"/>
+      <c r="O2" s="58"/>
     </row>
     <row r="3" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="19">
-        <v>14.99</v>
-      </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="19">
-        <v>29.99</v>
-      </c>
-      <c r="O3" s="21"/>
+      <c r="L3" s="54">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="M3" s="56"/>
+      <c r="N3" s="54">
+        <v>39.99</v>
+      </c>
+      <c r="O3" s="56"/>
     </row>
     <row r="4" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="54">
         <v>29.99</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="21"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="56"/>
     </row>
     <row r="6" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="47"/>
+    </row>
+    <row r="7" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
+    </row>
+    <row r="8" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="50"/>
+    </row>
+    <row r="9" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K9" s="48"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
+    </row>
+    <row r="10" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K10" s="48"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
+    </row>
+    <row r="11" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K11" s="48"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="50"/>
+    </row>
+    <row r="12" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K12" s="48"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
+    </row>
+    <row r="13" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K13" s="48"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="50"/>
+    </row>
+    <row r="14" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K14" s="48"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="50"/>
+    </row>
+    <row r="15" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K15" s="48"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="50"/>
+    </row>
+    <row r="16" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K16" s="48"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="50"/>
+    </row>
+    <row r="17" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K17" s="48"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="50"/>
+    </row>
+    <row r="18" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
+    </row>
+    <row r="22" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="L22" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="63"/>
+      <c r="N22" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="65"/>
+      <c r="P22" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="12"/>
-    </row>
-    <row r="7" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15"/>
-    </row>
-    <row r="9" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
-    </row>
-    <row r="11" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
-    </row>
-    <row r="12" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="15"/>
-    </row>
-    <row r="13" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
-    </row>
-    <row r="16" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="15"/>
-    </row>
-    <row r="17" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="15"/>
-    </row>
-    <row r="18" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="18"/>
-    </row>
-    <row r="22" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="L22" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M22" s="32"/>
-      <c r="N22" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="O22" s="34"/>
-      <c r="P22" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q22" s="35"/>
+      <c r="Q22" s="66"/>
     </row>
     <row r="23" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="24">
-        <v>39.99</v>
-      </c>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="26"/>
+      <c r="L23" s="59">
+        <v>29.99</v>
+      </c>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="61"/>
     </row>
     <row r="24" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="41">
-        <v>14.99</v>
-      </c>
-      <c r="M24" s="42"/>
-      <c r="N24" s="41">
-        <v>29.99</v>
-      </c>
-      <c r="O24" s="42"/>
-      <c r="P24" s="36">
+      <c r="L24" s="43">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="M24" s="44"/>
+      <c r="N24" s="43">
+        <v>39.99</v>
+      </c>
+      <c r="O24" s="44"/>
+      <c r="P24" s="67">
         <v>0</v>
       </c>
-      <c r="Q24" s="37"/>
-      <c r="U24" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="V24" s="76"/>
-      <c r="W24" s="76"/>
-      <c r="X24" s="65"/>
+      <c r="Q24" s="68"/>
+      <c r="U24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="17"/>
     </row>
     <row r="25" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="50">
+      <c r="L25" s="45">
         <v>0</v>
       </c>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50">
+      <c r="M25" s="45"/>
+      <c r="N25" s="45">
         <v>0</v>
       </c>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50">
-        <v>6.99</v>
-      </c>
-      <c r="Q25" s="50"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="77"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="67"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45">
+        <v>9.99</v>
+      </c>
+      <c r="Q25" s="45"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="20"/>
     </row>
     <row r="26" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="29">
+        <v>27</v>
+      </c>
+      <c r="L26" s="39">
         <v>0</v>
       </c>
-      <c r="M26" s="30"/>
-      <c r="N26" s="29">
+      <c r="M26" s="40"/>
+      <c r="N26" s="39">
         <v>2</v>
       </c>
-      <c r="O26" s="30"/>
-      <c r="P26" s="29">
+      <c r="O26" s="40"/>
+      <c r="P26" s="39">
         <v>0</v>
       </c>
-      <c r="Q26" s="30"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="67"/>
+      <c r="Q26" s="40"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="20"/>
     </row>
     <row r="27" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27" s="29">
+        <v>8</v>
+      </c>
+      <c r="L27" s="39">
         <v>1</v>
       </c>
-      <c r="M27" s="30"/>
-      <c r="N27" s="29" t="s">
+      <c r="M27" s="40"/>
+      <c r="N27" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="O27" s="30"/>
-      <c r="P27" s="29">
+      <c r="O27" s="40"/>
+      <c r="P27" s="39">
         <v>1</v>
       </c>
-      <c r="Q27" s="30"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="67"/>
+      <c r="Q27" s="40"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="20"/>
     </row>
     <row r="28" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L28" s="43" t="s">
+      <c r="L28" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="31"/>
+      <c r="N28" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M28" s="44"/>
-      <c r="N28" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="O28" s="44"/>
-      <c r="P28" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="44"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="77"/>
-      <c r="W28" s="77"/>
-      <c r="X28" s="67"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="31"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="20"/>
     </row>
     <row r="29" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="27">
+        <v>13</v>
+      </c>
+      <c r="L29" s="41">
         <v>2.4900000000000002</v>
       </c>
-      <c r="M29" s="27"/>
-      <c r="N29" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O29" s="28"/>
-      <c r="P29" s="27">
+      <c r="M29" s="41"/>
+      <c r="N29" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="O29" s="42"/>
+      <c r="P29" s="41">
         <v>2.4900000000000002</v>
       </c>
-      <c r="Q29" s="27"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="77"/>
-      <c r="W29" s="77"/>
-      <c r="X29" s="67"/>
+      <c r="Q29" s="41"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="20"/>
     </row>
     <row r="30" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L30" s="27">
+        <v>12</v>
+      </c>
+      <c r="L30" s="41">
         <v>6.99</v>
       </c>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27">
+      <c r="M30" s="41"/>
+      <c r="N30" s="41">
         <v>6.99</v>
       </c>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27">
+      <c r="O30" s="41"/>
+      <c r="P30" s="41">
         <v>6.99</v>
       </c>
-      <c r="Q30" s="27"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="77"/>
-      <c r="W30" s="77"/>
-      <c r="X30" s="67"/>
+      <c r="Q30" s="41"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="20"/>
     </row>
     <row r="31" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="41">
+        <v>2.99</v>
+      </c>
+      <c r="M31" s="41"/>
+      <c r="N31" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="O31" s="42"/>
+      <c r="P31" s="41">
+        <v>2.99</v>
+      </c>
+      <c r="Q31" s="41"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="23"/>
+    </row>
+    <row r="35" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K35" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L31" s="27">
-        <v>2.99</v>
-      </c>
-      <c r="M31" s="27"/>
-      <c r="N31" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O31" s="28"/>
-      <c r="P31" s="27">
-        <v>2.99</v>
-      </c>
-      <c r="Q31" s="27"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="78"/>
-      <c r="W31" s="78"/>
-      <c r="X31" s="69"/>
-    </row>
-    <row r="35" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K35" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="39"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="38"/>
     </row>
     <row r="36" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K36" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
+      <c r="K36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
     </row>
     <row r="37" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K37" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L37" s="4">
         <v>6</v>
       </c>
       <c r="M37" s="5">
         <f>L37 * $L$23</f>
-        <v>239.94</v>
+        <v>179.94</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O37" s="5">
         <f>SUM(M37:M45)</f>
-        <v>959.56999999999994</v>
+        <v>987.58000000000015</v>
       </c>
     </row>
     <row r="38" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L38" s="4">
         <v>4</v>
       </c>
       <c r="M38" s="5">
         <f>L38*$L$23</f>
-        <v>159.96</v>
+        <v>119.96</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O38" s="5">
         <f>O37*12</f>
-        <v>11514.84</v>
+        <v>11850.960000000003</v>
       </c>
     </row>
     <row r="39" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K39" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L39" s="4">
         <v>2</v>
       </c>
       <c r="M39" s="5">
         <f>L39*$L$23</f>
-        <v>79.98</v>
+        <v>59.98</v>
       </c>
     </row>
     <row r="40" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L40" s="4">
         <v>12</v>
       </c>
       <c r="M40" s="5">
         <f>L40*$L$24</f>
-        <v>179.88</v>
-      </c>
+        <v>239.88</v>
+      </c>
+      <c r="N40" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="O40" s="81"/>
     </row>
     <row r="41" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K41" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L41" s="4">
         <v>8</v>
       </c>
       <c r="M41" s="5">
         <f>L41*$N$24</f>
-        <v>239.92</v>
-      </c>
+        <v>319.92</v>
+      </c>
+      <c r="N41" s="82"/>
+      <c r="O41" s="83"/>
     </row>
     <row r="42" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L42" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M42" s="5">
         <f>L42*$P$25</f>
-        <v>41.94</v>
-      </c>
+        <v>49.95</v>
+      </c>
+      <c r="N42" s="84"/>
+      <c r="O42" s="85"/>
     </row>
     <row r="43" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K43" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L43" s="4">
         <v>2</v>
@@ -3129,7 +3187,7 @@
     </row>
     <row r="44" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L44" s="4">
         <v>1</v>
@@ -3141,7 +3199,7 @@
     </row>
     <row r="45" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K45" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L45" s="4">
         <v>2</v>
@@ -3152,103 +3210,111 @@
       </c>
     </row>
     <row r="47" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K47" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
+      <c r="K47" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
     </row>
     <row r="48" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K48" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L48" s="4">
         <v>8</v>
       </c>
       <c r="M48" s="5">
         <f>L48 * $L$23</f>
-        <v>319.92</v>
+        <v>239.92</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O48" s="5">
         <f>SUM(M48:M56)</f>
-        <v>2154.96</v>
+        <v>2430.9700000000003</v>
       </c>
     </row>
     <row r="49" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L49" s="4">
         <v>6</v>
       </c>
       <c r="M49" s="5">
         <f>L49*$L$23</f>
-        <v>239.94</v>
+        <v>179.94</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O49" s="5">
         <f>O48*12</f>
-        <v>25859.52</v>
+        <v>29171.640000000003</v>
       </c>
     </row>
     <row r="50" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K50" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L50" s="4">
         <v>4</v>
       </c>
       <c r="M50" s="5">
         <f>L50*$L$23</f>
-        <v>159.96</v>
+        <v>119.96</v>
       </c>
     </row>
     <row r="51" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K51" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L51" s="4">
         <v>36</v>
       </c>
       <c r="M51" s="5">
         <f>L51*$L$24</f>
-        <v>539.64</v>
-      </c>
+        <v>719.64</v>
+      </c>
+      <c r="N51" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="O51" s="81"/>
     </row>
     <row r="52" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K52" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L52" s="4">
         <v>24</v>
       </c>
       <c r="M52" s="5">
         <f>L52*$N$24</f>
-        <v>719.76</v>
-      </c>
+        <v>959.76</v>
+      </c>
+      <c r="N52" s="82"/>
+      <c r="O52" s="83"/>
     </row>
     <row r="53" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L53" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M53" s="5">
         <f>L53*$P$25</f>
-        <v>111.84</v>
-      </c>
+        <v>149.85</v>
+      </c>
+      <c r="N53" s="84"/>
+      <c r="O53" s="85"/>
     </row>
     <row r="54" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K54" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L54" s="4">
         <v>4</v>
@@ -3260,7 +3326,7 @@
     </row>
     <row r="55" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K55" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L55" s="4">
         <v>6</v>
@@ -3272,114 +3338,122 @@
     </row>
     <row r="56" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K56" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L56" s="4">
         <v>8</v>
       </c>
       <c r="M56" s="5">
         <f>L42*$L$45</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K58" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
+      <c r="K58" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
     </row>
     <row r="59" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K59" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L59" s="4">
         <v>10</v>
       </c>
       <c r="M59" s="5">
         <f>L59 * $L$23</f>
-        <v>399.90000000000003</v>
+        <v>299.89999999999998</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O59" s="5">
         <f>SUM(M59:M67)</f>
-        <v>3805.1</v>
+        <v>4479.12</v>
       </c>
     </row>
     <row r="60" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K60" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L60" s="4">
         <v>8</v>
       </c>
       <c r="M60" s="5">
         <f>L60*$L$23</f>
-        <v>319.92</v>
+        <v>239.92</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O60" s="5">
         <f>O59*12</f>
-        <v>45661.2</v>
+        <v>53749.440000000002</v>
       </c>
     </row>
     <row r="61" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K61" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L61" s="4">
         <v>6</v>
       </c>
       <c r="M61" s="5">
         <f>L61*$L$23</f>
-        <v>239.94</v>
+        <v>179.94</v>
       </c>
     </row>
     <row r="62" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K62" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L62" s="4">
         <v>72</v>
       </c>
       <c r="M62" s="5">
         <f>L62*$L$24</f>
-        <v>1079.28</v>
-      </c>
+        <v>1439.28</v>
+      </c>
+      <c r="N62" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="O62" s="81"/>
     </row>
     <row r="63" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K63" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L63" s="4">
         <v>48</v>
       </c>
       <c r="M63" s="5">
         <f>L63*$N$24</f>
-        <v>1439.52</v>
-      </c>
+        <v>1919.52</v>
+      </c>
+      <c r="N63" s="82"/>
+      <c r="O63" s="83"/>
     </row>
     <row r="64" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K64" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L64" s="4">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M64" s="5">
         <f>L64*$P$25</f>
-        <v>223.68</v>
-      </c>
+        <v>299.7</v>
+      </c>
+      <c r="N64" s="84"/>
+      <c r="O64" s="85"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K65" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L65" s="4">
         <v>6</v>
@@ -3391,7 +3465,7 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K66" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L66" s="4">
         <v>8</v>
@@ -3403,91 +3477,91 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K67" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L67" s="4">
         <v>10</v>
       </c>
       <c r="M67" s="5">
         <f>L53*$L$45</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="J74" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="S74" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="T74" s="24"/>
+      <c r="U74" s="24"/>
+      <c r="V74" s="24"/>
+      <c r="W74" s="24"/>
+      <c r="X74" s="24"/>
+      <c r="Y74" s="24"/>
+      <c r="Z74" s="24"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="34"/>
+      <c r="C75" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="J75" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K75" s="34"/>
+      <c r="L75" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="S75" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="T75" s="34"/>
+      <c r="U75" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="V75" s="35"/>
+      <c r="W75" s="35"/>
+      <c r="X75" s="35"/>
+      <c r="Y75" s="35"/>
+      <c r="Z75" s="35"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74" s="45"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="45"/>
-      <c r="J74" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="K74" s="45"/>
-      <c r="L74" s="45"/>
-      <c r="M74" s="45"/>
-      <c r="N74" s="45"/>
-      <c r="O74" s="45"/>
-      <c r="P74" s="45"/>
-      <c r="Q74" s="45"/>
-      <c r="S74" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T74" s="45"/>
-      <c r="U74" s="45"/>
-      <c r="V74" s="45"/>
-      <c r="W74" s="45"/>
-      <c r="X74" s="45"/>
-      <c r="Y74" s="45"/>
-      <c r="Z74" s="45"/>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75" s="46"/>
-      <c r="C75" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="J75" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="K75" s="46"/>
-      <c r="L75" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="M75" s="47"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="47"/>
-      <c r="P75" s="47"/>
-      <c r="Q75" s="47"/>
-      <c r="S75" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="T75" s="46"/>
-      <c r="U75" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="V75" s="47"/>
-      <c r="W75" s="47"/>
-      <c r="X75" s="47"/>
-      <c r="Y75" s="47"/>
-      <c r="Z75" s="47"/>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B76" s="49"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="7">
         <v>1</v>
       </c>
@@ -3506,10 +3580,10 @@
       <c r="H76" s="8">
         <v>6</v>
       </c>
-      <c r="J76" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="K76" s="49"/>
+      <c r="J76" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" s="33"/>
       <c r="L76" s="7">
         <v>1</v>
       </c>
@@ -3528,10 +3602,10 @@
       <c r="Q76" s="8">
         <v>6</v>
       </c>
-      <c r="S76" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="T76" s="49"/>
+      <c r="S76" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="T76" s="33"/>
       <c r="U76" s="7">
         <v>1</v>
       </c>
@@ -3552,38 +3626,38 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="43">
+      <c r="A77" s="30">
         <v>1</v>
       </c>
-      <c r="B77" s="44"/>
+      <c r="B77" s="31"/>
       <c r="C77" s="9">
         <f>C76 * ($L$23 +$L$24)</f>
-        <v>54.980000000000004</v>
+        <v>49.98</v>
       </c>
       <c r="D77" s="9">
         <f t="shared" ref="D77:H77" si="0">D76 * ($L$23 +$L$24)</f>
-        <v>109.96000000000001</v>
+        <v>99.96</v>
       </c>
       <c r="E77" s="9">
         <f t="shared" si="0"/>
-        <v>164.94</v>
+        <v>149.94</v>
       </c>
       <c r="F77" s="9">
         <f t="shared" si="0"/>
-        <v>219.92000000000002</v>
+        <v>199.92</v>
       </c>
       <c r="G77" s="9">
         <f t="shared" si="0"/>
-        <v>274.90000000000003</v>
+        <v>249.89999999999998</v>
       </c>
       <c r="H77" s="9">
         <f t="shared" si="0"/>
-        <v>329.88</v>
-      </c>
-      <c r="J77" s="43">
+        <v>299.88</v>
+      </c>
+      <c r="J77" s="30">
         <v>1</v>
       </c>
-      <c r="K77" s="44"/>
+      <c r="K77" s="31"/>
       <c r="L77" s="9">
         <f t="shared" ref="L77:Q77" si="1">L76 * ($L$23 +$N$24)</f>
         <v>69.98</v>
@@ -3608,40 +3682,40 @@
         <f t="shared" si="1"/>
         <v>419.88</v>
       </c>
-      <c r="S77" s="43">
+      <c r="S77" s="30">
         <v>1</v>
       </c>
-      <c r="T77" s="44"/>
+      <c r="T77" s="31"/>
       <c r="U77" s="9">
         <f t="shared" ref="U77:Z77" si="2">U76 * ($L$23 +$P$25)</f>
-        <v>46.980000000000004</v>
+        <v>39.979999999999997</v>
       </c>
       <c r="V77" s="9">
         <f t="shared" si="2"/>
-        <v>93.960000000000008</v>
+        <v>79.959999999999994</v>
       </c>
       <c r="W77" s="9">
         <f t="shared" si="2"/>
-        <v>140.94</v>
+        <v>119.94</v>
       </c>
       <c r="X77" s="9">
         <f t="shared" si="2"/>
-        <v>187.92000000000002</v>
+        <v>159.91999999999999</v>
       </c>
       <c r="Y77" s="9">
         <f t="shared" si="2"/>
-        <v>234.90000000000003</v>
+        <v>199.89999999999998</v>
       </c>
       <c r="Z77" s="9">
         <f t="shared" si="2"/>
-        <v>281.88</v>
+        <v>239.88</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="43">
+      <c r="A78" s="30">
         <v>2</v>
       </c>
-      <c r="B78" s="44"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="5">
         <f t="shared" ref="C78:C88" si="3">($L$23*$C$76)+($A78*$C$76)*$L$24</f>
         <v>69.97</v>
@@ -3660,1124 +3734,1124 @@
       </c>
       <c r="G78" s="5">
         <f t="shared" ref="G78:G88" si="7">($L$23*$G$76)+($A78*$G$76)*$L$24</f>
-        <v>349.85</v>
+        <v>349.84999999999997</v>
       </c>
       <c r="H78" s="5">
         <f t="shared" ref="H78:H88" si="8">($L$23*$H$76)+($A78*$H$76)*$L$24</f>
         <v>419.82</v>
       </c>
-      <c r="J78" s="43">
+      <c r="J78" s="30">
         <v>2</v>
       </c>
-      <c r="K78" s="44"/>
+      <c r="K78" s="31"/>
       <c r="L78" s="5">
         <f t="shared" ref="L78:L88" si="9">($L$23*$C$76)+($A78*$C$76)*$N$24</f>
-        <v>99.97</v>
+        <v>109.97</v>
       </c>
       <c r="M78" s="5">
         <f t="shared" ref="M78:M88" si="10">($L$23*$D$76)+($A78*$D$76)*$N$24</f>
-        <v>199.94</v>
+        <v>219.94</v>
       </c>
       <c r="N78" s="5">
         <f t="shared" ref="N78:N88" si="11">($L$23*$E$76)+($A78*$E$76)*$N$24</f>
-        <v>299.90999999999997</v>
+        <v>329.90999999999997</v>
       </c>
       <c r="O78" s="5">
         <f t="shared" ref="O78:O88" si="12">($L$23*$F$76)+($A78*$F$76)*$N$24</f>
-        <v>399.88</v>
+        <v>439.88</v>
       </c>
       <c r="P78" s="5">
         <f t="shared" ref="P78:P88" si="13">($L$23*$G$76)+($A78*$G$76)*$N$24</f>
-        <v>499.85</v>
+        <v>549.85</v>
       </c>
       <c r="Q78" s="5">
         <f t="shared" ref="Q78:Q88" si="14">($L$23*$H$76)+($A78*$H$76)*$N$24</f>
-        <v>599.81999999999994</v>
-      </c>
-      <c r="S78" s="43">
+        <v>659.81999999999994</v>
+      </c>
+      <c r="S78" s="30">
         <v>2</v>
       </c>
-      <c r="T78" s="44"/>
+      <c r="T78" s="31"/>
       <c r="U78" s="5">
         <f>($L$23*$C$76)+($A78*$C$76)*$P$25</f>
-        <v>53.97</v>
+        <v>49.97</v>
       </c>
       <c r="V78" s="5">
         <f>($L$23*$D$76)+($A78*$D$76)*$P$25</f>
-        <v>107.94</v>
+        <v>99.94</v>
       </c>
       <c r="W78" s="5">
         <f>($L$23*$E$76)+($A78*$E$76)*$P$25</f>
-        <v>161.91</v>
+        <v>149.91</v>
       </c>
       <c r="X78" s="5">
         <f>($L$23*$F$76)+($A78*$F$76)*$P$25</f>
-        <v>215.88</v>
+        <v>199.88</v>
       </c>
       <c r="Y78" s="5">
         <f>($L$23*$G$76)+($A78*$G$76)*$P$25</f>
-        <v>269.85000000000002</v>
+        <v>249.85</v>
       </c>
       <c r="Z78" s="5">
         <f>($L$23*$H$76)+($A78*$H$76)*$P$25</f>
-        <v>323.82</v>
+        <v>299.82</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" s="43">
+      <c r="A79" s="30">
         <v>3</v>
       </c>
-      <c r="B79" s="44"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="5">
         <f t="shared" si="3"/>
-        <v>84.960000000000008</v>
+        <v>89.96</v>
       </c>
       <c r="D79" s="5">
         <f t="shared" si="4"/>
-        <v>169.92000000000002</v>
+        <v>179.92</v>
       </c>
       <c r="E79" s="5">
         <f t="shared" si="5"/>
-        <v>254.88</v>
+        <v>269.88</v>
       </c>
       <c r="F79" s="5">
         <f t="shared" si="6"/>
-        <v>339.84000000000003</v>
+        <v>359.84</v>
       </c>
       <c r="G79" s="5">
         <f t="shared" si="7"/>
-        <v>424.8</v>
+        <v>449.79999999999995</v>
       </c>
       <c r="H79" s="5">
         <f t="shared" si="8"/>
-        <v>509.76</v>
-      </c>
-      <c r="J79" s="43">
+        <v>539.76</v>
+      </c>
+      <c r="J79" s="30">
         <v>3</v>
       </c>
-      <c r="K79" s="44"/>
+      <c r="K79" s="31"/>
       <c r="L79" s="5">
         <f t="shared" si="9"/>
-        <v>129.96</v>
+        <v>149.96</v>
       </c>
       <c r="M79" s="5">
         <f t="shared" si="10"/>
-        <v>259.92</v>
+        <v>299.92</v>
       </c>
       <c r="N79" s="5">
         <f t="shared" si="11"/>
-        <v>389.88</v>
+        <v>449.88</v>
       </c>
       <c r="O79" s="5">
         <f t="shared" si="12"/>
-        <v>519.84</v>
+        <v>599.84</v>
       </c>
       <c r="P79" s="5">
         <f t="shared" si="13"/>
-        <v>649.79999999999995</v>
+        <v>749.8</v>
       </c>
       <c r="Q79" s="5">
         <f t="shared" si="14"/>
-        <v>779.76</v>
-      </c>
-      <c r="S79" s="43">
+        <v>899.76</v>
+      </c>
+      <c r="S79" s="30">
         <v>3</v>
       </c>
-      <c r="T79" s="44"/>
+      <c r="T79" s="31"/>
       <c r="U79" s="5">
         <f t="shared" ref="U79:U88" si="15">($L$23*$C$76)+($A79*$C$76)*$P$25</f>
-        <v>60.96</v>
+        <v>59.959999999999994</v>
       </c>
       <c r="V79" s="5">
         <f t="shared" ref="V79:V88" si="16">($L$23*$D$76)+($A79*$D$76)*$P$25</f>
-        <v>121.92</v>
+        <v>119.91999999999999</v>
       </c>
       <c r="W79" s="5">
         <f t="shared" ref="W79:W87" si="17">($L$23*$E$76)+($A79*$E$76)*$P$25</f>
-        <v>182.88</v>
+        <v>179.88</v>
       </c>
       <c r="X79" s="5">
         <f t="shared" ref="X79:X88" si="18">($L$23*$F$76)+($A79*$F$76)*$P$25</f>
-        <v>243.84</v>
+        <v>239.83999999999997</v>
       </c>
       <c r="Y79" s="5">
         <f t="shared" ref="Y79:Y88" si="19">($L$23*$G$76)+($A79*$G$76)*$P$25</f>
-        <v>304.8</v>
+        <v>299.79999999999995</v>
       </c>
       <c r="Z79" s="5">
         <f t="shared" ref="Z79:Z88" si="20">($L$23*$H$76)+($A79*$H$76)*$P$25</f>
-        <v>365.76</v>
+        <v>359.76</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A80" s="43">
+      <c r="A80" s="30">
         <v>4</v>
       </c>
-      <c r="B80" s="44"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="5">
         <f t="shared" si="3"/>
-        <v>99.95</v>
+        <v>109.94999999999999</v>
       </c>
       <c r="D80" s="5">
         <f t="shared" si="4"/>
-        <v>199.9</v>
+        <v>219.89999999999998</v>
       </c>
       <c r="E80" s="5">
         <f t="shared" si="5"/>
-        <v>299.85000000000002</v>
+        <v>329.85</v>
       </c>
       <c r="F80" s="5">
         <f t="shared" si="6"/>
-        <v>399.8</v>
+        <v>439.79999999999995</v>
       </c>
       <c r="G80" s="5">
         <f t="shared" si="7"/>
-        <v>499.75</v>
+        <v>549.75</v>
       </c>
       <c r="H80" s="5">
         <f t="shared" si="8"/>
-        <v>599.70000000000005</v>
-      </c>
-      <c r="J80" s="43">
+        <v>659.7</v>
+      </c>
+      <c r="J80" s="30">
         <v>4</v>
       </c>
-      <c r="K80" s="44"/>
+      <c r="K80" s="31"/>
       <c r="L80" s="5">
         <f t="shared" si="9"/>
-        <v>159.94999999999999</v>
+        <v>189.95000000000002</v>
       </c>
       <c r="M80" s="5">
         <f t="shared" si="10"/>
-        <v>319.89999999999998</v>
+        <v>379.90000000000003</v>
       </c>
       <c r="N80" s="5">
         <f t="shared" si="11"/>
-        <v>479.85</v>
+        <v>569.85</v>
       </c>
       <c r="O80" s="5">
         <f t="shared" si="12"/>
-        <v>639.79999999999995</v>
+        <v>759.80000000000007</v>
       </c>
       <c r="P80" s="5">
         <f t="shared" si="13"/>
-        <v>799.75</v>
+        <v>949.75</v>
       </c>
       <c r="Q80" s="5">
         <f t="shared" si="14"/>
-        <v>959.7</v>
-      </c>
-      <c r="S80" s="43">
+        <v>1139.7</v>
+      </c>
+      <c r="S80" s="30">
         <v>4</v>
       </c>
-      <c r="T80" s="44"/>
+      <c r="T80" s="31"/>
       <c r="U80" s="5">
         <f t="shared" si="15"/>
-        <v>67.95</v>
+        <v>69.95</v>
       </c>
       <c r="V80" s="5">
         <f t="shared" si="16"/>
-        <v>135.9</v>
+        <v>139.9</v>
       </c>
       <c r="W80" s="5">
         <f t="shared" si="17"/>
-        <v>203.85</v>
+        <v>209.85</v>
       </c>
       <c r="X80" s="5">
         <f t="shared" si="18"/>
-        <v>271.8</v>
+        <v>279.8</v>
       </c>
       <c r="Y80" s="5">
         <f t="shared" si="19"/>
-        <v>339.75</v>
+        <v>349.75</v>
       </c>
       <c r="Z80" s="5">
         <f t="shared" si="20"/>
-        <v>407.7</v>
+        <v>419.7</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A81" s="43">
+      <c r="A81" s="30">
         <v>5</v>
       </c>
-      <c r="B81" s="44"/>
+      <c r="B81" s="31"/>
       <c r="C81" s="5">
         <f t="shared" si="3"/>
-        <v>114.94</v>
+        <v>129.94</v>
       </c>
       <c r="D81" s="5">
         <f t="shared" si="4"/>
-        <v>229.88</v>
+        <v>259.88</v>
       </c>
       <c r="E81" s="5">
         <f t="shared" si="5"/>
-        <v>344.82</v>
+        <v>389.81999999999994</v>
       </c>
       <c r="F81" s="5">
         <f t="shared" si="6"/>
-        <v>459.76</v>
+        <v>519.76</v>
       </c>
       <c r="G81" s="5">
         <f t="shared" si="7"/>
-        <v>574.70000000000005</v>
+        <v>649.69999999999993</v>
       </c>
       <c r="H81" s="5">
         <f t="shared" si="8"/>
-        <v>689.64</v>
-      </c>
-      <c r="J81" s="43">
+        <v>779.63999999999987</v>
+      </c>
+      <c r="J81" s="30">
         <v>5</v>
       </c>
-      <c r="K81" s="44"/>
+      <c r="K81" s="31"/>
       <c r="L81" s="5">
         <f t="shared" si="9"/>
-        <v>189.94</v>
+        <v>229.94000000000003</v>
       </c>
       <c r="M81" s="5">
         <f t="shared" si="10"/>
-        <v>379.88</v>
+        <v>459.88000000000005</v>
       </c>
       <c r="N81" s="5">
         <f t="shared" si="11"/>
-        <v>569.81999999999994</v>
+        <v>689.82</v>
       </c>
       <c r="O81" s="5">
         <f t="shared" si="12"/>
-        <v>759.76</v>
+        <v>919.7600000000001</v>
       </c>
       <c r="P81" s="5">
         <f t="shared" si="13"/>
-        <v>949.7</v>
+        <v>1149.7</v>
       </c>
       <c r="Q81" s="5">
         <f t="shared" si="14"/>
-        <v>1139.6399999999999</v>
-      </c>
-      <c r="S81" s="43">
+        <v>1379.64</v>
+      </c>
+      <c r="S81" s="30">
         <v>5</v>
       </c>
-      <c r="T81" s="44"/>
+      <c r="T81" s="31"/>
       <c r="U81" s="5">
         <f t="shared" si="15"/>
-        <v>74.94</v>
+        <v>79.94</v>
       </c>
       <c r="V81" s="5">
         <f t="shared" si="16"/>
-        <v>149.88</v>
+        <v>159.88</v>
       </c>
       <c r="W81" s="5">
         <f t="shared" si="17"/>
-        <v>224.82</v>
+        <v>239.82</v>
       </c>
       <c r="X81" s="5">
         <f t="shared" si="18"/>
-        <v>299.76</v>
+        <v>319.76</v>
       </c>
       <c r="Y81" s="5">
         <f t="shared" si="19"/>
-        <v>374.70000000000005</v>
+        <v>399.7</v>
       </c>
       <c r="Z81" s="5">
         <f t="shared" si="20"/>
-        <v>449.64</v>
+        <v>479.64</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A82" s="43">
+      <c r="A82" s="30">
         <v>6</v>
       </c>
-      <c r="B82" s="44"/>
+      <c r="B82" s="31"/>
       <c r="C82" s="5">
         <f t="shared" si="3"/>
-        <v>129.93</v>
+        <v>149.93</v>
       </c>
       <c r="D82" s="5">
         <f t="shared" si="4"/>
-        <v>259.86</v>
+        <v>299.86</v>
       </c>
       <c r="E82" s="5">
         <f t="shared" si="5"/>
-        <v>389.78999999999996</v>
+        <v>449.78999999999996</v>
       </c>
       <c r="F82" s="5">
         <f t="shared" si="6"/>
-        <v>519.72</v>
+        <v>599.72</v>
       </c>
       <c r="G82" s="5">
         <f t="shared" si="7"/>
-        <v>649.65</v>
+        <v>749.64999999999986</v>
       </c>
       <c r="H82" s="5">
         <f t="shared" si="8"/>
-        <v>779.57999999999993</v>
-      </c>
-      <c r="J82" s="43">
+        <v>899.57999999999993</v>
+      </c>
+      <c r="J82" s="30">
         <v>6</v>
       </c>
-      <c r="K82" s="44"/>
+      <c r="K82" s="31"/>
       <c r="L82" s="5">
         <f t="shared" si="9"/>
-        <v>219.93</v>
+        <v>269.93</v>
       </c>
       <c r="M82" s="5">
         <f t="shared" si="10"/>
-        <v>439.86</v>
+        <v>539.86</v>
       </c>
       <c r="N82" s="5">
         <f t="shared" si="11"/>
-        <v>659.79</v>
+        <v>809.79000000000008</v>
       </c>
       <c r="O82" s="5">
         <f t="shared" si="12"/>
-        <v>879.72</v>
+        <v>1079.72</v>
       </c>
       <c r="P82" s="5">
         <f t="shared" si="13"/>
-        <v>1099.6499999999999</v>
+        <v>1349.65</v>
       </c>
       <c r="Q82" s="5">
         <f t="shared" si="14"/>
-        <v>1319.58</v>
-      </c>
-      <c r="S82" s="43">
+        <v>1619.5800000000002</v>
+      </c>
+      <c r="S82" s="30">
         <v>6</v>
       </c>
-      <c r="T82" s="44"/>
+      <c r="T82" s="31"/>
       <c r="U82" s="5">
         <f t="shared" si="15"/>
-        <v>81.93</v>
+        <v>89.929999999999993</v>
       </c>
       <c r="V82" s="5">
         <f t="shared" si="16"/>
-        <v>163.86</v>
+        <v>179.85999999999999</v>
       </c>
       <c r="W82" s="5">
         <f t="shared" si="17"/>
-        <v>245.79000000000002</v>
+        <v>269.78999999999996</v>
       </c>
       <c r="X82" s="5">
         <f t="shared" si="18"/>
-        <v>327.72</v>
+        <v>359.71999999999997</v>
       </c>
       <c r="Y82" s="5">
         <f t="shared" si="19"/>
-        <v>409.65000000000003</v>
+        <v>449.65</v>
       </c>
       <c r="Z82" s="5">
         <f t="shared" si="20"/>
-        <v>491.58000000000004</v>
+        <v>539.57999999999993</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A83" s="43">
+      <c r="A83" s="30">
         <v>7</v>
       </c>
-      <c r="B83" s="44"/>
+      <c r="B83" s="31"/>
       <c r="C83" s="5">
         <f t="shared" si="3"/>
-        <v>144.92000000000002</v>
+        <v>169.92</v>
       </c>
       <c r="D83" s="5">
         <f t="shared" si="4"/>
-        <v>289.84000000000003</v>
+        <v>339.84</v>
       </c>
       <c r="E83" s="5">
         <f t="shared" si="5"/>
-        <v>434.76</v>
+        <v>509.76</v>
       </c>
       <c r="F83" s="5">
         <f t="shared" si="6"/>
-        <v>579.68000000000006</v>
+        <v>679.68</v>
       </c>
       <c r="G83" s="5">
         <f t="shared" si="7"/>
-        <v>724.6</v>
+        <v>849.59999999999991</v>
       </c>
       <c r="H83" s="5">
         <f t="shared" si="8"/>
-        <v>869.52</v>
-      </c>
-      <c r="J83" s="43">
+        <v>1019.52</v>
+      </c>
+      <c r="J83" s="30">
         <v>7</v>
       </c>
-      <c r="K83" s="44"/>
+      <c r="K83" s="31"/>
       <c r="L83" s="5">
         <f t="shared" si="9"/>
-        <v>249.92</v>
+        <v>309.92</v>
       </c>
       <c r="M83" s="5">
         <f t="shared" si="10"/>
-        <v>499.84</v>
+        <v>619.84</v>
       </c>
       <c r="N83" s="5">
         <f t="shared" si="11"/>
-        <v>749.76</v>
+        <v>929.7600000000001</v>
       </c>
       <c r="O83" s="5">
         <f t="shared" si="12"/>
-        <v>999.68</v>
+        <v>1239.68</v>
       </c>
       <c r="P83" s="5">
         <f t="shared" si="13"/>
-        <v>1249.5999999999999</v>
+        <v>1549.6000000000001</v>
       </c>
       <c r="Q83" s="5">
         <f t="shared" si="14"/>
-        <v>1499.52</v>
-      </c>
-      <c r="S83" s="43">
+        <v>1859.5200000000002</v>
+      </c>
+      <c r="S83" s="30">
         <v>7</v>
       </c>
-      <c r="T83" s="44"/>
+      <c r="T83" s="31"/>
       <c r="U83" s="5">
         <f t="shared" si="15"/>
-        <v>88.92</v>
+        <v>99.92</v>
       </c>
       <c r="V83" s="5">
         <f t="shared" si="16"/>
-        <v>177.84</v>
+        <v>199.84</v>
       </c>
       <c r="W83" s="5">
         <f t="shared" si="17"/>
-        <v>266.76</v>
+        <v>299.76</v>
       </c>
       <c r="X83" s="5">
         <f t="shared" si="18"/>
-        <v>355.68</v>
+        <v>399.68</v>
       </c>
       <c r="Y83" s="5">
         <f t="shared" si="19"/>
-        <v>444.6</v>
+        <v>499.6</v>
       </c>
       <c r="Z83" s="5">
         <f t="shared" si="20"/>
-        <v>533.52</v>
+        <v>599.52</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A84" s="43">
+      <c r="A84" s="30">
         <v>8</v>
       </c>
-      <c r="B84" s="44"/>
+      <c r="B84" s="31"/>
       <c r="C84" s="5">
         <f t="shared" si="3"/>
-        <v>159.91</v>
+        <v>189.91</v>
       </c>
       <c r="D84" s="5">
         <f t="shared" si="4"/>
-        <v>319.82</v>
+        <v>379.82</v>
       </c>
       <c r="E84" s="5">
         <f t="shared" si="5"/>
-        <v>479.73</v>
+        <v>569.73</v>
       </c>
       <c r="F84" s="5">
         <f t="shared" si="6"/>
-        <v>639.64</v>
+        <v>759.64</v>
       </c>
       <c r="G84" s="5">
         <f t="shared" si="7"/>
-        <v>799.55000000000007</v>
+        <v>949.55</v>
       </c>
       <c r="H84" s="5">
         <f t="shared" si="8"/>
-        <v>959.46</v>
-      </c>
-      <c r="J84" s="43">
+        <v>1139.46</v>
+      </c>
+      <c r="J84" s="30">
         <v>8</v>
       </c>
-      <c r="K84" s="44"/>
+      <c r="K84" s="31"/>
       <c r="L84" s="5">
         <f t="shared" si="9"/>
-        <v>279.90999999999997</v>
+        <v>349.91</v>
       </c>
       <c r="M84" s="5">
         <f t="shared" si="10"/>
-        <v>559.81999999999994</v>
+        <v>699.82</v>
       </c>
       <c r="N84" s="5">
         <f t="shared" si="11"/>
-        <v>839.73</v>
+        <v>1049.73</v>
       </c>
       <c r="O84" s="5">
         <f t="shared" si="12"/>
-        <v>1119.6399999999999</v>
+        <v>1399.64</v>
       </c>
       <c r="P84" s="5">
         <f t="shared" si="13"/>
-        <v>1399.55</v>
+        <v>1749.5500000000002</v>
       </c>
       <c r="Q84" s="5">
         <f t="shared" si="14"/>
-        <v>1679.46</v>
-      </c>
-      <c r="S84" s="43">
+        <v>2099.46</v>
+      </c>
+      <c r="S84" s="30">
         <v>8</v>
       </c>
-      <c r="T84" s="44"/>
+      <c r="T84" s="31"/>
       <c r="U84" s="5">
         <f t="shared" si="15"/>
-        <v>95.91</v>
+        <v>109.91</v>
       </c>
       <c r="V84" s="5">
         <f t="shared" si="16"/>
-        <v>191.82</v>
+        <v>219.82</v>
       </c>
       <c r="W84" s="5">
         <f t="shared" si="17"/>
-        <v>287.73</v>
+        <v>329.73</v>
       </c>
       <c r="X84" s="5">
         <f t="shared" si="18"/>
-        <v>383.64</v>
+        <v>439.64</v>
       </c>
       <c r="Y84" s="5">
         <f t="shared" si="19"/>
-        <v>479.55000000000007</v>
+        <v>549.54999999999995</v>
       </c>
       <c r="Z84" s="5">
         <f t="shared" si="20"/>
-        <v>575.46</v>
+        <v>659.46</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A85" s="43">
+      <c r="A85" s="30">
         <v>9</v>
       </c>
-      <c r="B85" s="44"/>
+      <c r="B85" s="31"/>
       <c r="C85" s="5">
         <f t="shared" si="3"/>
-        <v>174.9</v>
+        <v>209.9</v>
       </c>
       <c r="D85" s="5">
         <f t="shared" si="4"/>
-        <v>349.8</v>
+        <v>419.8</v>
       </c>
       <c r="E85" s="5">
         <f t="shared" si="5"/>
-        <v>524.70000000000005</v>
+        <v>629.69999999999993</v>
       </c>
       <c r="F85" s="5">
         <f t="shared" si="6"/>
-        <v>699.6</v>
+        <v>839.6</v>
       </c>
       <c r="G85" s="5">
         <f t="shared" si="7"/>
-        <v>874.5</v>
+        <v>1049.5</v>
       </c>
       <c r="H85" s="5">
         <f t="shared" si="8"/>
-        <v>1049.4000000000001</v>
-      </c>
-      <c r="J85" s="43">
+        <v>1259.3999999999999</v>
+      </c>
+      <c r="J85" s="30">
         <v>9</v>
       </c>
-      <c r="K85" s="44"/>
+      <c r="K85" s="31"/>
       <c r="L85" s="5">
         <f t="shared" si="9"/>
-        <v>309.89999999999998</v>
+        <v>389.90000000000003</v>
       </c>
       <c r="M85" s="5">
         <f t="shared" si="10"/>
-        <v>619.79999999999995</v>
+        <v>779.80000000000007</v>
       </c>
       <c r="N85" s="5">
         <f t="shared" si="11"/>
-        <v>929.69999999999993</v>
+        <v>1169.7</v>
       </c>
       <c r="O85" s="5">
         <f t="shared" si="12"/>
-        <v>1239.5999999999999</v>
+        <v>1559.6000000000001</v>
       </c>
       <c r="P85" s="5">
         <f t="shared" si="13"/>
-        <v>1549.5</v>
+        <v>1949.5000000000002</v>
       </c>
       <c r="Q85" s="5">
         <f t="shared" si="14"/>
-        <v>1859.3999999999999</v>
-      </c>
-      <c r="S85" s="43">
+        <v>2339.4</v>
+      </c>
+      <c r="S85" s="30">
         <v>9</v>
       </c>
-      <c r="T85" s="44"/>
+      <c r="T85" s="31"/>
       <c r="U85" s="5">
         <f t="shared" si="15"/>
-        <v>102.9</v>
+        <v>119.89999999999999</v>
       </c>
       <c r="V85" s="5">
         <f t="shared" si="16"/>
-        <v>205.8</v>
+        <v>239.79999999999998</v>
       </c>
       <c r="W85" s="5">
         <f t="shared" si="17"/>
-        <v>308.70000000000005</v>
+        <v>359.70000000000005</v>
       </c>
       <c r="X85" s="5">
         <f t="shared" si="18"/>
-        <v>411.6</v>
+        <v>479.59999999999997</v>
       </c>
       <c r="Y85" s="5">
         <f t="shared" si="19"/>
-        <v>514.5</v>
+        <v>599.5</v>
       </c>
       <c r="Z85" s="5">
         <f t="shared" si="20"/>
-        <v>617.40000000000009</v>
+        <v>719.40000000000009</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A86" s="43">
+      <c r="A86" s="30">
         <v>10</v>
       </c>
-      <c r="B86" s="44"/>
+      <c r="B86" s="31"/>
       <c r="C86" s="5">
         <f t="shared" si="3"/>
-        <v>189.89000000000001</v>
+        <v>229.89</v>
       </c>
       <c r="D86" s="5">
         <f t="shared" si="4"/>
-        <v>379.78000000000003</v>
+        <v>459.78</v>
       </c>
       <c r="E86" s="5">
         <f t="shared" si="5"/>
-        <v>569.66999999999996</v>
+        <v>689.67</v>
       </c>
       <c r="F86" s="5">
         <f t="shared" si="6"/>
-        <v>759.56000000000006</v>
+        <v>919.56</v>
       </c>
       <c r="G86" s="5">
         <f t="shared" si="7"/>
-        <v>949.45</v>
+        <v>1149.4499999999998</v>
       </c>
       <c r="H86" s="5">
         <f t="shared" si="8"/>
-        <v>1139.3399999999999</v>
-      </c>
-      <c r="J86" s="43">
+        <v>1379.34</v>
+      </c>
+      <c r="J86" s="30">
         <v>10</v>
       </c>
-      <c r="K86" s="44"/>
+      <c r="K86" s="31"/>
       <c r="L86" s="5">
         <f t="shared" si="9"/>
-        <v>339.89</v>
+        <v>429.89000000000004</v>
       </c>
       <c r="M86" s="5">
         <f t="shared" si="10"/>
-        <v>679.78</v>
+        <v>859.78000000000009</v>
       </c>
       <c r="N86" s="5">
         <f t="shared" si="11"/>
-        <v>1019.67</v>
+        <v>1289.67</v>
       </c>
       <c r="O86" s="5">
         <f t="shared" si="12"/>
-        <v>1359.56</v>
+        <v>1719.5600000000002</v>
       </c>
       <c r="P86" s="5">
         <f t="shared" si="13"/>
-        <v>1699.45</v>
+        <v>2149.4499999999998</v>
       </c>
       <c r="Q86" s="5">
         <f t="shared" si="14"/>
-        <v>2039.34</v>
-      </c>
-      <c r="S86" s="43">
+        <v>2579.34</v>
+      </c>
+      <c r="S86" s="30">
         <v>10</v>
       </c>
-      <c r="T86" s="44"/>
+      <c r="T86" s="31"/>
       <c r="U86" s="5">
         <f t="shared" si="15"/>
-        <v>109.89000000000001</v>
+        <v>129.89000000000001</v>
       </c>
       <c r="V86" s="5">
         <f t="shared" si="16"/>
-        <v>219.78000000000003</v>
+        <v>259.78000000000003</v>
       </c>
       <c r="W86" s="5">
         <f t="shared" si="17"/>
-        <v>329.67</v>
+        <v>389.66999999999996</v>
       </c>
       <c r="X86" s="5">
         <f t="shared" si="18"/>
-        <v>439.56000000000006</v>
+        <v>519.56000000000006</v>
       </c>
       <c r="Y86" s="5">
         <f t="shared" si="19"/>
-        <v>549.45000000000005</v>
+        <v>649.45000000000005</v>
       </c>
       <c r="Z86" s="5">
         <f t="shared" si="20"/>
-        <v>659.34</v>
+        <v>779.33999999999992</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A87" s="43">
+      <c r="A87" s="30">
         <v>11</v>
       </c>
-      <c r="B87" s="44"/>
+      <c r="B87" s="31"/>
       <c r="C87" s="5">
         <f t="shared" si="3"/>
-        <v>204.88000000000002</v>
+        <v>249.88</v>
       </c>
       <c r="D87" s="5">
         <f t="shared" si="4"/>
-        <v>409.76000000000005</v>
+        <v>499.76</v>
       </c>
       <c r="E87" s="5">
         <f t="shared" si="5"/>
-        <v>614.64</v>
+        <v>749.64</v>
       </c>
       <c r="F87" s="5">
         <f t="shared" si="6"/>
-        <v>819.5200000000001</v>
+        <v>999.52</v>
       </c>
       <c r="G87" s="5">
         <f t="shared" si="7"/>
-        <v>1024.4000000000001</v>
+        <v>1249.3999999999999</v>
       </c>
       <c r="H87" s="5">
         <f t="shared" si="8"/>
-        <v>1229.28</v>
-      </c>
-      <c r="J87" s="43">
+        <v>1499.28</v>
+      </c>
+      <c r="J87" s="30">
         <v>11</v>
       </c>
-      <c r="K87" s="44"/>
+      <c r="K87" s="31"/>
       <c r="L87" s="5">
         <f t="shared" si="9"/>
-        <v>369.88</v>
+        <v>469.88000000000005</v>
       </c>
       <c r="M87" s="5">
         <f t="shared" si="10"/>
-        <v>739.76</v>
+        <v>939.7600000000001</v>
       </c>
       <c r="N87" s="5">
         <f t="shared" si="11"/>
-        <v>1109.6399999999999</v>
+        <v>1409.64</v>
       </c>
       <c r="O87" s="5">
         <f t="shared" si="12"/>
-        <v>1479.52</v>
+        <v>1879.5200000000002</v>
       </c>
       <c r="P87" s="5">
         <f t="shared" si="13"/>
-        <v>1849.3999999999999</v>
+        <v>2349.4</v>
       </c>
       <c r="Q87" s="5">
         <f t="shared" si="14"/>
-        <v>2219.2799999999997</v>
-      </c>
-      <c r="S87" s="43">
+        <v>2819.28</v>
+      </c>
+      <c r="S87" s="30">
         <v>11</v>
       </c>
-      <c r="T87" s="44"/>
+      <c r="T87" s="31"/>
       <c r="U87" s="5">
         <f t="shared" si="15"/>
-        <v>116.88</v>
+        <v>139.88</v>
       </c>
       <c r="V87" s="5">
         <f t="shared" si="16"/>
-        <v>233.76</v>
+        <v>279.76</v>
       </c>
       <c r="W87" s="5">
         <f t="shared" si="17"/>
-        <v>350.64</v>
+        <v>419.64</v>
       </c>
       <c r="X87" s="5">
         <f t="shared" si="18"/>
-        <v>467.52</v>
+        <v>559.52</v>
       </c>
       <c r="Y87" s="5">
         <f t="shared" si="19"/>
-        <v>584.4</v>
+        <v>699.40000000000009</v>
       </c>
       <c r="Z87" s="5">
         <f t="shared" si="20"/>
-        <v>701.28</v>
+        <v>839.28</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="43">
+      <c r="A88" s="30">
         <v>12</v>
       </c>
-      <c r="B88" s="44"/>
+      <c r="B88" s="31"/>
       <c r="C88" s="5">
         <f t="shared" si="3"/>
-        <v>219.87</v>
+        <v>269.87</v>
       </c>
       <c r="D88" s="5">
         <f t="shared" si="4"/>
-        <v>439.74</v>
+        <v>539.74</v>
       </c>
       <c r="E88" s="5">
         <f t="shared" si="5"/>
-        <v>659.61</v>
+        <v>809.61</v>
       </c>
       <c r="F88" s="5">
         <f t="shared" si="6"/>
-        <v>879.48</v>
+        <v>1079.48</v>
       </c>
       <c r="G88" s="5">
         <f t="shared" si="7"/>
-        <v>1099.3499999999999</v>
+        <v>1349.35</v>
       </c>
       <c r="H88" s="5">
         <f t="shared" si="8"/>
-        <v>1319.22</v>
-      </c>
-      <c r="J88" s="43">
+        <v>1619.22</v>
+      </c>
+      <c r="J88" s="30">
         <v>12</v>
       </c>
-      <c r="K88" s="44"/>
+      <c r="K88" s="31"/>
       <c r="L88" s="5">
         <f t="shared" si="9"/>
-        <v>399.87</v>
+        <v>509.87</v>
       </c>
       <c r="M88" s="5">
         <f t="shared" si="10"/>
-        <v>799.74</v>
+        <v>1019.74</v>
       </c>
       <c r="N88" s="5">
         <f t="shared" si="11"/>
-        <v>1199.6099999999999</v>
+        <v>1529.6100000000001</v>
       </c>
       <c r="O88" s="5">
         <f t="shared" si="12"/>
-        <v>1599.48</v>
+        <v>2039.48</v>
       </c>
       <c r="P88" s="5">
         <f t="shared" si="13"/>
-        <v>1999.35</v>
+        <v>2549.35</v>
       </c>
       <c r="Q88" s="5">
         <f t="shared" si="14"/>
-        <v>2399.2199999999998</v>
-      </c>
-      <c r="S88" s="43">
+        <v>3059.2200000000003</v>
+      </c>
+      <c r="S88" s="30">
         <v>12</v>
       </c>
-      <c r="T88" s="44"/>
+      <c r="T88" s="31"/>
       <c r="U88" s="5">
         <f t="shared" si="15"/>
-        <v>123.87</v>
+        <v>149.87</v>
       </c>
       <c r="V88" s="5">
         <f t="shared" si="16"/>
-        <v>247.74</v>
+        <v>299.74</v>
       </c>
       <c r="W88" s="5">
         <f>($L$23*$E$76)+($A88*$E$76)*$P$25</f>
-        <v>371.61</v>
+        <v>449.61</v>
       </c>
       <c r="X88" s="5">
         <f t="shared" si="18"/>
-        <v>495.48</v>
+        <v>599.48</v>
       </c>
       <c r="Y88" s="5">
         <f t="shared" si="19"/>
-        <v>619.35</v>
+        <v>749.34999999999991</v>
       </c>
       <c r="Z88" s="5">
         <f t="shared" si="20"/>
-        <v>743.22</v>
+        <v>899.22</v>
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J93" s="45" t="s">
+      <c r="J93" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="24"/>
+      <c r="O93" s="24"/>
+      <c r="P93" s="24"/>
+      <c r="Q93" s="24"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J94" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K94" s="26"/>
+      <c r="L94" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M94" s="28"/>
+      <c r="N94" s="28"/>
+      <c r="O94" s="28"/>
+      <c r="P94" s="28"/>
+      <c r="Q94" s="29"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J95" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K93" s="45"/>
-      <c r="L93" s="45"/>
-      <c r="M93" s="45"/>
-      <c r="N93" s="45"/>
-      <c r="O93" s="45"/>
-      <c r="P93" s="45"/>
-      <c r="Q93" s="45"/>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J94" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="K94" s="74"/>
-      <c r="L94" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="M94" s="71"/>
-      <c r="N94" s="71"/>
-      <c r="O94" s="71"/>
-      <c r="P94" s="71"/>
-      <c r="Q94" s="72"/>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J95" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="K95" s="58"/>
-      <c r="L95" s="75">
+      <c r="K95" s="14"/>
+      <c r="L95" s="12">
         <v>12</v>
       </c>
-      <c r="M95" s="75">
+      <c r="M95" s="12">
         <v>24</v>
       </c>
-      <c r="N95" s="75">
+      <c r="N95" s="12">
         <v>36</v>
       </c>
-      <c r="O95" s="75">
+      <c r="O95" s="12">
         <v>48</v>
       </c>
-      <c r="P95" s="75">
+      <c r="P95" s="12">
         <v>60</v>
       </c>
-      <c r="Q95" s="75">
+      <c r="Q95" s="12">
         <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J96" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="K96" s="58"/>
+      <c r="J96" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K96" s="14"/>
       <c r="L96" s="5">
         <f>C88 + L95 * (L29 + L30 + L31) * 5%</f>
-        <v>227.352</v>
+        <v>277.35200000000003</v>
       </c>
       <c r="M96" s="5">
         <f>D88 + M95 * (L29 + L30 + L31) * 5%</f>
-        <v>454.70400000000001</v>
+        <v>554.70400000000006</v>
       </c>
       <c r="N96" s="5">
         <f>E88 + N95 * (L29 + L30 + L31) * 5%</f>
-        <v>682.05600000000004</v>
+        <v>832.05600000000004</v>
       </c>
       <c r="O96" s="5">
         <f>F88 +O95 * (L29 + L30 + L31) * 5%</f>
-        <v>909.40800000000002</v>
+        <v>1109.4080000000001</v>
       </c>
       <c r="P96" s="5">
         <f>G88 + P95 * (L29 + L30 + L31) * 5%</f>
-        <v>1136.76</v>
+        <v>1386.76</v>
       </c>
       <c r="Q96" s="5">
         <f>H88 + Q95 * (L29 + L30 + L31) * 5%</f>
-        <v>1364.1120000000001</v>
+        <v>1664.1120000000001</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J97" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="K97" s="58"/>
+      <c r="J97" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K97" s="14"/>
       <c r="L97" s="5">
         <f>C88 + L95 * (L29 + L30 + L31) * 15%</f>
-        <v>242.316</v>
+        <v>292.31600000000003</v>
       </c>
       <c r="M97" s="5">
         <f>D88 + M95 * (L29 + L30 + L31) * 15%</f>
-        <v>484.63200000000001</v>
+        <v>584.63200000000006</v>
       </c>
       <c r="N97" s="5">
         <f>E88 +N95 * (L29 + L30 + L31) * 15%</f>
-        <v>726.94799999999998</v>
+        <v>876.94799999999998</v>
       </c>
       <c r="O97" s="5">
         <f>F88 + O95 * (L29 + L30 + L31) * 15%</f>
-        <v>969.26400000000001</v>
+        <v>1169.2640000000001</v>
       </c>
       <c r="P97" s="5">
         <f>G88 + P95 * (L29 + L30 + L31) * 15%</f>
-        <v>1211.58</v>
+        <v>1461.58</v>
       </c>
       <c r="Q97" s="5">
         <f>H88 + Q95 * (L29 + L30 + L31) * 15%</f>
-        <v>1453.896</v>
+        <v>1753.896</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J98" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="K98" s="58"/>
+      <c r="J98" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K98" s="14"/>
       <c r="L98" s="5">
         <f>C88 + L95 * (L29 + L30 + L31) * 25%</f>
-        <v>257.28000000000003</v>
+        <v>307.28000000000003</v>
       </c>
       <c r="M98" s="5">
         <f>D88 + M95 * (L29 + L30 + L31) * 25%</f>
-        <v>514.56000000000006</v>
+        <v>614.56000000000006</v>
       </c>
       <c r="N98" s="5">
         <f>E88 +N95 * (L29 + L30 + L31) * 25%</f>
-        <v>771.84</v>
+        <v>921.84</v>
       </c>
       <c r="O98" s="5">
         <f>F88 + O95 * (L29 + L30 + L31) * 25%</f>
-        <v>1029.1200000000001</v>
+        <v>1229.1200000000001</v>
       </c>
       <c r="P98" s="5">
         <f>G88 + P95 * (L29 + L30 + L31) * 25%</f>
-        <v>1286.3999999999999</v>
+        <v>1536.3999999999999</v>
       </c>
       <c r="Q98" s="5">
         <f>H88 + Q95 * (L29 + L30 + L31) * 25%</f>
-        <v>1543.68</v>
+        <v>1843.68</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J101" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="K101" s="45"/>
-      <c r="L101" s="45"/>
-      <c r="M101" s="45"/>
-      <c r="N101" s="45"/>
-      <c r="O101" s="45"/>
-      <c r="P101" s="45"/>
-      <c r="Q101" s="45"/>
+      <c r="J101" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="24"/>
+      <c r="O101" s="24"/>
+      <c r="P101" s="24"/>
+      <c r="Q101" s="24"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J102" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="K102" s="74"/>
-      <c r="L102" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="M102" s="71"/>
-      <c r="N102" s="71"/>
-      <c r="O102" s="71"/>
-      <c r="P102" s="71"/>
-      <c r="Q102" s="72"/>
+      <c r="J102" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K102" s="26"/>
+      <c r="L102" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M102" s="28"/>
+      <c r="N102" s="28"/>
+      <c r="O102" s="28"/>
+      <c r="P102" s="28"/>
+      <c r="Q102" s="29"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J103" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="K103" s="58"/>
-      <c r="L103" s="75">
+      <c r="J103" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K103" s="14"/>
+      <c r="L103" s="12">
         <v>12</v>
       </c>
-      <c r="M103" s="75">
+      <c r="M103" s="12">
         <v>24</v>
       </c>
-      <c r="N103" s="75">
+      <c r="N103" s="12">
         <v>36</v>
       </c>
-      <c r="O103" s="75">
+      <c r="O103" s="12">
         <v>48</v>
       </c>
-      <c r="P103" s="75">
+      <c r="P103" s="12">
         <v>60</v>
       </c>
-      <c r="Q103" s="75">
+      <c r="Q103" s="12">
         <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J104" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="K104" s="58"/>
+      <c r="J104" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K104" s="14"/>
       <c r="L104" s="5">
         <f>C96 + L103 * (L37 + L38 + L39) * 5%</f>
         <v>7.2</v>
@@ -4804,10 +4878,10 @@
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J105" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="K105" s="58"/>
+      <c r="J105" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K105" s="14"/>
       <c r="L105" s="5">
         <f>C96 + L103 * (L37 + L38 + L39) * 15%</f>
         <v>21.599999999999998</v>
@@ -4834,10 +4908,10 @@
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J106" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="K106" s="58"/>
+      <c r="J106" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K106" s="14"/>
       <c r="L106" s="5">
         <f>C96 + L103 * (L37 + L38 + L39) * 25%</f>
         <v>36</v>
@@ -4864,58 +4938,58 @@
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B109" s="45"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="45"/>
-      <c r="J109" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="K109" s="45"/>
-      <c r="L109" s="45"/>
-      <c r="M109" s="45"/>
-      <c r="N109" s="45"/>
-      <c r="O109" s="45"/>
-      <c r="P109" s="45"/>
-      <c r="Q109" s="45"/>
+      <c r="A109" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+      <c r="J109" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="K109" s="24"/>
+      <c r="L109" s="24"/>
+      <c r="M109" s="24"/>
+      <c r="N109" s="24"/>
+      <c r="O109" s="24"/>
+      <c r="P109" s="24"/>
+      <c r="Q109" s="24"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A110" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B110" s="46"/>
-      <c r="C110" s="47" t="s">
+      <c r="A110" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" s="34"/>
+      <c r="C110" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" s="35"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="35"/>
+      <c r="J110" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K110" s="26"/>
+      <c r="L110" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M110" s="28"/>
+      <c r="N110" s="28"/>
+      <c r="O110" s="28"/>
+      <c r="P110" s="28"/>
+      <c r="Q110" s="29"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D110" s="47"/>
-      <c r="E110" s="47"/>
-      <c r="F110" s="47"/>
-      <c r="G110" s="47"/>
-      <c r="H110" s="47"/>
-      <c r="J110" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="K110" s="74"/>
-      <c r="L110" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="M110" s="71"/>
-      <c r="N110" s="71"/>
-      <c r="O110" s="71"/>
-      <c r="P110" s="71"/>
-      <c r="Q110" s="72"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A111" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B111" s="49"/>
+      <c r="B111" s="33"/>
       <c r="C111" s="7">
         <v>1</v>
       </c>
@@ -4934,62 +5008,62 @@
       <c r="H111" s="8">
         <v>6</v>
       </c>
-      <c r="J111" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="K111" s="58"/>
-      <c r="L111" s="75">
+      <c r="J111" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K111" s="14"/>
+      <c r="L111" s="12">
         <v>12</v>
       </c>
-      <c r="M111" s="75">
+      <c r="M111" s="12">
         <v>24</v>
       </c>
-      <c r="N111" s="75">
+      <c r="N111" s="12">
         <v>36</v>
       </c>
-      <c r="O111" s="75">
+      <c r="O111" s="12">
         <v>48</v>
       </c>
-      <c r="P111" s="75">
+      <c r="P111" s="12">
         <v>60</v>
       </c>
-      <c r="Q111" s="75">
+      <c r="Q111" s="12">
         <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A112" s="43">
+      <c r="A112" s="30">
         <v>1</v>
       </c>
-      <c r="B112" s="44"/>
+      <c r="B112" s="31"/>
       <c r="C112" s="9">
         <f>C77+L77+U77</f>
-        <v>171.94</v>
+        <v>159.94</v>
       </c>
       <c r="D112" s="9">
         <f t="shared" ref="D112:G123" si="21">D77+M77+V77</f>
-        <v>343.88</v>
+        <v>319.88</v>
       </c>
       <c r="E112" s="9">
         <f t="shared" si="21"/>
-        <v>515.81999999999994</v>
+        <v>479.82</v>
       </c>
       <c r="F112" s="9">
         <f t="shared" si="21"/>
-        <v>687.76</v>
+        <v>639.76</v>
       </c>
       <c r="G112" s="9">
         <f t="shared" si="21"/>
-        <v>859.7</v>
+        <v>799.69999999999993</v>
       </c>
       <c r="H112" s="9">
         <f>H77+Q77+Z77</f>
-        <v>1031.6399999999999</v>
-      </c>
-      <c r="J112" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="K112" s="58"/>
+        <v>959.64</v>
+      </c>
+      <c r="J112" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K112" s="14"/>
       <c r="L112" s="5">
         <f>C104 + L111 * (L45 + L46 + L47) * 5%</f>
         <v>1.2000000000000002</v>
@@ -5016,38 +5090,38 @@
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="43">
+      <c r="A113" s="30">
         <v>2</v>
       </c>
-      <c r="B113" s="44"/>
+      <c r="B113" s="31"/>
       <c r="C113" s="9">
         <f t="shared" ref="C113:C122" si="22">C78+L78+U78</f>
-        <v>223.91</v>
+        <v>229.91</v>
       </c>
       <c r="D113" s="9">
         <f t="shared" si="21"/>
-        <v>447.82</v>
+        <v>459.82</v>
       </c>
       <c r="E113" s="9">
         <f t="shared" si="21"/>
-        <v>671.7299999999999</v>
+        <v>689.7299999999999</v>
       </c>
       <c r="F113" s="9">
         <f t="shared" si="21"/>
-        <v>895.64</v>
+        <v>919.64</v>
       </c>
       <c r="G113" s="9">
         <f t="shared" si="21"/>
-        <v>1119.5500000000002</v>
+        <v>1149.55</v>
       </c>
       <c r="H113" s="9">
         <f t="shared" ref="H113:H123" si="23">H78+Q78+Z78</f>
-        <v>1343.4599999999998</v>
-      </c>
-      <c r="J113" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="K113" s="58"/>
+        <v>1379.4599999999998</v>
+      </c>
+      <c r="J113" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K113" s="14"/>
       <c r="L113" s="5">
         <f>C104 + L111 * (L45 + L46 + L47) * 15%</f>
         <v>3.5999999999999996</v>
@@ -5074,38 +5148,38 @@
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114" s="43">
+      <c r="A114" s="30">
         <v>3</v>
       </c>
-      <c r="B114" s="44"/>
+      <c r="B114" s="31"/>
       <c r="C114" s="9">
         <f t="shared" si="22"/>
-        <v>275.88</v>
+        <v>299.88</v>
       </c>
       <c r="D114" s="9">
         <f t="shared" si="21"/>
-        <v>551.76</v>
+        <v>599.76</v>
       </c>
       <c r="E114" s="9">
         <f t="shared" si="21"/>
-        <v>827.64</v>
+        <v>899.64</v>
       </c>
       <c r="F114" s="9">
         <f t="shared" si="21"/>
-        <v>1103.52</v>
+        <v>1199.52</v>
       </c>
       <c r="G114" s="9">
         <f t="shared" si="21"/>
-        <v>1379.3999999999999</v>
+        <v>1499.3999999999999</v>
       </c>
       <c r="H114" s="9">
         <f t="shared" si="23"/>
-        <v>1655.28</v>
-      </c>
-      <c r="J114" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="K114" s="58"/>
+        <v>1799.28</v>
+      </c>
+      <c r="J114" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K114" s="14"/>
       <c r="L114" s="5">
         <f>C104 + L111 * (L45 + L46 + L47) * 25%</f>
         <v>6</v>
@@ -5132,314 +5206,346 @@
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="43">
+      <c r="A115" s="30">
         <v>4</v>
       </c>
-      <c r="B115" s="44"/>
+      <c r="B115" s="31"/>
       <c r="C115" s="9">
         <f t="shared" si="22"/>
-        <v>327.84999999999997</v>
+        <v>369.84999999999997</v>
       </c>
       <c r="D115" s="9">
         <f t="shared" si="21"/>
-        <v>655.69999999999993</v>
+        <v>739.69999999999993</v>
       </c>
       <c r="E115" s="9">
         <f t="shared" si="21"/>
-        <v>983.55000000000007</v>
+        <v>1109.55</v>
       </c>
       <c r="F115" s="9">
         <f t="shared" si="21"/>
-        <v>1311.3999999999999</v>
+        <v>1479.3999999999999</v>
       </c>
       <c r="G115" s="9">
         <f t="shared" si="21"/>
-        <v>1639.25</v>
+        <v>1849.25</v>
       </c>
       <c r="H115" s="9">
         <f t="shared" si="23"/>
-        <v>1967.1000000000001</v>
+        <v>2219.1</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A116" s="43">
+      <c r="A116" s="30">
         <v>5</v>
       </c>
-      <c r="B116" s="44"/>
+      <c r="B116" s="31"/>
       <c r="C116" s="9">
         <f t="shared" si="22"/>
-        <v>379.82</v>
+        <v>439.82</v>
       </c>
       <c r="D116" s="9">
         <f t="shared" si="21"/>
-        <v>759.64</v>
+        <v>879.64</v>
       </c>
       <c r="E116" s="9">
         <f t="shared" si="21"/>
-        <v>1139.4599999999998</v>
+        <v>1319.4599999999998</v>
       </c>
       <c r="F116" s="9">
         <f t="shared" si="21"/>
-        <v>1519.28</v>
+        <v>1759.28</v>
       </c>
       <c r="G116" s="9">
         <f t="shared" si="21"/>
-        <v>1899.1000000000001</v>
+        <v>2199.1</v>
       </c>
       <c r="H116" s="9">
         <f t="shared" si="23"/>
-        <v>2278.9199999999996</v>
+        <v>2638.9199999999996</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117" s="43">
+      <c r="A117" s="30">
         <v>6</v>
       </c>
-      <c r="B117" s="44"/>
+      <c r="B117" s="31"/>
       <c r="C117" s="9">
         <f t="shared" si="22"/>
-        <v>431.79</v>
+        <v>509.79</v>
       </c>
       <c r="D117" s="9">
         <f t="shared" si="21"/>
-        <v>863.58</v>
+        <v>1019.58</v>
       </c>
       <c r="E117" s="9">
         <f t="shared" si="21"/>
-        <v>1295.3699999999999</v>
+        <v>1529.37</v>
       </c>
       <c r="F117" s="9">
         <f t="shared" si="21"/>
-        <v>1727.16</v>
+        <v>2039.16</v>
       </c>
       <c r="G117" s="9">
         <f t="shared" si="21"/>
-        <v>2158.9499999999998</v>
+        <v>2548.9500000000003</v>
       </c>
       <c r="H117" s="9">
         <f t="shared" si="23"/>
-        <v>2590.7399999999998</v>
+        <v>3058.74</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="43">
+      <c r="A118" s="30">
         <v>7</v>
       </c>
-      <c r="B118" s="44"/>
+      <c r="B118" s="31"/>
       <c r="C118" s="9">
         <f t="shared" si="22"/>
-        <v>483.76000000000005</v>
+        <v>579.76</v>
       </c>
       <c r="D118" s="9">
         <f t="shared" si="21"/>
-        <v>967.5200000000001</v>
+        <v>1159.52</v>
       </c>
       <c r="E118" s="9">
         <f t="shared" si="21"/>
-        <v>1451.28</v>
+        <v>1739.28</v>
       </c>
       <c r="F118" s="9">
         <f t="shared" si="21"/>
-        <v>1935.0400000000002</v>
+        <v>2319.04</v>
       </c>
       <c r="G118" s="9">
         <f t="shared" si="21"/>
-        <v>2418.7999999999997</v>
+        <v>2898.7999999999997</v>
       </c>
       <c r="H118" s="9">
         <f t="shared" si="23"/>
-        <v>2902.56</v>
+        <v>3478.56</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="43">
+      <c r="A119" s="30">
         <v>8</v>
       </c>
-      <c r="B119" s="44"/>
+      <c r="B119" s="31"/>
       <c r="C119" s="9">
         <f t="shared" si="22"/>
-        <v>535.7299999999999</v>
+        <v>649.73</v>
       </c>
       <c r="D119" s="9">
         <f t="shared" si="21"/>
-        <v>1071.4599999999998</v>
+        <v>1299.46</v>
       </c>
       <c r="E119" s="9">
         <f t="shared" si="21"/>
-        <v>1607.19</v>
+        <v>1949.19</v>
       </c>
       <c r="F119" s="9">
         <f t="shared" si="21"/>
-        <v>2142.9199999999996</v>
+        <v>2598.92</v>
       </c>
       <c r="G119" s="9">
         <f t="shared" si="21"/>
-        <v>2678.65</v>
+        <v>3248.6500000000005</v>
       </c>
       <c r="H119" s="9">
         <f t="shared" si="23"/>
-        <v>3214.38</v>
+        <v>3898.38</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="43">
+      <c r="A120" s="30">
         <v>9</v>
       </c>
-      <c r="B120" s="44"/>
+      <c r="B120" s="31"/>
       <c r="C120" s="9">
         <f t="shared" si="22"/>
-        <v>587.69999999999993</v>
+        <v>719.7</v>
       </c>
       <c r="D120" s="9">
         <f t="shared" si="21"/>
-        <v>1175.3999999999999</v>
+        <v>1439.4</v>
       </c>
       <c r="E120" s="9">
         <f t="shared" si="21"/>
-        <v>1763.1000000000001</v>
+        <v>2159.1000000000004</v>
       </c>
       <c r="F120" s="9">
         <f t="shared" si="21"/>
-        <v>2350.7999999999997</v>
+        <v>2878.8</v>
       </c>
       <c r="G120" s="9">
         <f t="shared" si="21"/>
-        <v>2938.5</v>
+        <v>3598.5</v>
       </c>
       <c r="H120" s="9">
         <f t="shared" si="23"/>
-        <v>3526.2000000000003</v>
+        <v>4318.2000000000007</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="43">
+      <c r="A121" s="30">
         <v>10</v>
       </c>
-      <c r="B121" s="44"/>
+      <c r="B121" s="31"/>
       <c r="C121" s="9">
         <f t="shared" si="22"/>
-        <v>639.66999999999996</v>
+        <v>789.67</v>
       </c>
       <c r="D121" s="9">
         <f t="shared" si="21"/>
-        <v>1279.3399999999999</v>
+        <v>1579.34</v>
       </c>
       <c r="E121" s="9">
         <f t="shared" si="21"/>
-        <v>1919.01</v>
+        <v>2369.0100000000002</v>
       </c>
       <c r="F121" s="9">
         <f t="shared" si="21"/>
-        <v>2558.6799999999998</v>
+        <v>3158.68</v>
       </c>
       <c r="G121" s="9">
         <f t="shared" si="21"/>
-        <v>3198.3500000000004</v>
+        <v>3948.3499999999995</v>
       </c>
       <c r="H121" s="9">
         <f t="shared" si="23"/>
-        <v>3838.02</v>
+        <v>4738.0200000000004</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A122" s="43">
+      <c r="A122" s="30">
         <v>11</v>
       </c>
-      <c r="B122" s="44"/>
+      <c r="B122" s="31"/>
       <c r="C122" s="9">
         <f t="shared" si="22"/>
-        <v>691.64</v>
+        <v>859.64</v>
       </c>
       <c r="D122" s="9">
         <f t="shared" si="21"/>
-        <v>1383.28</v>
+        <v>1719.28</v>
       </c>
       <c r="E122" s="9">
         <f t="shared" si="21"/>
-        <v>2074.9199999999996</v>
+        <v>2578.92</v>
       </c>
       <c r="F122" s="9">
         <f t="shared" si="21"/>
-        <v>2766.56</v>
+        <v>3438.56</v>
       </c>
       <c r="G122" s="9">
         <f t="shared" si="21"/>
-        <v>3458.2000000000003</v>
+        <v>4298.2000000000007</v>
       </c>
       <c r="H122" s="9">
         <f t="shared" si="23"/>
-        <v>4149.8399999999992</v>
+        <v>5157.84</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A123" s="43">
+      <c r="A123" s="30">
         <v>12</v>
       </c>
-      <c r="B123" s="44"/>
+      <c r="B123" s="31"/>
       <c r="C123" s="9">
         <f>C88+L88+U88</f>
-        <v>743.61</v>
+        <v>929.61</v>
       </c>
       <c r="D123" s="9">
         <f t="shared" si="21"/>
-        <v>1487.22</v>
+        <v>1859.22</v>
       </c>
       <c r="E123" s="9">
         <f t="shared" si="21"/>
-        <v>2230.83</v>
+        <v>2788.8300000000004</v>
       </c>
       <c r="F123" s="9">
         <f t="shared" si="21"/>
-        <v>2974.44</v>
+        <v>3718.44</v>
       </c>
       <c r="G123" s="9">
         <f t="shared" si="21"/>
-        <v>3718.0499999999997</v>
+        <v>4648.0499999999993</v>
       </c>
       <c r="H123" s="9">
         <f t="shared" si="23"/>
-        <v>4461.66</v>
+        <v>5577.6600000000008</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="124">
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="U24:X31"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="J109:Q109"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="L110:Q110"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="S82:T82"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="S88:T88"/>
+  <mergeCells count="127">
+    <mergeCell ref="K6:O18"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="J74:Q74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:Q75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="S74:Z74"/>
+    <mergeCell ref="S77:T77"/>
+    <mergeCell ref="S78:T78"/>
+    <mergeCell ref="S79:T79"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="U75:Z75"/>
+    <mergeCell ref="S76:T76"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="N62:O64"/>
+    <mergeCell ref="N51:O53"/>
+    <mergeCell ref="N40:O42"/>
     <mergeCell ref="A109:H109"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="C110:H110"/>
@@ -5459,74 +5565,45 @@
     <mergeCell ref="J102:K102"/>
     <mergeCell ref="L102:Q102"/>
     <mergeCell ref="J103:K103"/>
-    <mergeCell ref="S74:Z74"/>
-    <mergeCell ref="S77:T77"/>
-    <mergeCell ref="S78:T78"/>
-    <mergeCell ref="S79:T79"/>
-    <mergeCell ref="S80:T80"/>
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="S75:T75"/>
-    <mergeCell ref="U75:Z75"/>
-    <mergeCell ref="S76:T76"/>
-    <mergeCell ref="A74:H74"/>
-    <mergeCell ref="J74:Q74"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:Q75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
     <mergeCell ref="A87:B87"/>
     <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="K36:O36"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="K6:O18"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="U24:X31"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="J109:Q109"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="L110:Q110"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="S82:T82"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="S88:T88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5536,10 +5613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N43"/>
+  <dimension ref="B2:V60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5550,335 +5627,377 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="58"/>
-      <c r="J2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="J2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="59">
         <v>0</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="43">
         <v>0</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="41">
-        <v>4.99</v>
-      </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="55">
+      <c r="D4" s="44"/>
+      <c r="E4" s="43">
         <v>9.99</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="75">
+        <v>14.99</v>
+      </c>
+      <c r="H4" s="76"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="50"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="50">
+        <v>40</v>
+      </c>
+      <c r="C5" s="45">
+        <v>1.49</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45">
         <v>0</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50">
+      <c r="F5" s="45"/>
+      <c r="G5" s="77">
         <v>0</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="53">
-        <v>0</v>
-      </c>
-      <c r="H5" s="54"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="15"/>
+      <c r="H5" s="78"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="44"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15"/>
+      <c r="H6" s="31"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="44"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="50"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="44"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="15"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="50"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="44"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="50"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="30">
+        <v>5</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="43">
-        <v>5</v>
-      </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="44"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="15"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="50"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="15"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="15"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="50"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="18"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="53"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="51"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="51"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="51"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="51"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="51"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="59" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="70"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="72"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="72"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="60"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="64"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="K29" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="K30" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="L30" s="33"/>
+      <c r="M30" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="N30" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="O30" s="33"/>
+      <c r="P30" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q30" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="R30" s="33"/>
+      <c r="S30" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="T30" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="U30" s="33"/>
+      <c r="V30" s="79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="7">
         <v>1</v>
       </c>
@@ -5897,384 +6016,1399 @@
       <c r="I31" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="43">
+      <c r="K31" s="30">
         <v>1</v>
       </c>
-      <c r="C32" s="44"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="9">
+        <f>K31*$C$5</f>
+        <v>1.49</v>
+      </c>
+      <c r="N31" s="30">
+        <v>120</v>
+      </c>
+      <c r="O31" s="31"/>
+      <c r="P31" s="9">
+        <f>N31*$C$5</f>
+        <v>178.8</v>
+      </c>
+      <c r="Q31" s="30">
+        <v>650</v>
+      </c>
+      <c r="R31" s="31"/>
+      <c r="S31" s="9">
+        <f>Q31*$C$5</f>
+        <v>968.5</v>
+      </c>
+      <c r="T31" s="30">
+        <v>1750</v>
+      </c>
+      <c r="U31" s="31"/>
+      <c r="V31" s="9">
+        <f>T31*$C$5</f>
+        <v>2607.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="30">
+        <v>1</v>
+      </c>
+      <c r="C32" s="31"/>
       <c r="D32" s="9">
         <f>$E$4 *D31</f>
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="E32" s="9">
         <f t="shared" ref="E32:I32" si="0">$E$4 *E31</f>
-        <v>9.98</v>
+        <v>19.98</v>
       </c>
       <c r="F32" s="9">
         <f t="shared" si="0"/>
-        <v>14.97</v>
+        <v>29.97</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="0"/>
-        <v>19.96</v>
+        <v>39.96</v>
       </c>
       <c r="H32" s="9">
         <f t="shared" si="0"/>
-        <v>24.950000000000003</v>
+        <v>49.95</v>
       </c>
       <c r="I32" s="9">
         <f t="shared" si="0"/>
-        <v>29.94</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="43">
+        <v>59.94</v>
+      </c>
+      <c r="K32" s="30">
+        <v>4</v>
+      </c>
+      <c r="L32" s="31"/>
+      <c r="M32" s="9">
+        <f t="shared" ref="M32:M43" si="1">K32*$C$5</f>
+        <v>5.96</v>
+      </c>
+      <c r="N32" s="30">
+        <v>150</v>
+      </c>
+      <c r="O32" s="31"/>
+      <c r="P32" s="9">
+        <f t="shared" ref="P32:P43" si="2">N32*$C$5</f>
+        <v>223.5</v>
+      </c>
+      <c r="Q32" s="30">
+        <v>700</v>
+      </c>
+      <c r="R32" s="31"/>
+      <c r="S32" s="9">
+        <f t="shared" ref="S32:S43" si="3">Q32*$C$5</f>
+        <v>1043</v>
+      </c>
+      <c r="T32" s="30">
+        <v>2000</v>
+      </c>
+      <c r="U32" s="31"/>
+      <c r="V32" s="9">
+        <f t="shared" ref="V32:V43" si="4">T32*$C$5</f>
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B33" s="30">
         <v>2</v>
       </c>
-      <c r="C33" s="44"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="5">
         <f>D32+$D$31*$E$4</f>
-        <v>9.98</v>
+        <v>19.98</v>
       </c>
       <c r="E33" s="5">
         <f>E32+$E$31*$E$4</f>
-        <v>19.96</v>
+        <v>39.96</v>
       </c>
       <c r="F33" s="5">
         <f>F32+$F$31*$E$4</f>
-        <v>29.94</v>
+        <v>59.94</v>
       </c>
       <c r="G33" s="5">
         <f>G32+$G$31*$E$4</f>
-        <v>39.92</v>
+        <v>79.92</v>
       </c>
       <c r="H33" s="5">
         <f>H32+$H$31*$E$4</f>
-        <v>49.900000000000006</v>
+        <v>99.9</v>
       </c>
       <c r="I33" s="5">
         <f>I32+$I$31*$E$4</f>
-        <v>59.88</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="43">
+        <v>119.88</v>
+      </c>
+      <c r="K33" s="30">
+        <v>8</v>
+      </c>
+      <c r="L33" s="31"/>
+      <c r="M33" s="9">
+        <f t="shared" si="1"/>
+        <v>11.92</v>
+      </c>
+      <c r="N33" s="30">
+        <v>180</v>
+      </c>
+      <c r="O33" s="31"/>
+      <c r="P33" s="9">
+        <f t="shared" si="2"/>
+        <v>268.2</v>
+      </c>
+      <c r="Q33" s="30">
+        <v>750</v>
+      </c>
+      <c r="R33" s="31"/>
+      <c r="S33" s="9">
+        <f t="shared" si="3"/>
+        <v>1117.5</v>
+      </c>
+      <c r="T33" s="30">
+        <v>2250</v>
+      </c>
+      <c r="U33" s="31"/>
+      <c r="V33" s="9">
+        <f t="shared" si="4"/>
+        <v>3352.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B34" s="30">
         <v>3</v>
       </c>
-      <c r="C34" s="44"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="5">
-        <f t="shared" ref="D34:D43" si="1">D33+$D$31*$E$4</f>
-        <v>14.97</v>
+        <f t="shared" ref="D34:D43" si="5">D33+$D$31*$E$4</f>
+        <v>29.97</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" ref="E34:E43" si="2">E33+$E$31*$E$4</f>
-        <v>29.94</v>
+        <f t="shared" ref="E34:E43" si="6">E33+$E$31*$E$4</f>
+        <v>59.94</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" ref="F34:F43" si="3">F33+$F$31*$E$4</f>
-        <v>44.910000000000004</v>
+        <f t="shared" ref="F34:F43" si="7">F33+$F$31*$E$4</f>
+        <v>89.91</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" ref="G34:G43" si="4">G33+$G$31*$E$4</f>
-        <v>59.88</v>
+        <f t="shared" ref="G34:G43" si="8">G33+$G$31*$E$4</f>
+        <v>119.88</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" ref="H34:H42" si="5">H33+$H$31*$E$4</f>
-        <v>74.850000000000009</v>
+        <f t="shared" ref="H34:H42" si="9">H33+$H$31*$E$4</f>
+        <v>149.85000000000002</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" ref="I34:I43" si="6">I33+$I$31*$E$4</f>
-        <v>89.820000000000007</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="43">
+        <f t="shared" ref="I34:I43" si="10">I33+$I$31*$E$4</f>
+        <v>179.82</v>
+      </c>
+      <c r="K34" s="30">
+        <v>12</v>
+      </c>
+      <c r="L34" s="31"/>
+      <c r="M34" s="9">
+        <f t="shared" si="1"/>
+        <v>17.88</v>
+      </c>
+      <c r="N34" s="30">
+        <v>200</v>
+      </c>
+      <c r="O34" s="31"/>
+      <c r="P34" s="9">
+        <f t="shared" si="2"/>
+        <v>298</v>
+      </c>
+      <c r="Q34" s="30">
+        <v>800</v>
+      </c>
+      <c r="R34" s="31"/>
+      <c r="S34" s="9">
+        <f t="shared" si="3"/>
+        <v>1192</v>
+      </c>
+      <c r="T34" s="30">
+        <v>2500</v>
+      </c>
+      <c r="U34" s="31"/>
+      <c r="V34" s="9">
+        <f t="shared" si="4"/>
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B35" s="30">
         <v>4</v>
       </c>
-      <c r="C35" s="44"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="5">
+        <f t="shared" si="5"/>
+        <v>39.96</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="6"/>
+        <v>79.92</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="7"/>
+        <v>119.88</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="8"/>
+        <v>159.84</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="9"/>
+        <v>199.8</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="10"/>
+        <v>239.76</v>
+      </c>
+      <c r="K35" s="30">
+        <v>20</v>
+      </c>
+      <c r="L35" s="31"/>
+      <c r="M35" s="9">
         <f t="shared" si="1"/>
-        <v>19.96</v>
-      </c>
-      <c r="E35" s="5">
+        <v>29.8</v>
+      </c>
+      <c r="N35" s="30">
+        <v>240</v>
+      </c>
+      <c r="O35" s="31"/>
+      <c r="P35" s="9">
         <f t="shared" si="2"/>
-        <v>39.92</v>
-      </c>
-      <c r="F35" s="5">
+        <v>357.6</v>
+      </c>
+      <c r="Q35" s="30">
+        <v>850</v>
+      </c>
+      <c r="R35" s="31"/>
+      <c r="S35" s="9">
         <f t="shared" si="3"/>
-        <v>59.88</v>
-      </c>
-      <c r="G35" s="5">
+        <v>1266.5</v>
+      </c>
+      <c r="T35" s="30">
+        <v>2750</v>
+      </c>
+      <c r="U35" s="31"/>
+      <c r="V35" s="9">
         <f t="shared" si="4"/>
-        <v>79.84</v>
-      </c>
-      <c r="H35" s="5">
+        <v>4097.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B36" s="30">
+        <v>5</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="5">
         <f t="shared" si="5"/>
-        <v>99.800000000000011</v>
-      </c>
-      <c r="I35" s="5">
+        <v>49.95</v>
+      </c>
+      <c r="E36" s="5">
         <f t="shared" si="6"/>
-        <v>119.76</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="43">
-        <v>5</v>
-      </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="5">
+        <v>99.9</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="7"/>
+        <v>149.85</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="8"/>
+        <v>199.8</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="9"/>
+        <v>249.75</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="10"/>
+        <v>299.7</v>
+      </c>
+      <c r="K36" s="30">
+        <v>30</v>
+      </c>
+      <c r="L36" s="31"/>
+      <c r="M36" s="9">
         <f t="shared" si="1"/>
-        <v>24.950000000000003</v>
-      </c>
-      <c r="E36" s="5">
+        <v>44.7</v>
+      </c>
+      <c r="N36" s="30">
+        <v>280</v>
+      </c>
+      <c r="O36" s="31"/>
+      <c r="P36" s="9">
         <f t="shared" si="2"/>
-        <v>49.900000000000006</v>
-      </c>
-      <c r="F36" s="5">
+        <v>417.2</v>
+      </c>
+      <c r="Q36" s="30">
+        <v>900</v>
+      </c>
+      <c r="R36" s="31"/>
+      <c r="S36" s="9">
         <f t="shared" si="3"/>
-        <v>74.850000000000009</v>
-      </c>
-      <c r="G36" s="5">
+        <v>1341</v>
+      </c>
+      <c r="T36" s="30">
+        <v>3000</v>
+      </c>
+      <c r="U36" s="31"/>
+      <c r="V36" s="9">
         <f t="shared" si="4"/>
-        <v>99.800000000000011</v>
-      </c>
-      <c r="H36" s="5">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B37" s="30">
+        <v>6</v>
+      </c>
+      <c r="C37" s="31"/>
+      <c r="D37" s="5">
         <f t="shared" si="5"/>
-        <v>124.75000000000001</v>
-      </c>
-      <c r="I36" s="5">
+        <v>59.940000000000005</v>
+      </c>
+      <c r="E37" s="5">
         <f t="shared" si="6"/>
-        <v>149.70000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="43">
-        <v>6</v>
-      </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="5">
+        <v>119.88000000000001</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="7"/>
+        <v>179.82</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="8"/>
+        <v>239.76000000000002</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="9"/>
+        <v>299.7</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="10"/>
+        <v>359.64</v>
+      </c>
+      <c r="K37" s="30">
+        <v>40</v>
+      </c>
+      <c r="L37" s="31"/>
+      <c r="M37" s="9">
         <f t="shared" si="1"/>
-        <v>29.940000000000005</v>
-      </c>
-      <c r="E37" s="5">
+        <v>59.6</v>
+      </c>
+      <c r="N37" s="30">
+        <v>300</v>
+      </c>
+      <c r="O37" s="31"/>
+      <c r="P37" s="9">
         <f t="shared" si="2"/>
-        <v>59.88000000000001</v>
-      </c>
-      <c r="F37" s="5">
+        <v>447</v>
+      </c>
+      <c r="Q37" s="30">
+        <v>950</v>
+      </c>
+      <c r="R37" s="31"/>
+      <c r="S37" s="9">
         <f t="shared" si="3"/>
-        <v>89.820000000000007</v>
-      </c>
-      <c r="G37" s="5">
+        <v>1415.5</v>
+      </c>
+      <c r="T37" s="30">
+        <v>3250</v>
+      </c>
+      <c r="U37" s="31"/>
+      <c r="V37" s="9">
         <f t="shared" si="4"/>
-        <v>119.76000000000002</v>
-      </c>
-      <c r="H37" s="5">
+        <v>4842.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B38" s="30">
+        <v>7</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="5">
         <f t="shared" si="5"/>
-        <v>149.70000000000002</v>
-      </c>
-      <c r="I37" s="5">
+        <v>69.930000000000007</v>
+      </c>
+      <c r="E38" s="5">
         <f t="shared" si="6"/>
-        <v>179.64000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="43">
-        <v>7</v>
-      </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="5">
+        <v>139.86000000000001</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="7"/>
+        <v>209.79</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="8"/>
+        <v>279.72000000000003</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="9"/>
+        <v>349.65</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="10"/>
+        <v>419.58</v>
+      </c>
+      <c r="K38" s="30">
+        <v>50</v>
+      </c>
+      <c r="L38" s="31"/>
+      <c r="M38" s="9">
         <f t="shared" si="1"/>
-        <v>34.930000000000007</v>
-      </c>
-      <c r="E38" s="5">
+        <v>74.5</v>
+      </c>
+      <c r="N38" s="30">
+        <v>350</v>
+      </c>
+      <c r="O38" s="31"/>
+      <c r="P38" s="9">
         <f t="shared" si="2"/>
-        <v>69.860000000000014</v>
-      </c>
-      <c r="F38" s="5">
+        <v>521.5</v>
+      </c>
+      <c r="Q38" s="30">
+        <v>1000</v>
+      </c>
+      <c r="R38" s="31"/>
+      <c r="S38" s="9">
         <f t="shared" si="3"/>
-        <v>104.79</v>
-      </c>
-      <c r="G38" s="5">
+        <v>1490</v>
+      </c>
+      <c r="T38" s="30">
+        <v>3500</v>
+      </c>
+      <c r="U38" s="31"/>
+      <c r="V38" s="9">
         <f t="shared" si="4"/>
-        <v>139.72000000000003</v>
-      </c>
-      <c r="H38" s="5">
+        <v>5215</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B39" s="30">
+        <v>8</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="5">
         <f t="shared" si="5"/>
-        <v>174.65000000000003</v>
-      </c>
-      <c r="I38" s="5">
+        <v>79.92</v>
+      </c>
+      <c r="E39" s="5">
         <f t="shared" si="6"/>
-        <v>209.58</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="43">
-        <v>8</v>
-      </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="5">
+        <v>159.84</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="7"/>
+        <v>239.76</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="8"/>
+        <v>319.68</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="9"/>
+        <v>399.59999999999997</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="10"/>
+        <v>479.52</v>
+      </c>
+      <c r="K39" s="30">
+        <v>60</v>
+      </c>
+      <c r="L39" s="31"/>
+      <c r="M39" s="9">
         <f t="shared" si="1"/>
-        <v>39.920000000000009</v>
-      </c>
-      <c r="E39" s="5">
+        <v>89.4</v>
+      </c>
+      <c r="N39" s="30">
+        <v>400</v>
+      </c>
+      <c r="O39" s="31"/>
+      <c r="P39" s="9">
         <f t="shared" si="2"/>
-        <v>79.840000000000018</v>
-      </c>
-      <c r="F39" s="5">
+        <v>596</v>
+      </c>
+      <c r="Q39" s="30">
+        <v>1100</v>
+      </c>
+      <c r="R39" s="31"/>
+      <c r="S39" s="9">
         <f t="shared" si="3"/>
-        <v>119.76</v>
-      </c>
-      <c r="G39" s="5">
+        <v>1639</v>
+      </c>
+      <c r="T39" s="30">
+        <v>3750</v>
+      </c>
+      <c r="U39" s="31"/>
+      <c r="V39" s="9">
         <f t="shared" si="4"/>
-        <v>159.68000000000004</v>
-      </c>
-      <c r="H39" s="5">
+        <v>5587.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B40" s="30">
+        <v>9</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="5">
         <f t="shared" si="5"/>
-        <v>199.60000000000002</v>
-      </c>
-      <c r="I39" s="5">
+        <v>89.91</v>
+      </c>
+      <c r="E40" s="5">
         <f t="shared" si="6"/>
-        <v>239.52</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="43">
-        <v>9</v>
-      </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="5">
+        <v>179.82</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="7"/>
+        <v>269.73</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="8"/>
+        <v>359.64</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="9"/>
+        <v>449.54999999999995</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="10"/>
+        <v>539.46</v>
+      </c>
+      <c r="K40" s="30">
+        <v>70</v>
+      </c>
+      <c r="L40" s="31"/>
+      <c r="M40" s="9">
         <f t="shared" si="1"/>
-        <v>44.910000000000011</v>
-      </c>
-      <c r="E40" s="5">
+        <v>104.3</v>
+      </c>
+      <c r="N40" s="30">
+        <v>450</v>
+      </c>
+      <c r="O40" s="31"/>
+      <c r="P40" s="9">
         <f t="shared" si="2"/>
-        <v>89.820000000000022</v>
-      </c>
-      <c r="F40" s="5">
+        <v>670.5</v>
+      </c>
+      <c r="Q40" s="30">
+        <v>1200</v>
+      </c>
+      <c r="R40" s="31"/>
+      <c r="S40" s="9">
         <f t="shared" si="3"/>
-        <v>134.73000000000002</v>
-      </c>
-      <c r="G40" s="5">
+        <v>1788</v>
+      </c>
+      <c r="T40" s="30">
+        <v>4000</v>
+      </c>
+      <c r="U40" s="31"/>
+      <c r="V40" s="9">
         <f t="shared" si="4"/>
-        <v>179.64000000000004</v>
-      </c>
-      <c r="H40" s="5">
+        <v>5960</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B41" s="30">
+        <v>10</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="5">
         <f t="shared" si="5"/>
-        <v>224.55</v>
-      </c>
-      <c r="I40" s="5">
+        <v>99.899999999999991</v>
+      </c>
+      <c r="E41" s="5">
         <f t="shared" si="6"/>
-        <v>269.46000000000004</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="43">
-        <v>10</v>
-      </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="5">
+        <v>199.79999999999998</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="7"/>
+        <v>299.70000000000005</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="8"/>
+        <v>399.59999999999997</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="9"/>
+        <v>499.49999999999994</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="10"/>
+        <v>599.40000000000009</v>
+      </c>
+      <c r="K41" s="30">
+        <v>80</v>
+      </c>
+      <c r="L41" s="31"/>
+      <c r="M41" s="9">
         <f t="shared" si="1"/>
-        <v>49.900000000000013</v>
-      </c>
-      <c r="E41" s="5">
+        <v>119.2</v>
+      </c>
+      <c r="N41" s="30">
+        <v>500</v>
+      </c>
+      <c r="O41" s="31"/>
+      <c r="P41" s="9">
         <f t="shared" si="2"/>
-        <v>99.800000000000026</v>
-      </c>
-      <c r="F41" s="5">
+        <v>745</v>
+      </c>
+      <c r="Q41" s="30">
+        <v>1300</v>
+      </c>
+      <c r="R41" s="31"/>
+      <c r="S41" s="9">
         <f t="shared" si="3"/>
-        <v>149.70000000000002</v>
-      </c>
-      <c r="G41" s="5">
+        <v>1937</v>
+      </c>
+      <c r="T41" s="30">
+        <v>4250</v>
+      </c>
+      <c r="U41" s="31"/>
+      <c r="V41" s="9">
         <f t="shared" si="4"/>
-        <v>199.60000000000005</v>
-      </c>
-      <c r="H41" s="5">
+        <v>6332.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B42" s="30">
+        <v>11</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="5">
         <f t="shared" si="5"/>
-        <v>249.5</v>
-      </c>
-      <c r="I41" s="5">
+        <v>109.88999999999999</v>
+      </c>
+      <c r="E42" s="5">
         <f t="shared" si="6"/>
-        <v>299.40000000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="43">
-        <v>11</v>
-      </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="5">
+        <v>219.77999999999997</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="7"/>
+        <v>329.67000000000007</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="8"/>
+        <v>439.55999999999995</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="9"/>
+        <v>549.44999999999993</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="10"/>
+        <v>659.34000000000015</v>
+      </c>
+      <c r="K42" s="30">
+        <v>90</v>
+      </c>
+      <c r="L42" s="31"/>
+      <c r="M42" s="9">
         <f t="shared" si="1"/>
-        <v>54.890000000000015</v>
-      </c>
-      <c r="E42" s="5">
+        <v>134.1</v>
+      </c>
+      <c r="N42" s="30">
+        <v>550</v>
+      </c>
+      <c r="O42" s="31"/>
+      <c r="P42" s="9">
         <f t="shared" si="2"/>
-        <v>109.78000000000003</v>
-      </c>
-      <c r="F42" s="5">
+        <v>819.5</v>
+      </c>
+      <c r="Q42" s="30">
+        <v>1400</v>
+      </c>
+      <c r="R42" s="31"/>
+      <c r="S42" s="9">
         <f t="shared" si="3"/>
-        <v>164.67000000000002</v>
-      </c>
-      <c r="G42" s="5">
+        <v>2086</v>
+      </c>
+      <c r="T42" s="30">
+        <v>4500</v>
+      </c>
+      <c r="U42" s="31"/>
+      <c r="V42" s="9">
         <f t="shared" si="4"/>
-        <v>219.56000000000006</v>
-      </c>
-      <c r="H42" s="5">
+        <v>6705</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B43" s="30">
+        <v>12</v>
+      </c>
+      <c r="C43" s="31"/>
+      <c r="D43" s="5">
         <f t="shared" si="5"/>
-        <v>274.45</v>
-      </c>
-      <c r="I42" s="5">
+        <v>119.87999999999998</v>
+      </c>
+      <c r="E43" s="5">
         <f t="shared" si="6"/>
-        <v>329.34000000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="43">
-        <v>12</v>
-      </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="5">
-        <f t="shared" si="1"/>
-        <v>59.880000000000017</v>
-      </c>
-      <c r="E43" s="5">
-        <f t="shared" si="2"/>
-        <v>119.76000000000003</v>
+        <v>239.75999999999996</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="3"/>
-        <v>179.64000000000001</v>
+        <f t="shared" si="7"/>
+        <v>359.6400000000001</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="4"/>
-        <v>239.52000000000007</v>
+        <f t="shared" si="8"/>
+        <v>479.51999999999992</v>
       </c>
       <c r="H43" s="5">
         <f>H42+$H$31*$E$4</f>
-        <v>299.39999999999998</v>
+        <v>599.4</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="6"/>
-        <v>359.28000000000003</v>
+        <f t="shared" si="10"/>
+        <v>719.2800000000002</v>
+      </c>
+      <c r="K43" s="30">
+        <v>100</v>
+      </c>
+      <c r="L43" s="31"/>
+      <c r="M43" s="9">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="N43" s="30">
+        <v>600</v>
+      </c>
+      <c r="O43" s="31"/>
+      <c r="P43" s="9">
+        <f t="shared" si="2"/>
+        <v>894</v>
+      </c>
+      <c r="Q43" s="30">
+        <v>1500</v>
+      </c>
+      <c r="R43" s="31"/>
+      <c r="S43" s="9">
+        <f t="shared" si="3"/>
+        <v>2235</v>
+      </c>
+      <c r="T43" s="30">
+        <v>5000</v>
+      </c>
+      <c r="U43" s="31"/>
+      <c r="V43" s="9">
+        <f t="shared" si="4"/>
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="K46" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="24"/>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="K47" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="L47" s="33"/>
+      <c r="M47" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="N47" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="O47" s="33"/>
+      <c r="P47" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q47" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="R47" s="33"/>
+      <c r="S47" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="T47" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="U47" s="33"/>
+      <c r="V47" s="79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="K48" s="30">
+        <v>1</v>
+      </c>
+      <c r="L48" s="31"/>
+      <c r="M48" s="9">
+        <f>K48*$E$5</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="30">
+        <v>120</v>
+      </c>
+      <c r="O48" s="31"/>
+      <c r="P48" s="9">
+        <f>N48*$E$5</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="30">
+        <v>650</v>
+      </c>
+      <c r="R48" s="31"/>
+      <c r="S48" s="9">
+        <f>Q48*$E$5</f>
+        <v>0</v>
+      </c>
+      <c r="T48" s="30">
+        <v>1750</v>
+      </c>
+      <c r="U48" s="31"/>
+      <c r="V48" s="9">
+        <f>T48*$E$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K49" s="30">
+        <v>4</v>
+      </c>
+      <c r="L49" s="31"/>
+      <c r="M49" s="9">
+        <f t="shared" ref="M49:M60" si="11">K49*$E$5</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="30">
+        <v>150</v>
+      </c>
+      <c r="O49" s="31"/>
+      <c r="P49" s="9">
+        <f t="shared" ref="P49:P60" si="12">N49*$E$5</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="30">
+        <v>700</v>
+      </c>
+      <c r="R49" s="31"/>
+      <c r="S49" s="9">
+        <f t="shared" ref="S49:S60" si="13">Q49*$E$5</f>
+        <v>0</v>
+      </c>
+      <c r="T49" s="30">
+        <v>2000</v>
+      </c>
+      <c r="U49" s="31"/>
+      <c r="V49" s="9">
+        <f t="shared" ref="V49:V59" si="14">T49*$E$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K50" s="30">
+        <v>8</v>
+      </c>
+      <c r="L50" s="31"/>
+      <c r="M50" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="30">
+        <v>180</v>
+      </c>
+      <c r="O50" s="31"/>
+      <c r="P50" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="30">
+        <v>750</v>
+      </c>
+      <c r="R50" s="31"/>
+      <c r="S50" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="30">
+        <v>2250</v>
+      </c>
+      <c r="U50" s="31"/>
+      <c r="V50" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K51" s="30">
+        <v>12</v>
+      </c>
+      <c r="L51" s="31"/>
+      <c r="M51" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="30">
+        <v>200</v>
+      </c>
+      <c r="O51" s="31"/>
+      <c r="P51" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="30">
+        <v>800</v>
+      </c>
+      <c r="R51" s="31"/>
+      <c r="S51" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="30">
+        <v>2500</v>
+      </c>
+      <c r="U51" s="31"/>
+      <c r="V51" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K52" s="30">
+        <v>20</v>
+      </c>
+      <c r="L52" s="31"/>
+      <c r="M52" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="30">
+        <v>240</v>
+      </c>
+      <c r="O52" s="31"/>
+      <c r="P52" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="30">
+        <v>850</v>
+      </c>
+      <c r="R52" s="31"/>
+      <c r="S52" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="30">
+        <v>2750</v>
+      </c>
+      <c r="U52" s="31"/>
+      <c r="V52" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K53" s="30">
+        <v>30</v>
+      </c>
+      <c r="L53" s="31"/>
+      <c r="M53" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="30">
+        <v>280</v>
+      </c>
+      <c r="O53" s="31"/>
+      <c r="P53" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="30">
+        <v>900</v>
+      </c>
+      <c r="R53" s="31"/>
+      <c r="S53" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="30">
+        <v>3000</v>
+      </c>
+      <c r="U53" s="31"/>
+      <c r="V53" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K54" s="30">
+        <v>40</v>
+      </c>
+      <c r="L54" s="31"/>
+      <c r="M54" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="30">
+        <v>300</v>
+      </c>
+      <c r="O54" s="31"/>
+      <c r="P54" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="30">
+        <v>950</v>
+      </c>
+      <c r="R54" s="31"/>
+      <c r="S54" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="30">
+        <v>3250</v>
+      </c>
+      <c r="U54" s="31"/>
+      <c r="V54" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K55" s="30">
+        <v>50</v>
+      </c>
+      <c r="L55" s="31"/>
+      <c r="M55" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="30">
+        <v>350</v>
+      </c>
+      <c r="O55" s="31"/>
+      <c r="P55" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="30">
+        <v>1000</v>
+      </c>
+      <c r="R55" s="31"/>
+      <c r="S55" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="30">
+        <v>3500</v>
+      </c>
+      <c r="U55" s="31"/>
+      <c r="V55" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K56" s="30">
+        <v>60</v>
+      </c>
+      <c r="L56" s="31"/>
+      <c r="M56" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="30">
+        <v>400</v>
+      </c>
+      <c r="O56" s="31"/>
+      <c r="P56" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="30">
+        <v>1100</v>
+      </c>
+      <c r="R56" s="31"/>
+      <c r="S56" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="30">
+        <v>3750</v>
+      </c>
+      <c r="U56" s="31"/>
+      <c r="V56" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K57" s="30">
+        <v>70</v>
+      </c>
+      <c r="L57" s="31"/>
+      <c r="M57" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="30">
+        <v>450</v>
+      </c>
+      <c r="O57" s="31"/>
+      <c r="P57" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="30">
+        <v>1200</v>
+      </c>
+      <c r="R57" s="31"/>
+      <c r="S57" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="30">
+        <v>4000</v>
+      </c>
+      <c r="U57" s="31"/>
+      <c r="V57" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K58" s="30">
+        <v>80</v>
+      </c>
+      <c r="L58" s="31"/>
+      <c r="M58" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="30">
+        <v>500</v>
+      </c>
+      <c r="O58" s="31"/>
+      <c r="P58" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="30">
+        <v>1300</v>
+      </c>
+      <c r="R58" s="31"/>
+      <c r="S58" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="30">
+        <v>4250</v>
+      </c>
+      <c r="U58" s="31"/>
+      <c r="V58" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K59" s="30">
+        <v>90</v>
+      </c>
+      <c r="L59" s="31"/>
+      <c r="M59" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="30">
+        <v>550</v>
+      </c>
+      <c r="O59" s="31"/>
+      <c r="P59" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="30">
+        <v>1400</v>
+      </c>
+      <c r="R59" s="31"/>
+      <c r="S59" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="30">
+        <v>4500</v>
+      </c>
+      <c r="U59" s="31"/>
+      <c r="V59" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K60" s="30">
+        <v>100</v>
+      </c>
+      <c r="L60" s="31"/>
+      <c r="M60" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="30">
+        <v>600</v>
+      </c>
+      <c r="O60" s="31"/>
+      <c r="P60" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="30">
+        <v>1500</v>
+      </c>
+      <c r="R60" s="31"/>
+      <c r="S60" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="30">
+        <v>5000</v>
+      </c>
+      <c r="U60" s="31"/>
+      <c r="V60" s="9">
+        <f>T60*$E$5</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
+  <mergeCells count="157">
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="K29:V29"/>
+    <mergeCell ref="K46:V46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="J2:N14"/>
@@ -6291,21 +7425,48 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/croc-o-deals-parent/doc/Croc-o-deals-rules-1.0.0.xlsx
+++ b/croc-o-deals-parent/doc/Croc-o-deals-rules-1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Compte PRO" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
   <si>
     <t>Normal</t>
   </si>
@@ -356,9 +356,6 @@
     <t>En considérant que chaque compte pro rachète un pass pro chaque mois / sans options / 4 deals</t>
   </si>
   <si>
-    <t>Total normal+ pro</t>
-  </si>
-  <si>
     <t>Cas apres quelque temps / mois: 3 deal par client normal, 4 par prenium</t>
   </si>
   <si>
@@ -480,6 +477,12 @@
   </si>
   <si>
     <t>environ 200€/mois</t>
+  </si>
+  <si>
+    <t>Total normal+ pro (2 deals/ pro)</t>
+  </si>
+  <si>
+    <t>Total normal+ pro (4 deals/ pro)</t>
   </si>
 </sst>
 </file>
@@ -834,207 +837,9 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1072,6 +877,204 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1584,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V160"/>
   <sheetViews>
-    <sheetView topLeftCell="D58" workbookViewId="0">
-      <selection activeCell="M76" sqref="M76"/>
+    <sheetView tabSelected="1" topLeftCell="D91" workbookViewId="0">
+      <selection activeCell="J116" sqref="J116:Q116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,293 +1604,293 @@
   </cols>
   <sheetData>
     <row r="2" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29" t="s">
+      <c r="M2" s="74"/>
+      <c r="N2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="29"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="55">
         <v>14.99</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="25">
+      <c r="M3" s="57"/>
+      <c r="N3" s="55">
         <v>29.99</v>
       </c>
-      <c r="O3" s="27"/>
+      <c r="O3" s="57"/>
     </row>
     <row r="4" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="55">
         <v>39.99</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="25">
+      <c r="M4" s="57"/>
+      <c r="N4" s="55">
         <v>79.989999999999995</v>
       </c>
-      <c r="O4" s="27"/>
+      <c r="O4" s="57"/>
     </row>
     <row r="5" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="67"/>
     </row>
     <row r="6" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="21"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="70"/>
     </row>
     <row r="7" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="70"/>
     </row>
     <row r="8" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="21"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="70"/>
     </row>
     <row r="9" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="21"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="70"/>
     </row>
     <row r="10" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="21"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="70"/>
     </row>
     <row r="11" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="21"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="70"/>
     </row>
     <row r="12" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="21"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="70"/>
     </row>
     <row r="13" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="21"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="70"/>
     </row>
     <row r="14" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="21"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="70"/>
     </row>
     <row r="15" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="21"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="70"/>
     </row>
     <row r="16" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="21"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="70"/>
     </row>
     <row r="17" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="24"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="73"/>
     </row>
     <row r="21" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="L21" s="37" t="s">
+      <c r="L21" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="M21" s="38"/>
-      <c r="N21" s="39" t="s">
+      <c r="M21" s="81"/>
+      <c r="N21" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="40"/>
+      <c r="O21" s="83"/>
     </row>
     <row r="22" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="41">
+      <c r="L22" s="62">
         <v>19.989999999999998</v>
       </c>
-      <c r="M22" s="42"/>
-      <c r="N22" s="41">
+      <c r="M22" s="63"/>
+      <c r="N22" s="62">
         <v>29.99</v>
       </c>
-      <c r="O22" s="42"/>
+      <c r="O22" s="63"/>
     </row>
     <row r="23" spans="11:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L23" s="41">
+      <c r="L23" s="62">
         <v>39.99</v>
       </c>
-      <c r="M23" s="42"/>
-      <c r="N23" s="41">
+      <c r="M23" s="63"/>
+      <c r="N23" s="62">
         <v>79.989999999999995</v>
       </c>
-      <c r="O23" s="42"/>
-      <c r="S23" s="72" t="s">
+      <c r="O23" s="63"/>
+      <c r="S23" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
     </row>
     <row r="24" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L24" s="45">
+      <c r="L24" s="64">
         <v>5.99</v>
       </c>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45">
+      <c r="M24" s="64"/>
+      <c r="N24" s="64">
         <v>1.99</v>
       </c>
-      <c r="O24" s="45"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
+      <c r="O24" s="64"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
     </row>
     <row r="25" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="35">
+      <c r="L25" s="78">
         <v>0</v>
       </c>
-      <c r="M25" s="36"/>
-      <c r="N25" s="35">
+      <c r="M25" s="79"/>
+      <c r="N25" s="78">
         <v>2</v>
       </c>
-      <c r="O25" s="36"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
+      <c r="O25" s="79"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
     </row>
     <row r="26" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L26" s="35">
+      <c r="L26" s="78">
         <v>1</v>
       </c>
-      <c r="M26" s="36"/>
-      <c r="N26" s="35" t="s">
+      <c r="M26" s="79"/>
+      <c r="N26" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="O26" s="36"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
+      <c r="O26" s="79"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
     </row>
     <row r="27" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="43" t="s">
+      <c r="L27" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="44"/>
-      <c r="N27" s="43" t="s">
+      <c r="M27" s="49"/>
+      <c r="N27" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="O27" s="44"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
+      <c r="O27" s="49"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
     </row>
     <row r="28" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="33">
+      <c r="L28" s="76">
         <v>2.4900000000000002</v>
       </c>
-      <c r="M28" s="33"/>
-      <c r="N28" s="34" t="s">
+      <c r="M28" s="76"/>
+      <c r="N28" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O28" s="34"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
+      <c r="O28" s="77"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
     </row>
     <row r="29" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="55">
         <v>6.99</v>
       </c>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="27"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="57"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K33" s="52" t="s">
+      <c r="K33" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K34" s="51" t="s">
+      <c r="K34" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K35" s="1" t="s">
@@ -1900,10 +1903,10 @@
         <f>L35*$L$22</f>
         <v>279.85999999999996</v>
       </c>
-      <c r="N35" s="53" t="s">
+      <c r="N35" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="54"/>
+      <c r="O35" s="43"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K36" s="3" t="s">
@@ -1916,8 +1919,8 @@
         <f>L36*$N$22</f>
         <v>179.94</v>
       </c>
-      <c r="N36" s="55"/>
-      <c r="O36" s="56"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="45"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K37" s="1" t="s">
@@ -1930,8 +1933,8 @@
         <f>L37*$L$23</f>
         <v>119.97</v>
       </c>
-      <c r="N37" s="57"/>
-      <c r="O37" s="58"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="47"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K38" s="3" t="s">
@@ -2024,13 +2027,13 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K45" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
+      <c r="K45" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K46" s="1" t="s">
@@ -2043,10 +2046,10 @@
         <f>L46*$L$22</f>
         <v>559.71999999999991</v>
       </c>
-      <c r="N46" s="53" t="s">
+      <c r="N46" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="O46" s="54"/>
+      <c r="O46" s="43"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K47" s="3" t="s">
@@ -2059,20 +2062,20 @@
         <f>L47*$N$22</f>
         <v>359.88</v>
       </c>
-      <c r="N47" s="55"/>
-      <c r="O47" s="56"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="45"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
       <c r="K48" s="1" t="s">
         <v>46</v>
       </c>
@@ -2083,22 +2086,22 @@
         <f>L48*$L$23</f>
         <v>239.94</v>
       </c>
-      <c r="N48" s="57"/>
-      <c r="O48" s="58"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="47"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="48" t="s">
+      <c r="B49" s="53"/>
+      <c r="C49" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
       <c r="K49" s="3" t="s">
         <v>47</v>
       </c>
@@ -2113,10 +2116,10 @@
       <c r="O49" s="13"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="50"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="7">
         <v>1</v>
       </c>
@@ -2155,10 +2158,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="43">
+      <c r="A51" s="48">
         <v>1</v>
       </c>
-      <c r="B51" s="44"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="9">
         <f>$A51 * (C$50 * $L$22 + C$50 * 2 * $L$24)</f>
         <v>31.97</v>
@@ -2203,10 +2206,10 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="43">
+      <c r="A52" s="48">
         <v>2</v>
       </c>
-      <c r="B52" s="44"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="9">
         <f t="shared" ref="C52:C61" si="1">$A52 * (C$50 * $L$22 + C$50 * 2 * $L$24)</f>
         <v>63.94</v>
@@ -2243,10 +2246,10 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="43">
+      <c r="A53" s="48">
         <v>3</v>
       </c>
-      <c r="B53" s="44"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="9">
         <f t="shared" si="1"/>
         <v>95.91</v>
@@ -2283,10 +2286,10 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="43">
+      <c r="A54" s="48">
         <v>4</v>
       </c>
-      <c r="B54" s="44"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="9">
         <f t="shared" si="1"/>
         <v>127.88</v>
@@ -2323,10 +2326,10 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="43">
+      <c r="A55" s="48">
         <v>5</v>
       </c>
-      <c r="B55" s="44"/>
+      <c r="B55" s="49"/>
       <c r="C55" s="9">
         <f t="shared" si="1"/>
         <v>159.85</v>
@@ -2351,14 +2354,14 @@
         <f t="shared" si="0"/>
         <v>959.09999999999991</v>
       </c>
-      <c r="L55" s="78"/>
-      <c r="M55" s="79"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="18"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="43">
+      <c r="A56" s="48">
         <v>6</v>
       </c>
-      <c r="B56" s="44"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="9">
         <f t="shared" si="1"/>
         <v>191.82</v>
@@ -2383,19 +2386,19 @@
         <f t="shared" si="0"/>
         <v>1150.92</v>
       </c>
-      <c r="K56" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="L56" s="80"/>
-      <c r="M56" s="80"/>
-      <c r="N56" s="80"/>
-      <c r="O56" s="80"/>
+      <c r="K56" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="41"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="43">
+      <c r="A57" s="48">
         <v>7</v>
       </c>
-      <c r="B57" s="44"/>
+      <c r="B57" s="49"/>
       <c r="C57" s="9">
         <f t="shared" si="1"/>
         <v>223.79</v>
@@ -2430,16 +2433,16 @@
         <f>L57*$L$22</f>
         <v>1119.4399999999998</v>
       </c>
-      <c r="N57" s="53" t="s">
+      <c r="N57" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="O57" s="54"/>
+      <c r="O57" s="43"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="43">
+      <c r="A58" s="48">
         <v>8</v>
       </c>
-      <c r="B58" s="44"/>
+      <c r="B58" s="49"/>
       <c r="C58" s="9">
         <f t="shared" si="1"/>
         <v>255.76</v>
@@ -2474,14 +2477,14 @@
         <f>L58*$N$22</f>
         <v>719.76</v>
       </c>
-      <c r="N58" s="55"/>
-      <c r="O58" s="56"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="45"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="43">
+      <c r="A59" s="48">
         <v>9</v>
       </c>
-      <c r="B59" s="44"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="9">
         <f t="shared" si="1"/>
         <v>287.73</v>
@@ -2516,14 +2519,14 @@
         <f>L59*$L$23</f>
         <v>479.88</v>
       </c>
-      <c r="N59" s="57"/>
-      <c r="O59" s="58"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="47"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="43">
+      <c r="A60" s="48">
         <v>10</v>
       </c>
-      <c r="B60" s="44"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="9">
         <f t="shared" si="1"/>
         <v>319.7</v>
@@ -2562,10 +2565,10 @@
       <c r="O60" s="13"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="43">
+      <c r="A61" s="48">
         <v>11</v>
       </c>
-      <c r="B61" s="44"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="9">
         <f t="shared" si="1"/>
         <v>351.66999999999996</v>
@@ -2610,10 +2613,10 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="43">
+      <c r="A62" s="48">
         <v>12</v>
       </c>
-      <c r="B62" s="44"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="9">
         <f>$A62 * (C$50 * $L$22 + C$50 * 2 * $L$24)</f>
         <v>383.64</v>
@@ -2658,10 +2661,10 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="43">
+      <c r="A63" s="48">
         <v>14</v>
       </c>
-      <c r="B63" s="44"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="9">
         <f t="shared" ref="C63:H74" si="2">$A63 * (C$50 * $L$22 + C$50 * 2 * $L$24)</f>
         <v>447.58</v>
@@ -2698,10 +2701,10 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="43">
+      <c r="A64" s="48">
         <v>16</v>
       </c>
-      <c r="B64" s="44"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="9">
         <f t="shared" si="2"/>
         <v>511.52</v>
@@ -2738,10 +2741,10 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="43">
+      <c r="A65" s="48">
         <v>18</v>
       </c>
-      <c r="B65" s="44"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="9">
         <f t="shared" si="2"/>
         <v>575.46</v>
@@ -2778,10 +2781,10 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="43">
+      <c r="A66" s="48">
         <v>20</v>
       </c>
-      <c r="B66" s="44"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="9">
         <f t="shared" si="2"/>
         <v>639.4</v>
@@ -2808,10 +2811,10 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="43">
+      <c r="A67" s="48">
         <v>22</v>
       </c>
-      <c r="B67" s="44"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="9">
         <f t="shared" si="2"/>
         <v>703.33999999999992</v>
@@ -2838,10 +2841,10 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="43">
+      <c r="A68" s="48">
         <v>24</v>
       </c>
-      <c r="B68" s="44"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="9">
         <f t="shared" si="2"/>
         <v>767.28</v>
@@ -2866,19 +2869,19 @@
         <f t="shared" si="2"/>
         <v>4603.68</v>
       </c>
-      <c r="K68" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="L68" s="80"/>
-      <c r="M68" s="80"/>
-      <c r="N68" s="80"/>
-      <c r="O68" s="80"/>
+      <c r="K68" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="L68" s="41"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="41"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="43">
+      <c r="A69" s="48">
         <v>28</v>
       </c>
-      <c r="B69" s="44"/>
+      <c r="B69" s="49"/>
       <c r="C69" s="9">
         <f t="shared" si="2"/>
         <v>895.16</v>
@@ -2913,16 +2916,16 @@
         <f>L69*$L$22</f>
         <v>1399.3</v>
       </c>
-      <c r="N69" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="O69" s="54"/>
+      <c r="N69" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="O69" s="43"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="43">
+      <c r="A70" s="48">
         <v>32</v>
       </c>
-      <c r="B70" s="44"/>
+      <c r="B70" s="49"/>
       <c r="C70" s="9">
         <f t="shared" si="2"/>
         <v>1023.04</v>
@@ -2957,14 +2960,14 @@
         <f>L70*$N$22</f>
         <v>1049.6499999999999</v>
       </c>
-      <c r="N70" s="55"/>
-      <c r="O70" s="56"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="45"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="43">
+      <c r="A71" s="48">
         <v>36</v>
       </c>
-      <c r="B71" s="44"/>
+      <c r="B71" s="49"/>
       <c r="C71" s="9">
         <f t="shared" si="2"/>
         <v>1150.92</v>
@@ -2999,14 +3002,14 @@
         <f>L71*$L$23</f>
         <v>799.80000000000007</v>
       </c>
-      <c r="N71" s="57"/>
-      <c r="O71" s="58"/>
+      <c r="N71" s="46"/>
+      <c r="O71" s="47"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="43">
+      <c r="A72" s="48">
         <v>40</v>
       </c>
-      <c r="B72" s="44"/>
+      <c r="B72" s="49"/>
       <c r="C72" s="9">
         <f t="shared" si="2"/>
         <v>1278.8</v>
@@ -3045,10 +3048,10 @@
       <c r="O72" s="13"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="43">
+      <c r="A73" s="48">
         <v>44</v>
       </c>
-      <c r="B73" s="44"/>
+      <c r="B73" s="49"/>
       <c r="C73" s="9">
         <f t="shared" si="2"/>
         <v>1406.6799999999998</v>
@@ -3093,10 +3096,10 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="43">
+      <c r="A74" s="48">
         <v>48</v>
       </c>
-      <c r="B74" s="44"/>
+      <c r="B74" s="49"/>
       <c r="C74" s="9">
         <f t="shared" si="2"/>
         <v>1534.56</v>
@@ -3153,16 +3156,16 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="46" t="s">
+      <c r="A76" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="46"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
       <c r="K76" s="2" t="s">
         <v>16</v>
       </c>
@@ -3175,18 +3178,18 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="47" t="s">
+      <c r="A77" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="47"/>
-      <c r="C77" s="48" t="s">
+      <c r="B77" s="53"/>
+      <c r="C77" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
       <c r="K77" s="1" t="s">
         <v>15</v>
       </c>
@@ -3199,10 +3202,10 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="49" t="s">
+      <c r="A78" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B78" s="50"/>
+      <c r="B78" s="51"/>
       <c r="C78" s="7">
         <v>1</v>
       </c>
@@ -3223,10 +3226,10 @@
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="43">
+      <c r="A79" s="48">
         <v>1</v>
       </c>
-      <c r="B79" s="44"/>
+      <c r="B79" s="49"/>
       <c r="C79" s="9">
         <f>$A79 * (C$78 * $L$22 + C$78 * 4 * $L$24)</f>
         <v>43.95</v>
@@ -3253,10 +3256,10 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="43">
+      <c r="A80" s="48">
         <v>2</v>
       </c>
-      <c r="B80" s="44"/>
+      <c r="B80" s="49"/>
       <c r="C80" s="9">
         <f t="shared" ref="C80:H102" si="4">$A80 * (C$78 * $L$22 + C$78 * 4 * $L$24)</f>
         <v>87.9</v>
@@ -3283,10 +3286,10 @@
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="43">
+      <c r="A81" s="48">
         <v>3</v>
       </c>
-      <c r="B81" s="44"/>
+      <c r="B81" s="49"/>
       <c r="C81" s="9">
         <f t="shared" si="4"/>
         <v>131.85000000000002</v>
@@ -3313,10 +3316,10 @@
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="43">
+      <c r="A82" s="48">
         <v>4</v>
       </c>
-      <c r="B82" s="44"/>
+      <c r="B82" s="49"/>
       <c r="C82" s="9">
         <f t="shared" si="4"/>
         <v>175.8</v>
@@ -3343,10 +3346,10 @@
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="43">
+      <c r="A83" s="48">
         <v>5</v>
       </c>
-      <c r="B83" s="44"/>
+      <c r="B83" s="49"/>
       <c r="C83" s="9">
         <f t="shared" si="4"/>
         <v>219.75</v>
@@ -3373,10 +3376,10 @@
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="43">
+      <c r="A84" s="48">
         <v>6</v>
       </c>
-      <c r="B84" s="44"/>
+      <c r="B84" s="49"/>
       <c r="C84" s="9">
         <f t="shared" si="4"/>
         <v>263.70000000000005</v>
@@ -3403,10 +3406,10 @@
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="43">
+      <c r="A85" s="48">
         <v>7</v>
       </c>
-      <c r="B85" s="44"/>
+      <c r="B85" s="49"/>
       <c r="C85" s="9">
         <f t="shared" si="4"/>
         <v>307.65000000000003</v>
@@ -3433,10 +3436,10 @@
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="43">
+      <c r="A86" s="48">
         <v>8</v>
       </c>
-      <c r="B86" s="44"/>
+      <c r="B86" s="49"/>
       <c r="C86" s="9">
         <f t="shared" si="4"/>
         <v>351.6</v>
@@ -3463,10 +3466,10 @@
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="43">
+      <c r="A87" s="48">
         <v>9</v>
       </c>
-      <c r="B87" s="44"/>
+      <c r="B87" s="49"/>
       <c r="C87" s="9">
         <f t="shared" si="4"/>
         <v>395.55</v>
@@ -3493,10 +3496,10 @@
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="43">
+      <c r="A88" s="48">
         <v>10</v>
       </c>
-      <c r="B88" s="44"/>
+      <c r="B88" s="49"/>
       <c r="C88" s="9">
         <f t="shared" si="4"/>
         <v>439.5</v>
@@ -3521,22 +3524,22 @@
         <f t="shared" si="3"/>
         <v>2637</v>
       </c>
-      <c r="J88" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="K88" s="75"/>
-      <c r="L88" s="75"/>
-      <c r="M88" s="75"/>
-      <c r="N88" s="75"/>
-      <c r="O88" s="75"/>
-      <c r="P88" s="75"/>
-      <c r="Q88" s="76"/>
+      <c r="J88" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="K88" s="39"/>
+      <c r="L88" s="39"/>
+      <c r="M88" s="39"/>
+      <c r="N88" s="39"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="40"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="43">
+      <c r="A89" s="48">
         <v>11</v>
       </c>
-      <c r="B89" s="44"/>
+      <c r="B89" s="49"/>
       <c r="C89" s="9">
         <f t="shared" si="4"/>
         <v>483.45000000000005</v>
@@ -3561,24 +3564,24 @@
         <f t="shared" si="3"/>
         <v>2900.7</v>
       </c>
-      <c r="J89" s="61" t="s">
+      <c r="J89" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="K89" s="73"/>
-      <c r="L89" s="62" t="s">
+      <c r="K89" s="37"/>
+      <c r="L89" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M89" s="63"/>
-      <c r="N89" s="63"/>
-      <c r="O89" s="63"/>
-      <c r="P89" s="63"/>
-      <c r="Q89" s="64"/>
+      <c r="M89" s="34"/>
+      <c r="N89" s="34"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
+      <c r="Q89" s="35"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="43">
+      <c r="A90" s="48">
         <v>12</v>
       </c>
-      <c r="B90" s="44"/>
+      <c r="B90" s="49"/>
       <c r="C90" s="9">
         <f t="shared" si="4"/>
         <v>527.40000000000009</v>
@@ -3603,10 +3606,10 @@
         <f t="shared" si="3"/>
         <v>3164.3999999999996</v>
       </c>
-      <c r="J90" s="49" t="s">
+      <c r="J90" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="K90" s="50"/>
+      <c r="K90" s="51"/>
       <c r="L90" s="7">
         <v>1</v>
       </c>
@@ -3627,10 +3630,10 @@
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="43">
+      <c r="A91" s="48">
         <v>14</v>
       </c>
-      <c r="B91" s="44"/>
+      <c r="B91" s="49"/>
       <c r="C91" s="9">
         <f t="shared" si="4"/>
         <v>615.30000000000007</v>
@@ -3655,40 +3658,40 @@
         <f t="shared" si="3"/>
         <v>3691.7999999999997</v>
       </c>
-      <c r="J91" s="43">
+      <c r="J91" s="48">
         <v>1</v>
       </c>
-      <c r="K91" s="44"/>
+      <c r="K91" s="49"/>
       <c r="L91" s="9">
-        <f>C51+C109</f>
+        <f t="shared" ref="L91:L114" si="5">C51+C109</f>
         <v>65.94</v>
       </c>
       <c r="M91" s="9">
-        <f>D51+D109</f>
+        <f t="shared" ref="M91:M114" si="6">D51+D109</f>
         <v>131.88</v>
       </c>
       <c r="N91" s="9">
-        <f>E51+E109</f>
+        <f t="shared" ref="N91:N114" si="7">E51+E109</f>
         <v>197.82</v>
       </c>
       <c r="O91" s="9">
-        <f>F51+F109</f>
+        <f t="shared" ref="O91:O114" si="8">F51+F109</f>
         <v>263.76</v>
       </c>
       <c r="P91" s="9">
-        <f>G51+G109</f>
+        <f t="shared" ref="P91:P114" si="9">G51+G109</f>
         <v>329.7</v>
       </c>
       <c r="Q91" s="9">
-        <f>H51+H109</f>
+        <f t="shared" ref="Q91:Q114" si="10">H51+H109</f>
         <v>395.64</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="43">
+      <c r="A92" s="48">
         <v>16</v>
       </c>
-      <c r="B92" s="44"/>
+      <c r="B92" s="49"/>
       <c r="C92" s="9">
         <f t="shared" si="4"/>
         <v>703.2</v>
@@ -3713,40 +3716,40 @@
         <f t="shared" si="3"/>
         <v>4219.2</v>
       </c>
-      <c r="J92" s="43">
+      <c r="J92" s="48">
         <v>2</v>
       </c>
-      <c r="K92" s="44"/>
+      <c r="K92" s="49"/>
       <c r="L92" s="9">
-        <f>C52+C110</f>
+        <f t="shared" si="5"/>
         <v>131.88</v>
       </c>
       <c r="M92" s="9">
-        <f>D52+D110</f>
+        <f t="shared" si="6"/>
         <v>263.76</v>
       </c>
       <c r="N92" s="9">
-        <f>E52+E110</f>
+        <f t="shared" si="7"/>
         <v>395.64</v>
       </c>
       <c r="O92" s="9">
-        <f>F52+F110</f>
+        <f t="shared" si="8"/>
         <v>527.52</v>
       </c>
       <c r="P92" s="9">
-        <f>G52+G110</f>
+        <f t="shared" si="9"/>
         <v>659.4</v>
       </c>
       <c r="Q92" s="9">
-        <f>H52+H110</f>
+        <f t="shared" si="10"/>
         <v>791.28</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="43">
+      <c r="A93" s="48">
         <v>18</v>
       </c>
-      <c r="B93" s="44"/>
+      <c r="B93" s="49"/>
       <c r="C93" s="9">
         <f t="shared" si="4"/>
         <v>791.1</v>
@@ -3771,40 +3774,40 @@
         <f t="shared" si="3"/>
         <v>4746.5999999999995</v>
       </c>
-      <c r="J93" s="43">
+      <c r="J93" s="48">
         <v>3</v>
       </c>
-      <c r="K93" s="44"/>
+      <c r="K93" s="49"/>
       <c r="L93" s="9">
-        <f>C53+C111</f>
+        <f t="shared" si="5"/>
         <v>197.82</v>
       </c>
       <c r="M93" s="9">
-        <f>D53+D111</f>
+        <f t="shared" si="6"/>
         <v>395.64</v>
       </c>
       <c r="N93" s="9">
-        <f>E53+E111</f>
+        <f t="shared" si="7"/>
         <v>593.46</v>
       </c>
       <c r="O93" s="9">
-        <f>F53+F111</f>
+        <f t="shared" si="8"/>
         <v>791.28</v>
       </c>
       <c r="P93" s="9">
-        <f>G53+G111</f>
+        <f t="shared" si="9"/>
         <v>989.09999999999991</v>
       </c>
       <c r="Q93" s="9">
-        <f>H53+H111</f>
+        <f t="shared" si="10"/>
         <v>1186.92</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="43">
+      <c r="A94" s="48">
         <v>20</v>
       </c>
-      <c r="B94" s="44"/>
+      <c r="B94" s="49"/>
       <c r="C94" s="9">
         <f t="shared" si="4"/>
         <v>879</v>
@@ -3829,40 +3832,40 @@
         <f t="shared" si="3"/>
         <v>5274</v>
       </c>
-      <c r="J94" s="43">
+      <c r="J94" s="48">
         <v>4</v>
       </c>
-      <c r="K94" s="44"/>
+      <c r="K94" s="49"/>
       <c r="L94" s="9">
-        <f>C54+C112</f>
+        <f t="shared" si="5"/>
         <v>263.76</v>
       </c>
       <c r="M94" s="9">
-        <f>D54+D112</f>
+        <f t="shared" si="6"/>
         <v>527.52</v>
       </c>
       <c r="N94" s="9">
-        <f>E54+E112</f>
+        <f t="shared" si="7"/>
         <v>791.28</v>
       </c>
       <c r="O94" s="9">
-        <f>F54+F112</f>
+        <f t="shared" si="8"/>
         <v>1055.04</v>
       </c>
       <c r="P94" s="9">
-        <f>G54+G112</f>
+        <f t="shared" si="9"/>
         <v>1318.8</v>
       </c>
       <c r="Q94" s="9">
-        <f>H54+H112</f>
+        <f t="shared" si="10"/>
         <v>1582.56</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="43">
+      <c r="A95" s="48">
         <v>22</v>
       </c>
-      <c r="B95" s="44"/>
+      <c r="B95" s="49"/>
       <c r="C95" s="9">
         <f t="shared" si="4"/>
         <v>966.90000000000009</v>
@@ -3887,40 +3890,40 @@
         <f t="shared" si="4"/>
         <v>5801.4</v>
       </c>
-      <c r="J95" s="43">
+      <c r="J95" s="48">
         <v>5</v>
       </c>
-      <c r="K95" s="44"/>
+      <c r="K95" s="49"/>
       <c r="L95" s="9">
-        <f>C55+C113</f>
+        <f t="shared" si="5"/>
         <v>329.7</v>
       </c>
       <c r="M95" s="9">
-        <f>D55+D113</f>
+        <f t="shared" si="6"/>
         <v>659.4</v>
       </c>
       <c r="N95" s="9">
-        <f>E55+E113</f>
+        <f t="shared" si="7"/>
         <v>989.09999999999991</v>
       </c>
       <c r="O95" s="9">
-        <f>F55+F113</f>
+        <f t="shared" si="8"/>
         <v>1318.8</v>
       </c>
       <c r="P95" s="9">
-        <f>G55+G113</f>
+        <f t="shared" si="9"/>
         <v>1648.5</v>
       </c>
       <c r="Q95" s="9">
-        <f>H55+H113</f>
+        <f t="shared" si="10"/>
         <v>1978.1999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="43">
+      <c r="A96" s="48">
         <v>24</v>
       </c>
-      <c r="B96" s="44"/>
+      <c r="B96" s="49"/>
       <c r="C96" s="9">
         <f t="shared" si="4"/>
         <v>1054.8000000000002</v>
@@ -3945,40 +3948,40 @@
         <f t="shared" si="4"/>
         <v>6328.7999999999993</v>
       </c>
-      <c r="J96" s="43">
+      <c r="J96" s="48">
         <v>6</v>
       </c>
-      <c r="K96" s="44"/>
+      <c r="K96" s="49"/>
       <c r="L96" s="9">
-        <f>C56+C114</f>
+        <f t="shared" si="5"/>
         <v>395.64</v>
       </c>
       <c r="M96" s="9">
-        <f>D56+D114</f>
+        <f t="shared" si="6"/>
         <v>791.28</v>
       </c>
       <c r="N96" s="9">
-        <f>E56+E114</f>
+        <f t="shared" si="7"/>
         <v>1186.92</v>
       </c>
       <c r="O96" s="9">
-        <f>F56+F114</f>
+        <f t="shared" si="8"/>
         <v>1582.56</v>
       </c>
       <c r="P96" s="9">
-        <f>G56+G114</f>
+        <f t="shared" si="9"/>
         <v>1978.1999999999998</v>
       </c>
       <c r="Q96" s="9">
-        <f>H56+H114</f>
+        <f t="shared" si="10"/>
         <v>2373.84</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" s="43">
+      <c r="A97" s="48">
         <v>28</v>
       </c>
-      <c r="B97" s="44"/>
+      <c r="B97" s="49"/>
       <c r="C97" s="9">
         <f t="shared" si="4"/>
         <v>1230.6000000000001</v>
@@ -4003,40 +4006,40 @@
         <f t="shared" si="4"/>
         <v>7383.5999999999995</v>
       </c>
-      <c r="J97" s="43">
+      <c r="J97" s="48">
         <v>7</v>
       </c>
-      <c r="K97" s="44"/>
+      <c r="K97" s="49"/>
       <c r="L97" s="9">
-        <f>C57+C115</f>
+        <f t="shared" si="5"/>
         <v>461.58</v>
       </c>
       <c r="M97" s="9">
-        <f>D57+D115</f>
+        <f t="shared" si="6"/>
         <v>923.16</v>
       </c>
       <c r="N97" s="9">
-        <f>E57+E115</f>
+        <f t="shared" si="7"/>
         <v>1384.74</v>
       </c>
       <c r="O97" s="9">
-        <f>F57+F115</f>
+        <f t="shared" si="8"/>
         <v>1846.32</v>
       </c>
       <c r="P97" s="9">
-        <f>G57+G115</f>
+        <f t="shared" si="9"/>
         <v>2307.9</v>
       </c>
       <c r="Q97" s="9">
-        <f>H57+H115</f>
+        <f t="shared" si="10"/>
         <v>2769.48</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A98" s="43">
+      <c r="A98" s="48">
         <v>32</v>
       </c>
-      <c r="B98" s="44"/>
+      <c r="B98" s="49"/>
       <c r="C98" s="9">
         <f t="shared" si="4"/>
         <v>1406.4</v>
@@ -4061,40 +4064,40 @@
         <f t="shared" si="4"/>
         <v>8438.4</v>
       </c>
-      <c r="J98" s="43">
+      <c r="J98" s="48">
         <v>8</v>
       </c>
-      <c r="K98" s="44"/>
+      <c r="K98" s="49"/>
       <c r="L98" s="9">
-        <f>C58+C116</f>
+        <f t="shared" si="5"/>
         <v>527.52</v>
       </c>
       <c r="M98" s="9">
-        <f>D58+D116</f>
+        <f t="shared" si="6"/>
         <v>1055.04</v>
       </c>
       <c r="N98" s="9">
-        <f>E58+E116</f>
+        <f t="shared" si="7"/>
         <v>1582.56</v>
       </c>
       <c r="O98" s="9">
-        <f>F58+F116</f>
+        <f t="shared" si="8"/>
         <v>2110.08</v>
       </c>
       <c r="P98" s="9">
-        <f>G58+G116</f>
+        <f t="shared" si="9"/>
         <v>2637.6</v>
       </c>
       <c r="Q98" s="9">
-        <f>H58+H116</f>
+        <f t="shared" si="10"/>
         <v>3165.12</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="43">
+      <c r="A99" s="48">
         <v>36</v>
       </c>
-      <c r="B99" s="44"/>
+      <c r="B99" s="49"/>
       <c r="C99" s="9">
         <f t="shared" si="4"/>
         <v>1582.2</v>
@@ -4119,40 +4122,40 @@
         <f t="shared" si="4"/>
         <v>9493.1999999999989</v>
       </c>
-      <c r="J99" s="43">
+      <c r="J99" s="48">
         <v>9</v>
       </c>
-      <c r="K99" s="44"/>
+      <c r="K99" s="49"/>
       <c r="L99" s="9">
-        <f>C59+C117</f>
+        <f t="shared" si="5"/>
         <v>593.46</v>
       </c>
       <c r="M99" s="9">
-        <f>D59+D117</f>
+        <f t="shared" si="6"/>
         <v>1186.92</v>
       </c>
       <c r="N99" s="9">
-        <f>E59+E117</f>
+        <f t="shared" si="7"/>
         <v>1780.3799999999999</v>
       </c>
       <c r="O99" s="9">
-        <f>F59+F117</f>
+        <f t="shared" si="8"/>
         <v>2373.84</v>
       </c>
       <c r="P99" s="9">
-        <f>G59+G117</f>
+        <f t="shared" si="9"/>
         <v>2967.2999999999997</v>
       </c>
       <c r="Q99" s="9">
-        <f>H59+H117</f>
+        <f t="shared" si="10"/>
         <v>3560.7599999999998</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="43">
+      <c r="A100" s="48">
         <v>40</v>
       </c>
-      <c r="B100" s="44"/>
+      <c r="B100" s="49"/>
       <c r="C100" s="9">
         <f t="shared" si="4"/>
         <v>1758</v>
@@ -4177,40 +4180,40 @@
         <f t="shared" si="4"/>
         <v>10548</v>
       </c>
-      <c r="J100" s="43">
+      <c r="J100" s="48">
         <v>10</v>
       </c>
-      <c r="K100" s="44"/>
+      <c r="K100" s="49"/>
       <c r="L100" s="9">
-        <f>C60+C118</f>
+        <f t="shared" si="5"/>
         <v>659.4</v>
       </c>
       <c r="M100" s="9">
-        <f>D60+D118</f>
+        <f t="shared" si="6"/>
         <v>1318.8</v>
       </c>
       <c r="N100" s="9">
-        <f>E60+E118</f>
+        <f t="shared" si="7"/>
         <v>1978.1999999999998</v>
       </c>
       <c r="O100" s="9">
-        <f>F60+F118</f>
+        <f t="shared" si="8"/>
         <v>2637.6</v>
       </c>
       <c r="P100" s="9">
-        <f>G60+G118</f>
+        <f t="shared" si="9"/>
         <v>3297</v>
       </c>
       <c r="Q100" s="9">
-        <f>H60+H118</f>
+        <f t="shared" si="10"/>
         <v>3956.3999999999996</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101" s="43">
+      <c r="A101" s="48">
         <v>44</v>
       </c>
-      <c r="B101" s="44"/>
+      <c r="B101" s="49"/>
       <c r="C101" s="9">
         <f t="shared" si="4"/>
         <v>1933.8000000000002</v>
@@ -4235,40 +4238,40 @@
         <f t="shared" si="4"/>
         <v>11602.8</v>
       </c>
-      <c r="J101" s="43">
+      <c r="J101" s="48">
         <v>11</v>
       </c>
-      <c r="K101" s="44"/>
+      <c r="K101" s="49"/>
       <c r="L101" s="9">
-        <f>C61+C119</f>
+        <f t="shared" si="5"/>
         <v>725.33999999999992</v>
       </c>
       <c r="M101" s="9">
-        <f>D61+D119</f>
+        <f t="shared" si="6"/>
         <v>1450.6799999999998</v>
       </c>
       <c r="N101" s="9">
-        <f>E61+E119</f>
+        <f t="shared" si="7"/>
         <v>2176.02</v>
       </c>
       <c r="O101" s="9">
-        <f>F61+F119</f>
+        <f t="shared" si="8"/>
         <v>2901.3599999999997</v>
       </c>
       <c r="P101" s="9">
-        <f>G61+G119</f>
+        <f t="shared" si="9"/>
         <v>3626.7</v>
       </c>
       <c r="Q101" s="9">
-        <f>H61+H119</f>
+        <f t="shared" si="10"/>
         <v>4352.04</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102" s="43">
+      <c r="A102" s="48">
         <v>48</v>
       </c>
-      <c r="B102" s="44"/>
+      <c r="B102" s="49"/>
       <c r="C102" s="9">
         <f t="shared" si="4"/>
         <v>2109.6000000000004</v>
@@ -4293,212 +4296,212 @@
         <f t="shared" si="4"/>
         <v>12657.599999999999</v>
       </c>
-      <c r="J102" s="43">
+      <c r="J102" s="48">
         <v>12</v>
       </c>
-      <c r="K102" s="44"/>
+      <c r="K102" s="49"/>
       <c r="L102" s="9">
-        <f>C62+C120</f>
+        <f t="shared" si="5"/>
         <v>791.28</v>
       </c>
       <c r="M102" s="9">
-        <f>D62+D120</f>
+        <f t="shared" si="6"/>
         <v>1582.56</v>
       </c>
       <c r="N102" s="9">
-        <f>E62+E120</f>
+        <f t="shared" si="7"/>
         <v>2373.84</v>
       </c>
       <c r="O102" s="9">
-        <f>F62+F120</f>
+        <f t="shared" si="8"/>
         <v>3165.12</v>
       </c>
       <c r="P102" s="9">
-        <f>G62+G120</f>
+        <f t="shared" si="9"/>
         <v>3956.3999999999996</v>
       </c>
       <c r="Q102" s="9">
-        <f>H62+H120</f>
+        <f t="shared" si="10"/>
         <v>4747.68</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J103" s="43">
+      <c r="J103" s="48">
         <v>14</v>
       </c>
-      <c r="K103" s="44"/>
+      <c r="K103" s="49"/>
       <c r="L103" s="9">
-        <f>C63+C121</f>
+        <f t="shared" si="5"/>
         <v>923.16</v>
       </c>
       <c r="M103" s="9">
-        <f>D63+D121</f>
+        <f t="shared" si="6"/>
         <v>1846.32</v>
       </c>
       <c r="N103" s="9">
-        <f>E63+E121</f>
+        <f t="shared" si="7"/>
         <v>2769.48</v>
       </c>
       <c r="O103" s="9">
-        <f>F63+F121</f>
+        <f t="shared" si="8"/>
         <v>3692.64</v>
       </c>
       <c r="P103" s="9">
-        <f>G63+G121</f>
+        <f t="shared" si="9"/>
         <v>4615.8</v>
       </c>
       <c r="Q103" s="9">
-        <f>H63+H121</f>
+        <f t="shared" si="10"/>
         <v>5538.96</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J104" s="43">
+      <c r="J104" s="48">
         <v>16</v>
       </c>
-      <c r="K104" s="44"/>
+      <c r="K104" s="49"/>
       <c r="L104" s="9">
-        <f>C64+C122</f>
+        <f t="shared" si="5"/>
         <v>1055.04</v>
       </c>
       <c r="M104" s="9">
-        <f>D64+D122</f>
+        <f t="shared" si="6"/>
         <v>2110.08</v>
       </c>
       <c r="N104" s="9">
-        <f>E64+E122</f>
+        <f t="shared" si="7"/>
         <v>3165.12</v>
       </c>
       <c r="O104" s="9">
-        <f>F64+F122</f>
+        <f t="shared" si="8"/>
         <v>4220.16</v>
       </c>
       <c r="P104" s="9">
-        <f>G64+G122</f>
+        <f t="shared" si="9"/>
         <v>5275.2</v>
       </c>
       <c r="Q104" s="9">
-        <f>H64+H122</f>
+        <f t="shared" si="10"/>
         <v>6330.24</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J105" s="43">
+      <c r="J105" s="48">
         <v>18</v>
       </c>
-      <c r="K105" s="44"/>
+      <c r="K105" s="49"/>
       <c r="L105" s="9">
-        <f>C65+C123</f>
+        <f t="shared" si="5"/>
         <v>1186.92</v>
       </c>
       <c r="M105" s="9">
-        <f>D65+D123</f>
+        <f t="shared" si="6"/>
         <v>2373.84</v>
       </c>
       <c r="N105" s="9">
-        <f>E65+E123</f>
+        <f t="shared" si="7"/>
         <v>3560.7599999999998</v>
       </c>
       <c r="O105" s="9">
-        <f>F65+F123</f>
+        <f t="shared" si="8"/>
         <v>4747.68</v>
       </c>
       <c r="P105" s="9">
-        <f>G65+G123</f>
+        <f t="shared" si="9"/>
         <v>5934.5999999999995</v>
       </c>
       <c r="Q105" s="9">
-        <f>H65+H123</f>
+        <f t="shared" si="10"/>
         <v>7121.5199999999995</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A106" s="46" t="s">
+      <c r="A106" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B106" s="46"/>
-      <c r="C106" s="46"/>
-      <c r="D106" s="46"/>
-      <c r="E106" s="46"/>
-      <c r="F106" s="46"/>
-      <c r="G106" s="46"/>
-      <c r="H106" s="46"/>
-      <c r="J106" s="43">
+      <c r="B106" s="52"/>
+      <c r="C106" s="52"/>
+      <c r="D106" s="52"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="52"/>
+      <c r="J106" s="48">
         <v>20</v>
       </c>
-      <c r="K106" s="44"/>
+      <c r="K106" s="49"/>
       <c r="L106" s="9">
-        <f>C66+C124</f>
+        <f t="shared" si="5"/>
         <v>1318.8</v>
       </c>
       <c r="M106" s="9">
-        <f>D66+D124</f>
+        <f t="shared" si="6"/>
         <v>2637.6</v>
       </c>
       <c r="N106" s="9">
-        <f>E66+E124</f>
+        <f t="shared" si="7"/>
         <v>3956.3999999999996</v>
       </c>
       <c r="O106" s="9">
-        <f>F66+F124</f>
+        <f t="shared" si="8"/>
         <v>5275.2</v>
       </c>
       <c r="P106" s="9">
-        <f>G66+G124</f>
+        <f t="shared" si="9"/>
         <v>6594</v>
       </c>
       <c r="Q106" s="9">
-        <f>H66+H124</f>
+        <f t="shared" si="10"/>
         <v>7912.7999999999993</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107" s="47" t="s">
+      <c r="A107" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B107" s="47"/>
-      <c r="C107" s="48" t="s">
+      <c r="B107" s="53"/>
+      <c r="C107" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D107" s="48"/>
-      <c r="E107" s="48"/>
-      <c r="F107" s="48"/>
-      <c r="G107" s="48"/>
-      <c r="H107" s="48"/>
-      <c r="J107" s="43">
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="54"/>
+      <c r="H107" s="54"/>
+      <c r="J107" s="48">
         <v>22</v>
       </c>
-      <c r="K107" s="44"/>
+      <c r="K107" s="49"/>
       <c r="L107" s="9">
-        <f>C67+C125</f>
+        <f t="shared" si="5"/>
         <v>1450.6799999999998</v>
       </c>
       <c r="M107" s="9">
-        <f>D67+D125</f>
+        <f t="shared" si="6"/>
         <v>2901.3599999999997</v>
       </c>
       <c r="N107" s="9">
-        <f>E67+E125</f>
+        <f t="shared" si="7"/>
         <v>4352.04</v>
       </c>
       <c r="O107" s="9">
-        <f>F67+F125</f>
+        <f t="shared" si="8"/>
         <v>5802.7199999999993</v>
       </c>
       <c r="P107" s="9">
-        <f>G67+G125</f>
+        <f t="shared" si="9"/>
         <v>7253.4</v>
       </c>
       <c r="Q107" s="9">
-        <f>H67+H125</f>
+        <f t="shared" si="10"/>
         <v>8704.08</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="49" t="s">
+      <c r="A108" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B108" s="50"/>
+      <c r="B108" s="51"/>
       <c r="C108" s="7">
         <v>1</v>
       </c>
@@ -4517,528 +4520,528 @@
       <c r="H108" s="8">
         <v>6</v>
       </c>
-      <c r="J108" s="43">
+      <c r="J108" s="48">
         <v>24</v>
       </c>
-      <c r="K108" s="44"/>
+      <c r="K108" s="49"/>
       <c r="L108" s="9">
-        <f>C68+C126</f>
+        <f t="shared" si="5"/>
         <v>1582.56</v>
       </c>
       <c r="M108" s="9">
-        <f>D68+D126</f>
+        <f t="shared" si="6"/>
         <v>3165.12</v>
       </c>
       <c r="N108" s="9">
-        <f>E68+E126</f>
+        <f t="shared" si="7"/>
         <v>4747.68</v>
       </c>
       <c r="O108" s="9">
-        <f>F68+F126</f>
+        <f t="shared" si="8"/>
         <v>6330.24</v>
       </c>
       <c r="P108" s="9">
-        <f>G68+G126</f>
+        <f t="shared" si="9"/>
         <v>7912.7999999999993</v>
       </c>
       <c r="Q108" s="9">
-        <f>H68+H126</f>
+        <f t="shared" si="10"/>
         <v>9495.36</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" s="43">
+      <c r="A109" s="48">
         <v>1</v>
       </c>
-      <c r="B109" s="44"/>
+      <c r="B109" s="49"/>
       <c r="C109" s="9">
         <f>$A109 * (C$108 * $N$22 + C$108 * 2 * $N$24)</f>
         <v>33.97</v>
       </c>
       <c r="D109" s="9">
-        <f t="shared" ref="D109:H124" si="5">$A109 * (D$108 * $N$22 + D$108 * 2 * $N$24)</f>
+        <f t="shared" ref="D109:H124" si="11">$A109 * (D$108 * $N$22 + D$108 * 2 * $N$24)</f>
         <v>67.94</v>
       </c>
       <c r="E109" s="9">
+        <f t="shared" si="11"/>
+        <v>101.91</v>
+      </c>
+      <c r="F109" s="9">
+        <f t="shared" si="11"/>
+        <v>135.88</v>
+      </c>
+      <c r="G109" s="9">
+        <f t="shared" si="11"/>
+        <v>169.85</v>
+      </c>
+      <c r="H109" s="9">
+        <f t="shared" si="11"/>
+        <v>203.82</v>
+      </c>
+      <c r="J109" s="48">
+        <v>28</v>
+      </c>
+      <c r="K109" s="49"/>
+      <c r="L109" s="9">
         <f t="shared" si="5"/>
+        <v>1846.32</v>
+      </c>
+      <c r="M109" s="9">
+        <f t="shared" si="6"/>
+        <v>3692.64</v>
+      </c>
+      <c r="N109" s="9">
+        <f t="shared" si="7"/>
+        <v>5538.96</v>
+      </c>
+      <c r="O109" s="9">
+        <f t="shared" si="8"/>
+        <v>7385.28</v>
+      </c>
+      <c r="P109" s="9">
+        <f t="shared" si="9"/>
+        <v>9231.6</v>
+      </c>
+      <c r="Q109" s="9">
+        <f t="shared" si="10"/>
+        <v>11077.92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" s="48">
+        <v>2</v>
+      </c>
+      <c r="B110" s="49"/>
+      <c r="C110" s="9">
+        <f t="shared" ref="C110:H132" si="12">$A110 * (C$108 * $N$22 + C$108 * 2 * $N$24)</f>
+        <v>67.94</v>
+      </c>
+      <c r="D110" s="9">
+        <f t="shared" si="11"/>
+        <v>135.88</v>
+      </c>
+      <c r="E110" s="9">
+        <f t="shared" si="11"/>
+        <v>203.82</v>
+      </c>
+      <c r="F110" s="9">
+        <f t="shared" si="11"/>
+        <v>271.76</v>
+      </c>
+      <c r="G110" s="9">
+        <f t="shared" si="11"/>
+        <v>339.7</v>
+      </c>
+      <c r="H110" s="9">
+        <f t="shared" si="11"/>
+        <v>407.64</v>
+      </c>
+      <c r="J110" s="48">
+        <v>32</v>
+      </c>
+      <c r="K110" s="49"/>
+      <c r="L110" s="9">
+        <f t="shared" si="5"/>
+        <v>2110.08</v>
+      </c>
+      <c r="M110" s="9">
+        <f t="shared" si="6"/>
+        <v>4220.16</v>
+      </c>
+      <c r="N110" s="9">
+        <f t="shared" si="7"/>
+        <v>6330.24</v>
+      </c>
+      <c r="O110" s="9">
+        <f t="shared" si="8"/>
+        <v>8440.32</v>
+      </c>
+      <c r="P110" s="9">
+        <f t="shared" si="9"/>
+        <v>10550.4</v>
+      </c>
+      <c r="Q110" s="9">
+        <f t="shared" si="10"/>
+        <v>12660.48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111" s="48">
+        <v>3</v>
+      </c>
+      <c r="B111" s="49"/>
+      <c r="C111" s="9">
+        <f t="shared" si="12"/>
         <v>101.91</v>
       </c>
-      <c r="F109" s="9">
+      <c r="D111" s="9">
+        <f t="shared" si="11"/>
+        <v>203.82</v>
+      </c>
+      <c r="E111" s="9">
+        <f t="shared" si="11"/>
+        <v>305.73</v>
+      </c>
+      <c r="F111" s="9">
+        <f t="shared" si="11"/>
+        <v>407.64</v>
+      </c>
+      <c r="G111" s="9">
+        <f t="shared" si="11"/>
+        <v>509.54999999999995</v>
+      </c>
+      <c r="H111" s="9">
+        <f t="shared" si="11"/>
+        <v>611.46</v>
+      </c>
+      <c r="J111" s="48">
+        <v>36</v>
+      </c>
+      <c r="K111" s="49"/>
+      <c r="L111" s="9">
         <f t="shared" si="5"/>
+        <v>2373.84</v>
+      </c>
+      <c r="M111" s="9">
+        <f t="shared" si="6"/>
+        <v>4747.68</v>
+      </c>
+      <c r="N111" s="9">
+        <f t="shared" si="7"/>
+        <v>7121.5199999999995</v>
+      </c>
+      <c r="O111" s="9">
+        <f t="shared" si="8"/>
+        <v>9495.36</v>
+      </c>
+      <c r="P111" s="9">
+        <f t="shared" si="9"/>
+        <v>11869.199999999999</v>
+      </c>
+      <c r="Q111" s="9">
+        <f t="shared" si="10"/>
+        <v>14243.039999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112" s="48">
+        <v>4</v>
+      </c>
+      <c r="B112" s="49"/>
+      <c r="C112" s="9">
+        <f t="shared" si="12"/>
         <v>135.88</v>
       </c>
-      <c r="G109" s="9">
+      <c r="D112" s="9">
+        <f t="shared" si="11"/>
+        <v>271.76</v>
+      </c>
+      <c r="E112" s="9">
+        <f t="shared" si="11"/>
+        <v>407.64</v>
+      </c>
+      <c r="F112" s="9">
+        <f t="shared" si="11"/>
+        <v>543.52</v>
+      </c>
+      <c r="G112" s="9">
+        <f t="shared" si="11"/>
+        <v>679.4</v>
+      </c>
+      <c r="H112" s="9">
+        <f t="shared" si="11"/>
+        <v>815.28</v>
+      </c>
+      <c r="J112" s="48">
+        <v>40</v>
+      </c>
+      <c r="K112" s="49"/>
+      <c r="L112" s="9">
         <f t="shared" si="5"/>
+        <v>2637.6</v>
+      </c>
+      <c r="M112" s="9">
+        <f t="shared" si="6"/>
+        <v>5275.2</v>
+      </c>
+      <c r="N112" s="9">
+        <f t="shared" si="7"/>
+        <v>7912.7999999999993</v>
+      </c>
+      <c r="O112" s="9">
+        <f t="shared" si="8"/>
+        <v>10550.4</v>
+      </c>
+      <c r="P112" s="9">
+        <f t="shared" si="9"/>
+        <v>13188</v>
+      </c>
+      <c r="Q112" s="9">
+        <f t="shared" si="10"/>
+        <v>15825.599999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113" s="48">
+        <v>5</v>
+      </c>
+      <c r="B113" s="49"/>
+      <c r="C113" s="9">
+        <f t="shared" si="12"/>
         <v>169.85</v>
       </c>
-      <c r="H109" s="9">
+      <c r="D113" s="9">
+        <f t="shared" si="11"/>
+        <v>339.7</v>
+      </c>
+      <c r="E113" s="9">
+        <f t="shared" si="11"/>
+        <v>509.54999999999995</v>
+      </c>
+      <c r="F113" s="9">
+        <f t="shared" si="11"/>
+        <v>679.4</v>
+      </c>
+      <c r="G113" s="9">
+        <f t="shared" si="11"/>
+        <v>849.25</v>
+      </c>
+      <c r="H113" s="9">
+        <f t="shared" si="11"/>
+        <v>1019.0999999999999</v>
+      </c>
+      <c r="J113" s="48">
+        <v>44</v>
+      </c>
+      <c r="K113" s="49"/>
+      <c r="L113" s="9">
         <f t="shared" si="5"/>
+        <v>2901.3599999999997</v>
+      </c>
+      <c r="M113" s="9">
+        <f t="shared" si="6"/>
+        <v>5802.7199999999993</v>
+      </c>
+      <c r="N113" s="9">
+        <f t="shared" si="7"/>
+        <v>8704.08</v>
+      </c>
+      <c r="O113" s="9">
+        <f t="shared" si="8"/>
+        <v>11605.439999999999</v>
+      </c>
+      <c r="P113" s="9">
+        <f t="shared" si="9"/>
+        <v>14506.8</v>
+      </c>
+      <c r="Q113" s="9">
+        <f t="shared" si="10"/>
+        <v>17408.16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114" s="48">
+        <v>6</v>
+      </c>
+      <c r="B114" s="49"/>
+      <c r="C114" s="9">
+        <f t="shared" si="12"/>
         <v>203.82</v>
       </c>
-      <c r="J109" s="43">
-        <v>28</v>
-      </c>
-      <c r="K109" s="44"/>
-      <c r="L109" s="9">
-        <f>C69+C127</f>
-        <v>1846.32</v>
-      </c>
-      <c r="M109" s="9">
-        <f>D69+D127</f>
-        <v>3692.64</v>
-      </c>
-      <c r="N109" s="9">
-        <f>E69+E127</f>
-        <v>5538.96</v>
-      </c>
-      <c r="O109" s="9">
-        <f>F69+F127</f>
-        <v>7385.28</v>
-      </c>
-      <c r="P109" s="9">
-        <f>G69+G127</f>
-        <v>9231.6</v>
-      </c>
-      <c r="Q109" s="9">
-        <f>H69+H127</f>
-        <v>11077.92</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A110" s="43">
-        <v>2</v>
-      </c>
-      <c r="B110" s="44"/>
-      <c r="C110" s="9">
-        <f t="shared" ref="C110:H132" si="6">$A110 * (C$108 * $N$22 + C$108 * 2 * $N$24)</f>
-        <v>67.94</v>
-      </c>
-      <c r="D110" s="9">
+      <c r="D114" s="9">
+        <f t="shared" si="11"/>
+        <v>407.64</v>
+      </c>
+      <c r="E114" s="9">
+        <f t="shared" si="11"/>
+        <v>611.46</v>
+      </c>
+      <c r="F114" s="9">
+        <f t="shared" si="11"/>
+        <v>815.28</v>
+      </c>
+      <c r="G114" s="9">
+        <f t="shared" si="11"/>
+        <v>1019.0999999999999</v>
+      </c>
+      <c r="H114" s="9">
+        <f t="shared" si="11"/>
+        <v>1222.92</v>
+      </c>
+      <c r="J114" s="48">
+        <v>48</v>
+      </c>
+      <c r="K114" s="49"/>
+      <c r="L114" s="9">
         <f t="shared" si="5"/>
-        <v>135.88</v>
-      </c>
-      <c r="E110" s="9">
-        <f t="shared" si="5"/>
-        <v>203.82</v>
-      </c>
-      <c r="F110" s="9">
-        <f t="shared" si="5"/>
+        <v>3165.12</v>
+      </c>
+      <c r="M114" s="9">
+        <f t="shared" si="6"/>
+        <v>6330.24</v>
+      </c>
+      <c r="N114" s="9">
+        <f t="shared" si="7"/>
+        <v>9495.36</v>
+      </c>
+      <c r="O114" s="9">
+        <f t="shared" si="8"/>
+        <v>12660.48</v>
+      </c>
+      <c r="P114" s="9">
+        <f t="shared" si="9"/>
+        <v>15825.599999999999</v>
+      </c>
+      <c r="Q114" s="9">
+        <f t="shared" si="10"/>
+        <v>18990.72</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115" s="48">
+        <v>7</v>
+      </c>
+      <c r="B115" s="49"/>
+      <c r="C115" s="9">
+        <f t="shared" si="12"/>
+        <v>237.79</v>
+      </c>
+      <c r="D115" s="9">
+        <f t="shared" si="11"/>
+        <v>475.58</v>
+      </c>
+      <c r="E115" s="9">
+        <f t="shared" si="11"/>
+        <v>713.37</v>
+      </c>
+      <c r="F115" s="9">
+        <f t="shared" si="11"/>
+        <v>951.16</v>
+      </c>
+      <c r="G115" s="9">
+        <f t="shared" si="11"/>
+        <v>1188.95</v>
+      </c>
+      <c r="H115" s="9">
+        <f t="shared" si="11"/>
+        <v>1426.74</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A116" s="48">
+        <v>8</v>
+      </c>
+      <c r="B116" s="49"/>
+      <c r="C116" s="9">
+        <f t="shared" si="12"/>
         <v>271.76</v>
       </c>
-      <c r="G110" s="9">
-        <f t="shared" si="5"/>
+      <c r="D116" s="9">
+        <f t="shared" si="11"/>
+        <v>543.52</v>
+      </c>
+      <c r="E116" s="9">
+        <f t="shared" si="11"/>
+        <v>815.28</v>
+      </c>
+      <c r="F116" s="9">
+        <f t="shared" si="11"/>
+        <v>1087.04</v>
+      </c>
+      <c r="G116" s="9">
+        <f t="shared" si="11"/>
+        <v>1358.8</v>
+      </c>
+      <c r="H116" s="9">
+        <f t="shared" si="11"/>
+        <v>1630.56</v>
+      </c>
+      <c r="J116" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="K116" s="39"/>
+      <c r="L116" s="39"/>
+      <c r="M116" s="39"/>
+      <c r="N116" s="39"/>
+      <c r="O116" s="39"/>
+      <c r="P116" s="39"/>
+      <c r="Q116" s="40"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117" s="48">
+        <v>9</v>
+      </c>
+      <c r="B117" s="49"/>
+      <c r="C117" s="9">
+        <f t="shared" si="12"/>
+        <v>305.73</v>
+      </c>
+      <c r="D117" s="9">
+        <f t="shared" si="11"/>
+        <v>611.46</v>
+      </c>
+      <c r="E117" s="9">
+        <f t="shared" si="11"/>
+        <v>917.18999999999994</v>
+      </c>
+      <c r="F117" s="9">
+        <f t="shared" si="11"/>
+        <v>1222.92</v>
+      </c>
+      <c r="G117" s="9">
+        <f t="shared" si="11"/>
+        <v>1528.6499999999999</v>
+      </c>
+      <c r="H117" s="9">
+        <f t="shared" si="11"/>
+        <v>1834.3799999999999</v>
+      </c>
+      <c r="J117" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K117" s="37"/>
+      <c r="L117" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M117" s="34"/>
+      <c r="N117" s="34"/>
+      <c r="O117" s="34"/>
+      <c r="P117" s="34"/>
+      <c r="Q117" s="35"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118" s="48">
+        <v>10</v>
+      </c>
+      <c r="B118" s="49"/>
+      <c r="C118" s="9">
+        <f t="shared" si="12"/>
         <v>339.7</v>
       </c>
-      <c r="H110" s="9">
-        <f t="shared" si="5"/>
-        <v>407.64</v>
-      </c>
-      <c r="J110" s="43">
-        <v>32</v>
-      </c>
-      <c r="K110" s="44"/>
-      <c r="L110" s="9">
-        <f>C70+C128</f>
-        <v>2110.08</v>
-      </c>
-      <c r="M110" s="9">
-        <f>D70+D128</f>
-        <v>4220.16</v>
-      </c>
-      <c r="N110" s="9">
-        <f>E70+E128</f>
-        <v>6330.24</v>
-      </c>
-      <c r="O110" s="9">
-        <f>F70+F128</f>
-        <v>8440.32</v>
-      </c>
-      <c r="P110" s="9">
-        <f>G70+G128</f>
-        <v>10550.4</v>
-      </c>
-      <c r="Q110" s="9">
-        <f>H70+H128</f>
-        <v>12660.48</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A111" s="43">
-        <v>3</v>
-      </c>
-      <c r="B111" s="44"/>
-      <c r="C111" s="9">
-        <f t="shared" si="6"/>
-        <v>101.91</v>
-      </c>
-      <c r="D111" s="9">
-        <f t="shared" si="5"/>
-        <v>203.82</v>
-      </c>
-      <c r="E111" s="9">
-        <f t="shared" si="5"/>
-        <v>305.73</v>
-      </c>
-      <c r="F111" s="9">
-        <f t="shared" si="5"/>
-        <v>407.64</v>
-      </c>
-      <c r="G111" s="9">
-        <f t="shared" si="5"/>
-        <v>509.54999999999995</v>
-      </c>
-      <c r="H111" s="9">
-        <f t="shared" si="5"/>
-        <v>611.46</v>
-      </c>
-      <c r="J111" s="43">
-        <v>36</v>
-      </c>
-      <c r="K111" s="44"/>
-      <c r="L111" s="9">
-        <f>C71+C129</f>
-        <v>2373.84</v>
-      </c>
-      <c r="M111" s="9">
-        <f>D71+D129</f>
-        <v>4747.68</v>
-      </c>
-      <c r="N111" s="9">
-        <f>E71+E129</f>
-        <v>7121.5199999999995</v>
-      </c>
-      <c r="O111" s="9">
-        <f>F71+F129</f>
-        <v>9495.36</v>
-      </c>
-      <c r="P111" s="9">
-        <f>G71+G129</f>
-        <v>11869.199999999999</v>
-      </c>
-      <c r="Q111" s="9">
-        <f>H71+H129</f>
-        <v>14243.039999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A112" s="43">
-        <v>4</v>
-      </c>
-      <c r="B112" s="44"/>
-      <c r="C112" s="9">
-        <f t="shared" si="6"/>
-        <v>135.88</v>
-      </c>
-      <c r="D112" s="9">
-        <f t="shared" si="5"/>
-        <v>271.76</v>
-      </c>
-      <c r="E112" s="9">
-        <f t="shared" si="5"/>
-        <v>407.64</v>
-      </c>
-      <c r="F112" s="9">
-        <f t="shared" si="5"/>
-        <v>543.52</v>
-      </c>
-      <c r="G112" s="9">
-        <f t="shared" si="5"/>
+      <c r="D118" s="9">
+        <f t="shared" si="11"/>
         <v>679.4</v>
       </c>
-      <c r="H112" s="9">
-        <f t="shared" si="5"/>
-        <v>815.28</v>
-      </c>
-      <c r="J112" s="43">
-        <v>40</v>
-      </c>
-      <c r="K112" s="44"/>
-      <c r="L112" s="9">
-        <f>C72+C130</f>
-        <v>2637.6</v>
-      </c>
-      <c r="M112" s="9">
-        <f>D72+D130</f>
-        <v>5275.2</v>
-      </c>
-      <c r="N112" s="9">
-        <f>E72+E130</f>
-        <v>7912.7999999999993</v>
-      </c>
-      <c r="O112" s="9">
-        <f>F72+F130</f>
-        <v>10550.4</v>
-      </c>
-      <c r="P112" s="9">
-        <f>G72+G130</f>
-        <v>13188</v>
-      </c>
-      <c r="Q112" s="9">
-        <f>H72+H130</f>
-        <v>15825.599999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="43">
-        <v>5</v>
-      </c>
-      <c r="B113" s="44"/>
-      <c r="C113" s="9">
-        <f t="shared" si="6"/>
-        <v>169.85</v>
-      </c>
-      <c r="D113" s="9">
-        <f t="shared" si="5"/>
-        <v>339.7</v>
-      </c>
-      <c r="E113" s="9">
-        <f t="shared" si="5"/>
-        <v>509.54999999999995</v>
-      </c>
-      <c r="F113" s="9">
-        <f t="shared" si="5"/>
-        <v>679.4</v>
-      </c>
-      <c r="G113" s="9">
-        <f t="shared" si="5"/>
-        <v>849.25</v>
-      </c>
-      <c r="H113" s="9">
-        <f t="shared" si="5"/>
+      <c r="E118" s="9">
+        <f t="shared" si="11"/>
         <v>1019.0999999999999</v>
       </c>
-      <c r="J113" s="43">
-        <v>44</v>
-      </c>
-      <c r="K113" s="44"/>
-      <c r="L113" s="9">
-        <f>C73+C131</f>
-        <v>2901.3599999999997</v>
-      </c>
-      <c r="M113" s="9">
-        <f>D73+D131</f>
-        <v>5802.7199999999993</v>
-      </c>
-      <c r="N113" s="9">
-        <f>E73+E131</f>
-        <v>8704.08</v>
-      </c>
-      <c r="O113" s="9">
-        <f>F73+F131</f>
-        <v>11605.439999999999</v>
-      </c>
-      <c r="P113" s="9">
-        <f>G73+G131</f>
-        <v>14506.8</v>
-      </c>
-      <c r="Q113" s="9">
-        <f>H73+H131</f>
-        <v>17408.16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114" s="43">
-        <v>6</v>
-      </c>
-      <c r="B114" s="44"/>
-      <c r="C114" s="9">
-        <f t="shared" si="6"/>
-        <v>203.82</v>
-      </c>
-      <c r="D114" s="9">
-        <f t="shared" si="5"/>
-        <v>407.64</v>
-      </c>
-      <c r="E114" s="9">
-        <f t="shared" si="5"/>
-        <v>611.46</v>
-      </c>
-      <c r="F114" s="9">
-        <f t="shared" si="5"/>
-        <v>815.28</v>
-      </c>
-      <c r="G114" s="9">
-        <f t="shared" si="5"/>
-        <v>1019.0999999999999</v>
-      </c>
-      <c r="H114" s="9">
-        <f t="shared" si="5"/>
-        <v>1222.92</v>
-      </c>
-      <c r="J114" s="43">
-        <v>48</v>
-      </c>
-      <c r="K114" s="44"/>
-      <c r="L114" s="9">
-        <f>C74+C132</f>
-        <v>3165.12</v>
-      </c>
-      <c r="M114" s="9">
-        <f>D74+D132</f>
-        <v>6330.24</v>
-      </c>
-      <c r="N114" s="9">
-        <f>E74+E132</f>
-        <v>9495.36</v>
-      </c>
-      <c r="O114" s="9">
-        <f>F74+F132</f>
-        <v>12660.48</v>
-      </c>
-      <c r="P114" s="9">
-        <f>G74+G132</f>
-        <v>15825.599999999999</v>
-      </c>
-      <c r="Q114" s="9">
-        <f>H74+H132</f>
-        <v>18990.72</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="43">
-        <v>7</v>
-      </c>
-      <c r="B115" s="44"/>
-      <c r="C115" s="9">
-        <f t="shared" si="6"/>
-        <v>237.79</v>
-      </c>
-      <c r="D115" s="9">
-        <f t="shared" si="5"/>
-        <v>475.58</v>
-      </c>
-      <c r="E115" s="9">
-        <f t="shared" si="5"/>
-        <v>713.37</v>
-      </c>
-      <c r="F115" s="9">
-        <f t="shared" si="5"/>
-        <v>951.16</v>
-      </c>
-      <c r="G115" s="9">
-        <f t="shared" si="5"/>
-        <v>1188.95</v>
-      </c>
-      <c r="H115" s="9">
-        <f t="shared" si="5"/>
-        <v>1426.74</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A116" s="43">
-        <v>8</v>
-      </c>
-      <c r="B116" s="44"/>
-      <c r="C116" s="9">
-        <f t="shared" si="6"/>
-        <v>271.76</v>
-      </c>
-      <c r="D116" s="9">
-        <f t="shared" si="5"/>
-        <v>543.52</v>
-      </c>
-      <c r="E116" s="9">
-        <f t="shared" si="5"/>
-        <v>815.28</v>
-      </c>
-      <c r="F116" s="9">
-        <f t="shared" si="5"/>
-        <v>1087.04</v>
-      </c>
-      <c r="G116" s="9">
-        <f t="shared" si="5"/>
+      <c r="F118" s="9">
+        <f t="shared" si="11"/>
         <v>1358.8</v>
       </c>
-      <c r="H116" s="9">
-        <f t="shared" si="5"/>
-        <v>1630.56</v>
-      </c>
-      <c r="J116" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="K116" s="75"/>
-      <c r="L116" s="75"/>
-      <c r="M116" s="75"/>
-      <c r="N116" s="75"/>
-      <c r="O116" s="75"/>
-      <c r="P116" s="75"/>
-      <c r="Q116" s="76"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117" s="43">
-        <v>9</v>
-      </c>
-      <c r="B117" s="44"/>
-      <c r="C117" s="9">
-        <f t="shared" si="6"/>
-        <v>305.73</v>
-      </c>
-      <c r="D117" s="9">
-        <f t="shared" si="5"/>
-        <v>611.46</v>
-      </c>
-      <c r="E117" s="9">
-        <f t="shared" si="5"/>
-        <v>917.18999999999994</v>
-      </c>
-      <c r="F117" s="9">
-        <f t="shared" si="5"/>
-        <v>1222.92</v>
-      </c>
-      <c r="G117" s="9">
-        <f t="shared" si="5"/>
-        <v>1528.6499999999999</v>
-      </c>
-      <c r="H117" s="9">
-        <f t="shared" si="5"/>
-        <v>1834.3799999999999</v>
-      </c>
-      <c r="J117" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="K117" s="73"/>
-      <c r="L117" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="M117" s="63"/>
-      <c r="N117" s="63"/>
-      <c r="O117" s="63"/>
-      <c r="P117" s="63"/>
-      <c r="Q117" s="64"/>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="43">
-        <v>10</v>
-      </c>
-      <c r="B118" s="44"/>
-      <c r="C118" s="9">
-        <f t="shared" si="6"/>
-        <v>339.7</v>
-      </c>
-      <c r="D118" s="9">
-        <f t="shared" si="5"/>
-        <v>679.4</v>
-      </c>
-      <c r="E118" s="9">
-        <f t="shared" si="5"/>
-        <v>1019.0999999999999</v>
-      </c>
-      <c r="F118" s="9">
-        <f t="shared" si="5"/>
-        <v>1358.8</v>
-      </c>
       <c r="G118" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1698.5</v>
       </c>
       <c r="H118" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2038.1999999999998</v>
       </c>
-      <c r="J118" s="49" t="s">
+      <c r="J118" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="K118" s="50"/>
+      <c r="K118" s="51"/>
       <c r="L118" s="7">
         <v>1</v>
       </c>
@@ -5059,934 +5062,934 @@
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="43">
+      <c r="A119" s="48">
         <v>11</v>
       </c>
-      <c r="B119" s="44"/>
+      <c r="B119" s="49"/>
       <c r="C119" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>373.66999999999996</v>
       </c>
       <c r="D119" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>747.33999999999992</v>
       </c>
       <c r="E119" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1121.01</v>
       </c>
       <c r="F119" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1494.6799999999998</v>
       </c>
       <c r="G119" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1868.35</v>
       </c>
       <c r="H119" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2242.02</v>
       </c>
-      <c r="J119" s="43">
+      <c r="J119" s="48">
         <v>1</v>
       </c>
-      <c r="K119" s="44"/>
+      <c r="K119" s="49"/>
       <c r="L119" s="9">
-        <f>C79+C137</f>
+        <f t="shared" ref="L119:L142" si="13">C79+C137</f>
         <v>81.900000000000006</v>
       </c>
       <c r="M119" s="9">
-        <f>D79+D137</f>
+        <f t="shared" ref="M119:M142" si="14">D79+D137</f>
         <v>163.80000000000001</v>
       </c>
       <c r="N119" s="9">
-        <f>E79+E137</f>
+        <f t="shared" ref="N119:N142" si="15">E79+E137</f>
         <v>245.7</v>
       </c>
       <c r="O119" s="9">
-        <f>F79+F137</f>
+        <f t="shared" ref="O119:O142" si="16">F79+F137</f>
         <v>327.60000000000002</v>
       </c>
       <c r="P119" s="9">
-        <f>G79+G137</f>
+        <f t="shared" ref="P119:P142" si="17">G79+G137</f>
         <v>409.5</v>
       </c>
       <c r="Q119" s="9">
-        <f>H79+H137</f>
+        <f t="shared" ref="Q119:Q142" si="18">H79+H137</f>
         <v>491.4</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="43">
+      <c r="A120" s="48">
         <v>12</v>
       </c>
-      <c r="B120" s="44"/>
+      <c r="B120" s="49"/>
       <c r="C120" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>407.64</v>
       </c>
       <c r="D120" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>815.28</v>
       </c>
       <c r="E120" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1222.92</v>
       </c>
       <c r="F120" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1630.56</v>
       </c>
       <c r="G120" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2038.1999999999998</v>
       </c>
       <c r="H120" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2445.84</v>
       </c>
-      <c r="J120" s="43">
+      <c r="J120" s="48">
         <v>2</v>
       </c>
-      <c r="K120" s="44"/>
+      <c r="K120" s="49"/>
       <c r="L120" s="9">
-        <f>C80+C138</f>
+        <f t="shared" si="13"/>
         <v>163.80000000000001</v>
       </c>
       <c r="M120" s="9">
-        <f>D80+D138</f>
+        <f t="shared" si="14"/>
         <v>327.60000000000002</v>
       </c>
       <c r="N120" s="9">
-        <f>E80+E138</f>
+        <f t="shared" si="15"/>
         <v>491.4</v>
       </c>
       <c r="O120" s="9">
-        <f>F80+F138</f>
+        <f t="shared" si="16"/>
         <v>655.20000000000005</v>
       </c>
       <c r="P120" s="9">
-        <f>G80+G138</f>
+        <f t="shared" si="17"/>
         <v>819</v>
       </c>
       <c r="Q120" s="9">
-        <f>H80+H138</f>
+        <f t="shared" si="18"/>
         <v>982.8</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="43">
+      <c r="A121" s="48">
         <v>14</v>
       </c>
-      <c r="B121" s="44"/>
+      <c r="B121" s="49"/>
       <c r="C121" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>475.58</v>
       </c>
       <c r="D121" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>951.16</v>
       </c>
       <c r="E121" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1426.74</v>
       </c>
       <c r="F121" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1902.32</v>
       </c>
       <c r="G121" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2377.9</v>
       </c>
       <c r="H121" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2853.48</v>
       </c>
-      <c r="J121" s="43">
+      <c r="J121" s="48">
         <v>3</v>
       </c>
-      <c r="K121" s="44"/>
+      <c r="K121" s="49"/>
       <c r="L121" s="9">
-        <f>C81+C139</f>
+        <f t="shared" si="13"/>
         <v>245.70000000000002</v>
       </c>
       <c r="M121" s="9">
-        <f>D81+D139</f>
+        <f t="shared" si="14"/>
         <v>491.40000000000003</v>
       </c>
       <c r="N121" s="9">
-        <f>E81+E139</f>
+        <f t="shared" si="15"/>
         <v>737.09999999999991</v>
       </c>
       <c r="O121" s="9">
-        <f>F81+F139</f>
+        <f t="shared" si="16"/>
         <v>982.80000000000007</v>
       </c>
       <c r="P121" s="9">
-        <f>G81+G139</f>
+        <f t="shared" si="17"/>
         <v>1228.5</v>
       </c>
       <c r="Q121" s="9">
-        <f>H81+H139</f>
+        <f t="shared" si="18"/>
         <v>1474.1999999999998</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A122" s="43">
+      <c r="A122" s="48">
         <v>16</v>
       </c>
-      <c r="B122" s="44"/>
+      <c r="B122" s="49"/>
       <c r="C122" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>543.52</v>
       </c>
       <c r="D122" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1087.04</v>
       </c>
       <c r="E122" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1630.56</v>
       </c>
       <c r="F122" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2174.08</v>
       </c>
       <c r="G122" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2717.6</v>
       </c>
       <c r="H122" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3261.12</v>
       </c>
-      <c r="J122" s="43">
+      <c r="J122" s="48">
         <v>4</v>
       </c>
-      <c r="K122" s="44"/>
+      <c r="K122" s="49"/>
       <c r="L122" s="9">
-        <f>C82+C140</f>
+        <f t="shared" si="13"/>
         <v>327.60000000000002</v>
       </c>
       <c r="M122" s="9">
-        <f>D82+D140</f>
+        <f t="shared" si="14"/>
         <v>655.20000000000005</v>
       </c>
       <c r="N122" s="9">
-        <f>E82+E140</f>
+        <f t="shared" si="15"/>
         <v>982.8</v>
       </c>
       <c r="O122" s="9">
-        <f>F82+F140</f>
+        <f t="shared" si="16"/>
         <v>1310.4000000000001</v>
       </c>
       <c r="P122" s="9">
-        <f>G82+G140</f>
+        <f t="shared" si="17"/>
         <v>1638</v>
       </c>
       <c r="Q122" s="9">
-        <f>H82+H140</f>
+        <f t="shared" si="18"/>
         <v>1965.6</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A123" s="43">
+      <c r="A123" s="48">
         <v>18</v>
       </c>
-      <c r="B123" s="44"/>
+      <c r="B123" s="49"/>
       <c r="C123" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>611.46</v>
       </c>
       <c r="D123" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1222.92</v>
       </c>
       <c r="E123" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1834.3799999999999</v>
       </c>
       <c r="F123" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2445.84</v>
       </c>
       <c r="G123" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3057.2999999999997</v>
       </c>
       <c r="H123" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3668.7599999999998</v>
       </c>
-      <c r="J123" s="43">
+      <c r="J123" s="48">
         <v>5</v>
       </c>
-      <c r="K123" s="44"/>
+      <c r="K123" s="49"/>
       <c r="L123" s="9">
-        <f>C83+C141</f>
+        <f t="shared" si="13"/>
         <v>409.5</v>
       </c>
       <c r="M123" s="9">
-        <f>D83+D141</f>
+        <f t="shared" si="14"/>
         <v>819</v>
       </c>
       <c r="N123" s="9">
-        <f>E83+E141</f>
+        <f t="shared" si="15"/>
         <v>1228.5</v>
       </c>
       <c r="O123" s="9">
-        <f>F83+F141</f>
+        <f t="shared" si="16"/>
         <v>1638</v>
       </c>
       <c r="P123" s="9">
-        <f>G83+G141</f>
+        <f t="shared" si="17"/>
         <v>2047.5</v>
       </c>
       <c r="Q123" s="9">
-        <f>H83+H141</f>
+        <f t="shared" si="18"/>
         <v>2457</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A124" s="43">
+      <c r="A124" s="48">
         <v>20</v>
       </c>
-      <c r="B124" s="44"/>
+      <c r="B124" s="49"/>
       <c r="C124" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>679.4</v>
       </c>
       <c r="D124" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1358.8</v>
       </c>
       <c r="E124" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2038.1999999999998</v>
       </c>
       <c r="F124" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2717.6</v>
       </c>
       <c r="G124" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3397</v>
       </c>
       <c r="H124" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4076.3999999999996</v>
       </c>
-      <c r="J124" s="43">
+      <c r="J124" s="48">
         <v>6</v>
       </c>
-      <c r="K124" s="44"/>
+      <c r="K124" s="49"/>
       <c r="L124" s="9">
-        <f>C84+C142</f>
+        <f t="shared" si="13"/>
         <v>491.40000000000003</v>
       </c>
       <c r="M124" s="9">
-        <f>D84+D142</f>
+        <f t="shared" si="14"/>
         <v>982.80000000000007</v>
       </c>
       <c r="N124" s="9">
-        <f>E84+E142</f>
+        <f t="shared" si="15"/>
         <v>1474.1999999999998</v>
       </c>
       <c r="O124" s="9">
-        <f>F84+F142</f>
+        <f t="shared" si="16"/>
         <v>1965.6000000000001</v>
       </c>
       <c r="P124" s="9">
-        <f>G84+G142</f>
+        <f t="shared" si="17"/>
         <v>2457</v>
       </c>
       <c r="Q124" s="9">
-        <f>H84+H142</f>
+        <f t="shared" si="18"/>
         <v>2948.3999999999996</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A125" s="43">
+      <c r="A125" s="48">
         <v>22</v>
       </c>
-      <c r="B125" s="44"/>
+      <c r="B125" s="49"/>
       <c r="C125" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>747.33999999999992</v>
       </c>
       <c r="D125" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1494.6799999999998</v>
       </c>
       <c r="E125" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2242.02</v>
       </c>
       <c r="F125" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2989.3599999999997</v>
       </c>
       <c r="G125" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3736.7</v>
       </c>
       <c r="H125" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4484.04</v>
       </c>
-      <c r="J125" s="43">
+      <c r="J125" s="48">
         <v>7</v>
       </c>
-      <c r="K125" s="44"/>
+      <c r="K125" s="49"/>
       <c r="L125" s="9">
-        <f>C85+C143</f>
+        <f t="shared" si="13"/>
         <v>573.29999999999995</v>
       </c>
       <c r="M125" s="9">
-        <f>D85+D143</f>
+        <f t="shared" si="14"/>
         <v>1146.5999999999999</v>
       </c>
       <c r="N125" s="9">
-        <f>E85+E143</f>
+        <f t="shared" si="15"/>
         <v>1719.8999999999999</v>
       </c>
       <c r="O125" s="9">
-        <f>F85+F143</f>
+        <f t="shared" si="16"/>
         <v>2293.1999999999998</v>
       </c>
       <c r="P125" s="9">
-        <f>G85+G143</f>
+        <f t="shared" si="17"/>
         <v>2866.5</v>
       </c>
       <c r="Q125" s="9">
-        <f>H85+H143</f>
+        <f t="shared" si="18"/>
         <v>3439.7999999999997</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A126" s="43">
+      <c r="A126" s="48">
         <v>24</v>
       </c>
-      <c r="B126" s="44"/>
+      <c r="B126" s="49"/>
       <c r="C126" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>815.28</v>
       </c>
       <c r="D126" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1630.56</v>
       </c>
       <c r="E126" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2445.84</v>
       </c>
       <c r="F126" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3261.12</v>
       </c>
       <c r="G126" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4076.3999999999996</v>
       </c>
       <c r="H126" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4891.68</v>
       </c>
-      <c r="J126" s="43">
+      <c r="J126" s="48">
         <v>8</v>
       </c>
-      <c r="K126" s="44"/>
+      <c r="K126" s="49"/>
       <c r="L126" s="9">
-        <f>C86+C144</f>
+        <f t="shared" si="13"/>
         <v>655.20000000000005</v>
       </c>
       <c r="M126" s="9">
-        <f>D86+D144</f>
+        <f t="shared" si="14"/>
         <v>1310.4000000000001</v>
       </c>
       <c r="N126" s="9">
-        <f>E86+E144</f>
+        <f t="shared" si="15"/>
         <v>1965.6</v>
       </c>
       <c r="O126" s="9">
-        <f>F86+F144</f>
+        <f t="shared" si="16"/>
         <v>2620.8000000000002</v>
       </c>
       <c r="P126" s="9">
-        <f>G86+G144</f>
+        <f t="shared" si="17"/>
         <v>3276</v>
       </c>
       <c r="Q126" s="9">
-        <f>H86+H144</f>
+        <f t="shared" si="18"/>
         <v>3931.2</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A127" s="43">
+      <c r="A127" s="48">
         <v>28</v>
       </c>
-      <c r="B127" s="44"/>
+      <c r="B127" s="49"/>
       <c r="C127" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>951.16</v>
       </c>
       <c r="D127" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1902.32</v>
       </c>
       <c r="E127" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2853.48</v>
       </c>
       <c r="F127" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3804.64</v>
       </c>
       <c r="G127" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4755.8</v>
       </c>
       <c r="H127" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5706.96</v>
       </c>
-      <c r="J127" s="43">
+      <c r="J127" s="48">
         <v>9</v>
       </c>
-      <c r="K127" s="44"/>
+      <c r="K127" s="49"/>
       <c r="L127" s="9">
-        <f>C87+C145</f>
+        <f t="shared" si="13"/>
         <v>737.09999999999991</v>
       </c>
       <c r="M127" s="9">
-        <f>D87+D145</f>
+        <f t="shared" si="14"/>
         <v>1474.1999999999998</v>
       </c>
       <c r="N127" s="9">
-        <f>E87+E145</f>
+        <f t="shared" si="15"/>
         <v>2211.2999999999997</v>
       </c>
       <c r="O127" s="9">
-        <f>F87+F145</f>
+        <f t="shared" si="16"/>
         <v>2948.3999999999996</v>
       </c>
       <c r="P127" s="9">
-        <f>G87+G145</f>
+        <f t="shared" si="17"/>
         <v>3685.5</v>
       </c>
       <c r="Q127" s="9">
-        <f>H87+H145</f>
+        <f t="shared" si="18"/>
         <v>4422.5999999999995</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A128" s="43">
+      <c r="A128" s="48">
         <v>32</v>
       </c>
-      <c r="B128" s="44"/>
+      <c r="B128" s="49"/>
       <c r="C128" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1087.04</v>
       </c>
       <c r="D128" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2174.08</v>
       </c>
       <c r="E128" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3261.12</v>
       </c>
       <c r="F128" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4348.16</v>
       </c>
       <c r="G128" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5435.2</v>
       </c>
       <c r="H128" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6522.24</v>
       </c>
-      <c r="J128" s="43">
+      <c r="J128" s="48">
         <v>10</v>
       </c>
-      <c r="K128" s="44"/>
+      <c r="K128" s="49"/>
       <c r="L128" s="9">
-        <f>C88+C146</f>
+        <f t="shared" si="13"/>
         <v>819</v>
       </c>
       <c r="M128" s="9">
-        <f>D88+D146</f>
+        <f t="shared" si="14"/>
         <v>1638</v>
       </c>
       <c r="N128" s="9">
-        <f>E88+E146</f>
+        <f t="shared" si="15"/>
         <v>2457</v>
       </c>
       <c r="O128" s="9">
-        <f>F88+F146</f>
+        <f t="shared" si="16"/>
         <v>3276</v>
       </c>
       <c r="P128" s="9">
-        <f>G88+G146</f>
+        <f t="shared" si="17"/>
         <v>4095</v>
       </c>
       <c r="Q128" s="9">
-        <f>H88+H146</f>
+        <f t="shared" si="18"/>
         <v>4914</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A129" s="43">
+      <c r="A129" s="48">
         <v>36</v>
       </c>
-      <c r="B129" s="44"/>
+      <c r="B129" s="49"/>
       <c r="C129" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1222.92</v>
       </c>
       <c r="D129" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2445.84</v>
       </c>
       <c r="E129" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3668.7599999999998</v>
       </c>
       <c r="F129" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4891.68</v>
       </c>
       <c r="G129" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6114.5999999999995</v>
       </c>
       <c r="H129" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7337.5199999999995</v>
       </c>
-      <c r="J129" s="43">
+      <c r="J129" s="48">
         <v>11</v>
       </c>
-      <c r="K129" s="44"/>
+      <c r="K129" s="49"/>
       <c r="L129" s="9">
-        <f>C89+C147</f>
+        <f t="shared" si="13"/>
         <v>900.9</v>
       </c>
       <c r="M129" s="9">
-        <f>D89+D147</f>
+        <f t="shared" si="14"/>
         <v>1801.8</v>
       </c>
       <c r="N129" s="9">
-        <f>E89+E147</f>
+        <f t="shared" si="15"/>
         <v>2702.7</v>
       </c>
       <c r="O129" s="9">
-        <f>F89+F147</f>
+        <f t="shared" si="16"/>
         <v>3603.6</v>
       </c>
       <c r="P129" s="9">
-        <f>G89+G147</f>
+        <f t="shared" si="17"/>
         <v>4504.5</v>
       </c>
       <c r="Q129" s="9">
-        <f>H89+H147</f>
+        <f t="shared" si="18"/>
         <v>5405.4</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A130" s="43">
+      <c r="A130" s="48">
         <v>40</v>
       </c>
-      <c r="B130" s="44"/>
+      <c r="B130" s="49"/>
       <c r="C130" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1358.8</v>
       </c>
       <c r="D130" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2717.6</v>
       </c>
       <c r="E130" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4076.3999999999996</v>
       </c>
       <c r="F130" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5435.2</v>
       </c>
       <c r="G130" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6794</v>
       </c>
       <c r="H130" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>8152.7999999999993</v>
       </c>
-      <c r="J130" s="43">
+      <c r="J130" s="48">
         <v>12</v>
       </c>
-      <c r="K130" s="44"/>
+      <c r="K130" s="49"/>
       <c r="L130" s="9">
-        <f>C90+C148</f>
+        <f t="shared" si="13"/>
         <v>982.80000000000007</v>
       </c>
       <c r="M130" s="9">
-        <f>D90+D148</f>
+        <f t="shared" si="14"/>
         <v>1965.6000000000001</v>
       </c>
       <c r="N130" s="9">
-        <f>E90+E148</f>
+        <f t="shared" si="15"/>
         <v>2948.3999999999996</v>
       </c>
       <c r="O130" s="9">
-        <f>F90+F148</f>
+        <f t="shared" si="16"/>
         <v>3931.2000000000003</v>
       </c>
       <c r="P130" s="9">
-        <f>G90+G148</f>
+        <f t="shared" si="17"/>
         <v>4914</v>
       </c>
       <c r="Q130" s="9">
-        <f>H90+H148</f>
+        <f t="shared" si="18"/>
         <v>5896.7999999999993</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A131" s="43">
+      <c r="A131" s="48">
         <v>44</v>
       </c>
-      <c r="B131" s="44"/>
+      <c r="B131" s="49"/>
       <c r="C131" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1494.6799999999998</v>
       </c>
       <c r="D131" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2989.3599999999997</v>
       </c>
       <c r="E131" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4484.04</v>
       </c>
       <c r="F131" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5978.7199999999993</v>
       </c>
       <c r="G131" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7473.4</v>
       </c>
       <c r="H131" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>8968.08</v>
       </c>
-      <c r="J131" s="43">
+      <c r="J131" s="48">
         <v>14</v>
       </c>
-      <c r="K131" s="44"/>
+      <c r="K131" s="49"/>
       <c r="L131" s="9">
-        <f>C91+C149</f>
+        <f t="shared" si="13"/>
         <v>1146.5999999999999</v>
       </c>
       <c r="M131" s="9">
-        <f>D91+D149</f>
+        <f t="shared" si="14"/>
         <v>2293.1999999999998</v>
       </c>
       <c r="N131" s="9">
-        <f>E91+E149</f>
+        <f t="shared" si="15"/>
         <v>3439.7999999999997</v>
       </c>
       <c r="O131" s="9">
-        <f>F91+F149</f>
+        <f t="shared" si="16"/>
         <v>4586.3999999999996</v>
       </c>
       <c r="P131" s="9">
-        <f>G91+G149</f>
+        <f t="shared" si="17"/>
         <v>5733</v>
       </c>
       <c r="Q131" s="9">
-        <f>H91+H149</f>
+        <f t="shared" si="18"/>
         <v>6879.5999999999995</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A132" s="43">
+      <c r="A132" s="48">
         <v>48</v>
       </c>
-      <c r="B132" s="44"/>
+      <c r="B132" s="49"/>
       <c r="C132" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1630.56</v>
       </c>
       <c r="D132" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3261.12</v>
       </c>
       <c r="E132" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4891.68</v>
       </c>
       <c r="F132" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6522.24</v>
       </c>
       <c r="G132" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>8152.7999999999993</v>
       </c>
       <c r="H132" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>9783.36</v>
       </c>
-      <c r="J132" s="43">
+      <c r="J132" s="48">
         <v>16</v>
       </c>
-      <c r="K132" s="44"/>
+      <c r="K132" s="49"/>
       <c r="L132" s="9">
-        <f>C92+C150</f>
+        <f t="shared" si="13"/>
         <v>1310.4000000000001</v>
       </c>
       <c r="M132" s="9">
-        <f>D92+D150</f>
+        <f t="shared" si="14"/>
         <v>2620.8000000000002</v>
       </c>
       <c r="N132" s="9">
-        <f>E92+E150</f>
+        <f t="shared" si="15"/>
         <v>3931.2</v>
       </c>
       <c r="O132" s="9">
-        <f>F92+F150</f>
+        <f t="shared" si="16"/>
         <v>5241.6000000000004</v>
       </c>
       <c r="P132" s="9">
-        <f>G92+G150</f>
+        <f t="shared" si="17"/>
         <v>6552</v>
       </c>
       <c r="Q132" s="9">
-        <f>H92+H150</f>
+        <f t="shared" si="18"/>
         <v>7862.4</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J133" s="43">
+      <c r="J133" s="48">
         <v>18</v>
       </c>
-      <c r="K133" s="44"/>
+      <c r="K133" s="49"/>
       <c r="L133" s="9">
-        <f>C93+C151</f>
+        <f t="shared" si="13"/>
         <v>1474.1999999999998</v>
       </c>
       <c r="M133" s="9">
-        <f>D93+D151</f>
+        <f t="shared" si="14"/>
         <v>2948.3999999999996</v>
       </c>
       <c r="N133" s="9">
-        <f>E93+E151</f>
+        <f t="shared" si="15"/>
         <v>4422.5999999999995</v>
       </c>
       <c r="O133" s="9">
-        <f>F93+F151</f>
+        <f t="shared" si="16"/>
         <v>5896.7999999999993</v>
       </c>
       <c r="P133" s="9">
-        <f>G93+G151</f>
+        <f t="shared" si="17"/>
         <v>7371</v>
       </c>
       <c r="Q133" s="9">
-        <f>H93+H151</f>
+        <f t="shared" si="18"/>
         <v>8845.1999999999989</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A134" s="46" t="s">
+      <c r="A134" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B134" s="46"/>
-      <c r="C134" s="46"/>
-      <c r="D134" s="46"/>
-      <c r="E134" s="46"/>
-      <c r="F134" s="46"/>
-      <c r="G134" s="46"/>
-      <c r="H134" s="46"/>
-      <c r="J134" s="43">
+      <c r="B134" s="52"/>
+      <c r="C134" s="52"/>
+      <c r="D134" s="52"/>
+      <c r="E134" s="52"/>
+      <c r="F134" s="52"/>
+      <c r="G134" s="52"/>
+      <c r="H134" s="52"/>
+      <c r="J134" s="48">
         <v>20</v>
       </c>
-      <c r="K134" s="44"/>
+      <c r="K134" s="49"/>
       <c r="L134" s="9">
-        <f>C94+C152</f>
+        <f t="shared" si="13"/>
         <v>1638</v>
       </c>
       <c r="M134" s="9">
-        <f>D94+D152</f>
+        <f t="shared" si="14"/>
         <v>3276</v>
       </c>
       <c r="N134" s="9">
-        <f>E94+E152</f>
+        <f t="shared" si="15"/>
         <v>4914</v>
       </c>
       <c r="O134" s="9">
-        <f>F94+F152</f>
+        <f t="shared" si="16"/>
         <v>6552</v>
       </c>
       <c r="P134" s="9">
-        <f>G94+G152</f>
+        <f t="shared" si="17"/>
         <v>8190</v>
       </c>
       <c r="Q134" s="9">
-        <f>H94+H152</f>
+        <f t="shared" si="18"/>
         <v>9828</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A135" s="47" t="s">
+      <c r="A135" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B135" s="47"/>
-      <c r="C135" s="48" t="s">
+      <c r="B135" s="53"/>
+      <c r="C135" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D135" s="48"/>
-      <c r="E135" s="48"/>
-      <c r="F135" s="48"/>
-      <c r="G135" s="48"/>
-      <c r="H135" s="48"/>
-      <c r="J135" s="43">
+      <c r="D135" s="54"/>
+      <c r="E135" s="54"/>
+      <c r="F135" s="54"/>
+      <c r="G135" s="54"/>
+      <c r="H135" s="54"/>
+      <c r="J135" s="48">
         <v>22</v>
       </c>
-      <c r="K135" s="44"/>
+      <c r="K135" s="49"/>
       <c r="L135" s="9">
-        <f>C95+C153</f>
+        <f t="shared" si="13"/>
         <v>1801.8</v>
       </c>
       <c r="M135" s="9">
-        <f>D95+D153</f>
+        <f t="shared" si="14"/>
         <v>3603.6</v>
       </c>
       <c r="N135" s="9">
-        <f>E95+E153</f>
+        <f t="shared" si="15"/>
         <v>5405.4</v>
       </c>
       <c r="O135" s="9">
-        <f>F95+F153</f>
+        <f t="shared" si="16"/>
         <v>7207.2</v>
       </c>
       <c r="P135" s="9">
-        <f>G95+G153</f>
+        <f t="shared" si="17"/>
         <v>9009</v>
       </c>
       <c r="Q135" s="9">
-        <f>H95+H153</f>
+        <f t="shared" si="18"/>
         <v>10810.8</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A136" s="49" t="s">
+      <c r="A136" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B136" s="50"/>
+      <c r="B136" s="51"/>
       <c r="C136" s="7">
         <v>1</v>
       </c>
@@ -6005,939 +6008,1089 @@
       <c r="H136" s="8">
         <v>6</v>
       </c>
-      <c r="J136" s="43">
+      <c r="J136" s="48">
         <v>24</v>
       </c>
-      <c r="K136" s="44"/>
+      <c r="K136" s="49"/>
       <c r="L136" s="9">
-        <f>C96+C154</f>
+        <f t="shared" si="13"/>
         <v>1965.6000000000001</v>
       </c>
       <c r="M136" s="9">
-        <f>D96+D154</f>
+        <f t="shared" si="14"/>
         <v>3931.2000000000003</v>
       </c>
       <c r="N136" s="9">
-        <f>E96+E154</f>
+        <f t="shared" si="15"/>
         <v>5896.7999999999993</v>
       </c>
       <c r="O136" s="9">
-        <f>F96+F154</f>
+        <f t="shared" si="16"/>
         <v>7862.4000000000005</v>
       </c>
       <c r="P136" s="9">
-        <f>G96+G154</f>
+        <f t="shared" si="17"/>
         <v>9828</v>
       </c>
       <c r="Q136" s="9">
-        <f>H96+H154</f>
+        <f t="shared" si="18"/>
         <v>11793.599999999999</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A137" s="43">
+      <c r="A137" s="48">
         <v>1</v>
       </c>
-      <c r="B137" s="44"/>
+      <c r="B137" s="49"/>
       <c r="C137" s="9">
         <f>$A137 * (C$136 * $N$22 + C$136 * 4 * $N$24)</f>
         <v>37.949999999999996</v>
       </c>
       <c r="D137" s="9">
-        <f t="shared" ref="D137:H152" si="7">$A137 * (D$136 * $N$22 + D$136 * 4 * $N$24)</f>
+        <f t="shared" ref="D137:H152" si="19">$A137 * (D$136 * $N$22 + D$136 * 4 * $N$24)</f>
         <v>75.899999999999991</v>
       </c>
       <c r="E137" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>113.85</v>
       </c>
       <c r="F137" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>151.79999999999998</v>
       </c>
       <c r="G137" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>189.75</v>
       </c>
       <c r="H137" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>227.7</v>
       </c>
-      <c r="J137" s="43">
+      <c r="J137" s="48">
         <v>28</v>
       </c>
-      <c r="K137" s="44"/>
+      <c r="K137" s="49"/>
       <c r="L137" s="9">
-        <f>C97+C155</f>
+        <f t="shared" si="13"/>
         <v>2293.1999999999998</v>
       </c>
       <c r="M137" s="9">
-        <f>D97+D155</f>
+        <f t="shared" si="14"/>
         <v>4586.3999999999996</v>
       </c>
       <c r="N137" s="9">
-        <f>E97+E155</f>
+        <f t="shared" si="15"/>
         <v>6879.5999999999995</v>
       </c>
       <c r="O137" s="9">
-        <f>F97+F155</f>
+        <f t="shared" si="16"/>
         <v>9172.7999999999993</v>
       </c>
       <c r="P137" s="9">
-        <f>G97+G155</f>
+        <f t="shared" si="17"/>
         <v>11466</v>
       </c>
       <c r="Q137" s="9">
-        <f>H97+H155</f>
+        <f t="shared" si="18"/>
         <v>13759.199999999999</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A138" s="43">
+      <c r="A138" s="48">
         <v>2</v>
       </c>
-      <c r="B138" s="44"/>
+      <c r="B138" s="49"/>
       <c r="C138" s="9">
-        <f t="shared" ref="C138:H160" si="8">$A138 * (C$136 * $N$22 + C$136 * 4 * $N$24)</f>
+        <f t="shared" ref="C138:H160" si="20">$A138 * (C$136 * $N$22 + C$136 * 4 * $N$24)</f>
         <v>75.899999999999991</v>
       </c>
       <c r="D138" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>151.79999999999998</v>
       </c>
       <c r="E138" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>227.7</v>
       </c>
       <c r="F138" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>303.59999999999997</v>
       </c>
       <c r="G138" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>379.5</v>
       </c>
       <c r="H138" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>455.4</v>
       </c>
-      <c r="J138" s="43">
+      <c r="J138" s="48">
         <v>32</v>
       </c>
-      <c r="K138" s="44"/>
+      <c r="K138" s="49"/>
       <c r="L138" s="9">
-        <f>C98+C156</f>
+        <f t="shared" si="13"/>
         <v>2620.8000000000002</v>
       </c>
       <c r="M138" s="9">
-        <f>D98+D156</f>
+        <f t="shared" si="14"/>
         <v>5241.6000000000004</v>
       </c>
       <c r="N138" s="9">
-        <f>E98+E156</f>
+        <f t="shared" si="15"/>
         <v>7862.4</v>
       </c>
       <c r="O138" s="9">
-        <f>F98+F156</f>
+        <f t="shared" si="16"/>
         <v>10483.200000000001</v>
       </c>
       <c r="P138" s="9">
-        <f>G98+G156</f>
+        <f t="shared" si="17"/>
         <v>13104</v>
       </c>
       <c r="Q138" s="9">
-        <f>H98+H156</f>
+        <f t="shared" si="18"/>
         <v>15724.8</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A139" s="43">
+      <c r="A139" s="48">
         <v>3</v>
       </c>
-      <c r="B139" s="44"/>
+      <c r="B139" s="49"/>
       <c r="C139" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>113.85</v>
       </c>
       <c r="D139" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>227.7</v>
       </c>
       <c r="E139" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>341.54999999999995</v>
       </c>
       <c r="F139" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>455.4</v>
       </c>
       <c r="G139" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>569.25</v>
       </c>
       <c r="H139" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>683.09999999999991</v>
       </c>
-      <c r="J139" s="43">
+      <c r="J139" s="48">
         <v>36</v>
       </c>
-      <c r="K139" s="44"/>
+      <c r="K139" s="49"/>
       <c r="L139" s="9">
-        <f>C99+C157</f>
+        <f t="shared" si="13"/>
         <v>2948.3999999999996</v>
       </c>
       <c r="M139" s="9">
-        <f>D99+D157</f>
+        <f t="shared" si="14"/>
         <v>5896.7999999999993</v>
       </c>
       <c r="N139" s="9">
-        <f>E99+E157</f>
+        <f t="shared" si="15"/>
         <v>8845.1999999999989</v>
       </c>
       <c r="O139" s="9">
-        <f>F99+F157</f>
+        <f t="shared" si="16"/>
         <v>11793.599999999999</v>
       </c>
       <c r="P139" s="9">
-        <f>G99+G157</f>
+        <f t="shared" si="17"/>
         <v>14742</v>
       </c>
       <c r="Q139" s="9">
-        <f>H99+H157</f>
+        <f t="shared" si="18"/>
         <v>17690.399999999998</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A140" s="43">
+      <c r="A140" s="48">
         <v>4</v>
       </c>
-      <c r="B140" s="44"/>
+      <c r="B140" s="49"/>
       <c r="C140" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>151.79999999999998</v>
       </c>
       <c r="D140" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>303.59999999999997</v>
       </c>
       <c r="E140" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>455.4</v>
       </c>
       <c r="F140" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>607.19999999999993</v>
       </c>
       <c r="G140" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>759</v>
       </c>
       <c r="H140" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>910.8</v>
       </c>
-      <c r="J140" s="43">
+      <c r="J140" s="48">
         <v>40</v>
       </c>
-      <c r="K140" s="44"/>
+      <c r="K140" s="49"/>
       <c r="L140" s="9">
-        <f>C100+C158</f>
+        <f t="shared" si="13"/>
         <v>3276</v>
       </c>
       <c r="M140" s="9">
-        <f>D100+D158</f>
+        <f t="shared" si="14"/>
         <v>6552</v>
       </c>
       <c r="N140" s="9">
-        <f>E100+E158</f>
+        <f t="shared" si="15"/>
         <v>9828</v>
       </c>
       <c r="O140" s="9">
-        <f>F100+F158</f>
+        <f t="shared" si="16"/>
         <v>13104</v>
       </c>
       <c r="P140" s="9">
-        <f>G100+G158</f>
+        <f t="shared" si="17"/>
         <v>16380</v>
       </c>
       <c r="Q140" s="9">
-        <f>H100+H158</f>
+        <f t="shared" si="18"/>
         <v>19656</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A141" s="43">
+      <c r="A141" s="48">
         <v>5</v>
       </c>
-      <c r="B141" s="44"/>
+      <c r="B141" s="49"/>
       <c r="C141" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>189.74999999999997</v>
       </c>
       <c r="D141" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>379.49999999999994</v>
       </c>
       <c r="E141" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>569.25</v>
       </c>
       <c r="F141" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>758.99999999999989</v>
       </c>
       <c r="G141" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>948.75</v>
       </c>
       <c r="H141" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1138.5</v>
       </c>
-      <c r="J141" s="43">
+      <c r="J141" s="48">
         <v>44</v>
       </c>
-      <c r="K141" s="44"/>
+      <c r="K141" s="49"/>
       <c r="L141" s="9">
-        <f>C101+C159</f>
+        <f t="shared" si="13"/>
         <v>3603.6</v>
       </c>
       <c r="M141" s="9">
-        <f>D101+D159</f>
+        <f t="shared" si="14"/>
         <v>7207.2</v>
       </c>
       <c r="N141" s="9">
-        <f>E101+E159</f>
+        <f t="shared" si="15"/>
         <v>10810.8</v>
       </c>
       <c r="O141" s="9">
-        <f>F101+F159</f>
+        <f t="shared" si="16"/>
         <v>14414.4</v>
       </c>
       <c r="P141" s="9">
-        <f>G101+G159</f>
+        <f t="shared" si="17"/>
         <v>18018</v>
       </c>
       <c r="Q141" s="9">
-        <f>H101+H159</f>
+        <f t="shared" si="18"/>
         <v>21621.599999999999</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A142" s="43">
+      <c r="A142" s="48">
         <v>6</v>
       </c>
-      <c r="B142" s="44"/>
+      <c r="B142" s="49"/>
       <c r="C142" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>227.7</v>
       </c>
       <c r="D142" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>455.4</v>
       </c>
       <c r="E142" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>683.09999999999991</v>
       </c>
       <c r="F142" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>910.8</v>
       </c>
       <c r="G142" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1138.5</v>
       </c>
       <c r="H142" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1366.1999999999998</v>
       </c>
-      <c r="J142" s="43">
+      <c r="J142" s="48">
         <v>48</v>
       </c>
-      <c r="K142" s="44"/>
+      <c r="K142" s="49"/>
       <c r="L142" s="9">
-        <f>C102+C160</f>
+        <f t="shared" si="13"/>
         <v>3931.2000000000003</v>
       </c>
       <c r="M142" s="9">
-        <f>D102+D160</f>
+        <f t="shared" si="14"/>
         <v>7862.4000000000005</v>
       </c>
       <c r="N142" s="9">
-        <f>E102+E160</f>
+        <f t="shared" si="15"/>
         <v>11793.599999999999</v>
       </c>
       <c r="O142" s="9">
-        <f>F102+F160</f>
+        <f t="shared" si="16"/>
         <v>15724.800000000001</v>
       </c>
       <c r="P142" s="9">
-        <f>G102+G160</f>
+        <f t="shared" si="17"/>
         <v>19656</v>
       </c>
       <c r="Q142" s="9">
-        <f>H102+H160</f>
+        <f t="shared" si="18"/>
         <v>23587.199999999997</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A143" s="43">
+      <c r="A143" s="48">
         <v>7</v>
       </c>
-      <c r="B143" s="44"/>
+      <c r="B143" s="49"/>
       <c r="C143" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>265.64999999999998</v>
       </c>
       <c r="D143" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>531.29999999999995</v>
       </c>
       <c r="E143" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>796.94999999999993</v>
       </c>
       <c r="F143" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1062.5999999999999</v>
       </c>
       <c r="G143" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1328.25</v>
       </c>
       <c r="H143" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1593.8999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A144" s="43">
+      <c r="A144" s="48">
         <v>8</v>
       </c>
-      <c r="B144" s="44"/>
+      <c r="B144" s="49"/>
       <c r="C144" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>303.59999999999997</v>
       </c>
       <c r="D144" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>607.19999999999993</v>
       </c>
       <c r="E144" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>910.8</v>
       </c>
       <c r="F144" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1214.3999999999999</v>
       </c>
       <c r="G144" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1518</v>
       </c>
       <c r="H144" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1821.6</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="43">
+      <c r="A145" s="48">
         <v>9</v>
       </c>
-      <c r="B145" s="44"/>
+      <c r="B145" s="49"/>
       <c r="C145" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>341.54999999999995</v>
       </c>
       <c r="D145" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>683.09999999999991</v>
       </c>
       <c r="E145" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1024.6499999999999</v>
       </c>
       <c r="F145" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1366.1999999999998</v>
       </c>
       <c r="G145" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1707.75</v>
       </c>
       <c r="H145" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2049.2999999999997</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="43">
+      <c r="A146" s="48">
         <v>10</v>
       </c>
-      <c r="B146" s="44"/>
+      <c r="B146" s="49"/>
       <c r="C146" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>379.49999999999994</v>
       </c>
       <c r="D146" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>758.99999999999989</v>
       </c>
       <c r="E146" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1138.5</v>
       </c>
       <c r="F146" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1517.9999999999998</v>
       </c>
       <c r="G146" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1897.5</v>
       </c>
       <c r="H146" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2277</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="43">
+      <c r="A147" s="48">
         <v>11</v>
       </c>
-      <c r="B147" s="44"/>
+      <c r="B147" s="49"/>
       <c r="C147" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>417.44999999999993</v>
       </c>
       <c r="D147" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>834.89999999999986</v>
       </c>
       <c r="E147" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1252.3499999999999</v>
       </c>
       <c r="F147" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1669.7999999999997</v>
       </c>
       <c r="G147" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2087.25</v>
       </c>
       <c r="H147" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2504.6999999999998</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="43">
+      <c r="A148" s="48">
         <v>12</v>
       </c>
-      <c r="B148" s="44"/>
+      <c r="B148" s="49"/>
       <c r="C148" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>455.4</v>
       </c>
       <c r="D148" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>910.8</v>
       </c>
       <c r="E148" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1366.1999999999998</v>
       </c>
       <c r="F148" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1821.6</v>
       </c>
       <c r="G148" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2277</v>
       </c>
       <c r="H148" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2732.3999999999996</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="43">
+      <c r="A149" s="48">
         <v>14</v>
       </c>
-      <c r="B149" s="44"/>
+      <c r="B149" s="49"/>
       <c r="C149" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>531.29999999999995</v>
       </c>
       <c r="D149" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1062.5999999999999</v>
       </c>
       <c r="E149" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1593.8999999999999</v>
       </c>
       <c r="F149" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2125.1999999999998</v>
       </c>
       <c r="G149" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2656.5</v>
       </c>
       <c r="H149" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3187.7999999999997</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="43">
+      <c r="A150" s="48">
         <v>16</v>
       </c>
-      <c r="B150" s="44"/>
+      <c r="B150" s="49"/>
       <c r="C150" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>607.19999999999993</v>
       </c>
       <c r="D150" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1214.3999999999999</v>
       </c>
       <c r="E150" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1821.6</v>
       </c>
       <c r="F150" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2428.7999999999997</v>
       </c>
       <c r="G150" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3036</v>
       </c>
       <c r="H150" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3643.2</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="43">
+      <c r="A151" s="48">
         <v>18</v>
       </c>
-      <c r="B151" s="44"/>
+      <c r="B151" s="49"/>
       <c r="C151" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>683.09999999999991</v>
       </c>
       <c r="D151" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1366.1999999999998</v>
       </c>
       <c r="E151" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2049.2999999999997</v>
       </c>
       <c r="F151" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2732.3999999999996</v>
       </c>
       <c r="G151" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3415.5</v>
       </c>
       <c r="H151" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4098.5999999999995</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="43">
+      <c r="A152" s="48">
         <v>20</v>
       </c>
-      <c r="B152" s="44"/>
+      <c r="B152" s="49"/>
       <c r="C152" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>758.99999999999989</v>
       </c>
       <c r="D152" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1517.9999999999998</v>
       </c>
       <c r="E152" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2277</v>
       </c>
       <c r="F152" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3035.9999999999995</v>
       </c>
       <c r="G152" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3795</v>
       </c>
       <c r="H152" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4554</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="43">
+      <c r="A153" s="48">
         <v>22</v>
       </c>
-      <c r="B153" s="44"/>
+      <c r="B153" s="49"/>
       <c r="C153" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>834.89999999999986</v>
       </c>
       <c r="D153" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1669.7999999999997</v>
       </c>
       <c r="E153" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>2504.6999999999998</v>
       </c>
       <c r="F153" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>3339.5999999999995</v>
       </c>
       <c r="G153" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>4174.5</v>
       </c>
       <c r="H153" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>5009.3999999999996</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="43">
+      <c r="A154" s="48">
         <v>24</v>
       </c>
-      <c r="B154" s="44"/>
+      <c r="B154" s="49"/>
       <c r="C154" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>910.8</v>
       </c>
       <c r="D154" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1821.6</v>
       </c>
       <c r="E154" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>2732.3999999999996</v>
       </c>
       <c r="F154" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>3643.2</v>
       </c>
       <c r="G154" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>4554</v>
       </c>
       <c r="H154" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>5464.7999999999993</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="43">
+      <c r="A155" s="48">
         <v>28</v>
       </c>
-      <c r="B155" s="44"/>
+      <c r="B155" s="49"/>
       <c r="C155" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1062.5999999999999</v>
       </c>
       <c r="D155" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>2125.1999999999998</v>
       </c>
       <c r="E155" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>3187.7999999999997</v>
       </c>
       <c r="F155" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>4250.3999999999996</v>
       </c>
       <c r="G155" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>5313</v>
       </c>
       <c r="H155" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>6375.5999999999995</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="43">
+      <c r="A156" s="48">
         <v>32</v>
       </c>
-      <c r="B156" s="44"/>
+      <c r="B156" s="49"/>
       <c r="C156" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1214.3999999999999</v>
       </c>
       <c r="D156" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>2428.7999999999997</v>
       </c>
       <c r="E156" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>3643.2</v>
       </c>
       <c r="F156" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>4857.5999999999995</v>
       </c>
       <c r="G156" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>6072</v>
       </c>
       <c r="H156" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>7286.4</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="43">
+      <c r="A157" s="48">
         <v>36</v>
       </c>
-      <c r="B157" s="44"/>
+      <c r="B157" s="49"/>
       <c r="C157" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1366.1999999999998</v>
       </c>
       <c r="D157" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>2732.3999999999996</v>
       </c>
       <c r="E157" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>4098.5999999999995</v>
       </c>
       <c r="F157" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>5464.7999999999993</v>
       </c>
       <c r="G157" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>6831</v>
       </c>
       <c r="H157" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>8197.1999999999989</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="43">
+      <c r="A158" s="48">
         <v>40</v>
       </c>
-      <c r="B158" s="44"/>
+      <c r="B158" s="49"/>
       <c r="C158" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1517.9999999999998</v>
       </c>
       <c r="D158" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>3035.9999999999995</v>
       </c>
       <c r="E158" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>4554</v>
       </c>
       <c r="F158" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>6071.9999999999991</v>
       </c>
       <c r="G158" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>7590</v>
       </c>
       <c r="H158" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>9108</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="43">
+      <c r="A159" s="48">
         <v>44</v>
       </c>
-      <c r="B159" s="44"/>
+      <c r="B159" s="49"/>
       <c r="C159" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1669.7999999999997</v>
       </c>
       <c r="D159" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>3339.5999999999995</v>
       </c>
       <c r="E159" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>5009.3999999999996</v>
       </c>
       <c r="F159" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>6679.1999999999989</v>
       </c>
       <c r="G159" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>8349</v>
       </c>
       <c r="H159" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>10018.799999999999</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="43">
+      <c r="A160" s="48">
         <v>48</v>
       </c>
-      <c r="B160" s="44"/>
+      <c r="B160" s="49"/>
       <c r="C160" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1821.6</v>
       </c>
       <c r="D160" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>3643.2</v>
       </c>
       <c r="E160" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>5464.7999999999993</v>
       </c>
       <c r="F160" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>7286.4</v>
       </c>
       <c r="G160" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>9108</v>
       </c>
       <c r="H160" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>10929.599999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="L89:Q89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="J88:Q88"/>
-    <mergeCell ref="K68:O68"/>
-    <mergeCell ref="N69:O71"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="K5:O17"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="K33:O33"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="N46:O48"/>
+    <mergeCell ref="N35:O37"/>
+    <mergeCell ref="S23:V29"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="N57:O59"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K56:O56"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A134:H134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="J129:K129"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="J116:Q116"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="L117:Q117"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="J121:K121"/>
     <mergeCell ref="J140:K140"/>
     <mergeCell ref="J141:K141"/>
     <mergeCell ref="J142:K142"/>
@@ -6962,170 +7115,20 @@
     <mergeCell ref="J125:K125"/>
     <mergeCell ref="J126:K126"/>
     <mergeCell ref="J127:K127"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="J129:K129"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J116:Q116"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="L117:Q117"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A134:H134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="N57:O59"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K56:O56"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="K33:O33"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="N46:O48"/>
-    <mergeCell ref="N35:O37"/>
-    <mergeCell ref="S23:V29"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="K5:O17"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="L89:Q89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="J88:Q88"/>
+    <mergeCell ref="K68:O68"/>
+    <mergeCell ref="N69:O71"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="J90:K90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7152,225 +7155,225 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="59" t="s">
+      <c r="F2" s="83"/>
+      <c r="G2" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="J2" s="16" t="s">
+      <c r="H2" s="92"/>
+      <c r="J2" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="18"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="67"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="88">
         <v>0</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="21"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="62">
         <v>0</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="41">
+      <c r="D4" s="63"/>
+      <c r="E4" s="62">
         <v>9.99</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="81">
+      <c r="F4" s="63"/>
+      <c r="G4" s="84">
         <v>14.99</v>
       </c>
-      <c r="H4" s="82"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
+      <c r="H4" s="85"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="70"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="64">
         <v>0.99</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45">
+      <c r="D5" s="64"/>
+      <c r="E5" s="64">
         <v>0</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="83">
+      <c r="F5" s="64"/>
+      <c r="G5" s="86">
         <v>0</v>
       </c>
-      <c r="H5" s="84"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
+      <c r="H5" s="87"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="70"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="35" t="s">
+      <c r="D6" s="79"/>
+      <c r="E6" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="62" t="s">
+      <c r="F6" s="79"/>
+      <c r="G6" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
+      <c r="H6" s="35"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="70"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="35" t="s">
+      <c r="D7" s="79"/>
+      <c r="E7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="62" t="s">
+      <c r="F7" s="79"/>
+      <c r="G7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
+      <c r="H7" s="35"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="70"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="43" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="62" t="s">
+      <c r="F8" s="49"/>
+      <c r="G8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="64"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
+      <c r="H8" s="35"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="70"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="43" t="s">
+      <c r="D9" s="49"/>
+      <c r="E9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="62" t="s">
+      <c r="F9" s="49"/>
+      <c r="G9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
+      <c r="H9" s="35"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="70"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="48">
         <v>5</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="43" t="s">
+      <c r="D10" s="49"/>
+      <c r="E10" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="62" t="s">
+      <c r="F10" s="49"/>
+      <c r="G10" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="21"/>
+      <c r="H10" s="35"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="70"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="21"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="70"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="70"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="21"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="70"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="24"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="73"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
@@ -7418,10 +7421,10 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="66"/>
+      <c r="H20" s="94"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
@@ -7429,8 +7432,8 @@
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="96"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
@@ -7438,8 +7441,8 @@
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="68"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="96"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
@@ -7447,82 +7450,82 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="70"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="98"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="K29" s="46" t="s">
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="K29" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48" t="s">
+      <c r="C30" s="53"/>
+      <c r="D30" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="K30" s="49" t="s">
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="K30" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="50"/>
+      <c r="L30" s="51"/>
       <c r="M30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="N30" s="49" t="s">
+      <c r="N30" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="O30" s="50"/>
+      <c r="O30" s="51"/>
       <c r="P30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q30" s="49" t="s">
+      <c r="Q30" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="R30" s="50"/>
+      <c r="R30" s="51"/>
       <c r="S30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="T30" s="49" t="s">
+      <c r="T30" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="U30" s="50"/>
+      <c r="U30" s="51"/>
       <c r="V30" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="50"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="7">
         <v>1</v>
       </c>
@@ -7541,44 +7544,44 @@
       <c r="I31" s="8">
         <v>6</v>
       </c>
-      <c r="K31" s="62">
+      <c r="K31" s="33">
         <v>1</v>
       </c>
-      <c r="L31" s="64"/>
-      <c r="M31" s="85">
+      <c r="L31" s="35"/>
+      <c r="M31" s="19">
         <f>K31*$C$5</f>
         <v>0.99</v>
       </c>
-      <c r="N31" s="62">
+      <c r="N31" s="33">
         <v>120</v>
       </c>
-      <c r="O31" s="64"/>
-      <c r="P31" s="85">
+      <c r="O31" s="35"/>
+      <c r="P31" s="19">
         <f>N31*$C$5</f>
         <v>118.8</v>
       </c>
-      <c r="Q31" s="62">
+      <c r="Q31" s="33">
         <v>650</v>
       </c>
-      <c r="R31" s="64"/>
-      <c r="S31" s="85">
+      <c r="R31" s="35"/>
+      <c r="S31" s="19">
         <f>Q31*$C$5</f>
         <v>643.5</v>
       </c>
-      <c r="T31" s="62">
+      <c r="T31" s="33">
         <v>1750</v>
       </c>
-      <c r="U31" s="64"/>
-      <c r="V31" s="85">
+      <c r="U31" s="35"/>
+      <c r="V31" s="19">
         <f>T31*$C$5</f>
         <v>1732.5</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="43">
+      <c r="B32" s="48">
         <v>1</v>
       </c>
-      <c r="C32" s="44"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="9">
         <f>$E$4 *D31</f>
         <v>9.99</v>
@@ -7603,44 +7606,44 @@
         <f t="shared" si="0"/>
         <v>59.94</v>
       </c>
-      <c r="K32" s="62">
+      <c r="K32" s="33">
         <v>4</v>
       </c>
-      <c r="L32" s="64"/>
-      <c r="M32" s="85">
+      <c r="L32" s="35"/>
+      <c r="M32" s="19">
         <f t="shared" ref="M32:M43" si="1">K32*$C$5</f>
         <v>3.96</v>
       </c>
-      <c r="N32" s="62">
+      <c r="N32" s="33">
         <v>150</v>
       </c>
-      <c r="O32" s="64"/>
-      <c r="P32" s="85">
+      <c r="O32" s="35"/>
+      <c r="P32" s="19">
         <f t="shared" ref="P32:P43" si="2">N32*$C$5</f>
         <v>148.5</v>
       </c>
-      <c r="Q32" s="62">
+      <c r="Q32" s="33">
         <v>700</v>
       </c>
-      <c r="R32" s="64"/>
-      <c r="S32" s="85">
+      <c r="R32" s="35"/>
+      <c r="S32" s="19">
         <f t="shared" ref="S32:S43" si="3">Q32*$C$5</f>
         <v>693</v>
       </c>
-      <c r="T32" s="62">
+      <c r="T32" s="33">
         <v>2000</v>
       </c>
-      <c r="U32" s="64"/>
-      <c r="V32" s="85">
+      <c r="U32" s="35"/>
+      <c r="V32" s="19">
         <f t="shared" ref="V32:V43" si="4">T32*$C$5</f>
         <v>1980</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="43">
+      <c r="B33" s="48">
         <v>2</v>
       </c>
-      <c r="C33" s="44"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="5">
         <f>D32+$D$31*$E$4</f>
         <v>19.98</v>
@@ -7665,44 +7668,44 @@
         <f>I32+$I$31*$E$4</f>
         <v>119.88</v>
       </c>
-      <c r="K33" s="62">
+      <c r="K33" s="33">
         <v>8</v>
       </c>
-      <c r="L33" s="64"/>
-      <c r="M33" s="85">
+      <c r="L33" s="35"/>
+      <c r="M33" s="19">
         <f t="shared" si="1"/>
         <v>7.92</v>
       </c>
-      <c r="N33" s="62">
+      <c r="N33" s="33">
         <v>180</v>
       </c>
-      <c r="O33" s="64"/>
-      <c r="P33" s="85">
+      <c r="O33" s="35"/>
+      <c r="P33" s="19">
         <f t="shared" si="2"/>
         <v>178.2</v>
       </c>
-      <c r="Q33" s="62">
+      <c r="Q33" s="33">
         <v>750</v>
       </c>
-      <c r="R33" s="64"/>
-      <c r="S33" s="85">
+      <c r="R33" s="35"/>
+      <c r="S33" s="19">
         <f t="shared" si="3"/>
         <v>742.5</v>
       </c>
-      <c r="T33" s="62">
+      <c r="T33" s="33">
         <v>2250</v>
       </c>
-      <c r="U33" s="64"/>
-      <c r="V33" s="85">
+      <c r="U33" s="35"/>
+      <c r="V33" s="19">
         <f t="shared" si="4"/>
         <v>2227.5</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="43">
+      <c r="B34" s="48">
         <v>3</v>
       </c>
-      <c r="C34" s="44"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="5">
         <f t="shared" ref="D34:D43" si="5">D33+$D$31*$E$4</f>
         <v>29.97</v>
@@ -7727,44 +7730,44 @@
         <f t="shared" ref="I34:I43" si="10">I33+$I$31*$E$4</f>
         <v>179.82</v>
       </c>
-      <c r="K34" s="62">
+      <c r="K34" s="33">
         <v>12</v>
       </c>
-      <c r="L34" s="64"/>
-      <c r="M34" s="85">
+      <c r="L34" s="35"/>
+      <c r="M34" s="19">
         <f t="shared" si="1"/>
         <v>11.879999999999999</v>
       </c>
-      <c r="N34" s="62">
+      <c r="N34" s="33">
         <v>200</v>
       </c>
-      <c r="O34" s="64"/>
-      <c r="P34" s="85">
+      <c r="O34" s="35"/>
+      <c r="P34" s="19">
         <f t="shared" si="2"/>
         <v>198</v>
       </c>
-      <c r="Q34" s="62">
+      <c r="Q34" s="33">
         <v>800</v>
       </c>
-      <c r="R34" s="64"/>
-      <c r="S34" s="85">
+      <c r="R34" s="35"/>
+      <c r="S34" s="19">
         <f t="shared" si="3"/>
         <v>792</v>
       </c>
-      <c r="T34" s="62">
+      <c r="T34" s="33">
         <v>2500</v>
       </c>
-      <c r="U34" s="64"/>
-      <c r="V34" s="85">
+      <c r="U34" s="35"/>
+      <c r="V34" s="19">
         <f t="shared" si="4"/>
         <v>2475</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="43">
+      <c r="B35" s="48">
         <v>4</v>
       </c>
-      <c r="C35" s="44"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="5">
         <f t="shared" si="5"/>
         <v>39.96</v>
@@ -7789,44 +7792,44 @@
         <f t="shared" si="10"/>
         <v>239.76</v>
       </c>
-      <c r="K35" s="62">
+      <c r="K35" s="33">
         <v>20</v>
       </c>
-      <c r="L35" s="64"/>
-      <c r="M35" s="85">
+      <c r="L35" s="35"/>
+      <c r="M35" s="19">
         <f t="shared" si="1"/>
         <v>19.8</v>
       </c>
-      <c r="N35" s="62">
+      <c r="N35" s="33">
         <v>240</v>
       </c>
-      <c r="O35" s="64"/>
-      <c r="P35" s="85">
+      <c r="O35" s="35"/>
+      <c r="P35" s="19">
         <f t="shared" si="2"/>
         <v>237.6</v>
       </c>
-      <c r="Q35" s="62">
+      <c r="Q35" s="33">
         <v>850</v>
       </c>
-      <c r="R35" s="64"/>
-      <c r="S35" s="85">
+      <c r="R35" s="35"/>
+      <c r="S35" s="19">
         <f t="shared" si="3"/>
         <v>841.5</v>
       </c>
-      <c r="T35" s="62">
+      <c r="T35" s="33">
         <v>2750</v>
       </c>
-      <c r="U35" s="64"/>
-      <c r="V35" s="85">
+      <c r="U35" s="35"/>
+      <c r="V35" s="19">
         <f t="shared" si="4"/>
         <v>2722.5</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="43">
+      <c r="B36" s="48">
         <v>5</v>
       </c>
-      <c r="C36" s="44"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="5">
         <f t="shared" si="5"/>
         <v>49.95</v>
@@ -7851,44 +7854,44 @@
         <f t="shared" si="10"/>
         <v>299.7</v>
       </c>
-      <c r="K36" s="62">
+      <c r="K36" s="33">
         <v>30</v>
       </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="85">
+      <c r="L36" s="35"/>
+      <c r="M36" s="19">
         <f t="shared" si="1"/>
         <v>29.7</v>
       </c>
-      <c r="N36" s="62">
+      <c r="N36" s="33">
         <v>280</v>
       </c>
-      <c r="O36" s="64"/>
-      <c r="P36" s="85">
+      <c r="O36" s="35"/>
+      <c r="P36" s="19">
         <f t="shared" si="2"/>
         <v>277.2</v>
       </c>
-      <c r="Q36" s="62">
+      <c r="Q36" s="33">
         <v>900</v>
       </c>
-      <c r="R36" s="64"/>
-      <c r="S36" s="85">
+      <c r="R36" s="35"/>
+      <c r="S36" s="19">
         <f t="shared" si="3"/>
         <v>891</v>
       </c>
-      <c r="T36" s="62">
+      <c r="T36" s="33">
         <v>3000</v>
       </c>
-      <c r="U36" s="64"/>
-      <c r="V36" s="85">
+      <c r="U36" s="35"/>
+      <c r="V36" s="19">
         <f t="shared" si="4"/>
         <v>2970</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="43">
+      <c r="B37" s="48">
         <v>6</v>
       </c>
-      <c r="C37" s="44"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="5">
         <f t="shared" si="5"/>
         <v>59.940000000000005</v>
@@ -7913,44 +7916,44 @@
         <f t="shared" si="10"/>
         <v>359.64</v>
       </c>
-      <c r="K37" s="62">
+      <c r="K37" s="33">
         <v>40</v>
       </c>
-      <c r="L37" s="64"/>
-      <c r="M37" s="85">
+      <c r="L37" s="35"/>
+      <c r="M37" s="19">
         <f t="shared" si="1"/>
         <v>39.6</v>
       </c>
-      <c r="N37" s="62">
+      <c r="N37" s="33">
         <v>300</v>
       </c>
-      <c r="O37" s="64"/>
-      <c r="P37" s="85">
+      <c r="O37" s="35"/>
+      <c r="P37" s="19">
         <f t="shared" si="2"/>
         <v>297</v>
       </c>
-      <c r="Q37" s="62">
+      <c r="Q37" s="33">
         <v>950</v>
       </c>
-      <c r="R37" s="64"/>
-      <c r="S37" s="85">
+      <c r="R37" s="35"/>
+      <c r="S37" s="19">
         <f t="shared" si="3"/>
         <v>940.5</v>
       </c>
-      <c r="T37" s="62">
+      <c r="T37" s="33">
         <v>3250</v>
       </c>
-      <c r="U37" s="64"/>
-      <c r="V37" s="85">
+      <c r="U37" s="35"/>
+      <c r="V37" s="19">
         <f t="shared" si="4"/>
         <v>3217.5</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="43">
+      <c r="B38" s="48">
         <v>7</v>
       </c>
-      <c r="C38" s="44"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="5">
         <f t="shared" si="5"/>
         <v>69.930000000000007</v>
@@ -7975,44 +7978,44 @@
         <f t="shared" si="10"/>
         <v>419.58</v>
       </c>
-      <c r="K38" s="62">
+      <c r="K38" s="33">
         <v>50</v>
       </c>
-      <c r="L38" s="64"/>
-      <c r="M38" s="85">
+      <c r="L38" s="35"/>
+      <c r="M38" s="19">
         <f t="shared" si="1"/>
         <v>49.5</v>
       </c>
-      <c r="N38" s="62">
+      <c r="N38" s="33">
         <v>350</v>
       </c>
-      <c r="O38" s="64"/>
-      <c r="P38" s="85">
+      <c r="O38" s="35"/>
+      <c r="P38" s="19">
         <f t="shared" si="2"/>
         <v>346.5</v>
       </c>
-      <c r="Q38" s="62">
+      <c r="Q38" s="33">
         <v>1000</v>
       </c>
-      <c r="R38" s="64"/>
-      <c r="S38" s="85">
+      <c r="R38" s="35"/>
+      <c r="S38" s="19">
         <f t="shared" si="3"/>
         <v>990</v>
       </c>
-      <c r="T38" s="62">
+      <c r="T38" s="33">
         <v>3500</v>
       </c>
-      <c r="U38" s="64"/>
-      <c r="V38" s="85">
+      <c r="U38" s="35"/>
+      <c r="V38" s="19">
         <f t="shared" si="4"/>
         <v>3465</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="43">
+      <c r="B39" s="48">
         <v>8</v>
       </c>
-      <c r="C39" s="44"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="5">
         <f t="shared" si="5"/>
         <v>79.92</v>
@@ -8037,44 +8040,44 @@
         <f t="shared" si="10"/>
         <v>479.52</v>
       </c>
-      <c r="K39" s="62">
+      <c r="K39" s="33">
         <v>60</v>
       </c>
-      <c r="L39" s="64"/>
-      <c r="M39" s="85">
+      <c r="L39" s="35"/>
+      <c r="M39" s="19">
         <f t="shared" si="1"/>
         <v>59.4</v>
       </c>
-      <c r="N39" s="62">
+      <c r="N39" s="33">
         <v>400</v>
       </c>
-      <c r="O39" s="64"/>
-      <c r="P39" s="85">
+      <c r="O39" s="35"/>
+      <c r="P39" s="19">
         <f t="shared" si="2"/>
         <v>396</v>
       </c>
-      <c r="Q39" s="62">
+      <c r="Q39" s="33">
         <v>1100</v>
       </c>
-      <c r="R39" s="64"/>
-      <c r="S39" s="85">
+      <c r="R39" s="35"/>
+      <c r="S39" s="19">
         <f t="shared" si="3"/>
         <v>1089</v>
       </c>
-      <c r="T39" s="62">
+      <c r="T39" s="33">
         <v>3750</v>
       </c>
-      <c r="U39" s="64"/>
-      <c r="V39" s="85">
+      <c r="U39" s="35"/>
+      <c r="V39" s="19">
         <f t="shared" si="4"/>
         <v>3712.5</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="43">
+      <c r="B40" s="48">
         <v>9</v>
       </c>
-      <c r="C40" s="44"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="5">
         <f t="shared" si="5"/>
         <v>89.91</v>
@@ -8099,44 +8102,44 @@
         <f t="shared" si="10"/>
         <v>539.46</v>
       </c>
-      <c r="K40" s="62">
+      <c r="K40" s="33">
         <v>70</v>
       </c>
-      <c r="L40" s="64"/>
-      <c r="M40" s="85">
+      <c r="L40" s="35"/>
+      <c r="M40" s="19">
         <f t="shared" si="1"/>
         <v>69.3</v>
       </c>
-      <c r="N40" s="62">
+      <c r="N40" s="33">
         <v>450</v>
       </c>
-      <c r="O40" s="64"/>
-      <c r="P40" s="85">
+      <c r="O40" s="35"/>
+      <c r="P40" s="19">
         <f t="shared" si="2"/>
         <v>445.5</v>
       </c>
-      <c r="Q40" s="62">
+      <c r="Q40" s="33">
         <v>1200</v>
       </c>
-      <c r="R40" s="64"/>
-      <c r="S40" s="85">
+      <c r="R40" s="35"/>
+      <c r="S40" s="19">
         <f t="shared" si="3"/>
         <v>1188</v>
       </c>
-      <c r="T40" s="62">
+      <c r="T40" s="33">
         <v>4000</v>
       </c>
-      <c r="U40" s="64"/>
-      <c r="V40" s="85">
+      <c r="U40" s="35"/>
+      <c r="V40" s="19">
         <f t="shared" si="4"/>
         <v>3960</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B41" s="43">
+      <c r="B41" s="48">
         <v>10</v>
       </c>
-      <c r="C41" s="44"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="5">
         <f t="shared" si="5"/>
         <v>99.899999999999991</v>
@@ -8161,44 +8164,44 @@
         <f t="shared" si="10"/>
         <v>599.40000000000009</v>
       </c>
-      <c r="K41" s="62">
+      <c r="K41" s="33">
         <v>80</v>
       </c>
-      <c r="L41" s="64"/>
-      <c r="M41" s="85">
+      <c r="L41" s="35"/>
+      <c r="M41" s="19">
         <f t="shared" si="1"/>
         <v>79.2</v>
       </c>
-      <c r="N41" s="62">
+      <c r="N41" s="33">
         <v>500</v>
       </c>
-      <c r="O41" s="64"/>
-      <c r="P41" s="85">
+      <c r="O41" s="35"/>
+      <c r="P41" s="19">
         <f t="shared" si="2"/>
         <v>495</v>
       </c>
-      <c r="Q41" s="62">
+      <c r="Q41" s="33">
         <v>1300</v>
       </c>
-      <c r="R41" s="64"/>
-      <c r="S41" s="85">
+      <c r="R41" s="35"/>
+      <c r="S41" s="19">
         <f t="shared" si="3"/>
         <v>1287</v>
       </c>
-      <c r="T41" s="62">
+      <c r="T41" s="33">
         <v>4250</v>
       </c>
-      <c r="U41" s="64"/>
-      <c r="V41" s="85">
+      <c r="U41" s="35"/>
+      <c r="V41" s="19">
         <f t="shared" si="4"/>
         <v>4207.5</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="43">
+      <c r="B42" s="48">
         <v>11</v>
       </c>
-      <c r="C42" s="44"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="5">
         <f t="shared" si="5"/>
         <v>109.88999999999999</v>
@@ -8223,44 +8226,44 @@
         <f t="shared" si="10"/>
         <v>659.34000000000015</v>
       </c>
-      <c r="K42" s="62">
+      <c r="K42" s="33">
         <v>90</v>
       </c>
-      <c r="L42" s="64"/>
-      <c r="M42" s="85">
+      <c r="L42" s="35"/>
+      <c r="M42" s="19">
         <f t="shared" si="1"/>
         <v>89.1</v>
       </c>
-      <c r="N42" s="62">
+      <c r="N42" s="33">
         <v>550</v>
       </c>
-      <c r="O42" s="64"/>
-      <c r="P42" s="85">
+      <c r="O42" s="35"/>
+      <c r="P42" s="19">
         <f t="shared" si="2"/>
         <v>544.5</v>
       </c>
-      <c r="Q42" s="62">
+      <c r="Q42" s="33">
         <v>1400</v>
       </c>
-      <c r="R42" s="64"/>
-      <c r="S42" s="85">
+      <c r="R42" s="35"/>
+      <c r="S42" s="19">
         <f t="shared" si="3"/>
         <v>1386</v>
       </c>
-      <c r="T42" s="62">
+      <c r="T42" s="33">
         <v>4500</v>
       </c>
-      <c r="U42" s="64"/>
-      <c r="V42" s="85">
+      <c r="U42" s="35"/>
+      <c r="V42" s="19">
         <f t="shared" si="4"/>
         <v>4455</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="43">
+      <c r="B43" s="48">
         <v>12</v>
       </c>
-      <c r="C43" s="44"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="5">
         <f t="shared" si="5"/>
         <v>119.87999999999998</v>
@@ -8285,551 +8288,640 @@
         <f t="shared" si="10"/>
         <v>719.2800000000002</v>
       </c>
-      <c r="K43" s="62">
+      <c r="K43" s="33">
         <v>100</v>
       </c>
-      <c r="L43" s="64"/>
-      <c r="M43" s="85">
+      <c r="L43" s="35"/>
+      <c r="M43" s="19">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="N43" s="62">
+      <c r="N43" s="33">
         <v>600</v>
       </c>
-      <c r="O43" s="64"/>
-      <c r="P43" s="85">
+      <c r="O43" s="35"/>
+      <c r="P43" s="19">
         <f t="shared" si="2"/>
         <v>594</v>
       </c>
-      <c r="Q43" s="62">
+      <c r="Q43" s="33">
         <v>1500</v>
       </c>
-      <c r="R43" s="64"/>
-      <c r="S43" s="85">
+      <c r="R43" s="35"/>
+      <c r="S43" s="19">
         <f t="shared" si="3"/>
         <v>1485</v>
       </c>
-      <c r="T43" s="62">
+      <c r="T43" s="33">
         <v>5000</v>
       </c>
-      <c r="U43" s="64"/>
-      <c r="V43" s="85">
+      <c r="U43" s="35"/>
+      <c r="V43" s="19">
         <f t="shared" si="4"/>
         <v>4950</v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="K46" s="46" t="s">
+      <c r="K46" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="46"/>
-      <c r="S46" s="46"/>
-      <c r="T46" s="46"/>
-      <c r="U46" s="46"/>
-      <c r="V46" s="46"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
+      <c r="S46" s="52"/>
+      <c r="T46" s="52"/>
+      <c r="U46" s="52"/>
+      <c r="V46" s="52"/>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="K47" s="49" t="s">
+      <c r="K47" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="L47" s="50"/>
+      <c r="L47" s="51"/>
       <c r="M47" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="N47" s="49" t="s">
+      <c r="N47" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="O47" s="50"/>
+      <c r="O47" s="51"/>
       <c r="P47" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q47" s="49" t="s">
+      <c r="Q47" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="R47" s="50"/>
+      <c r="R47" s="51"/>
       <c r="S47" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="T47" s="49" t="s">
+      <c r="T47" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="U47" s="50"/>
+      <c r="U47" s="51"/>
       <c r="V47" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="K48" s="62">
+      <c r="K48" s="33">
         <v>1</v>
       </c>
-      <c r="L48" s="64"/>
-      <c r="M48" s="85">
+      <c r="L48" s="35"/>
+      <c r="M48" s="19">
         <f>K48*$E$5</f>
         <v>0</v>
       </c>
-      <c r="N48" s="62">
+      <c r="N48" s="33">
         <v>120</v>
       </c>
-      <c r="O48" s="64"/>
-      <c r="P48" s="85">
+      <c r="O48" s="35"/>
+      <c r="P48" s="19">
         <f>N48*$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="62">
+      <c r="Q48" s="33">
         <v>650</v>
       </c>
-      <c r="R48" s="64"/>
-      <c r="S48" s="85">
+      <c r="R48" s="35"/>
+      <c r="S48" s="19">
         <f>Q48*$E$5</f>
         <v>0</v>
       </c>
-      <c r="T48" s="62">
+      <c r="T48" s="33">
         <v>1750</v>
       </c>
-      <c r="U48" s="64"/>
-      <c r="V48" s="85">
+      <c r="U48" s="35"/>
+      <c r="V48" s="19">
         <f>T48*$E$5</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K49" s="62">
+      <c r="K49" s="33">
         <v>4</v>
       </c>
-      <c r="L49" s="64"/>
-      <c r="M49" s="85">
+      <c r="L49" s="35"/>
+      <c r="M49" s="19">
         <f t="shared" ref="M49:M60" si="11">K49*$E$5</f>
         <v>0</v>
       </c>
-      <c r="N49" s="62">
+      <c r="N49" s="33">
         <v>150</v>
       </c>
-      <c r="O49" s="64"/>
-      <c r="P49" s="85">
+      <c r="O49" s="35"/>
+      <c r="P49" s="19">
         <f t="shared" ref="P49:P60" si="12">N49*$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="62">
+      <c r="Q49" s="33">
         <v>700</v>
       </c>
-      <c r="R49" s="64"/>
-      <c r="S49" s="85">
+      <c r="R49" s="35"/>
+      <c r="S49" s="19">
         <f t="shared" ref="S49:S60" si="13">Q49*$E$5</f>
         <v>0</v>
       </c>
-      <c r="T49" s="62">
+      <c r="T49" s="33">
         <v>2000</v>
       </c>
-      <c r="U49" s="64"/>
-      <c r="V49" s="85">
+      <c r="U49" s="35"/>
+      <c r="V49" s="19">
         <f t="shared" ref="V49:V59" si="14">T49*$E$5</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K50" s="62">
+      <c r="K50" s="33">
         <v>8</v>
       </c>
-      <c r="L50" s="64"/>
-      <c r="M50" s="85">
+      <c r="L50" s="35"/>
+      <c r="M50" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N50" s="62">
+      <c r="N50" s="33">
         <v>180</v>
       </c>
-      <c r="O50" s="64"/>
-      <c r="P50" s="85">
+      <c r="O50" s="35"/>
+      <c r="P50" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="62">
+      <c r="Q50" s="33">
         <v>750</v>
       </c>
-      <c r="R50" s="64"/>
-      <c r="S50" s="85">
+      <c r="R50" s="35"/>
+      <c r="S50" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T50" s="62">
+      <c r="T50" s="33">
         <v>2250</v>
       </c>
-      <c r="U50" s="64"/>
-      <c r="V50" s="85">
+      <c r="U50" s="35"/>
+      <c r="V50" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K51" s="62">
+      <c r="K51" s="33">
         <v>12</v>
       </c>
-      <c r="L51" s="64"/>
-      <c r="M51" s="85">
+      <c r="L51" s="35"/>
+      <c r="M51" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N51" s="62">
+      <c r="N51" s="33">
         <v>200</v>
       </c>
-      <c r="O51" s="64"/>
-      <c r="P51" s="85">
+      <c r="O51" s="35"/>
+      <c r="P51" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="62">
+      <c r="Q51" s="33">
         <v>800</v>
       </c>
-      <c r="R51" s="64"/>
-      <c r="S51" s="85">
+      <c r="R51" s="35"/>
+      <c r="S51" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T51" s="62">
+      <c r="T51" s="33">
         <v>2500</v>
       </c>
-      <c r="U51" s="64"/>
-      <c r="V51" s="85">
+      <c r="U51" s="35"/>
+      <c r="V51" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K52" s="62">
+      <c r="K52" s="33">
         <v>20</v>
       </c>
-      <c r="L52" s="64"/>
-      <c r="M52" s="85">
+      <c r="L52" s="35"/>
+      <c r="M52" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N52" s="62">
+      <c r="N52" s="33">
         <v>240</v>
       </c>
-      <c r="O52" s="64"/>
-      <c r="P52" s="85">
+      <c r="O52" s="35"/>
+      <c r="P52" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="62">
+      <c r="Q52" s="33">
         <v>850</v>
       </c>
-      <c r="R52" s="64"/>
-      <c r="S52" s="85">
+      <c r="R52" s="35"/>
+      <c r="S52" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T52" s="62">
+      <c r="T52" s="33">
         <v>2750</v>
       </c>
-      <c r="U52" s="64"/>
-      <c r="V52" s="85">
+      <c r="U52" s="35"/>
+      <c r="V52" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K53" s="62">
+      <c r="K53" s="33">
         <v>30</v>
       </c>
-      <c r="L53" s="64"/>
-      <c r="M53" s="85">
+      <c r="L53" s="35"/>
+      <c r="M53" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N53" s="62">
+      <c r="N53" s="33">
         <v>280</v>
       </c>
-      <c r="O53" s="64"/>
-      <c r="P53" s="85">
+      <c r="O53" s="35"/>
+      <c r="P53" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q53" s="62">
+      <c r="Q53" s="33">
         <v>900</v>
       </c>
-      <c r="R53" s="64"/>
-      <c r="S53" s="85">
+      <c r="R53" s="35"/>
+      <c r="S53" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T53" s="62">
+      <c r="T53" s="33">
         <v>3000</v>
       </c>
-      <c r="U53" s="64"/>
-      <c r="V53" s="85">
+      <c r="U53" s="35"/>
+      <c r="V53" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K54" s="62">
+      <c r="K54" s="33">
         <v>40</v>
       </c>
-      <c r="L54" s="64"/>
-      <c r="M54" s="85">
+      <c r="L54" s="35"/>
+      <c r="M54" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N54" s="62">
+      <c r="N54" s="33">
         <v>300</v>
       </c>
-      <c r="O54" s="64"/>
-      <c r="P54" s="85">
+      <c r="O54" s="35"/>
+      <c r="P54" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q54" s="62">
+      <c r="Q54" s="33">
         <v>950</v>
       </c>
-      <c r="R54" s="64"/>
-      <c r="S54" s="85">
+      <c r="R54" s="35"/>
+      <c r="S54" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T54" s="62">
+      <c r="T54" s="33">
         <v>3250</v>
       </c>
-      <c r="U54" s="64"/>
-      <c r="V54" s="85">
+      <c r="U54" s="35"/>
+      <c r="V54" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K55" s="62">
+      <c r="K55" s="33">
         <v>50</v>
       </c>
-      <c r="L55" s="64"/>
-      <c r="M55" s="85">
+      <c r="L55" s="35"/>
+      <c r="M55" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N55" s="62">
+      <c r="N55" s="33">
         <v>350</v>
       </c>
-      <c r="O55" s="64"/>
-      <c r="P55" s="85">
+      <c r="O55" s="35"/>
+      <c r="P55" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q55" s="62">
+      <c r="Q55" s="33">
         <v>1000</v>
       </c>
-      <c r="R55" s="64"/>
-      <c r="S55" s="85">
+      <c r="R55" s="35"/>
+      <c r="S55" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T55" s="62">
+      <c r="T55" s="33">
         <v>3500</v>
       </c>
-      <c r="U55" s="64"/>
-      <c r="V55" s="85">
+      <c r="U55" s="35"/>
+      <c r="V55" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K56" s="62">
+      <c r="K56" s="33">
         <v>60</v>
       </c>
-      <c r="L56" s="64"/>
-      <c r="M56" s="85">
+      <c r="L56" s="35"/>
+      <c r="M56" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N56" s="62">
+      <c r="N56" s="33">
         <v>400</v>
       </c>
-      <c r="O56" s="64"/>
-      <c r="P56" s="85">
+      <c r="O56" s="35"/>
+      <c r="P56" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q56" s="62">
+      <c r="Q56" s="33">
         <v>1100</v>
       </c>
-      <c r="R56" s="64"/>
-      <c r="S56" s="85">
+      <c r="R56" s="35"/>
+      <c r="S56" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T56" s="62">
+      <c r="T56" s="33">
         <v>3750</v>
       </c>
-      <c r="U56" s="64"/>
-      <c r="V56" s="85">
+      <c r="U56" s="35"/>
+      <c r="V56" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K57" s="62">
+      <c r="K57" s="33">
         <v>70</v>
       </c>
-      <c r="L57" s="64"/>
-      <c r="M57" s="85">
+      <c r="L57" s="35"/>
+      <c r="M57" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N57" s="62">
+      <c r="N57" s="33">
         <v>450</v>
       </c>
-      <c r="O57" s="64"/>
-      <c r="P57" s="85">
+      <c r="O57" s="35"/>
+      <c r="P57" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="62">
+      <c r="Q57" s="33">
         <v>1200</v>
       </c>
-      <c r="R57" s="64"/>
-      <c r="S57" s="85">
+      <c r="R57" s="35"/>
+      <c r="S57" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T57" s="62">
+      <c r="T57" s="33">
         <v>4000</v>
       </c>
-      <c r="U57" s="64"/>
-      <c r="V57" s="85">
+      <c r="U57" s="35"/>
+      <c r="V57" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K58" s="62">
+      <c r="K58" s="33">
         <v>80</v>
       </c>
-      <c r="L58" s="64"/>
-      <c r="M58" s="85">
+      <c r="L58" s="35"/>
+      <c r="M58" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N58" s="62">
+      <c r="N58" s="33">
         <v>500</v>
       </c>
-      <c r="O58" s="64"/>
-      <c r="P58" s="85">
+      <c r="O58" s="35"/>
+      <c r="P58" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q58" s="62">
+      <c r="Q58" s="33">
         <v>1300</v>
       </c>
-      <c r="R58" s="64"/>
-      <c r="S58" s="85">
+      <c r="R58" s="35"/>
+      <c r="S58" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T58" s="62">
+      <c r="T58" s="33">
         <v>4250</v>
       </c>
-      <c r="U58" s="64"/>
-      <c r="V58" s="85">
+      <c r="U58" s="35"/>
+      <c r="V58" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K59" s="62">
+      <c r="K59" s="33">
         <v>90</v>
       </c>
-      <c r="L59" s="64"/>
-      <c r="M59" s="85">
+      <c r="L59" s="35"/>
+      <c r="M59" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N59" s="62">
+      <c r="N59" s="33">
         <v>550</v>
       </c>
-      <c r="O59" s="64"/>
-      <c r="P59" s="85">
+      <c r="O59" s="35"/>
+      <c r="P59" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q59" s="62">
+      <c r="Q59" s="33">
         <v>1400</v>
       </c>
-      <c r="R59" s="64"/>
-      <c r="S59" s="85">
+      <c r="R59" s="35"/>
+      <c r="S59" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T59" s="62">
+      <c r="T59" s="33">
         <v>4500</v>
       </c>
-      <c r="U59" s="64"/>
-      <c r="V59" s="85">
+      <c r="U59" s="35"/>
+      <c r="V59" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K60" s="62">
+      <c r="K60" s="33">
         <v>100</v>
       </c>
-      <c r="L60" s="64"/>
-      <c r="M60" s="85">
+      <c r="L60" s="35"/>
+      <c r="M60" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N60" s="62">
+      <c r="N60" s="33">
         <v>600</v>
       </c>
-      <c r="O60" s="64"/>
-      <c r="P60" s="85">
+      <c r="O60" s="35"/>
+      <c r="P60" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q60" s="62">
+      <c r="Q60" s="33">
         <v>1500</v>
       </c>
-      <c r="R60" s="64"/>
-      <c r="S60" s="85">
+      <c r="R60" s="35"/>
+      <c r="S60" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T60" s="62">
+      <c r="T60" s="33">
         <v>5000</v>
       </c>
-      <c r="U60" s="64"/>
-      <c r="V60" s="85">
+      <c r="U60" s="35"/>
+      <c r="V60" s="19">
         <f>T60*$E$5</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="157">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="K29:V29"/>
+    <mergeCell ref="K46:V46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="K31:L31"/>
@@ -8854,117 +8946,28 @@
     <mergeCell ref="G20:H23"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="K29:V29"/>
-    <mergeCell ref="K46:V46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8976,8 +8979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8989,139 +8992,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C2" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="96" t="s">
+      <c r="B3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="98" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="97" t="s">
+    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="97" t="s">
+    <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="98" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="90" t="s">
+    <row r="8" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="97" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="97" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="B8" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="90" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="95" t="s">
+      <c r="D8" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="98" t="s">
-        <v>93</v>
+      <c r="E8" s="32" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="B11" s="77" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/croc-o-deals-parent/doc/Croc-o-deals-rules-1.0.0.xlsx
+++ b/croc-o-deals-parent/doc/Croc-o-deals-rules-1.0.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="104">
   <si>
     <t>Normal</t>
   </si>
@@ -159,6 +159,171 @@
   </si>
   <si>
     <t>Prenium: Achat de deal / mois</t>
+  </si>
+  <si>
+    <t>Pass Pro  3 mois (recharger)</t>
+  </si>
+  <si>
+    <t>Nb pass normal - 1 mois</t>
+  </si>
+  <si>
+    <t>Nb pass prenium - 1 mois</t>
+  </si>
+  <si>
+    <t>Nb pass normal - 3 mois</t>
+  </si>
+  <si>
+    <t>Nb pass prenium - 3 mois</t>
+  </si>
+  <si>
+    <t>25 nouveaux clients</t>
+  </si>
+  <si>
+    <t>Nb création deal normal</t>
+  </si>
+  <si>
+    <t>Nb création deal prenium</t>
+  </si>
+  <si>
+    <t>Nb pack images normal</t>
+  </si>
+  <si>
+    <t>50 nouveaux clients</t>
+  </si>
+  <si>
+    <t>100 nouveaux clients</t>
+  </si>
+  <si>
+    <t>En considérant que chaque compte normal rachète un pass normal chaque mois / sans options / 2 deals</t>
+  </si>
+  <si>
+    <t>En considérant que chaque compte normal rachète un pass normal chaque mois / sans options / 4 deals</t>
+  </si>
+  <si>
+    <t>En considérant que chaque compte pro rachète un pass pro chaque mois / sans options / 2 deals</t>
+  </si>
+  <si>
+    <t>En considérant que chaque compte pro rachète un pass pro chaque mois / sans options / 4 deals</t>
+  </si>
+  <si>
+    <t>125 nouveaux clients</t>
+  </si>
+  <si>
+    <t>Dépense</t>
+  </si>
+  <si>
+    <t>paypal</t>
+  </si>
+  <si>
+    <t>Côut</t>
+  </si>
+  <si>
+    <t>x% + 0,25€</t>
+  </si>
+  <si>
+    <t>Liens</t>
+  </si>
+  <si>
+    <t>Herbergement</t>
+  </si>
+  <si>
+    <t>Nom de domaine</t>
+  </si>
+  <si>
+    <t>News letter</t>
+  </si>
+  <si>
+    <t>https://www.paypal.com/fr/cgi-bin/webscr?cmd=_display-receiving-fees-outside</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <r>
+      <t>Vu notre cible, on sera surment dans la tranche: 2,0% + €0,25 EUR.
+Exemple pour</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 12,000€ --&gt; 240,25 €</t>
+    </r>
+  </si>
+  <si>
+    <t>Environ 40€/mois</t>
+  </si>
+  <si>
+    <t>http://www.online.net/serveur-dedie/offre-dedibox-qc.xhtml</t>
+  </si>
+  <si>
+    <t>Peut être gratuit au début si on l'heberge chez Aurélien</t>
+  </si>
+  <si>
+    <t>http://www.online.net/nom-de-domaine/comparatif-des-extensions-geographiques.xhtml</t>
+  </si>
+  <si>
+    <t>Environ 10€/ans</t>
+  </si>
+  <si>
+    <t>http://mailchimp.com/pricing/</t>
+  </si>
+  <si>
+    <t>entre 0 et 200€/mois</t>
+  </si>
+  <si>
+    <t>jusqu'à 50,000 personnes</t>
+  </si>
+  <si>
+    <t>Frai de structure</t>
+  </si>
+  <si>
+    <t>Achat d'une machine</t>
+  </si>
+  <si>
+    <t>environ 500€</t>
+  </si>
+  <si>
+    <t>http://www.ldlc.com/</t>
+  </si>
+  <si>
+    <t>Environ 15€/mois</t>
+  </si>
+  <si>
+    <t>Paiement en ligne</t>
+  </si>
+  <si>
+    <t>http://entreprises.bnpparibas.fr/Nos-solutions/Gestion-des-flux/Faciliter-vos-encaissements/Cartes/Mercanet
+http://www.internet-fr.net/Services-Applications/Solutions-E-commerce</t>
+  </si>
+  <si>
+    <t>Frai mise en service + Tarif a discuter</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Frai %</t>
+  </si>
+  <si>
+    <t>oui/non</t>
+  </si>
+  <si>
+    <t>Total frai fixe (environ):</t>
+  </si>
+  <si>
+    <t>environ 200€/mois</t>
+  </si>
+  <si>
+    <t>Total normal+ pro (2 deals/ pro)</t>
+  </si>
+  <si>
+    <t>Total normal+ pro (4 deals/ pro)</t>
   </si>
   <si>
     <r>
@@ -282,207 +447,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">79.99€ 
-  - </t>
+      <t xml:space="preserve">79.99€ </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Si aucune pré-séléction: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pass direct</t>
-    </r>
-  </si>
-  <si>
-    <t>Pass Pro  3 mois (recharger)</t>
-  </si>
-  <si>
-    <t>Nb pass normal - 1 mois</t>
-  </si>
-  <si>
-    <t>Nb pass prenium - 1 mois</t>
-  </si>
-  <si>
-    <t>Nb pass normal - 3 mois</t>
-  </si>
-  <si>
-    <t>Nb pass prenium - 3 mois</t>
-  </si>
-  <si>
-    <t>25 nouveaux clients</t>
-  </si>
-  <si>
-    <t>Nb création deal normal</t>
-  </si>
-  <si>
-    <t>Nb création deal prenium</t>
-  </si>
-  <si>
-    <t>Nb pack images normal</t>
-  </si>
-  <si>
-    <t>Cas début / mois: 2 deal par client normal, 3 par prenium</t>
-  </si>
-  <si>
-    <t>50 nouveaux clients</t>
-  </si>
-  <si>
-    <t>100 nouveaux clients</t>
-  </si>
-  <si>
-    <t>En considérant que chaque compte normal rachète un pass normal chaque mois / sans options / 2 deals</t>
-  </si>
-  <si>
-    <t>En considérant que chaque compte normal rachète un pass normal chaque mois / sans options / 4 deals</t>
-  </si>
-  <si>
-    <t>En considérant que chaque compte pro rachète un pass pro chaque mois / sans options / 2 deals</t>
-  </si>
-  <si>
-    <t>En considérant que chaque compte pro rachète un pass pro chaque mois / sans options / 4 deals</t>
-  </si>
-  <si>
-    <t>Cas apres quelque temps / mois: 3 deal par client normal, 4 par prenium</t>
-  </si>
-  <si>
-    <t>Cas pic / mois: 4 deal par client normal, 5 par prenium</t>
-  </si>
-  <si>
-    <t>Cas fin / mois: 4 deal par client normal, 5 par prenium</t>
-  </si>
-  <si>
-    <t>125 nouveaux clients</t>
-  </si>
-  <si>
-    <t>Dépense</t>
-  </si>
-  <si>
-    <t>paypal</t>
-  </si>
-  <si>
-    <t>Côut</t>
-  </si>
-  <si>
-    <t>x% + 0,25€</t>
-  </si>
-  <si>
-    <t>Liens</t>
-  </si>
-  <si>
-    <t>Herbergement</t>
-  </si>
-  <si>
-    <t>Nom de domaine</t>
-  </si>
-  <si>
-    <t>News letter</t>
-  </si>
-  <si>
-    <t>https://www.paypal.com/fr/cgi-bin/webscr?cmd=_display-receiving-fees-outside</t>
-  </si>
-  <si>
-    <t>Commentaire</t>
-  </si>
-  <si>
-    <r>
-      <t>Vu notre cible, on sera surment dans la tranche: 2,0% + €0,25 EUR.
-Exemple pour</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 12,000€ --&gt; 240,25 €</t>
-    </r>
-  </si>
-  <si>
-    <t>Environ 40€/mois</t>
-  </si>
-  <si>
-    <t>http://www.online.net/serveur-dedie/offre-dedibox-qc.xhtml</t>
-  </si>
-  <si>
-    <t>Peut être gratuit au début si on l'heberge chez Aurélien</t>
-  </si>
-  <si>
-    <t>http://www.online.net/nom-de-domaine/comparatif-des-extensions-geographiques.xhtml</t>
-  </si>
-  <si>
-    <t>Environ 10€/ans</t>
-  </si>
-  <si>
-    <t>http://mailchimp.com/pricing/</t>
-  </si>
-  <si>
-    <t>entre 0 et 200€/mois</t>
-  </si>
-  <si>
-    <t>jusqu'à 50,000 personnes</t>
-  </si>
-  <si>
-    <t>Frai de structure</t>
-  </si>
-  <si>
-    <t>Achat d'une machine</t>
-  </si>
-  <si>
-    <t>environ 500€</t>
-  </si>
-  <si>
-    <t>http://www.ldlc.com/</t>
-  </si>
-  <si>
-    <t>Environ 15€/mois</t>
-  </si>
-  <si>
-    <t>Paiement en ligne</t>
-  </si>
-  <si>
-    <t>http://entreprises.bnpparibas.fr/Nos-solutions/Gestion-des-flux/Faciliter-vos-encaissements/Cartes/Mercanet
-http://www.internet-fr.net/Services-Applications/Solutions-E-commerce</t>
-  </si>
-  <si>
-    <t>Frai mise en service + Tarif a discuter</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Frai %</t>
-  </si>
-  <si>
-    <t>oui/non</t>
-  </si>
-  <si>
-    <t>Total frai fixe (environ):</t>
-  </si>
-  <si>
-    <t>environ 200€/mois</t>
-  </si>
-  <si>
-    <t>Total normal+ pro (2 deals/ pro)</t>
-  </si>
-  <si>
-    <t>Total normal+ pro (4 deals/ pro)</t>
+  </si>
+  <si>
+    <t>Cas début / mois: 2 deals par client normal, 3 par prenium</t>
+  </si>
+  <si>
+    <t>Cas apres quelque temps / mois: 3 deals par client normal, 4 par prenium</t>
+  </si>
+  <si>
+    <t>Cas pic / mois: 4 deals par client normal, 5 par prenium</t>
+  </si>
+  <si>
+    <t>Cas fin / mois: 4 deals par client normal, 5 par prenium</t>
+  </si>
+  <si>
+    <t>Pass client 1 mois (recharger)</t>
+  </si>
+  <si>
+    <t>Exemple d'options potentielles</t>
+  </si>
+  <si>
+    <t>Affichage de pub dans une zone spécifique du site.</t>
+  </si>
+  <si>
+    <t>Les règles de priorité d'affichage sur le front office.</t>
+  </si>
+  <si>
+    <t>Le nombre de photos pour un deal.</t>
+  </si>
+  <si>
+    <t>La liste des zones ciblées</t>
+  </si>
+  <si>
+    <t>Les dates ciblées</t>
   </si>
 </sst>
 </file>
@@ -551,7 +550,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,6 +659,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,7 +817,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -878,97 +883,16 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1007,10 +931,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1031,16 +955,82 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1075,6 +1065,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1185,15 +1211,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
+      <xdr:colOff>61912</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:rowOff>14291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>319088</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152404</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1202,8 +1228,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="15563850" y="4171951"/>
-          <a:ext cx="1038225" cy="1485900"/>
+          <a:off x="14068424" y="3657604"/>
+          <a:ext cx="900113" cy="1995487"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1587,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D91" workbookViewId="0">
-      <selection activeCell="J116" sqref="J116:Q116"/>
+    <sheetView tabSelected="1" topLeftCell="J16" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,316 +1627,352 @@
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="22" max="22" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="L2" s="74" t="s">
+      <c r="L2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="74"/>
-      <c r="N2" s="75" t="s">
+      <c r="M2" s="47"/>
+      <c r="N2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="75"/>
+      <c r="O2" s="48"/>
     </row>
     <row r="3" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="55">
+      <c r="L3" s="49">
         <v>14.99</v>
       </c>
-      <c r="M3" s="57"/>
-      <c r="N3" s="55">
+      <c r="M3" s="50"/>
+      <c r="N3" s="49">
         <v>29.99</v>
       </c>
-      <c r="O3" s="57"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="55">
+      <c r="L4" s="49">
         <v>39.99</v>
       </c>
-      <c r="M4" s="57"/>
-      <c r="N4" s="55">
+      <c r="M4" s="50"/>
+      <c r="N4" s="49">
         <v>79.989999999999995</v>
       </c>
-      <c r="O4" s="57"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K5" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="67"/>
+      <c r="K5" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="40"/>
     </row>
     <row r="6" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K6" s="68"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="70"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="43"/>
     </row>
     <row r="7" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K7" s="68"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="70"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K8" s="68"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="70"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="43"/>
     </row>
     <row r="9" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K9" s="68"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="70"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="43"/>
     </row>
     <row r="10" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K10" s="68"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="70"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="43"/>
     </row>
     <row r="11" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K11" s="68"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="70"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="43"/>
     </row>
     <row r="12" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K12" s="68"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="70"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="43"/>
     </row>
     <row r="13" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K13" s="68"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="70"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="43"/>
     </row>
     <row r="14" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K14" s="68"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="70"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="43"/>
     </row>
     <row r="15" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K15" s="68"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="70"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="43"/>
     </row>
     <row r="16" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K16" s="68"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="70"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="43"/>
     </row>
     <row r="17" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K17" s="71"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="73"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="46"/>
     </row>
     <row r="21" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="L21" s="80" t="s">
+      <c r="L21" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="M21" s="81"/>
-      <c r="N21" s="82" t="s">
+      <c r="M21" s="54"/>
+      <c r="N21" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="83"/>
+      <c r="O21" s="56"/>
+      <c r="S21" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="T21" s="100"/>
+      <c r="U21" s="100"/>
+      <c r="V21" s="99"/>
     </row>
     <row r="22" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="62">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="M22" s="63"/>
-      <c r="N22" s="62">
+      <c r="L22" s="33">
+        <v>14.99</v>
+      </c>
+      <c r="M22" s="34"/>
+      <c r="N22" s="33">
         <v>29.99</v>
       </c>
-      <c r="O22" s="63"/>
+      <c r="O22" s="34"/>
+      <c r="S22" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="105"/>
     </row>
     <row r="23" spans="11:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" s="62">
-        <v>39.99</v>
-      </c>
-      <c r="M23" s="63"/>
-      <c r="N23" s="62">
-        <v>79.989999999999995</v>
-      </c>
-      <c r="O23" s="63"/>
-      <c r="S23" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
+        <v>42</v>
+      </c>
+      <c r="L23" s="33">
+        <v>37.99</v>
+      </c>
+      <c r="M23" s="34"/>
+      <c r="N23" s="33">
+        <v>75.989999999999995</v>
+      </c>
+      <c r="O23" s="34"/>
+      <c r="S23" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="105"/>
     </row>
     <row r="24" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L24" s="64">
-        <v>5.99</v>
-      </c>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64">
+      <c r="L24" s="37">
+        <v>7.99</v>
+      </c>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37">
         <v>1.99</v>
       </c>
-      <c r="O24" s="64"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="61"/>
+      <c r="O24" s="37"/>
+      <c r="S24" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="105"/>
     </row>
     <row r="25" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="78">
+      <c r="L25" s="51">
         <v>0</v>
       </c>
-      <c r="M25" s="79"/>
-      <c r="N25" s="78">
+      <c r="M25" s="52"/>
+      <c r="N25" s="51">
         <v>2</v>
       </c>
-      <c r="O25" s="79"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="61"/>
+      <c r="O25" s="52"/>
+      <c r="S25" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="T25" s="104"/>
+      <c r="U25" s="104"/>
+      <c r="V25" s="105"/>
     </row>
     <row r="26" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L26" s="78">
+      <c r="L26" s="51">
         <v>1</v>
       </c>
-      <c r="M26" s="79"/>
-      <c r="N26" s="78" t="s">
+      <c r="M26" s="52"/>
+      <c r="N26" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="O26" s="79"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="61"/>
-      <c r="V26" s="61"/>
+      <c r="O26" s="52"/>
+      <c r="S26" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="T26" s="104"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="105"/>
     </row>
     <row r="27" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="48" t="s">
+      <c r="L27" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="49"/>
-      <c r="N27" s="48" t="s">
+      <c r="M27" s="36"/>
+      <c r="N27" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="O27" s="49"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="61"/>
-    </row>
-    <row r="28" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="O27" s="36"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="105"/>
+    </row>
+    <row r="28" spans="11:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="76">
+      <c r="L28" s="69">
         <v>2.4900000000000002</v>
       </c>
-      <c r="M28" s="76"/>
-      <c r="N28" s="77" t="s">
+      <c r="M28" s="69"/>
+      <c r="N28" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O28" s="77"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="61"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="105"/>
     </row>
     <row r="29" spans="11:22" x14ac:dyDescent="0.25">
       <c r="K29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="55">
+      <c r="L29" s="49">
         <v>6.99</v>
       </c>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="57"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="61"/>
-      <c r="U29" s="61"/>
-      <c r="V29" s="61"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="102"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="105"/>
+    </row>
+    <row r="30" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="102"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="104"/>
+      <c r="U30" s="104"/>
+      <c r="V30" s="105"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K33" s="59" t="s">
+      <c r="K33" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K34" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
+      <c r="K34" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L35" s="4">
         <v>14</v>
       </c>
       <c r="M35" s="5">
         <f>L35*$L$22</f>
-        <v>279.85999999999996</v>
-      </c>
-      <c r="N35" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="O35" s="43"/>
+        <v>209.86</v>
+      </c>
+      <c r="N35" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="O35" s="64"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L36" s="4">
         <v>6</v>
@@ -1919,40 +1981,40 @@
         <f>L36*$N$22</f>
         <v>179.94</v>
       </c>
-      <c r="N36" s="44"/>
-      <c r="O36" s="45"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="66"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L37" s="4">
         <v>3</v>
       </c>
       <c r="M37" s="5">
         <f>L37*$L$23</f>
-        <v>119.97</v>
-      </c>
-      <c r="N37" s="46"/>
-      <c r="O37" s="47"/>
+        <v>113.97</v>
+      </c>
+      <c r="N37" s="67"/>
+      <c r="O37" s="68"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L38" s="4">
         <v>2</v>
       </c>
       <c r="M38" s="5">
         <f>L38*$N$23</f>
-        <v>159.97999999999999</v>
+        <v>151.97999999999999</v>
       </c>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L39" s="4">
         <f>2 * (L35+L37)</f>
@@ -1960,19 +2022,19 @@
       </c>
       <c r="M39" s="5">
         <f>L39*$L$24</f>
-        <v>203.66</v>
+        <v>271.66000000000003</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>14</v>
       </c>
       <c r="O39" s="5">
         <f>SUM(M35:M43)</f>
-        <v>1026.1199999999999</v>
+        <v>1010.1200000000001</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K40" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L40" s="4">
         <f>3*(L36+L38)</f>
@@ -1987,12 +2049,12 @@
       </c>
       <c r="O40" s="5">
         <f>O39*12</f>
-        <v>12313.439999999999</v>
+        <v>12121.440000000002</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L41" s="4">
         <v>1</v>
@@ -2027,33 +2089,33 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K45" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
+      <c r="K45" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L46" s="4">
         <v>28</v>
       </c>
       <c r="M46" s="5">
         <f>L46*$L$22</f>
-        <v>559.71999999999991</v>
-      </c>
-      <c r="N46" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="O46" s="43"/>
+        <v>419.72</v>
+      </c>
+      <c r="N46" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="O46" s="64"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L47" s="4">
         <v>12</v>
@@ -2062,64 +2124,64 @@
         <f>L47*$N$22</f>
         <v>359.88</v>
       </c>
-      <c r="N47" s="44"/>
-      <c r="O47" s="45"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="66"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
+      <c r="A48" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
       <c r="K48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L48" s="4">
         <v>6</v>
       </c>
       <c r="M48" s="5">
         <f>L48*$L$23</f>
-        <v>239.94</v>
-      </c>
-      <c r="N48" s="46"/>
-      <c r="O48" s="47"/>
+        <v>227.94</v>
+      </c>
+      <c r="N48" s="67"/>
+      <c r="O48" s="68"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="53"/>
-      <c r="C49" s="54" t="s">
+      <c r="B49" s="58"/>
+      <c r="C49" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
       <c r="K49" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L49" s="4">
         <v>4</v>
       </c>
       <c r="M49" s="5">
         <f>L49*$N$23</f>
-        <v>319.95999999999998</v>
+        <v>303.95999999999998</v>
       </c>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="51"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="7">
         <v>1</v>
       </c>
@@ -2139,7 +2201,7 @@
         <v>6</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L50" s="4">
         <f>3 * (L46+L48)</f>
@@ -2147,47 +2209,47 @@
       </c>
       <c r="M50" s="5">
         <f>L50*$L$24</f>
-        <v>610.98</v>
+        <v>814.98</v>
       </c>
       <c r="N50" s="6" t="s">
         <v>14</v>
       </c>
       <c r="O50" s="5">
         <f>SUM(M46:M54)</f>
-        <v>2287.7400000000002</v>
+        <v>2323.7400000000002</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="48">
+      <c r="A51" s="35">
         <v>1</v>
       </c>
-      <c r="B51" s="49"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="9">
         <f>$A51 * (C$50 * $L$22 + C$50 * 2 * $L$24)</f>
-        <v>31.97</v>
+        <v>30.97</v>
       </c>
       <c r="D51" s="9">
         <f t="shared" ref="D51:H66" si="0">$A51 * (D$50 * $L$22 + D$50 * 2 * $L$24)</f>
-        <v>63.94</v>
+        <v>61.94</v>
       </c>
       <c r="E51" s="9">
         <f t="shared" si="0"/>
-        <v>95.91</v>
+        <v>92.91</v>
       </c>
       <c r="F51" s="9">
         <f t="shared" si="0"/>
-        <v>127.88</v>
+        <v>123.88</v>
       </c>
       <c r="G51" s="9">
         <f t="shared" si="0"/>
-        <v>159.85</v>
+        <v>154.85000000000002</v>
       </c>
       <c r="H51" s="9">
         <f t="shared" si="0"/>
-        <v>191.82</v>
+        <v>185.82</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L51" s="4">
         <f>4*(L47+L49)</f>
@@ -2202,40 +2264,40 @@
       </c>
       <c r="O51" s="5">
         <f>O50*12</f>
-        <v>27452.880000000005</v>
+        <v>27884.880000000005</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="48">
+      <c r="A52" s="35">
         <v>2</v>
       </c>
-      <c r="B52" s="49"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="9">
         <f t="shared" ref="C52:C61" si="1">$A52 * (C$50 * $L$22 + C$50 * 2 * $L$24)</f>
-        <v>63.94</v>
+        <v>61.94</v>
       </c>
       <c r="D52" s="9">
         <f t="shared" si="0"/>
-        <v>127.88</v>
+        <v>123.88</v>
       </c>
       <c r="E52" s="9">
         <f t="shared" si="0"/>
-        <v>191.82</v>
+        <v>185.82</v>
       </c>
       <c r="F52" s="9">
         <f t="shared" si="0"/>
-        <v>255.76</v>
+        <v>247.76</v>
       </c>
       <c r="G52" s="9">
         <f t="shared" si="0"/>
-        <v>319.7</v>
+        <v>309.70000000000005</v>
       </c>
       <c r="H52" s="9">
         <f t="shared" si="0"/>
-        <v>383.64</v>
+        <v>371.64</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L52" s="4">
         <v>2</v>
@@ -2246,33 +2308,33 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="48">
+      <c r="A53" s="35">
         <v>3</v>
       </c>
-      <c r="B53" s="49"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="9">
         <f t="shared" si="1"/>
-        <v>95.91</v>
+        <v>92.91</v>
       </c>
       <c r="D53" s="9">
         <f t="shared" si="0"/>
-        <v>191.82</v>
+        <v>185.82</v>
       </c>
       <c r="E53" s="9">
         <f t="shared" si="0"/>
-        <v>287.73</v>
+        <v>278.73</v>
       </c>
       <c r="F53" s="9">
         <f t="shared" si="0"/>
-        <v>383.64</v>
+        <v>371.64</v>
       </c>
       <c r="G53" s="9">
         <f t="shared" si="0"/>
-        <v>479.54999999999995</v>
+        <v>464.55000000000007</v>
       </c>
       <c r="H53" s="9">
         <f t="shared" si="0"/>
-        <v>575.46</v>
+        <v>557.46</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>16</v>
@@ -2286,33 +2348,33 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="48">
+      <c r="A54" s="35">
         <v>4</v>
       </c>
-      <c r="B54" s="49"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="9">
         <f t="shared" si="1"/>
-        <v>127.88</v>
+        <v>123.88</v>
       </c>
       <c r="D54" s="9">
         <f t="shared" si="0"/>
-        <v>255.76</v>
+        <v>247.76</v>
       </c>
       <c r="E54" s="9">
         <f t="shared" si="0"/>
-        <v>383.64</v>
+        <v>371.64</v>
       </c>
       <c r="F54" s="9">
         <f t="shared" si="0"/>
-        <v>511.52</v>
+        <v>495.52</v>
       </c>
       <c r="G54" s="9">
         <f t="shared" si="0"/>
-        <v>639.4</v>
+        <v>619.40000000000009</v>
       </c>
       <c r="H54" s="9">
         <f t="shared" si="0"/>
-        <v>767.28</v>
+        <v>743.28</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>15</v>
@@ -2326,149 +2388,149 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="48">
+      <c r="A55" s="35">
         <v>5</v>
       </c>
-      <c r="B55" s="49"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="9">
         <f t="shared" si="1"/>
-        <v>159.85</v>
+        <v>154.85</v>
       </c>
       <c r="D55" s="9">
         <f t="shared" si="0"/>
-        <v>319.7</v>
+        <v>309.7</v>
       </c>
       <c r="E55" s="9">
         <f t="shared" si="0"/>
-        <v>479.54999999999995</v>
+        <v>464.54999999999995</v>
       </c>
       <c r="F55" s="9">
         <f t="shared" si="0"/>
-        <v>639.4</v>
+        <v>619.4</v>
       </c>
       <c r="G55" s="9">
         <f t="shared" si="0"/>
-        <v>799.25</v>
+        <v>774.25000000000011</v>
       </c>
       <c r="H55" s="9">
         <f t="shared" si="0"/>
-        <v>959.09999999999991</v>
+        <v>929.09999999999991</v>
       </c>
       <c r="L55" s="17"/>
       <c r="M55" s="18"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="48">
+      <c r="A56" s="35">
         <v>6</v>
       </c>
-      <c r="B56" s="49"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="9">
         <f t="shared" si="1"/>
-        <v>191.82</v>
+        <v>185.82</v>
       </c>
       <c r="D56" s="9">
         <f t="shared" si="0"/>
-        <v>383.64</v>
+        <v>371.64</v>
       </c>
       <c r="E56" s="9">
         <f t="shared" si="0"/>
-        <v>575.46</v>
+        <v>557.46</v>
       </c>
       <c r="F56" s="9">
         <f t="shared" si="0"/>
-        <v>767.28</v>
+        <v>743.28</v>
       </c>
       <c r="G56" s="9">
         <f t="shared" si="0"/>
-        <v>959.09999999999991</v>
+        <v>929.10000000000014</v>
       </c>
       <c r="H56" s="9">
         <f t="shared" si="0"/>
-        <v>1150.92</v>
-      </c>
-      <c r="K56" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="L56" s="41"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="41"/>
+        <v>1114.92</v>
+      </c>
+      <c r="K56" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="L56" s="74"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="74"/>
+      <c r="O56" s="74"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="48">
+      <c r="A57" s="35">
         <v>7</v>
       </c>
-      <c r="B57" s="49"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="9">
         <f t="shared" si="1"/>
-        <v>223.79</v>
+        <v>216.79</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="0"/>
-        <v>447.58</v>
+        <v>433.58</v>
       </c>
       <c r="E57" s="9">
         <f t="shared" si="0"/>
-        <v>671.37</v>
+        <v>650.37</v>
       </c>
       <c r="F57" s="9">
         <f t="shared" si="0"/>
-        <v>895.16</v>
+        <v>867.16</v>
       </c>
       <c r="G57" s="9">
         <f t="shared" si="0"/>
-        <v>1118.95</v>
+        <v>1083.9500000000003</v>
       </c>
       <c r="H57" s="9">
         <f t="shared" si="0"/>
-        <v>1342.74</v>
+        <v>1300.74</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L57" s="4">
         <v>56</v>
       </c>
       <c r="M57" s="5">
         <f>L57*$L$22</f>
-        <v>1119.4399999999998</v>
-      </c>
-      <c r="N57" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="O57" s="43"/>
+        <v>839.44</v>
+      </c>
+      <c r="N57" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O57" s="64"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="48">
+      <c r="A58" s="35">
         <v>8</v>
       </c>
-      <c r="B58" s="49"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="9">
         <f t="shared" si="1"/>
-        <v>255.76</v>
+        <v>247.76</v>
       </c>
       <c r="D58" s="9">
         <f t="shared" si="0"/>
-        <v>511.52</v>
+        <v>495.52</v>
       </c>
       <c r="E58" s="9">
         <f t="shared" si="0"/>
-        <v>767.28</v>
+        <v>743.28</v>
       </c>
       <c r="F58" s="9">
         <f t="shared" si="0"/>
-        <v>1023.04</v>
+        <v>991.04</v>
       </c>
       <c r="G58" s="9">
         <f t="shared" si="0"/>
-        <v>1278.8</v>
+        <v>1238.8000000000002</v>
       </c>
       <c r="H58" s="9">
         <f t="shared" si="0"/>
-        <v>1534.56</v>
+        <v>1486.56</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L58" s="4">
         <v>24</v>
@@ -2477,124 +2539,124 @@
         <f>L58*$N$22</f>
         <v>719.76</v>
       </c>
-      <c r="N58" s="44"/>
-      <c r="O58" s="45"/>
+      <c r="N58" s="65"/>
+      <c r="O58" s="66"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="48">
+      <c r="A59" s="35">
         <v>9</v>
       </c>
-      <c r="B59" s="49"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="9">
         <f t="shared" si="1"/>
-        <v>287.73</v>
+        <v>278.73</v>
       </c>
       <c r="D59" s="9">
         <f t="shared" si="0"/>
-        <v>575.46</v>
+        <v>557.46</v>
       </c>
       <c r="E59" s="9">
         <f t="shared" si="0"/>
-        <v>863.18999999999994</v>
+        <v>836.18999999999994</v>
       </c>
       <c r="F59" s="9">
         <f t="shared" si="0"/>
-        <v>1150.92</v>
+        <v>1114.92</v>
       </c>
       <c r="G59" s="9">
         <f t="shared" si="0"/>
-        <v>1438.6499999999999</v>
+        <v>1393.65</v>
       </c>
       <c r="H59" s="9">
         <f t="shared" si="0"/>
-        <v>1726.3799999999999</v>
+        <v>1672.3799999999999</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L59" s="4">
         <v>12</v>
       </c>
       <c r="M59" s="5">
         <f>L59*$L$23</f>
-        <v>479.88</v>
-      </c>
-      <c r="N59" s="46"/>
-      <c r="O59" s="47"/>
+        <v>455.88</v>
+      </c>
+      <c r="N59" s="67"/>
+      <c r="O59" s="68"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="48">
+      <c r="A60" s="35">
         <v>10</v>
       </c>
-      <c r="B60" s="49"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="9">
         <f t="shared" si="1"/>
-        <v>319.7</v>
+        <v>309.7</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" si="0"/>
-        <v>639.4</v>
+        <v>619.4</v>
       </c>
       <c r="E60" s="9">
         <f t="shared" si="0"/>
-        <v>959.09999999999991</v>
+        <v>929.09999999999991</v>
       </c>
       <c r="F60" s="9">
         <f t="shared" si="0"/>
-        <v>1278.8</v>
+        <v>1238.8</v>
       </c>
       <c r="G60" s="9">
         <f t="shared" si="0"/>
-        <v>1598.5</v>
+        <v>1548.5000000000002</v>
       </c>
       <c r="H60" s="9">
         <f t="shared" si="0"/>
-        <v>1918.1999999999998</v>
+        <v>1858.1999999999998</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L60" s="4">
         <v>8</v>
       </c>
       <c r="M60" s="5">
         <f>L60*$N$23</f>
-        <v>639.91999999999996</v>
+        <v>607.91999999999996</v>
       </c>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="48">
+      <c r="A61" s="35">
         <v>11</v>
       </c>
-      <c r="B61" s="49"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="9">
         <f t="shared" si="1"/>
-        <v>351.66999999999996</v>
+        <v>340.66999999999996</v>
       </c>
       <c r="D61" s="9">
         <f t="shared" si="0"/>
-        <v>703.33999999999992</v>
+        <v>681.33999999999992</v>
       </c>
       <c r="E61" s="9">
         <f t="shared" si="0"/>
-        <v>1055.01</v>
+        <v>1022.01</v>
       </c>
       <c r="F61" s="9">
         <f t="shared" si="0"/>
-        <v>1406.6799999999998</v>
+        <v>1362.6799999999998</v>
       </c>
       <c r="G61" s="9">
         <f t="shared" si="0"/>
-        <v>1758.35</v>
+        <v>1703.3500000000004</v>
       </c>
       <c r="H61" s="9">
         <f t="shared" si="0"/>
-        <v>2110.02</v>
+        <v>2044.02</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L61" s="4">
         <f>4 * (L57+L59)</f>
@@ -2602,47 +2664,47 @@
       </c>
       <c r="M61" s="5">
         <f>L61*$L$24</f>
-        <v>1629.28</v>
+        <v>2173.2800000000002</v>
       </c>
       <c r="N61" s="6" t="s">
         <v>14</v>
       </c>
       <c r="O61" s="5">
         <f>SUM(M57:M65)</f>
-        <v>5046.4799999999996</v>
+        <v>5254.4800000000005</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="48">
+      <c r="A62" s="35">
         <v>12</v>
       </c>
-      <c r="B62" s="49"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="9">
         <f>$A62 * (C$50 * $L$22 + C$50 * 2 * $L$24)</f>
-        <v>383.64</v>
+        <v>371.64</v>
       </c>
       <c r="D62" s="9">
         <f t="shared" si="0"/>
-        <v>767.28</v>
+        <v>743.28</v>
       </c>
       <c r="E62" s="9">
         <f t="shared" si="0"/>
-        <v>1150.92</v>
+        <v>1114.92</v>
       </c>
       <c r="F62" s="9">
         <f t="shared" si="0"/>
-        <v>1534.56</v>
+        <v>1486.56</v>
       </c>
       <c r="G62" s="9">
         <f t="shared" si="0"/>
-        <v>1918.1999999999998</v>
+        <v>1858.2000000000003</v>
       </c>
       <c r="H62" s="9">
         <f t="shared" si="0"/>
-        <v>2301.84</v>
+        <v>2229.84</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L62" s="4">
         <f>5*(L58+L60)</f>
@@ -2657,40 +2719,40 @@
       </c>
       <c r="O62" s="5">
         <f>O61*12</f>
-        <v>60557.759999999995</v>
+        <v>63053.760000000009</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="48">
+      <c r="A63" s="35">
         <v>14</v>
       </c>
-      <c r="B63" s="49"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="9">
         <f t="shared" ref="C63:H74" si="2">$A63 * (C$50 * $L$22 + C$50 * 2 * $L$24)</f>
-        <v>447.58</v>
+        <v>433.58</v>
       </c>
       <c r="D63" s="9">
         <f t="shared" si="0"/>
-        <v>895.16</v>
+        <v>867.16</v>
       </c>
       <c r="E63" s="9">
         <f t="shared" si="0"/>
-        <v>1342.74</v>
+        <v>1300.74</v>
       </c>
       <c r="F63" s="9">
         <f t="shared" si="0"/>
-        <v>1790.32</v>
+        <v>1734.32</v>
       </c>
       <c r="G63" s="9">
         <f t="shared" si="0"/>
-        <v>2237.9</v>
+        <v>2167.9000000000005</v>
       </c>
       <c r="H63" s="9">
         <f t="shared" si="0"/>
-        <v>2685.48</v>
+        <v>2601.48</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L63" s="4">
         <v>4</v>
@@ -2701,33 +2763,33 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="48">
+      <c r="A64" s="35">
         <v>16</v>
       </c>
-      <c r="B64" s="49"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="9">
         <f t="shared" si="2"/>
-        <v>511.52</v>
+        <v>495.52</v>
       </c>
       <c r="D64" s="9">
         <f t="shared" si="0"/>
-        <v>1023.04</v>
+        <v>991.04</v>
       </c>
       <c r="E64" s="9">
         <f t="shared" si="0"/>
-        <v>1534.56</v>
+        <v>1486.56</v>
       </c>
       <c r="F64" s="9">
         <f t="shared" si="0"/>
-        <v>2046.08</v>
+        <v>1982.08</v>
       </c>
       <c r="G64" s="9">
         <f t="shared" si="0"/>
-        <v>2557.6</v>
+        <v>2477.6000000000004</v>
       </c>
       <c r="H64" s="9">
         <f t="shared" si="0"/>
-        <v>3069.12</v>
+        <v>2973.12</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>16</v>
@@ -2741,33 +2803,33 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="48">
+      <c r="A65" s="35">
         <v>18</v>
       </c>
-      <c r="B65" s="49"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="9">
         <f t="shared" si="2"/>
-        <v>575.46</v>
+        <v>557.46</v>
       </c>
       <c r="D65" s="9">
         <f t="shared" si="0"/>
-        <v>1150.92</v>
+        <v>1114.92</v>
       </c>
       <c r="E65" s="9">
         <f t="shared" si="0"/>
-        <v>1726.3799999999999</v>
+        <v>1672.3799999999999</v>
       </c>
       <c r="F65" s="9">
         <f t="shared" si="0"/>
-        <v>2301.84</v>
+        <v>2229.84</v>
       </c>
       <c r="G65" s="9">
         <f t="shared" si="0"/>
-        <v>2877.2999999999997</v>
+        <v>2787.3</v>
       </c>
       <c r="H65" s="9">
         <f t="shared" si="0"/>
-        <v>3452.7599999999998</v>
+        <v>3344.7599999999998</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>15</v>
@@ -2781,177 +2843,177 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="48">
+      <c r="A66" s="35">
         <v>20</v>
       </c>
-      <c r="B66" s="49"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="9">
         <f t="shared" si="2"/>
-        <v>639.4</v>
+        <v>619.4</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" si="0"/>
-        <v>1278.8</v>
+        <v>1238.8</v>
       </c>
       <c r="E66" s="9">
         <f t="shared" si="0"/>
-        <v>1918.1999999999998</v>
+        <v>1858.1999999999998</v>
       </c>
       <c r="F66" s="9">
         <f t="shared" si="0"/>
-        <v>2557.6</v>
+        <v>2477.6</v>
       </c>
       <c r="G66" s="9">
         <f t="shared" si="0"/>
-        <v>3197</v>
+        <v>3097.0000000000005</v>
       </c>
       <c r="H66" s="9">
         <f t="shared" si="0"/>
-        <v>3836.3999999999996</v>
+        <v>3716.3999999999996</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="48">
+      <c r="A67" s="35">
         <v>22</v>
       </c>
-      <c r="B67" s="49"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="9">
         <f t="shared" si="2"/>
-        <v>703.33999999999992</v>
+        <v>681.33999999999992</v>
       </c>
       <c r="D67" s="9">
         <f t="shared" si="2"/>
-        <v>1406.6799999999998</v>
+        <v>1362.6799999999998</v>
       </c>
       <c r="E67" s="9">
         <f t="shared" si="2"/>
-        <v>2110.02</v>
+        <v>2044.02</v>
       </c>
       <c r="F67" s="9">
         <f t="shared" si="2"/>
-        <v>2813.3599999999997</v>
+        <v>2725.3599999999997</v>
       </c>
       <c r="G67" s="9">
         <f t="shared" si="2"/>
-        <v>3516.7</v>
+        <v>3406.7000000000007</v>
       </c>
       <c r="H67" s="9">
         <f t="shared" si="2"/>
-        <v>4220.04</v>
+        <v>4088.04</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="48">
+      <c r="A68" s="35">
         <v>24</v>
       </c>
-      <c r="B68" s="49"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="9">
         <f t="shared" si="2"/>
-        <v>767.28</v>
+        <v>743.28</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" si="2"/>
-        <v>1534.56</v>
+        <v>1486.56</v>
       </c>
       <c r="E68" s="9">
         <f t="shared" si="2"/>
-        <v>2301.84</v>
+        <v>2229.84</v>
       </c>
       <c r="F68" s="9">
         <f t="shared" si="2"/>
-        <v>3069.12</v>
+        <v>2973.12</v>
       </c>
       <c r="G68" s="9">
         <f t="shared" si="2"/>
-        <v>3836.3999999999996</v>
+        <v>3716.4000000000005</v>
       </c>
       <c r="H68" s="9">
         <f t="shared" si="2"/>
-        <v>4603.68</v>
-      </c>
-      <c r="K68" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="L68" s="41"/>
-      <c r="M68" s="41"/>
-      <c r="N68" s="41"/>
-      <c r="O68" s="41"/>
+        <v>4459.68</v>
+      </c>
+      <c r="K68" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="L68" s="74"/>
+      <c r="M68" s="74"/>
+      <c r="N68" s="74"/>
+      <c r="O68" s="74"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="48">
+      <c r="A69" s="35">
         <v>28</v>
       </c>
-      <c r="B69" s="49"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="9">
         <f t="shared" si="2"/>
-        <v>895.16</v>
+        <v>867.16</v>
       </c>
       <c r="D69" s="9">
         <f t="shared" si="2"/>
-        <v>1790.32</v>
+        <v>1734.32</v>
       </c>
       <c r="E69" s="9">
         <f t="shared" si="2"/>
-        <v>2685.48</v>
+        <v>2601.48</v>
       </c>
       <c r="F69" s="9">
         <f t="shared" si="2"/>
-        <v>3580.64</v>
+        <v>3468.64</v>
       </c>
       <c r="G69" s="9">
         <f t="shared" si="2"/>
-        <v>4475.8</v>
+        <v>4335.8000000000011</v>
       </c>
       <c r="H69" s="9">
         <f t="shared" si="2"/>
-        <v>5370.96</v>
+        <v>5202.96</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L69" s="4">
         <v>70</v>
       </c>
       <c r="M69" s="5">
         <f>L69*$L$22</f>
-        <v>1399.3</v>
-      </c>
-      <c r="N69" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="O69" s="43"/>
+        <v>1049.3</v>
+      </c>
+      <c r="N69" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="O69" s="64"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="48">
+      <c r="A70" s="35">
         <v>32</v>
       </c>
-      <c r="B70" s="49"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="9">
         <f t="shared" si="2"/>
-        <v>1023.04</v>
+        <v>991.04</v>
       </c>
       <c r="D70" s="9">
         <f t="shared" si="2"/>
-        <v>2046.08</v>
+        <v>1982.08</v>
       </c>
       <c r="E70" s="9">
         <f t="shared" si="2"/>
-        <v>3069.12</v>
+        <v>2973.12</v>
       </c>
       <c r="F70" s="9">
         <f t="shared" si="2"/>
-        <v>4092.16</v>
+        <v>3964.16</v>
       </c>
       <c r="G70" s="9">
         <f t="shared" si="2"/>
-        <v>5115.2</v>
+        <v>4955.2000000000007</v>
       </c>
       <c r="H70" s="9">
         <f t="shared" si="2"/>
-        <v>6138.24</v>
+        <v>5946.24</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L70" s="4">
         <v>35</v>
@@ -2960,124 +3022,124 @@
         <f>L70*$N$22</f>
         <v>1049.6499999999999</v>
       </c>
-      <c r="N70" s="44"/>
-      <c r="O70" s="45"/>
+      <c r="N70" s="65"/>
+      <c r="O70" s="66"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="48">
+      <c r="A71" s="35">
         <v>36</v>
       </c>
-      <c r="B71" s="49"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="9">
         <f t="shared" si="2"/>
-        <v>1150.92</v>
+        <v>1114.92</v>
       </c>
       <c r="D71" s="9">
         <f t="shared" si="2"/>
-        <v>2301.84</v>
+        <v>2229.84</v>
       </c>
       <c r="E71" s="9">
         <f t="shared" si="2"/>
-        <v>3452.7599999999998</v>
+        <v>3344.7599999999998</v>
       </c>
       <c r="F71" s="9">
         <f t="shared" si="2"/>
-        <v>4603.68</v>
+        <v>4459.68</v>
       </c>
       <c r="G71" s="9">
         <f t="shared" si="2"/>
-        <v>5754.5999999999995</v>
+        <v>5574.6</v>
       </c>
       <c r="H71" s="9">
         <f t="shared" si="2"/>
-        <v>6905.5199999999995</v>
+        <v>6689.5199999999995</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L71" s="4">
         <v>20</v>
       </c>
       <c r="M71" s="5">
         <f>L71*$L$23</f>
-        <v>799.80000000000007</v>
-      </c>
-      <c r="N71" s="46"/>
-      <c r="O71" s="47"/>
+        <v>759.80000000000007</v>
+      </c>
+      <c r="N71" s="67"/>
+      <c r="O71" s="68"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="48">
+      <c r="A72" s="35">
         <v>40</v>
       </c>
-      <c r="B72" s="49"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="9">
         <f t="shared" si="2"/>
-        <v>1278.8</v>
+        <v>1238.8</v>
       </c>
       <c r="D72" s="9">
         <f t="shared" si="2"/>
-        <v>2557.6</v>
+        <v>2477.6</v>
       </c>
       <c r="E72" s="9">
         <f t="shared" si="2"/>
-        <v>3836.3999999999996</v>
+        <v>3716.3999999999996</v>
       </c>
       <c r="F72" s="9">
         <f t="shared" si="2"/>
-        <v>5115.2</v>
+        <v>4955.2</v>
       </c>
       <c r="G72" s="9">
         <f t="shared" si="2"/>
-        <v>6394</v>
+        <v>6194.0000000000009</v>
       </c>
       <c r="H72" s="9">
         <f t="shared" si="2"/>
-        <v>7672.7999999999993</v>
+        <v>7432.7999999999993</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L72" s="4">
         <v>8</v>
       </c>
       <c r="M72" s="5">
         <f>L72*$N$23</f>
-        <v>639.91999999999996</v>
+        <v>607.91999999999996</v>
       </c>
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="48">
+      <c r="A73" s="35">
         <v>44</v>
       </c>
-      <c r="B73" s="49"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="9">
         <f t="shared" si="2"/>
-        <v>1406.6799999999998</v>
+        <v>1362.6799999999998</v>
       </c>
       <c r="D73" s="9">
         <f t="shared" si="2"/>
-        <v>2813.3599999999997</v>
+        <v>2725.3599999999997</v>
       </c>
       <c r="E73" s="9">
         <f t="shared" si="2"/>
-        <v>4220.04</v>
+        <v>4088.04</v>
       </c>
       <c r="F73" s="9">
         <f t="shared" si="2"/>
-        <v>5626.7199999999993</v>
+        <v>5450.7199999999993</v>
       </c>
       <c r="G73" s="9">
         <f t="shared" si="2"/>
-        <v>7033.4</v>
+        <v>6813.4000000000015</v>
       </c>
       <c r="H73" s="9">
         <f t="shared" si="2"/>
-        <v>8440.08</v>
+        <v>8176.08</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L73" s="4">
         <f>4 * (L69+L71)</f>
@@ -3085,47 +3147,47 @@
       </c>
       <c r="M73" s="5">
         <f>L73*$L$24</f>
-        <v>2156.4</v>
+        <v>2876.4</v>
       </c>
       <c r="N73" s="6" t="s">
         <v>14</v>
       </c>
       <c r="O73" s="5">
         <f>SUM(M69:M77)</f>
-        <v>6696.6</v>
+        <v>6994.6</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="48">
+      <c r="A74" s="35">
         <v>48</v>
       </c>
-      <c r="B74" s="49"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="9">
         <f t="shared" si="2"/>
-        <v>1534.56</v>
+        <v>1486.56</v>
       </c>
       <c r="D74" s="9">
         <f t="shared" si="2"/>
-        <v>3069.12</v>
+        <v>2973.12</v>
       </c>
       <c r="E74" s="9">
         <f t="shared" si="2"/>
-        <v>4603.68</v>
+        <v>4459.68</v>
       </c>
       <c r="F74" s="9">
         <f t="shared" si="2"/>
-        <v>6138.24</v>
+        <v>5946.24</v>
       </c>
       <c r="G74" s="9">
         <f t="shared" si="2"/>
-        <v>7672.7999999999993</v>
+        <v>7432.8000000000011</v>
       </c>
       <c r="H74" s="9">
         <f t="shared" si="2"/>
-        <v>9207.36</v>
+        <v>8919.36</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L74" s="4">
         <f>5*(L70+L72)</f>
@@ -3140,12 +3202,12 @@
       </c>
       <c r="O74" s="5">
         <f>O73*12</f>
-        <v>80359.200000000012</v>
+        <v>83935.200000000012</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K75" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L75" s="4">
         <v>8</v>
@@ -3156,16 +3218,16 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B76" s="52"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="52"/>
-      <c r="E76" s="52"/>
-      <c r="F76" s="52"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="52"/>
+      <c r="A76" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
       <c r="K76" s="2" t="s">
         <v>16</v>
       </c>
@@ -3178,18 +3240,18 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="53" t="s">
+      <c r="A77" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="53"/>
-      <c r="C77" s="54" t="s">
+      <c r="B77" s="58"/>
+      <c r="C77" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
       <c r="K77" s="1" t="s">
         <v>15</v>
       </c>
@@ -3202,10 +3264,10 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="50" t="s">
+      <c r="A78" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B78" s="51"/>
+      <c r="B78" s="72"/>
       <c r="C78" s="7">
         <v>1</v>
       </c>
@@ -3226,390 +3288,390 @@
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="48">
+      <c r="A79" s="35">
         <v>1</v>
       </c>
-      <c r="B79" s="49"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="9">
         <f>$A79 * (C$78 * $L$22 + C$78 * 4 * $L$24)</f>
-        <v>43.95</v>
+        <v>46.95</v>
       </c>
       <c r="D79" s="9">
         <f t="shared" ref="D79:H94" si="3">$A79 * (D$78 * $L$22 + D$78 * 4 * $L$24)</f>
-        <v>87.9</v>
+        <v>93.9</v>
       </c>
       <c r="E79" s="9">
         <f t="shared" si="3"/>
-        <v>131.85</v>
+        <v>140.85</v>
       </c>
       <c r="F79" s="9">
         <f t="shared" si="3"/>
-        <v>175.8</v>
+        <v>187.8</v>
       </c>
       <c r="G79" s="9">
         <f t="shared" si="3"/>
-        <v>219.75</v>
+        <v>234.75</v>
       </c>
       <c r="H79" s="9">
         <f t="shared" si="3"/>
-        <v>263.7</v>
+        <v>281.7</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="48">
+      <c r="A80" s="35">
         <v>2</v>
       </c>
-      <c r="B80" s="49"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="9">
         <f t="shared" ref="C80:H102" si="4">$A80 * (C$78 * $L$22 + C$78 * 4 * $L$24)</f>
-        <v>87.9</v>
+        <v>93.9</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" si="3"/>
-        <v>175.8</v>
+        <v>187.8</v>
       </c>
       <c r="E80" s="9">
         <f t="shared" si="3"/>
-        <v>263.7</v>
+        <v>281.7</v>
       </c>
       <c r="F80" s="9">
         <f t="shared" si="3"/>
-        <v>351.6</v>
+        <v>375.6</v>
       </c>
       <c r="G80" s="9">
         <f t="shared" si="3"/>
-        <v>439.5</v>
+        <v>469.5</v>
       </c>
       <c r="H80" s="9">
         <f t="shared" si="3"/>
-        <v>527.4</v>
+        <v>563.4</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="48">
+      <c r="A81" s="35">
         <v>3</v>
       </c>
-      <c r="B81" s="49"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="9">
         <f t="shared" si="4"/>
-        <v>131.85000000000002</v>
+        <v>140.85000000000002</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" si="3"/>
-        <v>263.70000000000005</v>
+        <v>281.70000000000005</v>
       </c>
       <c r="E81" s="9">
         <f t="shared" si="3"/>
-        <v>395.54999999999995</v>
+        <v>422.54999999999995</v>
       </c>
       <c r="F81" s="9">
         <f t="shared" si="3"/>
-        <v>527.40000000000009</v>
+        <v>563.40000000000009</v>
       </c>
       <c r="G81" s="9">
         <f t="shared" si="3"/>
-        <v>659.25</v>
+        <v>704.25</v>
       </c>
       <c r="H81" s="9">
         <f t="shared" si="3"/>
-        <v>791.09999999999991</v>
+        <v>845.09999999999991</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="48">
+      <c r="A82" s="35">
         <v>4</v>
       </c>
-      <c r="B82" s="49"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="9">
         <f t="shared" si="4"/>
-        <v>175.8</v>
+        <v>187.8</v>
       </c>
       <c r="D82" s="9">
         <f t="shared" si="3"/>
-        <v>351.6</v>
+        <v>375.6</v>
       </c>
       <c r="E82" s="9">
         <f t="shared" si="3"/>
-        <v>527.4</v>
+        <v>563.4</v>
       </c>
       <c r="F82" s="9">
         <f t="shared" si="3"/>
-        <v>703.2</v>
+        <v>751.2</v>
       </c>
       <c r="G82" s="9">
         <f t="shared" si="3"/>
-        <v>879</v>
+        <v>939</v>
       </c>
       <c r="H82" s="9">
         <f t="shared" si="3"/>
-        <v>1054.8</v>
+        <v>1126.8</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="48">
+      <c r="A83" s="35">
         <v>5</v>
       </c>
-      <c r="B83" s="49"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="9">
         <f t="shared" si="4"/>
-        <v>219.75</v>
+        <v>234.75</v>
       </c>
       <c r="D83" s="9">
         <f t="shared" si="3"/>
-        <v>439.5</v>
+        <v>469.5</v>
       </c>
       <c r="E83" s="9">
         <f t="shared" si="3"/>
-        <v>659.25</v>
+        <v>704.25</v>
       </c>
       <c r="F83" s="9">
         <f t="shared" si="3"/>
-        <v>879</v>
+        <v>939</v>
       </c>
       <c r="G83" s="9">
         <f t="shared" si="3"/>
-        <v>1098.75</v>
+        <v>1173.75</v>
       </c>
       <c r="H83" s="9">
         <f t="shared" si="3"/>
-        <v>1318.5</v>
+        <v>1408.5</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="48">
+      <c r="A84" s="35">
         <v>6</v>
       </c>
-      <c r="B84" s="49"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="9">
         <f t="shared" si="4"/>
-        <v>263.70000000000005</v>
+        <v>281.70000000000005</v>
       </c>
       <c r="D84" s="9">
         <f t="shared" si="3"/>
-        <v>527.40000000000009</v>
+        <v>563.40000000000009</v>
       </c>
       <c r="E84" s="9">
         <f t="shared" si="3"/>
-        <v>791.09999999999991</v>
+        <v>845.09999999999991</v>
       </c>
       <c r="F84" s="9">
         <f t="shared" si="3"/>
-        <v>1054.8000000000002</v>
+        <v>1126.8000000000002</v>
       </c>
       <c r="G84" s="9">
         <f t="shared" si="3"/>
-        <v>1318.5</v>
+        <v>1408.5</v>
       </c>
       <c r="H84" s="9">
         <f t="shared" si="3"/>
-        <v>1582.1999999999998</v>
+        <v>1690.1999999999998</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="48">
+      <c r="A85" s="35">
         <v>7</v>
       </c>
-      <c r="B85" s="49"/>
+      <c r="B85" s="36"/>
       <c r="C85" s="9">
         <f t="shared" si="4"/>
-        <v>307.65000000000003</v>
+        <v>328.65000000000003</v>
       </c>
       <c r="D85" s="9">
         <f t="shared" si="3"/>
-        <v>615.30000000000007</v>
+        <v>657.30000000000007</v>
       </c>
       <c r="E85" s="9">
         <f t="shared" si="3"/>
-        <v>922.94999999999993</v>
+        <v>985.94999999999993</v>
       </c>
       <c r="F85" s="9">
         <f t="shared" si="3"/>
-        <v>1230.6000000000001</v>
+        <v>1314.6000000000001</v>
       </c>
       <c r="G85" s="9">
         <f t="shared" si="3"/>
-        <v>1538.25</v>
+        <v>1643.25</v>
       </c>
       <c r="H85" s="9">
         <f t="shared" si="3"/>
-        <v>1845.8999999999999</v>
+        <v>1971.8999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="48">
+      <c r="A86" s="35">
         <v>8</v>
       </c>
-      <c r="B86" s="49"/>
+      <c r="B86" s="36"/>
       <c r="C86" s="9">
         <f t="shared" si="4"/>
-        <v>351.6</v>
+        <v>375.6</v>
       </c>
       <c r="D86" s="9">
         <f t="shared" si="3"/>
-        <v>703.2</v>
+        <v>751.2</v>
       </c>
       <c r="E86" s="9">
         <f t="shared" si="3"/>
-        <v>1054.8</v>
+        <v>1126.8</v>
       </c>
       <c r="F86" s="9">
         <f t="shared" si="3"/>
-        <v>1406.4</v>
+        <v>1502.4</v>
       </c>
       <c r="G86" s="9">
         <f t="shared" si="3"/>
-        <v>1758</v>
+        <v>1878</v>
       </c>
       <c r="H86" s="9">
         <f t="shared" si="3"/>
-        <v>2109.6</v>
+        <v>2253.6</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="48">
+      <c r="A87" s="35">
         <v>9</v>
       </c>
-      <c r="B87" s="49"/>
+      <c r="B87" s="36"/>
       <c r="C87" s="9">
         <f t="shared" si="4"/>
-        <v>395.55</v>
+        <v>422.55</v>
       </c>
       <c r="D87" s="9">
         <f t="shared" si="3"/>
-        <v>791.1</v>
+        <v>845.1</v>
       </c>
       <c r="E87" s="9">
         <f t="shared" si="3"/>
-        <v>1186.6499999999999</v>
+        <v>1267.6499999999999</v>
       </c>
       <c r="F87" s="9">
         <f t="shared" si="3"/>
-        <v>1582.2</v>
+        <v>1690.2</v>
       </c>
       <c r="G87" s="9">
         <f t="shared" si="3"/>
-        <v>1977.75</v>
+        <v>2112.75</v>
       </c>
       <c r="H87" s="9">
         <f t="shared" si="3"/>
-        <v>2373.2999999999997</v>
+        <v>2535.2999999999997</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="48">
+      <c r="A88" s="35">
         <v>10</v>
       </c>
-      <c r="B88" s="49"/>
+      <c r="B88" s="36"/>
       <c r="C88" s="9">
         <f t="shared" si="4"/>
-        <v>439.5</v>
+        <v>469.5</v>
       </c>
       <c r="D88" s="9">
         <f t="shared" si="3"/>
-        <v>879</v>
+        <v>939</v>
       </c>
       <c r="E88" s="9">
         <f t="shared" si="3"/>
-        <v>1318.5</v>
+        <v>1408.5</v>
       </c>
       <c r="F88" s="9">
         <f t="shared" si="3"/>
-        <v>1758</v>
+        <v>1878</v>
       </c>
       <c r="G88" s="9">
         <f t="shared" si="3"/>
-        <v>2197.5</v>
+        <v>2347.5</v>
       </c>
       <c r="H88" s="9">
         <f t="shared" si="3"/>
-        <v>2637</v>
-      </c>
-      <c r="J88" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="K88" s="39"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="39"/>
-      <c r="N88" s="39"/>
-      <c r="O88" s="39"/>
-      <c r="P88" s="39"/>
-      <c r="Q88" s="40"/>
+        <v>2817</v>
+      </c>
+      <c r="J88" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="K88" s="76"/>
+      <c r="L88" s="76"/>
+      <c r="M88" s="76"/>
+      <c r="N88" s="76"/>
+      <c r="O88" s="76"/>
+      <c r="P88" s="76"/>
+      <c r="Q88" s="77"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="48">
+      <c r="A89" s="35">
         <v>11</v>
       </c>
-      <c r="B89" s="49"/>
+      <c r="B89" s="36"/>
       <c r="C89" s="9">
         <f t="shared" si="4"/>
-        <v>483.45000000000005</v>
+        <v>516.45000000000005</v>
       </c>
       <c r="D89" s="9">
         <f t="shared" si="3"/>
-        <v>966.90000000000009</v>
+        <v>1032.9000000000001</v>
       </c>
       <c r="E89" s="9">
         <f t="shared" si="3"/>
-        <v>1450.35</v>
+        <v>1549.35</v>
       </c>
       <c r="F89" s="9">
         <f t="shared" si="3"/>
-        <v>1933.8000000000002</v>
+        <v>2065.8000000000002</v>
       </c>
       <c r="G89" s="9">
         <f t="shared" si="3"/>
-        <v>2417.25</v>
+        <v>2582.25</v>
       </c>
       <c r="H89" s="9">
         <f t="shared" si="3"/>
-        <v>2900.7</v>
-      </c>
-      <c r="J89" s="36" t="s">
+        <v>3098.7</v>
+      </c>
+      <c r="J89" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="K89" s="37"/>
-      <c r="L89" s="33" t="s">
+      <c r="K89" s="79"/>
+      <c r="L89" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="M89" s="34"/>
-      <c r="N89" s="34"/>
-      <c r="O89" s="34"/>
-      <c r="P89" s="34"/>
-      <c r="Q89" s="35"/>
+      <c r="M89" s="81"/>
+      <c r="N89" s="81"/>
+      <c r="O89" s="81"/>
+      <c r="P89" s="81"/>
+      <c r="Q89" s="82"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="48">
+      <c r="A90" s="35">
         <v>12</v>
       </c>
-      <c r="B90" s="49"/>
+      <c r="B90" s="36"/>
       <c r="C90" s="9">
         <f t="shared" si="4"/>
-        <v>527.40000000000009</v>
+        <v>563.40000000000009</v>
       </c>
       <c r="D90" s="9">
         <f t="shared" si="3"/>
-        <v>1054.8000000000002</v>
+        <v>1126.8000000000002</v>
       </c>
       <c r="E90" s="9">
         <f t="shared" si="3"/>
-        <v>1582.1999999999998</v>
+        <v>1690.1999999999998</v>
       </c>
       <c r="F90" s="9">
         <f t="shared" si="3"/>
-        <v>2109.6000000000004</v>
+        <v>2253.6000000000004</v>
       </c>
       <c r="G90" s="9">
         <f t="shared" si="3"/>
-        <v>2637</v>
+        <v>2817</v>
       </c>
       <c r="H90" s="9">
         <f t="shared" si="3"/>
-        <v>3164.3999999999996</v>
-      </c>
-      <c r="J90" s="50" t="s">
+        <v>3380.3999999999996</v>
+      </c>
+      <c r="J90" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="K90" s="51"/>
+      <c r="K90" s="72"/>
       <c r="L90" s="7">
         <v>1</v>
       </c>
@@ -3630,878 +3692,878 @@
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="48">
+      <c r="A91" s="35">
         <v>14</v>
       </c>
-      <c r="B91" s="49"/>
+      <c r="B91" s="36"/>
       <c r="C91" s="9">
         <f t="shared" si="4"/>
-        <v>615.30000000000007</v>
+        <v>657.30000000000007</v>
       </c>
       <c r="D91" s="9">
         <f t="shared" si="3"/>
-        <v>1230.6000000000001</v>
+        <v>1314.6000000000001</v>
       </c>
       <c r="E91" s="9">
         <f t="shared" si="3"/>
-        <v>1845.8999999999999</v>
+        <v>1971.8999999999999</v>
       </c>
       <c r="F91" s="9">
         <f t="shared" si="3"/>
-        <v>2461.2000000000003</v>
+        <v>2629.2000000000003</v>
       </c>
       <c r="G91" s="9">
         <f t="shared" si="3"/>
-        <v>3076.5</v>
+        <v>3286.5</v>
       </c>
       <c r="H91" s="9">
         <f t="shared" si="3"/>
-        <v>3691.7999999999997</v>
-      </c>
-      <c r="J91" s="48">
+        <v>3943.7999999999997</v>
+      </c>
+      <c r="J91" s="35">
         <v>1</v>
       </c>
-      <c r="K91" s="49"/>
+      <c r="K91" s="36"/>
       <c r="L91" s="9">
         <f t="shared" ref="L91:L114" si="5">C51+C109</f>
-        <v>65.94</v>
+        <v>64.94</v>
       </c>
       <c r="M91" s="9">
         <f t="shared" ref="M91:M114" si="6">D51+D109</f>
-        <v>131.88</v>
+        <v>129.88</v>
       </c>
       <c r="N91" s="9">
         <f t="shared" ref="N91:N114" si="7">E51+E109</f>
-        <v>197.82</v>
+        <v>194.82</v>
       </c>
       <c r="O91" s="9">
         <f t="shared" ref="O91:O114" si="8">F51+F109</f>
-        <v>263.76</v>
+        <v>259.76</v>
       </c>
       <c r="P91" s="9">
         <f t="shared" ref="P91:P114" si="9">G51+G109</f>
-        <v>329.7</v>
+        <v>324.70000000000005</v>
       </c>
       <c r="Q91" s="9">
         <f t="shared" ref="Q91:Q114" si="10">H51+H109</f>
-        <v>395.64</v>
+        <v>389.64</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="48">
+      <c r="A92" s="35">
         <v>16</v>
       </c>
-      <c r="B92" s="49"/>
+      <c r="B92" s="36"/>
       <c r="C92" s="9">
         <f t="shared" si="4"/>
-        <v>703.2</v>
+        <v>751.2</v>
       </c>
       <c r="D92" s="9">
         <f t="shared" si="3"/>
-        <v>1406.4</v>
+        <v>1502.4</v>
       </c>
       <c r="E92" s="9">
         <f t="shared" si="3"/>
-        <v>2109.6</v>
+        <v>2253.6</v>
       </c>
       <c r="F92" s="9">
         <f t="shared" si="3"/>
-        <v>2812.8</v>
+        <v>3004.8</v>
       </c>
       <c r="G92" s="9">
         <f t="shared" si="3"/>
-        <v>3516</v>
+        <v>3756</v>
       </c>
       <c r="H92" s="9">
         <f t="shared" si="3"/>
-        <v>4219.2</v>
-      </c>
-      <c r="J92" s="48">
+        <v>4507.2</v>
+      </c>
+      <c r="J92" s="35">
         <v>2</v>
       </c>
-      <c r="K92" s="49"/>
+      <c r="K92" s="36"/>
       <c r="L92" s="9">
         <f t="shared" si="5"/>
-        <v>131.88</v>
+        <v>129.88</v>
       </c>
       <c r="M92" s="9">
         <f t="shared" si="6"/>
-        <v>263.76</v>
+        <v>259.76</v>
       </c>
       <c r="N92" s="9">
         <f t="shared" si="7"/>
-        <v>395.64</v>
+        <v>389.64</v>
       </c>
       <c r="O92" s="9">
         <f t="shared" si="8"/>
-        <v>527.52</v>
+        <v>519.52</v>
       </c>
       <c r="P92" s="9">
         <f t="shared" si="9"/>
-        <v>659.4</v>
+        <v>649.40000000000009</v>
       </c>
       <c r="Q92" s="9">
         <f t="shared" si="10"/>
-        <v>791.28</v>
+        <v>779.28</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="48">
+      <c r="A93" s="35">
         <v>18</v>
       </c>
-      <c r="B93" s="49"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="9">
         <f t="shared" si="4"/>
-        <v>791.1</v>
+        <v>845.1</v>
       </c>
       <c r="D93" s="9">
         <f t="shared" si="3"/>
-        <v>1582.2</v>
+        <v>1690.2</v>
       </c>
       <c r="E93" s="9">
         <f t="shared" si="3"/>
-        <v>2373.2999999999997</v>
+        <v>2535.2999999999997</v>
       </c>
       <c r="F93" s="9">
         <f t="shared" si="3"/>
-        <v>3164.4</v>
+        <v>3380.4</v>
       </c>
       <c r="G93" s="9">
         <f t="shared" si="3"/>
-        <v>3955.5</v>
+        <v>4225.5</v>
       </c>
       <c r="H93" s="9">
         <f t="shared" si="3"/>
-        <v>4746.5999999999995</v>
-      </c>
-      <c r="J93" s="48">
+        <v>5070.5999999999995</v>
+      </c>
+      <c r="J93" s="35">
         <v>3</v>
       </c>
-      <c r="K93" s="49"/>
+      <c r="K93" s="36"/>
       <c r="L93" s="9">
         <f t="shared" si="5"/>
-        <v>197.82</v>
+        <v>194.82</v>
       </c>
       <c r="M93" s="9">
         <f t="shared" si="6"/>
-        <v>395.64</v>
+        <v>389.64</v>
       </c>
       <c r="N93" s="9">
         <f t="shared" si="7"/>
-        <v>593.46</v>
+        <v>584.46</v>
       </c>
       <c r="O93" s="9">
         <f t="shared" si="8"/>
-        <v>791.28</v>
+        <v>779.28</v>
       </c>
       <c r="P93" s="9">
         <f t="shared" si="9"/>
-        <v>989.09999999999991</v>
+        <v>974.1</v>
       </c>
       <c r="Q93" s="9">
         <f t="shared" si="10"/>
-        <v>1186.92</v>
+        <v>1168.92</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="48">
+      <c r="A94" s="35">
         <v>20</v>
       </c>
-      <c r="B94" s="49"/>
+      <c r="B94" s="36"/>
       <c r="C94" s="9">
         <f t="shared" si="4"/>
-        <v>879</v>
+        <v>939</v>
       </c>
       <c r="D94" s="9">
         <f t="shared" si="3"/>
-        <v>1758</v>
+        <v>1878</v>
       </c>
       <c r="E94" s="9">
         <f t="shared" si="3"/>
-        <v>2637</v>
+        <v>2817</v>
       </c>
       <c r="F94" s="9">
         <f t="shared" si="3"/>
-        <v>3516</v>
+        <v>3756</v>
       </c>
       <c r="G94" s="9">
         <f t="shared" si="3"/>
-        <v>4395</v>
+        <v>4695</v>
       </c>
       <c r="H94" s="9">
         <f t="shared" si="3"/>
-        <v>5274</v>
-      </c>
-      <c r="J94" s="48">
+        <v>5634</v>
+      </c>
+      <c r="J94" s="35">
         <v>4</v>
       </c>
-      <c r="K94" s="49"/>
+      <c r="K94" s="36"/>
       <c r="L94" s="9">
         <f t="shared" si="5"/>
-        <v>263.76</v>
+        <v>259.76</v>
       </c>
       <c r="M94" s="9">
         <f t="shared" si="6"/>
-        <v>527.52</v>
+        <v>519.52</v>
       </c>
       <c r="N94" s="9">
         <f t="shared" si="7"/>
-        <v>791.28</v>
+        <v>779.28</v>
       </c>
       <c r="O94" s="9">
         <f t="shared" si="8"/>
-        <v>1055.04</v>
+        <v>1039.04</v>
       </c>
       <c r="P94" s="9">
         <f t="shared" si="9"/>
-        <v>1318.8</v>
+        <v>1298.8000000000002</v>
       </c>
       <c r="Q94" s="9">
         <f t="shared" si="10"/>
-        <v>1582.56</v>
+        <v>1558.56</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="48">
+      <c r="A95" s="35">
         <v>22</v>
       </c>
-      <c r="B95" s="49"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="9">
         <f t="shared" si="4"/>
-        <v>966.90000000000009</v>
+        <v>1032.9000000000001</v>
       </c>
       <c r="D95" s="9">
         <f t="shared" si="4"/>
-        <v>1933.8000000000002</v>
+        <v>2065.8000000000002</v>
       </c>
       <c r="E95" s="9">
         <f t="shared" si="4"/>
-        <v>2900.7</v>
+        <v>3098.7</v>
       </c>
       <c r="F95" s="9">
         <f t="shared" si="4"/>
-        <v>3867.6000000000004</v>
+        <v>4131.6000000000004</v>
       </c>
       <c r="G95" s="9">
         <f t="shared" si="4"/>
-        <v>4834.5</v>
+        <v>5164.5</v>
       </c>
       <c r="H95" s="9">
         <f t="shared" si="4"/>
-        <v>5801.4</v>
-      </c>
-      <c r="J95" s="48">
+        <v>6197.4</v>
+      </c>
+      <c r="J95" s="35">
         <v>5</v>
       </c>
-      <c r="K95" s="49"/>
+      <c r="K95" s="36"/>
       <c r="L95" s="9">
         <f t="shared" si="5"/>
-        <v>329.7</v>
+        <v>324.7</v>
       </c>
       <c r="M95" s="9">
         <f t="shared" si="6"/>
-        <v>659.4</v>
+        <v>649.4</v>
       </c>
       <c r="N95" s="9">
         <f t="shared" si="7"/>
-        <v>989.09999999999991</v>
+        <v>974.09999999999991</v>
       </c>
       <c r="O95" s="9">
         <f t="shared" si="8"/>
-        <v>1318.8</v>
+        <v>1298.8</v>
       </c>
       <c r="P95" s="9">
         <f t="shared" si="9"/>
-        <v>1648.5</v>
+        <v>1623.5</v>
       </c>
       <c r="Q95" s="9">
         <f t="shared" si="10"/>
-        <v>1978.1999999999998</v>
+        <v>1948.1999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="48">
+      <c r="A96" s="35">
         <v>24</v>
       </c>
-      <c r="B96" s="49"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="9">
         <f t="shared" si="4"/>
-        <v>1054.8000000000002</v>
+        <v>1126.8000000000002</v>
       </c>
       <c r="D96" s="9">
         <f t="shared" si="4"/>
-        <v>2109.6000000000004</v>
+        <v>2253.6000000000004</v>
       </c>
       <c r="E96" s="9">
         <f t="shared" si="4"/>
-        <v>3164.3999999999996</v>
+        <v>3380.3999999999996</v>
       </c>
       <c r="F96" s="9">
         <f t="shared" si="4"/>
-        <v>4219.2000000000007</v>
+        <v>4507.2000000000007</v>
       </c>
       <c r="G96" s="9">
         <f t="shared" si="4"/>
-        <v>5274</v>
+        <v>5634</v>
       </c>
       <c r="H96" s="9">
         <f t="shared" si="4"/>
-        <v>6328.7999999999993</v>
-      </c>
-      <c r="J96" s="48">
+        <v>6760.7999999999993</v>
+      </c>
+      <c r="J96" s="35">
         <v>6</v>
       </c>
-      <c r="K96" s="49"/>
+      <c r="K96" s="36"/>
       <c r="L96" s="9">
         <f t="shared" si="5"/>
-        <v>395.64</v>
+        <v>389.64</v>
       </c>
       <c r="M96" s="9">
         <f t="shared" si="6"/>
-        <v>791.28</v>
+        <v>779.28</v>
       </c>
       <c r="N96" s="9">
         <f t="shared" si="7"/>
-        <v>1186.92</v>
+        <v>1168.92</v>
       </c>
       <c r="O96" s="9">
         <f t="shared" si="8"/>
-        <v>1582.56</v>
+        <v>1558.56</v>
       </c>
       <c r="P96" s="9">
         <f t="shared" si="9"/>
-        <v>1978.1999999999998</v>
+        <v>1948.2</v>
       </c>
       <c r="Q96" s="9">
         <f t="shared" si="10"/>
-        <v>2373.84</v>
+        <v>2337.84</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" s="48">
+      <c r="A97" s="35">
         <v>28</v>
       </c>
-      <c r="B97" s="49"/>
+      <c r="B97" s="36"/>
       <c r="C97" s="9">
         <f t="shared" si="4"/>
-        <v>1230.6000000000001</v>
+        <v>1314.6000000000001</v>
       </c>
       <c r="D97" s="9">
         <f t="shared" si="4"/>
-        <v>2461.2000000000003</v>
+        <v>2629.2000000000003</v>
       </c>
       <c r="E97" s="9">
         <f t="shared" si="4"/>
-        <v>3691.7999999999997</v>
+        <v>3943.7999999999997</v>
       </c>
       <c r="F97" s="9">
         <f t="shared" si="4"/>
-        <v>4922.4000000000005</v>
+        <v>5258.4000000000005</v>
       </c>
       <c r="G97" s="9">
         <f t="shared" si="4"/>
-        <v>6153</v>
+        <v>6573</v>
       </c>
       <c r="H97" s="9">
         <f t="shared" si="4"/>
-        <v>7383.5999999999995</v>
-      </c>
-      <c r="J97" s="48">
+        <v>7887.5999999999995</v>
+      </c>
+      <c r="J97" s="35">
         <v>7</v>
       </c>
-      <c r="K97" s="49"/>
+      <c r="K97" s="36"/>
       <c r="L97" s="9">
         <f t="shared" si="5"/>
-        <v>461.58</v>
+        <v>454.58</v>
       </c>
       <c r="M97" s="9">
         <f t="shared" si="6"/>
-        <v>923.16</v>
+        <v>909.16</v>
       </c>
       <c r="N97" s="9">
         <f t="shared" si="7"/>
-        <v>1384.74</v>
+        <v>1363.74</v>
       </c>
       <c r="O97" s="9">
         <f t="shared" si="8"/>
-        <v>1846.32</v>
+        <v>1818.32</v>
       </c>
       <c r="P97" s="9">
         <f t="shared" si="9"/>
-        <v>2307.9</v>
+        <v>2272.9000000000005</v>
       </c>
       <c r="Q97" s="9">
         <f t="shared" si="10"/>
-        <v>2769.48</v>
+        <v>2727.48</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A98" s="48">
+      <c r="A98" s="35">
         <v>32</v>
       </c>
-      <c r="B98" s="49"/>
+      <c r="B98" s="36"/>
       <c r="C98" s="9">
         <f t="shared" si="4"/>
-        <v>1406.4</v>
+        <v>1502.4</v>
       </c>
       <c r="D98" s="9">
         <f t="shared" si="4"/>
-        <v>2812.8</v>
+        <v>3004.8</v>
       </c>
       <c r="E98" s="9">
         <f t="shared" si="4"/>
-        <v>4219.2</v>
+        <v>4507.2</v>
       </c>
       <c r="F98" s="9">
         <f t="shared" si="4"/>
-        <v>5625.6</v>
+        <v>6009.6</v>
       </c>
       <c r="G98" s="9">
         <f t="shared" si="4"/>
-        <v>7032</v>
+        <v>7512</v>
       </c>
       <c r="H98" s="9">
         <f t="shared" si="4"/>
-        <v>8438.4</v>
-      </c>
-      <c r="J98" s="48">
+        <v>9014.4</v>
+      </c>
+      <c r="J98" s="35">
         <v>8</v>
       </c>
-      <c r="K98" s="49"/>
+      <c r="K98" s="36"/>
       <c r="L98" s="9">
         <f t="shared" si="5"/>
-        <v>527.52</v>
+        <v>519.52</v>
       </c>
       <c r="M98" s="9">
         <f t="shared" si="6"/>
-        <v>1055.04</v>
+        <v>1039.04</v>
       </c>
       <c r="N98" s="9">
         <f t="shared" si="7"/>
-        <v>1582.56</v>
+        <v>1558.56</v>
       </c>
       <c r="O98" s="9">
         <f t="shared" si="8"/>
-        <v>2110.08</v>
+        <v>2078.08</v>
       </c>
       <c r="P98" s="9">
         <f t="shared" si="9"/>
-        <v>2637.6</v>
+        <v>2597.6000000000004</v>
       </c>
       <c r="Q98" s="9">
         <f t="shared" si="10"/>
-        <v>3165.12</v>
+        <v>3117.12</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="48">
+      <c r="A99" s="35">
         <v>36</v>
       </c>
-      <c r="B99" s="49"/>
+      <c r="B99" s="36"/>
       <c r="C99" s="9">
         <f t="shared" si="4"/>
-        <v>1582.2</v>
+        <v>1690.2</v>
       </c>
       <c r="D99" s="9">
         <f t="shared" si="4"/>
-        <v>3164.4</v>
+        <v>3380.4</v>
       </c>
       <c r="E99" s="9">
         <f t="shared" si="4"/>
-        <v>4746.5999999999995</v>
+        <v>5070.5999999999995</v>
       </c>
       <c r="F99" s="9">
         <f t="shared" si="4"/>
-        <v>6328.8</v>
+        <v>6760.8</v>
       </c>
       <c r="G99" s="9">
         <f t="shared" si="4"/>
-        <v>7911</v>
+        <v>8451</v>
       </c>
       <c r="H99" s="9">
         <f t="shared" si="4"/>
-        <v>9493.1999999999989</v>
-      </c>
-      <c r="J99" s="48">
+        <v>10141.199999999999</v>
+      </c>
+      <c r="J99" s="35">
         <v>9</v>
       </c>
-      <c r="K99" s="49"/>
+      <c r="K99" s="36"/>
       <c r="L99" s="9">
         <f t="shared" si="5"/>
-        <v>593.46</v>
+        <v>584.46</v>
       </c>
       <c r="M99" s="9">
         <f t="shared" si="6"/>
-        <v>1186.92</v>
+        <v>1168.92</v>
       </c>
       <c r="N99" s="9">
         <f t="shared" si="7"/>
-        <v>1780.3799999999999</v>
+        <v>1753.3799999999999</v>
       </c>
       <c r="O99" s="9">
         <f t="shared" si="8"/>
-        <v>2373.84</v>
+        <v>2337.84</v>
       </c>
       <c r="P99" s="9">
         <f t="shared" si="9"/>
-        <v>2967.2999999999997</v>
+        <v>2922.3</v>
       </c>
       <c r="Q99" s="9">
         <f t="shared" si="10"/>
-        <v>3560.7599999999998</v>
+        <v>3506.7599999999998</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="48">
+      <c r="A100" s="35">
         <v>40</v>
       </c>
-      <c r="B100" s="49"/>
+      <c r="B100" s="36"/>
       <c r="C100" s="9">
         <f t="shared" si="4"/>
-        <v>1758</v>
+        <v>1878</v>
       </c>
       <c r="D100" s="9">
         <f t="shared" si="4"/>
-        <v>3516</v>
+        <v>3756</v>
       </c>
       <c r="E100" s="9">
         <f t="shared" si="4"/>
-        <v>5274</v>
+        <v>5634</v>
       </c>
       <c r="F100" s="9">
         <f t="shared" si="4"/>
-        <v>7032</v>
+        <v>7512</v>
       </c>
       <c r="G100" s="9">
         <f t="shared" si="4"/>
-        <v>8790</v>
+        <v>9390</v>
       </c>
       <c r="H100" s="9">
         <f t="shared" si="4"/>
-        <v>10548</v>
-      </c>
-      <c r="J100" s="48">
+        <v>11268</v>
+      </c>
+      <c r="J100" s="35">
         <v>10</v>
       </c>
-      <c r="K100" s="49"/>
+      <c r="K100" s="36"/>
       <c r="L100" s="9">
         <f t="shared" si="5"/>
-        <v>659.4</v>
+        <v>649.4</v>
       </c>
       <c r="M100" s="9">
         <f t="shared" si="6"/>
-        <v>1318.8</v>
+        <v>1298.8</v>
       </c>
       <c r="N100" s="9">
         <f t="shared" si="7"/>
-        <v>1978.1999999999998</v>
+        <v>1948.1999999999998</v>
       </c>
       <c r="O100" s="9">
         <f t="shared" si="8"/>
-        <v>2637.6</v>
+        <v>2597.6</v>
       </c>
       <c r="P100" s="9">
         <f t="shared" si="9"/>
-        <v>3297</v>
+        <v>3247</v>
       </c>
       <c r="Q100" s="9">
         <f t="shared" si="10"/>
-        <v>3956.3999999999996</v>
+        <v>3896.3999999999996</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101" s="48">
+      <c r="A101" s="35">
         <v>44</v>
       </c>
-      <c r="B101" s="49"/>
+      <c r="B101" s="36"/>
       <c r="C101" s="9">
         <f t="shared" si="4"/>
-        <v>1933.8000000000002</v>
+        <v>2065.8000000000002</v>
       </c>
       <c r="D101" s="9">
         <f t="shared" si="4"/>
-        <v>3867.6000000000004</v>
+        <v>4131.6000000000004</v>
       </c>
       <c r="E101" s="9">
         <f t="shared" si="4"/>
-        <v>5801.4</v>
+        <v>6197.4</v>
       </c>
       <c r="F101" s="9">
         <f t="shared" si="4"/>
-        <v>7735.2000000000007</v>
+        <v>8263.2000000000007</v>
       </c>
       <c r="G101" s="9">
         <f t="shared" si="4"/>
-        <v>9669</v>
+        <v>10329</v>
       </c>
       <c r="H101" s="9">
         <f t="shared" si="4"/>
-        <v>11602.8</v>
-      </c>
-      <c r="J101" s="48">
+        <v>12394.8</v>
+      </c>
+      <c r="J101" s="35">
         <v>11</v>
       </c>
-      <c r="K101" s="49"/>
+      <c r="K101" s="36"/>
       <c r="L101" s="9">
         <f t="shared" si="5"/>
-        <v>725.33999999999992</v>
+        <v>714.33999999999992</v>
       </c>
       <c r="M101" s="9">
         <f t="shared" si="6"/>
-        <v>1450.6799999999998</v>
+        <v>1428.6799999999998</v>
       </c>
       <c r="N101" s="9">
         <f t="shared" si="7"/>
-        <v>2176.02</v>
+        <v>2143.02</v>
       </c>
       <c r="O101" s="9">
         <f t="shared" si="8"/>
-        <v>2901.3599999999997</v>
+        <v>2857.3599999999997</v>
       </c>
       <c r="P101" s="9">
         <f t="shared" si="9"/>
-        <v>3626.7</v>
+        <v>3571.7000000000003</v>
       </c>
       <c r="Q101" s="9">
         <f t="shared" si="10"/>
-        <v>4352.04</v>
+        <v>4286.04</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102" s="48">
+      <c r="A102" s="35">
         <v>48</v>
       </c>
-      <c r="B102" s="49"/>
+      <c r="B102" s="36"/>
       <c r="C102" s="9">
         <f t="shared" si="4"/>
-        <v>2109.6000000000004</v>
+        <v>2253.6000000000004</v>
       </c>
       <c r="D102" s="9">
         <f t="shared" si="4"/>
-        <v>4219.2000000000007</v>
+        <v>4507.2000000000007</v>
       </c>
       <c r="E102" s="9">
         <f t="shared" si="4"/>
-        <v>6328.7999999999993</v>
+        <v>6760.7999999999993</v>
       </c>
       <c r="F102" s="9">
         <f t="shared" si="4"/>
-        <v>8438.4000000000015</v>
+        <v>9014.4000000000015</v>
       </c>
       <c r="G102" s="9">
         <f t="shared" si="4"/>
-        <v>10548</v>
+        <v>11268</v>
       </c>
       <c r="H102" s="9">
         <f t="shared" si="4"/>
-        <v>12657.599999999999</v>
-      </c>
-      <c r="J102" s="48">
+        <v>13521.599999999999</v>
+      </c>
+      <c r="J102" s="35">
         <v>12</v>
       </c>
-      <c r="K102" s="49"/>
+      <c r="K102" s="36"/>
       <c r="L102" s="9">
         <f t="shared" si="5"/>
-        <v>791.28</v>
+        <v>779.28</v>
       </c>
       <c r="M102" s="9">
         <f t="shared" si="6"/>
-        <v>1582.56</v>
+        <v>1558.56</v>
       </c>
       <c r="N102" s="9">
         <f t="shared" si="7"/>
-        <v>2373.84</v>
+        <v>2337.84</v>
       </c>
       <c r="O102" s="9">
         <f t="shared" si="8"/>
-        <v>3165.12</v>
+        <v>3117.12</v>
       </c>
       <c r="P102" s="9">
         <f t="shared" si="9"/>
-        <v>3956.3999999999996</v>
+        <v>3896.4</v>
       </c>
       <c r="Q102" s="9">
         <f t="shared" si="10"/>
-        <v>4747.68</v>
+        <v>4675.68</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J103" s="48">
+      <c r="J103" s="35">
         <v>14</v>
       </c>
-      <c r="K103" s="49"/>
+      <c r="K103" s="36"/>
       <c r="L103" s="9">
         <f t="shared" si="5"/>
-        <v>923.16</v>
+        <v>909.16</v>
       </c>
       <c r="M103" s="9">
         <f t="shared" si="6"/>
-        <v>1846.32</v>
+        <v>1818.32</v>
       </c>
       <c r="N103" s="9">
         <f t="shared" si="7"/>
-        <v>2769.48</v>
+        <v>2727.48</v>
       </c>
       <c r="O103" s="9">
         <f t="shared" si="8"/>
-        <v>3692.64</v>
+        <v>3636.64</v>
       </c>
       <c r="P103" s="9">
         <f t="shared" si="9"/>
-        <v>4615.8</v>
+        <v>4545.8000000000011</v>
       </c>
       <c r="Q103" s="9">
         <f t="shared" si="10"/>
-        <v>5538.96</v>
+        <v>5454.96</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J104" s="48">
+      <c r="J104" s="35">
         <v>16</v>
       </c>
-      <c r="K104" s="49"/>
+      <c r="K104" s="36"/>
       <c r="L104" s="9">
         <f t="shared" si="5"/>
-        <v>1055.04</v>
+        <v>1039.04</v>
       </c>
       <c r="M104" s="9">
         <f t="shared" si="6"/>
-        <v>2110.08</v>
+        <v>2078.08</v>
       </c>
       <c r="N104" s="9">
         <f t="shared" si="7"/>
-        <v>3165.12</v>
+        <v>3117.12</v>
       </c>
       <c r="O104" s="9">
         <f t="shared" si="8"/>
-        <v>4220.16</v>
+        <v>4156.16</v>
       </c>
       <c r="P104" s="9">
         <f t="shared" si="9"/>
-        <v>5275.2</v>
+        <v>5195.2000000000007</v>
       </c>
       <c r="Q104" s="9">
         <f t="shared" si="10"/>
-        <v>6330.24</v>
+        <v>6234.24</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J105" s="48">
+      <c r="J105" s="35">
         <v>18</v>
       </c>
-      <c r="K105" s="49"/>
+      <c r="K105" s="36"/>
       <c r="L105" s="9">
         <f t="shared" si="5"/>
-        <v>1186.92</v>
+        <v>1168.92</v>
       </c>
       <c r="M105" s="9">
         <f t="shared" si="6"/>
-        <v>2373.84</v>
+        <v>2337.84</v>
       </c>
       <c r="N105" s="9">
         <f t="shared" si="7"/>
-        <v>3560.7599999999998</v>
+        <v>3506.7599999999998</v>
       </c>
       <c r="O105" s="9">
         <f t="shared" si="8"/>
-        <v>4747.68</v>
+        <v>4675.68</v>
       </c>
       <c r="P105" s="9">
         <f t="shared" si="9"/>
-        <v>5934.5999999999995</v>
+        <v>5844.6</v>
       </c>
       <c r="Q105" s="9">
         <f t="shared" si="10"/>
-        <v>7121.5199999999995</v>
+        <v>7013.5199999999995</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A106" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B106" s="52"/>
-      <c r="C106" s="52"/>
-      <c r="D106" s="52"/>
-      <c r="E106" s="52"/>
-      <c r="F106" s="52"/>
-      <c r="G106" s="52"/>
-      <c r="H106" s="52"/>
-      <c r="J106" s="48">
+      <c r="A106" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B106" s="57"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="57"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="57"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="57"/>
+      <c r="J106" s="35">
         <v>20</v>
       </c>
-      <c r="K106" s="49"/>
+      <c r="K106" s="36"/>
       <c r="L106" s="9">
         <f t="shared" si="5"/>
-        <v>1318.8</v>
+        <v>1298.8</v>
       </c>
       <c r="M106" s="9">
         <f t="shared" si="6"/>
-        <v>2637.6</v>
+        <v>2597.6</v>
       </c>
       <c r="N106" s="9">
         <f t="shared" si="7"/>
-        <v>3956.3999999999996</v>
+        <v>3896.3999999999996</v>
       </c>
       <c r="O106" s="9">
         <f t="shared" si="8"/>
-        <v>5275.2</v>
+        <v>5195.2</v>
       </c>
       <c r="P106" s="9">
         <f t="shared" si="9"/>
-        <v>6594</v>
+        <v>6494</v>
       </c>
       <c r="Q106" s="9">
         <f t="shared" si="10"/>
-        <v>7912.7999999999993</v>
+        <v>7792.7999999999993</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107" s="53" t="s">
+      <c r="A107" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B107" s="53"/>
-      <c r="C107" s="54" t="s">
+      <c r="B107" s="58"/>
+      <c r="C107" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D107" s="54"/>
-      <c r="E107" s="54"/>
-      <c r="F107" s="54"/>
-      <c r="G107" s="54"/>
-      <c r="H107" s="54"/>
-      <c r="J107" s="48">
+      <c r="D107" s="59"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="59"/>
+      <c r="J107" s="35">
         <v>22</v>
       </c>
-      <c r="K107" s="49"/>
+      <c r="K107" s="36"/>
       <c r="L107" s="9">
         <f t="shared" si="5"/>
-        <v>1450.6799999999998</v>
+        <v>1428.6799999999998</v>
       </c>
       <c r="M107" s="9">
         <f t="shared" si="6"/>
-        <v>2901.3599999999997</v>
+        <v>2857.3599999999997</v>
       </c>
       <c r="N107" s="9">
         <f t="shared" si="7"/>
-        <v>4352.04</v>
+        <v>4286.04</v>
       </c>
       <c r="O107" s="9">
         <f t="shared" si="8"/>
-        <v>5802.7199999999993</v>
+        <v>5714.7199999999993</v>
       </c>
       <c r="P107" s="9">
         <f t="shared" si="9"/>
-        <v>7253.4</v>
+        <v>7143.4000000000005</v>
       </c>
       <c r="Q107" s="9">
         <f t="shared" si="10"/>
-        <v>8704.08</v>
+        <v>8572.08</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="50" t="s">
+      <c r="A108" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B108" s="51"/>
+      <c r="B108" s="72"/>
       <c r="C108" s="7">
         <v>1</v>
       </c>
@@ -4520,40 +4582,40 @@
       <c r="H108" s="8">
         <v>6</v>
       </c>
-      <c r="J108" s="48">
+      <c r="J108" s="35">
         <v>24</v>
       </c>
-      <c r="K108" s="49"/>
+      <c r="K108" s="36"/>
       <c r="L108" s="9">
         <f t="shared" si="5"/>
-        <v>1582.56</v>
+        <v>1558.56</v>
       </c>
       <c r="M108" s="9">
         <f t="shared" si="6"/>
-        <v>3165.12</v>
+        <v>3117.12</v>
       </c>
       <c r="N108" s="9">
         <f t="shared" si="7"/>
-        <v>4747.68</v>
+        <v>4675.68</v>
       </c>
       <c r="O108" s="9">
         <f t="shared" si="8"/>
-        <v>6330.24</v>
+        <v>6234.24</v>
       </c>
       <c r="P108" s="9">
         <f t="shared" si="9"/>
-        <v>7912.7999999999993</v>
+        <v>7792.8</v>
       </c>
       <c r="Q108" s="9">
         <f t="shared" si="10"/>
-        <v>9495.36</v>
+        <v>9351.36</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" s="48">
+      <c r="A109" s="35">
         <v>1</v>
       </c>
-      <c r="B109" s="49"/>
+      <c r="B109" s="36"/>
       <c r="C109" s="9">
         <f>$A109 * (C$108 * $N$22 + C$108 * 2 * $N$24)</f>
         <v>33.97</v>
@@ -4578,40 +4640,40 @@
         <f t="shared" si="11"/>
         <v>203.82</v>
       </c>
-      <c r="J109" s="48">
+      <c r="J109" s="35">
         <v>28</v>
       </c>
-      <c r="K109" s="49"/>
+      <c r="K109" s="36"/>
       <c r="L109" s="9">
         <f t="shared" si="5"/>
-        <v>1846.32</v>
+        <v>1818.32</v>
       </c>
       <c r="M109" s="9">
         <f t="shared" si="6"/>
-        <v>3692.64</v>
+        <v>3636.64</v>
       </c>
       <c r="N109" s="9">
         <f t="shared" si="7"/>
-        <v>5538.96</v>
+        <v>5454.96</v>
       </c>
       <c r="O109" s="9">
         <f t="shared" si="8"/>
-        <v>7385.28</v>
+        <v>7273.28</v>
       </c>
       <c r="P109" s="9">
         <f t="shared" si="9"/>
-        <v>9231.6</v>
+        <v>9091.6000000000022</v>
       </c>
       <c r="Q109" s="9">
         <f t="shared" si="10"/>
-        <v>11077.92</v>
+        <v>10909.92</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A110" s="48">
+      <c r="A110" s="35">
         <v>2</v>
       </c>
-      <c r="B110" s="49"/>
+      <c r="B110" s="36"/>
       <c r="C110" s="9">
         <f t="shared" ref="C110:H132" si="12">$A110 * (C$108 * $N$22 + C$108 * 2 * $N$24)</f>
         <v>67.94</v>
@@ -4636,40 +4698,40 @@
         <f t="shared" si="11"/>
         <v>407.64</v>
       </c>
-      <c r="J110" s="48">
+      <c r="J110" s="35">
         <v>32</v>
       </c>
-      <c r="K110" s="49"/>
+      <c r="K110" s="36"/>
       <c r="L110" s="9">
         <f t="shared" si="5"/>
-        <v>2110.08</v>
+        <v>2078.08</v>
       </c>
       <c r="M110" s="9">
         <f t="shared" si="6"/>
-        <v>4220.16</v>
+        <v>4156.16</v>
       </c>
       <c r="N110" s="9">
         <f t="shared" si="7"/>
-        <v>6330.24</v>
+        <v>6234.24</v>
       </c>
       <c r="O110" s="9">
         <f t="shared" si="8"/>
-        <v>8440.32</v>
+        <v>8312.32</v>
       </c>
       <c r="P110" s="9">
         <f t="shared" si="9"/>
-        <v>10550.4</v>
+        <v>10390.400000000001</v>
       </c>
       <c r="Q110" s="9">
         <f t="shared" si="10"/>
-        <v>12660.48</v>
+        <v>12468.48</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A111" s="48">
+      <c r="A111" s="35">
         <v>3</v>
       </c>
-      <c r="B111" s="49"/>
+      <c r="B111" s="36"/>
       <c r="C111" s="9">
         <f t="shared" si="12"/>
         <v>101.91</v>
@@ -4694,40 +4756,40 @@
         <f t="shared" si="11"/>
         <v>611.46</v>
       </c>
-      <c r="J111" s="48">
+      <c r="J111" s="35">
         <v>36</v>
       </c>
-      <c r="K111" s="49"/>
+      <c r="K111" s="36"/>
       <c r="L111" s="9">
         <f t="shared" si="5"/>
-        <v>2373.84</v>
+        <v>2337.84</v>
       </c>
       <c r="M111" s="9">
         <f t="shared" si="6"/>
-        <v>4747.68</v>
+        <v>4675.68</v>
       </c>
       <c r="N111" s="9">
         <f t="shared" si="7"/>
-        <v>7121.5199999999995</v>
+        <v>7013.5199999999995</v>
       </c>
       <c r="O111" s="9">
         <f t="shared" si="8"/>
-        <v>9495.36</v>
+        <v>9351.36</v>
       </c>
       <c r="P111" s="9">
         <f t="shared" si="9"/>
-        <v>11869.199999999999</v>
+        <v>11689.2</v>
       </c>
       <c r="Q111" s="9">
         <f t="shared" si="10"/>
-        <v>14243.039999999999</v>
+        <v>14027.039999999999</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A112" s="48">
+      <c r="A112" s="35">
         <v>4</v>
       </c>
-      <c r="B112" s="49"/>
+      <c r="B112" s="36"/>
       <c r="C112" s="9">
         <f t="shared" si="12"/>
         <v>135.88</v>
@@ -4752,40 +4814,40 @@
         <f t="shared" si="11"/>
         <v>815.28</v>
       </c>
-      <c r="J112" s="48">
+      <c r="J112" s="35">
         <v>40</v>
       </c>
-      <c r="K112" s="49"/>
+      <c r="K112" s="36"/>
       <c r="L112" s="9">
         <f t="shared" si="5"/>
-        <v>2637.6</v>
+        <v>2597.6</v>
       </c>
       <c r="M112" s="9">
         <f t="shared" si="6"/>
-        <v>5275.2</v>
+        <v>5195.2</v>
       </c>
       <c r="N112" s="9">
         <f t="shared" si="7"/>
-        <v>7912.7999999999993</v>
+        <v>7792.7999999999993</v>
       </c>
       <c r="O112" s="9">
         <f t="shared" si="8"/>
-        <v>10550.4</v>
+        <v>10390.4</v>
       </c>
       <c r="P112" s="9">
         <f t="shared" si="9"/>
-        <v>13188</v>
+        <v>12988</v>
       </c>
       <c r="Q112" s="9">
         <f t="shared" si="10"/>
-        <v>15825.599999999999</v>
+        <v>15585.599999999999</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="48">
+      <c r="A113" s="35">
         <v>5</v>
       </c>
-      <c r="B113" s="49"/>
+      <c r="B113" s="36"/>
       <c r="C113" s="9">
         <f t="shared" si="12"/>
         <v>169.85</v>
@@ -4810,40 +4872,40 @@
         <f t="shared" si="11"/>
         <v>1019.0999999999999</v>
       </c>
-      <c r="J113" s="48">
+      <c r="J113" s="35">
         <v>44</v>
       </c>
-      <c r="K113" s="49"/>
+      <c r="K113" s="36"/>
       <c r="L113" s="9">
         <f t="shared" si="5"/>
-        <v>2901.3599999999997</v>
+        <v>2857.3599999999997</v>
       </c>
       <c r="M113" s="9">
         <f t="shared" si="6"/>
-        <v>5802.7199999999993</v>
+        <v>5714.7199999999993</v>
       </c>
       <c r="N113" s="9">
         <f t="shared" si="7"/>
-        <v>8704.08</v>
+        <v>8572.08</v>
       </c>
       <c r="O113" s="9">
         <f t="shared" si="8"/>
-        <v>11605.439999999999</v>
+        <v>11429.439999999999</v>
       </c>
       <c r="P113" s="9">
         <f t="shared" si="9"/>
-        <v>14506.8</v>
+        <v>14286.800000000001</v>
       </c>
       <c r="Q113" s="9">
         <f t="shared" si="10"/>
-        <v>17408.16</v>
+        <v>17144.16</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114" s="48">
+      <c r="A114" s="35">
         <v>6</v>
       </c>
-      <c r="B114" s="49"/>
+      <c r="B114" s="36"/>
       <c r="C114" s="9">
         <f t="shared" si="12"/>
         <v>203.82</v>
@@ -4868,40 +4930,40 @@
         <f t="shared" si="11"/>
         <v>1222.92</v>
       </c>
-      <c r="J114" s="48">
+      <c r="J114" s="35">
         <v>48</v>
       </c>
-      <c r="K114" s="49"/>
+      <c r="K114" s="36"/>
       <c r="L114" s="9">
         <f t="shared" si="5"/>
-        <v>3165.12</v>
+        <v>3117.12</v>
       </c>
       <c r="M114" s="9">
         <f t="shared" si="6"/>
-        <v>6330.24</v>
+        <v>6234.24</v>
       </c>
       <c r="N114" s="9">
         <f t="shared" si="7"/>
-        <v>9495.36</v>
+        <v>9351.36</v>
       </c>
       <c r="O114" s="9">
         <f t="shared" si="8"/>
-        <v>12660.48</v>
+        <v>12468.48</v>
       </c>
       <c r="P114" s="9">
         <f t="shared" si="9"/>
-        <v>15825.599999999999</v>
+        <v>15585.6</v>
       </c>
       <c r="Q114" s="9">
         <f t="shared" si="10"/>
-        <v>18990.72</v>
+        <v>18702.72</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="48">
+      <c r="A115" s="35">
         <v>7</v>
       </c>
-      <c r="B115" s="49"/>
+      <c r="B115" s="36"/>
       <c r="C115" s="9">
         <f t="shared" si="12"/>
         <v>237.79</v>
@@ -4928,10 +4990,10 @@
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A116" s="48">
+      <c r="A116" s="35">
         <v>8</v>
       </c>
-      <c r="B116" s="49"/>
+      <c r="B116" s="36"/>
       <c r="C116" s="9">
         <f t="shared" si="12"/>
         <v>271.76</v>
@@ -4956,22 +5018,22 @@
         <f t="shared" si="11"/>
         <v>1630.56</v>
       </c>
-      <c r="J116" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="K116" s="39"/>
-      <c r="L116" s="39"/>
-      <c r="M116" s="39"/>
-      <c r="N116" s="39"/>
-      <c r="O116" s="39"/>
-      <c r="P116" s="39"/>
-      <c r="Q116" s="40"/>
+      <c r="J116" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K116" s="76"/>
+      <c r="L116" s="76"/>
+      <c r="M116" s="76"/>
+      <c r="N116" s="76"/>
+      <c r="O116" s="76"/>
+      <c r="P116" s="76"/>
+      <c r="Q116" s="77"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117" s="48">
+      <c r="A117" s="35">
         <v>9</v>
       </c>
-      <c r="B117" s="49"/>
+      <c r="B117" s="36"/>
       <c r="C117" s="9">
         <f t="shared" si="12"/>
         <v>305.73</v>
@@ -4996,24 +5058,24 @@
         <f t="shared" si="11"/>
         <v>1834.3799999999999</v>
       </c>
-      <c r="J117" s="36" t="s">
+      <c r="J117" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="K117" s="37"/>
-      <c r="L117" s="33" t="s">
+      <c r="K117" s="79"/>
+      <c r="L117" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="M117" s="34"/>
-      <c r="N117" s="34"/>
-      <c r="O117" s="34"/>
-      <c r="P117" s="34"/>
-      <c r="Q117" s="35"/>
+      <c r="M117" s="81"/>
+      <c r="N117" s="81"/>
+      <c r="O117" s="81"/>
+      <c r="P117" s="81"/>
+      <c r="Q117" s="82"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="48">
+      <c r="A118" s="35">
         <v>10</v>
       </c>
-      <c r="B118" s="49"/>
+      <c r="B118" s="36"/>
       <c r="C118" s="9">
         <f t="shared" si="12"/>
         <v>339.7</v>
@@ -5038,10 +5100,10 @@
         <f t="shared" si="11"/>
         <v>2038.1999999999998</v>
       </c>
-      <c r="J118" s="50" t="s">
+      <c r="J118" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="K118" s="51"/>
+      <c r="K118" s="72"/>
       <c r="L118" s="7">
         <v>1</v>
       </c>
@@ -5062,10 +5124,10 @@
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="48">
+      <c r="A119" s="35">
         <v>11</v>
       </c>
-      <c r="B119" s="49"/>
+      <c r="B119" s="36"/>
       <c r="C119" s="9">
         <f t="shared" si="12"/>
         <v>373.66999999999996</v>
@@ -5090,40 +5152,40 @@
         <f t="shared" si="11"/>
         <v>2242.02</v>
       </c>
-      <c r="J119" s="48">
+      <c r="J119" s="35">
         <v>1</v>
       </c>
-      <c r="K119" s="49"/>
+      <c r="K119" s="36"/>
       <c r="L119" s="9">
         <f t="shared" ref="L119:L142" si="13">C79+C137</f>
-        <v>81.900000000000006</v>
+        <v>84.9</v>
       </c>
       <c r="M119" s="9">
         <f t="shared" ref="M119:M142" si="14">D79+D137</f>
-        <v>163.80000000000001</v>
+        <v>169.8</v>
       </c>
       <c r="N119" s="9">
         <f t="shared" ref="N119:N142" si="15">E79+E137</f>
-        <v>245.7</v>
+        <v>254.7</v>
       </c>
       <c r="O119" s="9">
         <f t="shared" ref="O119:O142" si="16">F79+F137</f>
-        <v>327.60000000000002</v>
+        <v>339.6</v>
       </c>
       <c r="P119" s="9">
         <f t="shared" ref="P119:P142" si="17">G79+G137</f>
-        <v>409.5</v>
+        <v>424.5</v>
       </c>
       <c r="Q119" s="9">
         <f t="shared" ref="Q119:Q142" si="18">H79+H137</f>
-        <v>491.4</v>
+        <v>509.4</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="48">
+      <c r="A120" s="35">
         <v>12</v>
       </c>
-      <c r="B120" s="49"/>
+      <c r="B120" s="36"/>
       <c r="C120" s="9">
         <f t="shared" si="12"/>
         <v>407.64</v>
@@ -5148,40 +5210,40 @@
         <f t="shared" si="11"/>
         <v>2445.84</v>
       </c>
-      <c r="J120" s="48">
+      <c r="J120" s="35">
         <v>2</v>
       </c>
-      <c r="K120" s="49"/>
+      <c r="K120" s="36"/>
       <c r="L120" s="9">
         <f t="shared" si="13"/>
-        <v>163.80000000000001</v>
+        <v>169.8</v>
       </c>
       <c r="M120" s="9">
         <f t="shared" si="14"/>
-        <v>327.60000000000002</v>
+        <v>339.6</v>
       </c>
       <c r="N120" s="9">
         <f t="shared" si="15"/>
-        <v>491.4</v>
+        <v>509.4</v>
       </c>
       <c r="O120" s="9">
         <f t="shared" si="16"/>
-        <v>655.20000000000005</v>
+        <v>679.2</v>
       </c>
       <c r="P120" s="9">
         <f t="shared" si="17"/>
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="Q120" s="9">
         <f t="shared" si="18"/>
-        <v>982.8</v>
+        <v>1018.8</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="48">
+      <c r="A121" s="35">
         <v>14</v>
       </c>
-      <c r="B121" s="49"/>
+      <c r="B121" s="36"/>
       <c r="C121" s="9">
         <f t="shared" si="12"/>
         <v>475.58</v>
@@ -5206,40 +5268,40 @@
         <f t="shared" si="11"/>
         <v>2853.48</v>
       </c>
-      <c r="J121" s="48">
+      <c r="J121" s="35">
         <v>3</v>
       </c>
-      <c r="K121" s="49"/>
+      <c r="K121" s="36"/>
       <c r="L121" s="9">
         <f t="shared" si="13"/>
-        <v>245.70000000000002</v>
+        <v>254.70000000000002</v>
       </c>
       <c r="M121" s="9">
         <f t="shared" si="14"/>
-        <v>491.40000000000003</v>
+        <v>509.40000000000003</v>
       </c>
       <c r="N121" s="9">
         <f t="shared" si="15"/>
-        <v>737.09999999999991</v>
+        <v>764.09999999999991</v>
       </c>
       <c r="O121" s="9">
         <f t="shared" si="16"/>
-        <v>982.80000000000007</v>
+        <v>1018.8000000000001</v>
       </c>
       <c r="P121" s="9">
         <f t="shared" si="17"/>
-        <v>1228.5</v>
+        <v>1273.5</v>
       </c>
       <c r="Q121" s="9">
         <f t="shared" si="18"/>
-        <v>1474.1999999999998</v>
+        <v>1528.1999999999998</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A122" s="48">
+      <c r="A122" s="35">
         <v>16</v>
       </c>
-      <c r="B122" s="49"/>
+      <c r="B122" s="36"/>
       <c r="C122" s="9">
         <f t="shared" si="12"/>
         <v>543.52</v>
@@ -5264,40 +5326,40 @@
         <f t="shared" si="11"/>
         <v>3261.12</v>
       </c>
-      <c r="J122" s="48">
+      <c r="J122" s="35">
         <v>4</v>
       </c>
-      <c r="K122" s="49"/>
+      <c r="K122" s="36"/>
       <c r="L122" s="9">
         <f t="shared" si="13"/>
-        <v>327.60000000000002</v>
+        <v>339.6</v>
       </c>
       <c r="M122" s="9">
         <f t="shared" si="14"/>
-        <v>655.20000000000005</v>
+        <v>679.2</v>
       </c>
       <c r="N122" s="9">
         <f t="shared" si="15"/>
-        <v>982.8</v>
+        <v>1018.8</v>
       </c>
       <c r="O122" s="9">
         <f t="shared" si="16"/>
-        <v>1310.4000000000001</v>
+        <v>1358.4</v>
       </c>
       <c r="P122" s="9">
         <f t="shared" si="17"/>
-        <v>1638</v>
+        <v>1698</v>
       </c>
       <c r="Q122" s="9">
         <f t="shared" si="18"/>
-        <v>1965.6</v>
+        <v>2037.6</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A123" s="48">
+      <c r="A123" s="35">
         <v>18</v>
       </c>
-      <c r="B123" s="49"/>
+      <c r="B123" s="36"/>
       <c r="C123" s="9">
         <f t="shared" si="12"/>
         <v>611.46</v>
@@ -5322,40 +5384,40 @@
         <f t="shared" si="11"/>
         <v>3668.7599999999998</v>
       </c>
-      <c r="J123" s="48">
+      <c r="J123" s="35">
         <v>5</v>
       </c>
-      <c r="K123" s="49"/>
+      <c r="K123" s="36"/>
       <c r="L123" s="9">
         <f t="shared" si="13"/>
-        <v>409.5</v>
+        <v>424.5</v>
       </c>
       <c r="M123" s="9">
         <f t="shared" si="14"/>
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="N123" s="9">
         <f t="shared" si="15"/>
-        <v>1228.5</v>
+        <v>1273.5</v>
       </c>
       <c r="O123" s="9">
         <f t="shared" si="16"/>
-        <v>1638</v>
+        <v>1698</v>
       </c>
       <c r="P123" s="9">
         <f t="shared" si="17"/>
-        <v>2047.5</v>
+        <v>2122.5</v>
       </c>
       <c r="Q123" s="9">
         <f t="shared" si="18"/>
-        <v>2457</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A124" s="48">
+      <c r="A124" s="35">
         <v>20</v>
       </c>
-      <c r="B124" s="49"/>
+      <c r="B124" s="36"/>
       <c r="C124" s="9">
         <f t="shared" si="12"/>
         <v>679.4</v>
@@ -5380,40 +5442,40 @@
         <f t="shared" si="11"/>
         <v>4076.3999999999996</v>
       </c>
-      <c r="J124" s="48">
+      <c r="J124" s="35">
         <v>6</v>
       </c>
-      <c r="K124" s="49"/>
+      <c r="K124" s="36"/>
       <c r="L124" s="9">
         <f t="shared" si="13"/>
-        <v>491.40000000000003</v>
+        <v>509.40000000000003</v>
       </c>
       <c r="M124" s="9">
         <f t="shared" si="14"/>
-        <v>982.80000000000007</v>
+        <v>1018.8000000000001</v>
       </c>
       <c r="N124" s="9">
         <f t="shared" si="15"/>
-        <v>1474.1999999999998</v>
+        <v>1528.1999999999998</v>
       </c>
       <c r="O124" s="9">
         <f t="shared" si="16"/>
-        <v>1965.6000000000001</v>
+        <v>2037.6000000000001</v>
       </c>
       <c r="P124" s="9">
         <f t="shared" si="17"/>
-        <v>2457</v>
+        <v>2547</v>
       </c>
       <c r="Q124" s="9">
         <f t="shared" si="18"/>
-        <v>2948.3999999999996</v>
+        <v>3056.3999999999996</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A125" s="48">
+      <c r="A125" s="35">
         <v>22</v>
       </c>
-      <c r="B125" s="49"/>
+      <c r="B125" s="36"/>
       <c r="C125" s="9">
         <f t="shared" si="12"/>
         <v>747.33999999999992</v>
@@ -5438,40 +5500,40 @@
         <f t="shared" si="12"/>
         <v>4484.04</v>
       </c>
-      <c r="J125" s="48">
+      <c r="J125" s="35">
         <v>7</v>
       </c>
-      <c r="K125" s="49"/>
+      <c r="K125" s="36"/>
       <c r="L125" s="9">
         <f t="shared" si="13"/>
-        <v>573.29999999999995</v>
+        <v>594.29999999999995</v>
       </c>
       <c r="M125" s="9">
         <f t="shared" si="14"/>
-        <v>1146.5999999999999</v>
+        <v>1188.5999999999999</v>
       </c>
       <c r="N125" s="9">
         <f t="shared" si="15"/>
-        <v>1719.8999999999999</v>
+        <v>1782.8999999999999</v>
       </c>
       <c r="O125" s="9">
         <f t="shared" si="16"/>
-        <v>2293.1999999999998</v>
+        <v>2377.1999999999998</v>
       </c>
       <c r="P125" s="9">
         <f t="shared" si="17"/>
-        <v>2866.5</v>
+        <v>2971.5</v>
       </c>
       <c r="Q125" s="9">
         <f t="shared" si="18"/>
-        <v>3439.7999999999997</v>
+        <v>3565.7999999999997</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A126" s="48">
+      <c r="A126" s="35">
         <v>24</v>
       </c>
-      <c r="B126" s="49"/>
+      <c r="B126" s="36"/>
       <c r="C126" s="9">
         <f t="shared" si="12"/>
         <v>815.28</v>
@@ -5496,40 +5558,40 @@
         <f t="shared" si="12"/>
         <v>4891.68</v>
       </c>
-      <c r="J126" s="48">
+      <c r="J126" s="35">
         <v>8</v>
       </c>
-      <c r="K126" s="49"/>
+      <c r="K126" s="36"/>
       <c r="L126" s="9">
         <f t="shared" si="13"/>
-        <v>655.20000000000005</v>
+        <v>679.2</v>
       </c>
       <c r="M126" s="9">
         <f t="shared" si="14"/>
-        <v>1310.4000000000001</v>
+        <v>1358.4</v>
       </c>
       <c r="N126" s="9">
         <f t="shared" si="15"/>
-        <v>1965.6</v>
+        <v>2037.6</v>
       </c>
       <c r="O126" s="9">
         <f t="shared" si="16"/>
-        <v>2620.8000000000002</v>
+        <v>2716.8</v>
       </c>
       <c r="P126" s="9">
         <f t="shared" si="17"/>
-        <v>3276</v>
+        <v>3396</v>
       </c>
       <c r="Q126" s="9">
         <f t="shared" si="18"/>
-        <v>3931.2</v>
+        <v>4075.2</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A127" s="48">
+      <c r="A127" s="35">
         <v>28</v>
       </c>
-      <c r="B127" s="49"/>
+      <c r="B127" s="36"/>
       <c r="C127" s="9">
         <f t="shared" si="12"/>
         <v>951.16</v>
@@ -5554,40 +5616,40 @@
         <f t="shared" si="12"/>
         <v>5706.96</v>
       </c>
-      <c r="J127" s="48">
+      <c r="J127" s="35">
         <v>9</v>
       </c>
-      <c r="K127" s="49"/>
+      <c r="K127" s="36"/>
       <c r="L127" s="9">
         <f t="shared" si="13"/>
-        <v>737.09999999999991</v>
+        <v>764.09999999999991</v>
       </c>
       <c r="M127" s="9">
         <f t="shared" si="14"/>
-        <v>1474.1999999999998</v>
+        <v>1528.1999999999998</v>
       </c>
       <c r="N127" s="9">
         <f t="shared" si="15"/>
-        <v>2211.2999999999997</v>
+        <v>2292.2999999999997</v>
       </c>
       <c r="O127" s="9">
         <f t="shared" si="16"/>
-        <v>2948.3999999999996</v>
+        <v>3056.3999999999996</v>
       </c>
       <c r="P127" s="9">
         <f t="shared" si="17"/>
-        <v>3685.5</v>
+        <v>3820.5</v>
       </c>
       <c r="Q127" s="9">
         <f t="shared" si="18"/>
-        <v>4422.5999999999995</v>
+        <v>4584.5999999999995</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A128" s="48">
+      <c r="A128" s="35">
         <v>32</v>
       </c>
-      <c r="B128" s="49"/>
+      <c r="B128" s="36"/>
       <c r="C128" s="9">
         <f t="shared" si="12"/>
         <v>1087.04</v>
@@ -5612,40 +5674,40 @@
         <f t="shared" si="12"/>
         <v>6522.24</v>
       </c>
-      <c r="J128" s="48">
+      <c r="J128" s="35">
         <v>10</v>
       </c>
-      <c r="K128" s="49"/>
+      <c r="K128" s="36"/>
       <c r="L128" s="9">
         <f t="shared" si="13"/>
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="M128" s="9">
         <f t="shared" si="14"/>
-        <v>1638</v>
+        <v>1698</v>
       </c>
       <c r="N128" s="9">
         <f t="shared" si="15"/>
-        <v>2457</v>
+        <v>2547</v>
       </c>
       <c r="O128" s="9">
         <f t="shared" si="16"/>
-        <v>3276</v>
+        <v>3396</v>
       </c>
       <c r="P128" s="9">
         <f t="shared" si="17"/>
-        <v>4095</v>
+        <v>4245</v>
       </c>
       <c r="Q128" s="9">
         <f t="shared" si="18"/>
-        <v>4914</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A129" s="48">
+      <c r="A129" s="35">
         <v>36</v>
       </c>
-      <c r="B129" s="49"/>
+      <c r="B129" s="36"/>
       <c r="C129" s="9">
         <f t="shared" si="12"/>
         <v>1222.92</v>
@@ -5670,40 +5732,40 @@
         <f t="shared" si="12"/>
         <v>7337.5199999999995</v>
       </c>
-      <c r="J129" s="48">
+      <c r="J129" s="35">
         <v>11</v>
       </c>
-      <c r="K129" s="49"/>
+      <c r="K129" s="36"/>
       <c r="L129" s="9">
         <f t="shared" si="13"/>
-        <v>900.9</v>
+        <v>933.9</v>
       </c>
       <c r="M129" s="9">
         <f t="shared" si="14"/>
-        <v>1801.8</v>
+        <v>1867.8</v>
       </c>
       <c r="N129" s="9">
         <f t="shared" si="15"/>
-        <v>2702.7</v>
+        <v>2801.7</v>
       </c>
       <c r="O129" s="9">
         <f t="shared" si="16"/>
-        <v>3603.6</v>
+        <v>3735.6</v>
       </c>
       <c r="P129" s="9">
         <f t="shared" si="17"/>
-        <v>4504.5</v>
+        <v>4669.5</v>
       </c>
       <c r="Q129" s="9">
         <f t="shared" si="18"/>
-        <v>5405.4</v>
+        <v>5603.4</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A130" s="48">
+      <c r="A130" s="35">
         <v>40</v>
       </c>
-      <c r="B130" s="49"/>
+      <c r="B130" s="36"/>
       <c r="C130" s="9">
         <f t="shared" si="12"/>
         <v>1358.8</v>
@@ -5728,40 +5790,40 @@
         <f t="shared" si="12"/>
         <v>8152.7999999999993</v>
       </c>
-      <c r="J130" s="48">
+      <c r="J130" s="35">
         <v>12</v>
       </c>
-      <c r="K130" s="49"/>
+      <c r="K130" s="36"/>
       <c r="L130" s="9">
         <f t="shared" si="13"/>
-        <v>982.80000000000007</v>
+        <v>1018.8000000000001</v>
       </c>
       <c r="M130" s="9">
         <f t="shared" si="14"/>
-        <v>1965.6000000000001</v>
+        <v>2037.6000000000001</v>
       </c>
       <c r="N130" s="9">
         <f t="shared" si="15"/>
-        <v>2948.3999999999996</v>
+        <v>3056.3999999999996</v>
       </c>
       <c r="O130" s="9">
         <f t="shared" si="16"/>
-        <v>3931.2000000000003</v>
+        <v>4075.2000000000003</v>
       </c>
       <c r="P130" s="9">
         <f t="shared" si="17"/>
-        <v>4914</v>
+        <v>5094</v>
       </c>
       <c r="Q130" s="9">
         <f t="shared" si="18"/>
-        <v>5896.7999999999993</v>
+        <v>6112.7999999999993</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A131" s="48">
+      <c r="A131" s="35">
         <v>44</v>
       </c>
-      <c r="B131" s="49"/>
+      <c r="B131" s="36"/>
       <c r="C131" s="9">
         <f t="shared" si="12"/>
         <v>1494.6799999999998</v>
@@ -5786,40 +5848,40 @@
         <f t="shared" si="12"/>
         <v>8968.08</v>
       </c>
-      <c r="J131" s="48">
+      <c r="J131" s="35">
         <v>14</v>
       </c>
-      <c r="K131" s="49"/>
+      <c r="K131" s="36"/>
       <c r="L131" s="9">
         <f t="shared" si="13"/>
-        <v>1146.5999999999999</v>
+        <v>1188.5999999999999</v>
       </c>
       <c r="M131" s="9">
         <f t="shared" si="14"/>
-        <v>2293.1999999999998</v>
+        <v>2377.1999999999998</v>
       </c>
       <c r="N131" s="9">
         <f t="shared" si="15"/>
-        <v>3439.7999999999997</v>
+        <v>3565.7999999999997</v>
       </c>
       <c r="O131" s="9">
         <f t="shared" si="16"/>
-        <v>4586.3999999999996</v>
+        <v>4754.3999999999996</v>
       </c>
       <c r="P131" s="9">
         <f t="shared" si="17"/>
-        <v>5733</v>
+        <v>5943</v>
       </c>
       <c r="Q131" s="9">
         <f t="shared" si="18"/>
-        <v>6879.5999999999995</v>
+        <v>7131.5999999999995</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A132" s="48">
+      <c r="A132" s="35">
         <v>48</v>
       </c>
-      <c r="B132" s="49"/>
+      <c r="B132" s="36"/>
       <c r="C132" s="9">
         <f t="shared" si="12"/>
         <v>1630.56</v>
@@ -5844,152 +5906,152 @@
         <f t="shared" si="12"/>
         <v>9783.36</v>
       </c>
-      <c r="J132" s="48">
+      <c r="J132" s="35">
         <v>16</v>
       </c>
-      <c r="K132" s="49"/>
+      <c r="K132" s="36"/>
       <c r="L132" s="9">
         <f t="shared" si="13"/>
-        <v>1310.4000000000001</v>
+        <v>1358.4</v>
       </c>
       <c r="M132" s="9">
         <f t="shared" si="14"/>
-        <v>2620.8000000000002</v>
+        <v>2716.8</v>
       </c>
       <c r="N132" s="9">
         <f t="shared" si="15"/>
-        <v>3931.2</v>
+        <v>4075.2</v>
       </c>
       <c r="O132" s="9">
         <f t="shared" si="16"/>
-        <v>5241.6000000000004</v>
+        <v>5433.6</v>
       </c>
       <c r="P132" s="9">
         <f t="shared" si="17"/>
-        <v>6552</v>
+        <v>6792</v>
       </c>
       <c r="Q132" s="9">
         <f t="shared" si="18"/>
-        <v>7862.4</v>
+        <v>8150.4</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J133" s="48">
+      <c r="J133" s="35">
         <v>18</v>
       </c>
-      <c r="K133" s="49"/>
+      <c r="K133" s="36"/>
       <c r="L133" s="9">
         <f t="shared" si="13"/>
-        <v>1474.1999999999998</v>
+        <v>1528.1999999999998</v>
       </c>
       <c r="M133" s="9">
         <f t="shared" si="14"/>
-        <v>2948.3999999999996</v>
+        <v>3056.3999999999996</v>
       </c>
       <c r="N133" s="9">
         <f t="shared" si="15"/>
-        <v>4422.5999999999995</v>
+        <v>4584.5999999999995</v>
       </c>
       <c r="O133" s="9">
         <f t="shared" si="16"/>
-        <v>5896.7999999999993</v>
+        <v>6112.7999999999993</v>
       </c>
       <c r="P133" s="9">
         <f t="shared" si="17"/>
-        <v>7371</v>
+        <v>7641</v>
       </c>
       <c r="Q133" s="9">
         <f t="shared" si="18"/>
-        <v>8845.1999999999989</v>
+        <v>9169.1999999999989</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A134" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B134" s="52"/>
-      <c r="C134" s="52"/>
-      <c r="D134" s="52"/>
-      <c r="E134" s="52"/>
-      <c r="F134" s="52"/>
-      <c r="G134" s="52"/>
-      <c r="H134" s="52"/>
-      <c r="J134" s="48">
+      <c r="A134" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B134" s="57"/>
+      <c r="C134" s="57"/>
+      <c r="D134" s="57"/>
+      <c r="E134" s="57"/>
+      <c r="F134" s="57"/>
+      <c r="G134" s="57"/>
+      <c r="H134" s="57"/>
+      <c r="J134" s="35">
         <v>20</v>
       </c>
-      <c r="K134" s="49"/>
+      <c r="K134" s="36"/>
       <c r="L134" s="9">
         <f t="shared" si="13"/>
-        <v>1638</v>
+        <v>1698</v>
       </c>
       <c r="M134" s="9">
         <f t="shared" si="14"/>
-        <v>3276</v>
+        <v>3396</v>
       </c>
       <c r="N134" s="9">
         <f t="shared" si="15"/>
-        <v>4914</v>
+        <v>5094</v>
       </c>
       <c r="O134" s="9">
         <f t="shared" si="16"/>
-        <v>6552</v>
+        <v>6792</v>
       </c>
       <c r="P134" s="9">
         <f t="shared" si="17"/>
-        <v>8190</v>
+        <v>8490</v>
       </c>
       <c r="Q134" s="9">
         <f t="shared" si="18"/>
-        <v>9828</v>
+        <v>10188</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A135" s="53" t="s">
+      <c r="A135" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B135" s="53"/>
-      <c r="C135" s="54" t="s">
+      <c r="B135" s="58"/>
+      <c r="C135" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D135" s="54"/>
-      <c r="E135" s="54"/>
-      <c r="F135" s="54"/>
-      <c r="G135" s="54"/>
-      <c r="H135" s="54"/>
-      <c r="J135" s="48">
+      <c r="D135" s="59"/>
+      <c r="E135" s="59"/>
+      <c r="F135" s="59"/>
+      <c r="G135" s="59"/>
+      <c r="H135" s="59"/>
+      <c r="J135" s="35">
         <v>22</v>
       </c>
-      <c r="K135" s="49"/>
+      <c r="K135" s="36"/>
       <c r="L135" s="9">
         <f t="shared" si="13"/>
-        <v>1801.8</v>
+        <v>1867.8</v>
       </c>
       <c r="M135" s="9">
         <f t="shared" si="14"/>
-        <v>3603.6</v>
+        <v>3735.6</v>
       </c>
       <c r="N135" s="9">
         <f t="shared" si="15"/>
-        <v>5405.4</v>
+        <v>5603.4</v>
       </c>
       <c r="O135" s="9">
         <f t="shared" si="16"/>
-        <v>7207.2</v>
+        <v>7471.2</v>
       </c>
       <c r="P135" s="9">
         <f t="shared" si="17"/>
-        <v>9009</v>
+        <v>9339</v>
       </c>
       <c r="Q135" s="9">
         <f t="shared" si="18"/>
-        <v>10810.8</v>
+        <v>11206.8</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A136" s="50" t="s">
+      <c r="A136" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B136" s="51"/>
+      <c r="B136" s="72"/>
       <c r="C136" s="7">
         <v>1</v>
       </c>
@@ -6008,40 +6070,40 @@
       <c r="H136" s="8">
         <v>6</v>
       </c>
-      <c r="J136" s="48">
+      <c r="J136" s="35">
         <v>24</v>
       </c>
-      <c r="K136" s="49"/>
+      <c r="K136" s="36"/>
       <c r="L136" s="9">
         <f t="shared" si="13"/>
-        <v>1965.6000000000001</v>
+        <v>2037.6000000000001</v>
       </c>
       <c r="M136" s="9">
         <f t="shared" si="14"/>
-        <v>3931.2000000000003</v>
+        <v>4075.2000000000003</v>
       </c>
       <c r="N136" s="9">
         <f t="shared" si="15"/>
-        <v>5896.7999999999993</v>
+        <v>6112.7999999999993</v>
       </c>
       <c r="O136" s="9">
         <f t="shared" si="16"/>
-        <v>7862.4000000000005</v>
+        <v>8150.4000000000005</v>
       </c>
       <c r="P136" s="9">
         <f t="shared" si="17"/>
-        <v>9828</v>
+        <v>10188</v>
       </c>
       <c r="Q136" s="9">
         <f t="shared" si="18"/>
-        <v>11793.599999999999</v>
+        <v>12225.599999999999</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A137" s="48">
+      <c r="A137" s="35">
         <v>1</v>
       </c>
-      <c r="B137" s="49"/>
+      <c r="B137" s="36"/>
       <c r="C137" s="9">
         <f>$A137 * (C$136 * $N$22 + C$136 * 4 * $N$24)</f>
         <v>37.949999999999996</v>
@@ -6066,40 +6128,40 @@
         <f t="shared" si="19"/>
         <v>227.7</v>
       </c>
-      <c r="J137" s="48">
+      <c r="J137" s="35">
         <v>28</v>
       </c>
-      <c r="K137" s="49"/>
+      <c r="K137" s="36"/>
       <c r="L137" s="9">
         <f t="shared" si="13"/>
-        <v>2293.1999999999998</v>
+        <v>2377.1999999999998</v>
       </c>
       <c r="M137" s="9">
         <f t="shared" si="14"/>
-        <v>4586.3999999999996</v>
+        <v>4754.3999999999996</v>
       </c>
       <c r="N137" s="9">
         <f t="shared" si="15"/>
-        <v>6879.5999999999995</v>
+        <v>7131.5999999999995</v>
       </c>
       <c r="O137" s="9">
         <f t="shared" si="16"/>
-        <v>9172.7999999999993</v>
+        <v>9508.7999999999993</v>
       </c>
       <c r="P137" s="9">
         <f t="shared" si="17"/>
-        <v>11466</v>
+        <v>11886</v>
       </c>
       <c r="Q137" s="9">
         <f t="shared" si="18"/>
-        <v>13759.199999999999</v>
+        <v>14263.199999999999</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A138" s="48">
+      <c r="A138" s="35">
         <v>2</v>
       </c>
-      <c r="B138" s="49"/>
+      <c r="B138" s="36"/>
       <c r="C138" s="9">
         <f t="shared" ref="C138:H160" si="20">$A138 * (C$136 * $N$22 + C$136 * 4 * $N$24)</f>
         <v>75.899999999999991</v>
@@ -6124,40 +6186,40 @@
         <f t="shared" si="19"/>
         <v>455.4</v>
       </c>
-      <c r="J138" s="48">
+      <c r="J138" s="35">
         <v>32</v>
       </c>
-      <c r="K138" s="49"/>
+      <c r="K138" s="36"/>
       <c r="L138" s="9">
         <f t="shared" si="13"/>
-        <v>2620.8000000000002</v>
+        <v>2716.8</v>
       </c>
       <c r="M138" s="9">
         <f t="shared" si="14"/>
-        <v>5241.6000000000004</v>
+        <v>5433.6</v>
       </c>
       <c r="N138" s="9">
         <f t="shared" si="15"/>
-        <v>7862.4</v>
+        <v>8150.4</v>
       </c>
       <c r="O138" s="9">
         <f t="shared" si="16"/>
-        <v>10483.200000000001</v>
+        <v>10867.2</v>
       </c>
       <c r="P138" s="9">
         <f t="shared" si="17"/>
-        <v>13104</v>
+        <v>13584</v>
       </c>
       <c r="Q138" s="9">
         <f t="shared" si="18"/>
-        <v>15724.8</v>
+        <v>16300.8</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A139" s="48">
+      <c r="A139" s="35">
         <v>3</v>
       </c>
-      <c r="B139" s="49"/>
+      <c r="B139" s="36"/>
       <c r="C139" s="9">
         <f t="shared" si="20"/>
         <v>113.85</v>
@@ -6182,40 +6244,40 @@
         <f t="shared" si="19"/>
         <v>683.09999999999991</v>
       </c>
-      <c r="J139" s="48">
+      <c r="J139" s="35">
         <v>36</v>
       </c>
-      <c r="K139" s="49"/>
+      <c r="K139" s="36"/>
       <c r="L139" s="9">
         <f t="shared" si="13"/>
-        <v>2948.3999999999996</v>
+        <v>3056.3999999999996</v>
       </c>
       <c r="M139" s="9">
         <f t="shared" si="14"/>
-        <v>5896.7999999999993</v>
+        <v>6112.7999999999993</v>
       </c>
       <c r="N139" s="9">
         <f t="shared" si="15"/>
-        <v>8845.1999999999989</v>
+        <v>9169.1999999999989</v>
       </c>
       <c r="O139" s="9">
         <f t="shared" si="16"/>
-        <v>11793.599999999999</v>
+        <v>12225.599999999999</v>
       </c>
       <c r="P139" s="9">
         <f t="shared" si="17"/>
-        <v>14742</v>
+        <v>15282</v>
       </c>
       <c r="Q139" s="9">
         <f t="shared" si="18"/>
-        <v>17690.399999999998</v>
+        <v>18338.399999999998</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A140" s="48">
+      <c r="A140" s="35">
         <v>4</v>
       </c>
-      <c r="B140" s="49"/>
+      <c r="B140" s="36"/>
       <c r="C140" s="9">
         <f t="shared" si="20"/>
         <v>151.79999999999998</v>
@@ -6240,40 +6302,40 @@
         <f t="shared" si="19"/>
         <v>910.8</v>
       </c>
-      <c r="J140" s="48">
+      <c r="J140" s="35">
         <v>40</v>
       </c>
-      <c r="K140" s="49"/>
+      <c r="K140" s="36"/>
       <c r="L140" s="9">
         <f t="shared" si="13"/>
-        <v>3276</v>
+        <v>3396</v>
       </c>
       <c r="M140" s="9">
         <f t="shared" si="14"/>
-        <v>6552</v>
+        <v>6792</v>
       </c>
       <c r="N140" s="9">
         <f t="shared" si="15"/>
-        <v>9828</v>
+        <v>10188</v>
       </c>
       <c r="O140" s="9">
         <f t="shared" si="16"/>
-        <v>13104</v>
+        <v>13584</v>
       </c>
       <c r="P140" s="9">
         <f t="shared" si="17"/>
-        <v>16380</v>
+        <v>16980</v>
       </c>
       <c r="Q140" s="9">
         <f t="shared" si="18"/>
-        <v>19656</v>
+        <v>20376</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A141" s="48">
+      <c r="A141" s="35">
         <v>5</v>
       </c>
-      <c r="B141" s="49"/>
+      <c r="B141" s="36"/>
       <c r="C141" s="9">
         <f t="shared" si="20"/>
         <v>189.74999999999997</v>
@@ -6298,40 +6360,40 @@
         <f t="shared" si="19"/>
         <v>1138.5</v>
       </c>
-      <c r="J141" s="48">
+      <c r="J141" s="35">
         <v>44</v>
       </c>
-      <c r="K141" s="49"/>
+      <c r="K141" s="36"/>
       <c r="L141" s="9">
         <f t="shared" si="13"/>
-        <v>3603.6</v>
+        <v>3735.6</v>
       </c>
       <c r="M141" s="9">
         <f t="shared" si="14"/>
-        <v>7207.2</v>
+        <v>7471.2</v>
       </c>
       <c r="N141" s="9">
         <f t="shared" si="15"/>
-        <v>10810.8</v>
+        <v>11206.8</v>
       </c>
       <c r="O141" s="9">
         <f t="shared" si="16"/>
-        <v>14414.4</v>
+        <v>14942.4</v>
       </c>
       <c r="P141" s="9">
         <f t="shared" si="17"/>
-        <v>18018</v>
+        <v>18678</v>
       </c>
       <c r="Q141" s="9">
         <f t="shared" si="18"/>
-        <v>21621.599999999999</v>
+        <v>22413.599999999999</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A142" s="48">
+      <c r="A142" s="35">
         <v>6</v>
       </c>
-      <c r="B142" s="49"/>
+      <c r="B142" s="36"/>
       <c r="C142" s="9">
         <f t="shared" si="20"/>
         <v>227.7</v>
@@ -6356,40 +6418,40 @@
         <f t="shared" si="19"/>
         <v>1366.1999999999998</v>
       </c>
-      <c r="J142" s="48">
+      <c r="J142" s="35">
         <v>48</v>
       </c>
-      <c r="K142" s="49"/>
+      <c r="K142" s="36"/>
       <c r="L142" s="9">
         <f t="shared" si="13"/>
-        <v>3931.2000000000003</v>
+        <v>4075.2000000000003</v>
       </c>
       <c r="M142" s="9">
         <f t="shared" si="14"/>
-        <v>7862.4000000000005</v>
+        <v>8150.4000000000005</v>
       </c>
       <c r="N142" s="9">
         <f t="shared" si="15"/>
-        <v>11793.599999999999</v>
+        <v>12225.599999999999</v>
       </c>
       <c r="O142" s="9">
         <f t="shared" si="16"/>
-        <v>15724.800000000001</v>
+        <v>16300.800000000001</v>
       </c>
       <c r="P142" s="9">
         <f t="shared" si="17"/>
-        <v>19656</v>
+        <v>20376</v>
       </c>
       <c r="Q142" s="9">
         <f t="shared" si="18"/>
-        <v>23587.199999999997</v>
+        <v>24451.199999999997</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A143" s="48">
+      <c r="A143" s="35">
         <v>7</v>
       </c>
-      <c r="B143" s="49"/>
+      <c r="B143" s="36"/>
       <c r="C143" s="9">
         <f t="shared" si="20"/>
         <v>265.64999999999998</v>
@@ -6416,10 +6478,10 @@
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A144" s="48">
+      <c r="A144" s="35">
         <v>8</v>
       </c>
-      <c r="B144" s="49"/>
+      <c r="B144" s="36"/>
       <c r="C144" s="9">
         <f t="shared" si="20"/>
         <v>303.59999999999997</v>
@@ -6446,10 +6508,10 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="48">
+      <c r="A145" s="35">
         <v>9</v>
       </c>
-      <c r="B145" s="49"/>
+      <c r="B145" s="36"/>
       <c r="C145" s="9">
         <f t="shared" si="20"/>
         <v>341.54999999999995</v>
@@ -6476,10 +6538,10 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="48">
+      <c r="A146" s="35">
         <v>10</v>
       </c>
-      <c r="B146" s="49"/>
+      <c r="B146" s="36"/>
       <c r="C146" s="9">
         <f t="shared" si="20"/>
         <v>379.49999999999994</v>
@@ -6506,10 +6568,10 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="48">
+      <c r="A147" s="35">
         <v>11</v>
       </c>
-      <c r="B147" s="49"/>
+      <c r="B147" s="36"/>
       <c r="C147" s="9">
         <f t="shared" si="20"/>
         <v>417.44999999999993</v>
@@ -6536,10 +6598,10 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="48">
+      <c r="A148" s="35">
         <v>12</v>
       </c>
-      <c r="B148" s="49"/>
+      <c r="B148" s="36"/>
       <c r="C148" s="9">
         <f t="shared" si="20"/>
         <v>455.4</v>
@@ -6566,10 +6628,10 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="48">
+      <c r="A149" s="35">
         <v>14</v>
       </c>
-      <c r="B149" s="49"/>
+      <c r="B149" s="36"/>
       <c r="C149" s="9">
         <f t="shared" si="20"/>
         <v>531.29999999999995</v>
@@ -6596,10 +6658,10 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="48">
+      <c r="A150" s="35">
         <v>16</v>
       </c>
-      <c r="B150" s="49"/>
+      <c r="B150" s="36"/>
       <c r="C150" s="9">
         <f t="shared" si="20"/>
         <v>607.19999999999993</v>
@@ -6626,10 +6688,10 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="48">
+      <c r="A151" s="35">
         <v>18</v>
       </c>
-      <c r="B151" s="49"/>
+      <c r="B151" s="36"/>
       <c r="C151" s="9">
         <f t="shared" si="20"/>
         <v>683.09999999999991</v>
@@ -6656,10 +6718,10 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="48">
+      <c r="A152" s="35">
         <v>20</v>
       </c>
-      <c r="B152" s="49"/>
+      <c r="B152" s="36"/>
       <c r="C152" s="9">
         <f t="shared" si="20"/>
         <v>758.99999999999989</v>
@@ -6686,10 +6748,10 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="48">
+      <c r="A153" s="35">
         <v>22</v>
       </c>
-      <c r="B153" s="49"/>
+      <c r="B153" s="36"/>
       <c r="C153" s="9">
         <f t="shared" si="20"/>
         <v>834.89999999999986</v>
@@ -6716,10 +6778,10 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="48">
+      <c r="A154" s="35">
         <v>24</v>
       </c>
-      <c r="B154" s="49"/>
+      <c r="B154" s="36"/>
       <c r="C154" s="9">
         <f t="shared" si="20"/>
         <v>910.8</v>
@@ -6746,10 +6808,10 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="48">
+      <c r="A155" s="35">
         <v>28</v>
       </c>
-      <c r="B155" s="49"/>
+      <c r="B155" s="36"/>
       <c r="C155" s="9">
         <f t="shared" si="20"/>
         <v>1062.5999999999999</v>
@@ -6776,10 +6838,10 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="48">
+      <c r="A156" s="35">
         <v>32</v>
       </c>
-      <c r="B156" s="49"/>
+      <c r="B156" s="36"/>
       <c r="C156" s="9">
         <f t="shared" si="20"/>
         <v>1214.3999999999999</v>
@@ -6806,10 +6868,10 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="48">
+      <c r="A157" s="35">
         <v>36</v>
       </c>
-      <c r="B157" s="49"/>
+      <c r="B157" s="36"/>
       <c r="C157" s="9">
         <f t="shared" si="20"/>
         <v>1366.1999999999998</v>
@@ -6836,10 +6898,10 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="48">
+      <c r="A158" s="35">
         <v>40</v>
       </c>
-      <c r="B158" s="49"/>
+      <c r="B158" s="36"/>
       <c r="C158" s="9">
         <f t="shared" si="20"/>
         <v>1517.9999999999998</v>
@@ -6866,10 +6928,10 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="48">
+      <c r="A159" s="35">
         <v>44</v>
       </c>
-      <c r="B159" s="49"/>
+      <c r="B159" s="36"/>
       <c r="C159" s="9">
         <f t="shared" si="20"/>
         <v>1669.7999999999997</v>
@@ -6896,10 +6958,10 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="48">
+      <c r="A160" s="35">
         <v>48</v>
       </c>
-      <c r="B160" s="49"/>
+      <c r="B160" s="36"/>
       <c r="C160" s="9">
         <f t="shared" si="20"/>
         <v>1821.6</v>
@@ -6926,171 +6988,20 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="202">
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="K5:O17"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="K33:O33"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="N46:O48"/>
-    <mergeCell ref="N35:O37"/>
-    <mergeCell ref="S23:V29"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="N57:O59"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K56:O56"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A134:H134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="J129:K129"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J116:Q116"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="L117:Q117"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="J121:K121"/>
+  <mergeCells count="212">
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="P28:R30"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="S30:V30"/>
     <mergeCell ref="J140:K140"/>
     <mergeCell ref="J141:K141"/>
     <mergeCell ref="J142:K142"/>
@@ -7115,6 +7026,126 @@
     <mergeCell ref="J125:K125"/>
     <mergeCell ref="J126:K126"/>
     <mergeCell ref="J127:K127"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="J129:K129"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="J116:Q116"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="L117:Q117"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A134:H134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="N57:O59"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K56:O56"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="J113:K113"/>
     <mergeCell ref="L89:Q89"/>
     <mergeCell ref="J89:K89"/>
     <mergeCell ref="J88:Q88"/>
@@ -7127,8 +7158,49 @@
     <mergeCell ref="J94:K94"/>
     <mergeCell ref="J93:K93"/>
     <mergeCell ref="J92:K92"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="K33:O33"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="N46:O48"/>
+    <mergeCell ref="N35:O37"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="K5:O17"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7141,7 +7213,7 @@
   <dimension ref="B2:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7155,225 +7227,225 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="91" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="92"/>
-      <c r="J2" s="65" t="s">
+      <c r="H2" s="87"/>
+      <c r="J2" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="67"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="40"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="88">
+      <c r="C3" s="83">
         <v>0</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="62">
+        <v>97</v>
+      </c>
+      <c r="C4" s="33">
         <v>0</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="62">
+      <c r="D4" s="34"/>
+      <c r="E4" s="33">
         <v>9.99</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="84">
+      <c r="F4" s="34"/>
+      <c r="G4" s="94">
         <v>14.99</v>
       </c>
-      <c r="H4" s="85"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="70"/>
+      <c r="H4" s="95"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="43"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="37">
         <v>0.99</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37">
         <v>0</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="86">
+      <c r="F5" s="37"/>
+      <c r="G5" s="96">
         <v>0</v>
       </c>
-      <c r="H5" s="87"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="70"/>
+      <c r="H5" s="97"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="78" t="s">
+      <c r="D6" s="52"/>
+      <c r="E6" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="33" t="s">
+      <c r="F6" s="52"/>
+      <c r="G6" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="70"/>
+      <c r="H6" s="82"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="43"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="78" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="33" t="s">
+      <c r="F7" s="52"/>
+      <c r="G7" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="70"/>
+      <c r="H7" s="82"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="48" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="33" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="70"/>
+      <c r="H8" s="82"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="43"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="48" t="s">
+      <c r="D9" s="36"/>
+      <c r="E9" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="33" t="s">
+      <c r="F9" s="36"/>
+      <c r="G9" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="70"/>
+      <c r="H9" s="82"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="35">
         <v>5</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="48" t="s">
+      <c r="D10" s="36"/>
+      <c r="E10" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="33" t="s">
+      <c r="F10" s="36"/>
+      <c r="G10" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="70"/>
+      <c r="H10" s="82"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="43"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J11" s="68"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="70"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="43"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="70"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="43"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J13" s="68"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="70"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="43"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J14" s="71"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="73"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="46"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
@@ -7421,10 +7493,10 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="93" t="s">
+      <c r="G20" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="94"/>
+      <c r="H20" s="89"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
@@ -7432,8 +7504,8 @@
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="96"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="91"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
@@ -7441,8 +7513,8 @@
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="96"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="91"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
@@ -7450,82 +7522,82 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="98"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="93"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="K29" s="52" t="s">
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="K29" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54" t="s">
+      <c r="C30" s="58"/>
+      <c r="D30" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="K30" s="50" t="s">
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="K30" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="51"/>
+      <c r="L30" s="72"/>
       <c r="M30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="N30" s="50" t="s">
+      <c r="N30" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="O30" s="51"/>
+      <c r="O30" s="72"/>
       <c r="P30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q30" s="50" t="s">
+      <c r="Q30" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R30" s="51"/>
+      <c r="R30" s="72"/>
       <c r="S30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="T30" s="50" t="s">
+      <c r="T30" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="U30" s="51"/>
+      <c r="U30" s="72"/>
       <c r="V30" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="51"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="7">
         <v>1</v>
       </c>
@@ -7544,44 +7616,44 @@
       <c r="I31" s="8">
         <v>6</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K31" s="80">
         <v>1</v>
       </c>
-      <c r="L31" s="35"/>
+      <c r="L31" s="82"/>
       <c r="M31" s="19">
         <f>K31*$C$5</f>
         <v>0.99</v>
       </c>
-      <c r="N31" s="33">
+      <c r="N31" s="80">
         <v>120</v>
       </c>
-      <c r="O31" s="35"/>
+      <c r="O31" s="82"/>
       <c r="P31" s="19">
         <f>N31*$C$5</f>
         <v>118.8</v>
       </c>
-      <c r="Q31" s="33">
+      <c r="Q31" s="80">
         <v>650</v>
       </c>
-      <c r="R31" s="35"/>
+      <c r="R31" s="82"/>
       <c r="S31" s="19">
         <f>Q31*$C$5</f>
         <v>643.5</v>
       </c>
-      <c r="T31" s="33">
+      <c r="T31" s="80">
         <v>1750</v>
       </c>
-      <c r="U31" s="35"/>
+      <c r="U31" s="82"/>
       <c r="V31" s="19">
         <f>T31*$C$5</f>
         <v>1732.5</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="48">
+      <c r="B32" s="35">
         <v>1</v>
       </c>
-      <c r="C32" s="49"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="9">
         <f>$E$4 *D31</f>
         <v>9.99</v>
@@ -7606,44 +7678,44 @@
         <f t="shared" si="0"/>
         <v>59.94</v>
       </c>
-      <c r="K32" s="33">
+      <c r="K32" s="80">
         <v>4</v>
       </c>
-      <c r="L32" s="35"/>
+      <c r="L32" s="82"/>
       <c r="M32" s="19">
         <f t="shared" ref="M32:M43" si="1">K32*$C$5</f>
         <v>3.96</v>
       </c>
-      <c r="N32" s="33">
+      <c r="N32" s="80">
         <v>150</v>
       </c>
-      <c r="O32" s="35"/>
+      <c r="O32" s="82"/>
       <c r="P32" s="19">
         <f t="shared" ref="P32:P43" si="2">N32*$C$5</f>
         <v>148.5</v>
       </c>
-      <c r="Q32" s="33">
+      <c r="Q32" s="80">
         <v>700</v>
       </c>
-      <c r="R32" s="35"/>
+      <c r="R32" s="82"/>
       <c r="S32" s="19">
         <f t="shared" ref="S32:S43" si="3">Q32*$C$5</f>
         <v>693</v>
       </c>
-      <c r="T32" s="33">
+      <c r="T32" s="80">
         <v>2000</v>
       </c>
-      <c r="U32" s="35"/>
+      <c r="U32" s="82"/>
       <c r="V32" s="19">
         <f t="shared" ref="V32:V43" si="4">T32*$C$5</f>
         <v>1980</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="48">
+      <c r="B33" s="35">
         <v>2</v>
       </c>
-      <c r="C33" s="49"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="5">
         <f>D32+$D$31*$E$4</f>
         <v>19.98</v>
@@ -7668,44 +7740,44 @@
         <f>I32+$I$31*$E$4</f>
         <v>119.88</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="80">
         <v>8</v>
       </c>
-      <c r="L33" s="35"/>
+      <c r="L33" s="82"/>
       <c r="M33" s="19">
         <f t="shared" si="1"/>
         <v>7.92</v>
       </c>
-      <c r="N33" s="33">
+      <c r="N33" s="80">
         <v>180</v>
       </c>
-      <c r="O33" s="35"/>
+      <c r="O33" s="82"/>
       <c r="P33" s="19">
         <f t="shared" si="2"/>
         <v>178.2</v>
       </c>
-      <c r="Q33" s="33">
+      <c r="Q33" s="80">
         <v>750</v>
       </c>
-      <c r="R33" s="35"/>
+      <c r="R33" s="82"/>
       <c r="S33" s="19">
         <f t="shared" si="3"/>
         <v>742.5</v>
       </c>
-      <c r="T33" s="33">
+      <c r="T33" s="80">
         <v>2250</v>
       </c>
-      <c r="U33" s="35"/>
+      <c r="U33" s="82"/>
       <c r="V33" s="19">
         <f t="shared" si="4"/>
         <v>2227.5</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="48">
+      <c r="B34" s="35">
         <v>3</v>
       </c>
-      <c r="C34" s="49"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="5">
         <f t="shared" ref="D34:D43" si="5">D33+$D$31*$E$4</f>
         <v>29.97</v>
@@ -7730,44 +7802,44 @@
         <f t="shared" ref="I34:I43" si="10">I33+$I$31*$E$4</f>
         <v>179.82</v>
       </c>
-      <c r="K34" s="33">
+      <c r="K34" s="80">
         <v>12</v>
       </c>
-      <c r="L34" s="35"/>
+      <c r="L34" s="82"/>
       <c r="M34" s="19">
         <f t="shared" si="1"/>
         <v>11.879999999999999</v>
       </c>
-      <c r="N34" s="33">
+      <c r="N34" s="80">
         <v>200</v>
       </c>
-      <c r="O34" s="35"/>
+      <c r="O34" s="82"/>
       <c r="P34" s="19">
         <f t="shared" si="2"/>
         <v>198</v>
       </c>
-      <c r="Q34" s="33">
+      <c r="Q34" s="80">
         <v>800</v>
       </c>
-      <c r="R34" s="35"/>
+      <c r="R34" s="82"/>
       <c r="S34" s="19">
         <f t="shared" si="3"/>
         <v>792</v>
       </c>
-      <c r="T34" s="33">
+      <c r="T34" s="80">
         <v>2500</v>
       </c>
-      <c r="U34" s="35"/>
+      <c r="U34" s="82"/>
       <c r="V34" s="19">
         <f t="shared" si="4"/>
         <v>2475</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="48">
+      <c r="B35" s="35">
         <v>4</v>
       </c>
-      <c r="C35" s="49"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="5">
         <f t="shared" si="5"/>
         <v>39.96</v>
@@ -7792,44 +7864,44 @@
         <f t="shared" si="10"/>
         <v>239.76</v>
       </c>
-      <c r="K35" s="33">
+      <c r="K35" s="80">
         <v>20</v>
       </c>
-      <c r="L35" s="35"/>
+      <c r="L35" s="82"/>
       <c r="M35" s="19">
         <f t="shared" si="1"/>
         <v>19.8</v>
       </c>
-      <c r="N35" s="33">
+      <c r="N35" s="80">
         <v>240</v>
       </c>
-      <c r="O35" s="35"/>
+      <c r="O35" s="82"/>
       <c r="P35" s="19">
         <f t="shared" si="2"/>
         <v>237.6</v>
       </c>
-      <c r="Q35" s="33">
+      <c r="Q35" s="80">
         <v>850</v>
       </c>
-      <c r="R35" s="35"/>
+      <c r="R35" s="82"/>
       <c r="S35" s="19">
         <f t="shared" si="3"/>
         <v>841.5</v>
       </c>
-      <c r="T35" s="33">
+      <c r="T35" s="80">
         <v>2750</v>
       </c>
-      <c r="U35" s="35"/>
+      <c r="U35" s="82"/>
       <c r="V35" s="19">
         <f t="shared" si="4"/>
         <v>2722.5</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="48">
+      <c r="B36" s="35">
         <v>5</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="5">
         <f t="shared" si="5"/>
         <v>49.95</v>
@@ -7854,44 +7926,44 @@
         <f t="shared" si="10"/>
         <v>299.7</v>
       </c>
-      <c r="K36" s="33">
+      <c r="K36" s="80">
         <v>30</v>
       </c>
-      <c r="L36" s="35"/>
+      <c r="L36" s="82"/>
       <c r="M36" s="19">
         <f t="shared" si="1"/>
         <v>29.7</v>
       </c>
-      <c r="N36" s="33">
+      <c r="N36" s="80">
         <v>280</v>
       </c>
-      <c r="O36" s="35"/>
+      <c r="O36" s="82"/>
       <c r="P36" s="19">
         <f t="shared" si="2"/>
         <v>277.2</v>
       </c>
-      <c r="Q36" s="33">
+      <c r="Q36" s="80">
         <v>900</v>
       </c>
-      <c r="R36" s="35"/>
+      <c r="R36" s="82"/>
       <c r="S36" s="19">
         <f t="shared" si="3"/>
         <v>891</v>
       </c>
-      <c r="T36" s="33">
+      <c r="T36" s="80">
         <v>3000</v>
       </c>
-      <c r="U36" s="35"/>
+      <c r="U36" s="82"/>
       <c r="V36" s="19">
         <f t="shared" si="4"/>
         <v>2970</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="48">
+      <c r="B37" s="35">
         <v>6</v>
       </c>
-      <c r="C37" s="49"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="5">
         <f t="shared" si="5"/>
         <v>59.940000000000005</v>
@@ -7916,44 +7988,44 @@
         <f t="shared" si="10"/>
         <v>359.64</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="80">
         <v>40</v>
       </c>
-      <c r="L37" s="35"/>
+      <c r="L37" s="82"/>
       <c r="M37" s="19">
         <f t="shared" si="1"/>
         <v>39.6</v>
       </c>
-      <c r="N37" s="33">
+      <c r="N37" s="80">
         <v>300</v>
       </c>
-      <c r="O37" s="35"/>
+      <c r="O37" s="82"/>
       <c r="P37" s="19">
         <f t="shared" si="2"/>
         <v>297</v>
       </c>
-      <c r="Q37" s="33">
+      <c r="Q37" s="80">
         <v>950</v>
       </c>
-      <c r="R37" s="35"/>
+      <c r="R37" s="82"/>
       <c r="S37" s="19">
         <f t="shared" si="3"/>
         <v>940.5</v>
       </c>
-      <c r="T37" s="33">
+      <c r="T37" s="80">
         <v>3250</v>
       </c>
-      <c r="U37" s="35"/>
+      <c r="U37" s="82"/>
       <c r="V37" s="19">
         <f t="shared" si="4"/>
         <v>3217.5</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="48">
+      <c r="B38" s="35">
         <v>7</v>
       </c>
-      <c r="C38" s="49"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="5">
         <f t="shared" si="5"/>
         <v>69.930000000000007</v>
@@ -7978,44 +8050,44 @@
         <f t="shared" si="10"/>
         <v>419.58</v>
       </c>
-      <c r="K38" s="33">
+      <c r="K38" s="80">
         <v>50</v>
       </c>
-      <c r="L38" s="35"/>
+      <c r="L38" s="82"/>
       <c r="M38" s="19">
         <f t="shared" si="1"/>
         <v>49.5</v>
       </c>
-      <c r="N38" s="33">
+      <c r="N38" s="80">
         <v>350</v>
       </c>
-      <c r="O38" s="35"/>
+      <c r="O38" s="82"/>
       <c r="P38" s="19">
         <f t="shared" si="2"/>
         <v>346.5</v>
       </c>
-      <c r="Q38" s="33">
+      <c r="Q38" s="80">
         <v>1000</v>
       </c>
-      <c r="R38" s="35"/>
+      <c r="R38" s="82"/>
       <c r="S38" s="19">
         <f t="shared" si="3"/>
         <v>990</v>
       </c>
-      <c r="T38" s="33">
+      <c r="T38" s="80">
         <v>3500</v>
       </c>
-      <c r="U38" s="35"/>
+      <c r="U38" s="82"/>
       <c r="V38" s="19">
         <f t="shared" si="4"/>
         <v>3465</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="48">
+      <c r="B39" s="35">
         <v>8</v>
       </c>
-      <c r="C39" s="49"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="5">
         <f t="shared" si="5"/>
         <v>79.92</v>
@@ -8040,44 +8112,44 @@
         <f t="shared" si="10"/>
         <v>479.52</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="80">
         <v>60</v>
       </c>
-      <c r="L39" s="35"/>
+      <c r="L39" s="82"/>
       <c r="M39" s="19">
         <f t="shared" si="1"/>
         <v>59.4</v>
       </c>
-      <c r="N39" s="33">
+      <c r="N39" s="80">
         <v>400</v>
       </c>
-      <c r="O39" s="35"/>
+      <c r="O39" s="82"/>
       <c r="P39" s="19">
         <f t="shared" si="2"/>
         <v>396</v>
       </c>
-      <c r="Q39" s="33">
+      <c r="Q39" s="80">
         <v>1100</v>
       </c>
-      <c r="R39" s="35"/>
+      <c r="R39" s="82"/>
       <c r="S39" s="19">
         <f t="shared" si="3"/>
         <v>1089</v>
       </c>
-      <c r="T39" s="33">
+      <c r="T39" s="80">
         <v>3750</v>
       </c>
-      <c r="U39" s="35"/>
+      <c r="U39" s="82"/>
       <c r="V39" s="19">
         <f t="shared" si="4"/>
         <v>3712.5</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="48">
+      <c r="B40" s="35">
         <v>9</v>
       </c>
-      <c r="C40" s="49"/>
+      <c r="C40" s="36"/>
       <c r="D40" s="5">
         <f t="shared" si="5"/>
         <v>89.91</v>
@@ -8102,44 +8174,44 @@
         <f t="shared" si="10"/>
         <v>539.46</v>
       </c>
-      <c r="K40" s="33">
+      <c r="K40" s="80">
         <v>70</v>
       </c>
-      <c r="L40" s="35"/>
+      <c r="L40" s="82"/>
       <c r="M40" s="19">
         <f t="shared" si="1"/>
         <v>69.3</v>
       </c>
-      <c r="N40" s="33">
+      <c r="N40" s="80">
         <v>450</v>
       </c>
-      <c r="O40" s="35"/>
+      <c r="O40" s="82"/>
       <c r="P40" s="19">
         <f t="shared" si="2"/>
         <v>445.5</v>
       </c>
-      <c r="Q40" s="33">
+      <c r="Q40" s="80">
         <v>1200</v>
       </c>
-      <c r="R40" s="35"/>
+      <c r="R40" s="82"/>
       <c r="S40" s="19">
         <f t="shared" si="3"/>
         <v>1188</v>
       </c>
-      <c r="T40" s="33">
+      <c r="T40" s="80">
         <v>4000</v>
       </c>
-      <c r="U40" s="35"/>
+      <c r="U40" s="82"/>
       <c r="V40" s="19">
         <f t="shared" si="4"/>
         <v>3960</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B41" s="48">
+      <c r="B41" s="35">
         <v>10</v>
       </c>
-      <c r="C41" s="49"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="5">
         <f t="shared" si="5"/>
         <v>99.899999999999991</v>
@@ -8164,44 +8236,44 @@
         <f t="shared" si="10"/>
         <v>599.40000000000009</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="80">
         <v>80</v>
       </c>
-      <c r="L41" s="35"/>
+      <c r="L41" s="82"/>
       <c r="M41" s="19">
         <f t="shared" si="1"/>
         <v>79.2</v>
       </c>
-      <c r="N41" s="33">
+      <c r="N41" s="80">
         <v>500</v>
       </c>
-      <c r="O41" s="35"/>
+      <c r="O41" s="82"/>
       <c r="P41" s="19">
         <f t="shared" si="2"/>
         <v>495</v>
       </c>
-      <c r="Q41" s="33">
+      <c r="Q41" s="80">
         <v>1300</v>
       </c>
-      <c r="R41" s="35"/>
+      <c r="R41" s="82"/>
       <c r="S41" s="19">
         <f t="shared" si="3"/>
         <v>1287</v>
       </c>
-      <c r="T41" s="33">
+      <c r="T41" s="80">
         <v>4250</v>
       </c>
-      <c r="U41" s="35"/>
+      <c r="U41" s="82"/>
       <c r="V41" s="19">
         <f t="shared" si="4"/>
         <v>4207.5</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="48">
+      <c r="B42" s="35">
         <v>11</v>
       </c>
-      <c r="C42" s="49"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="5">
         <f t="shared" si="5"/>
         <v>109.88999999999999</v>
@@ -8226,44 +8298,44 @@
         <f t="shared" si="10"/>
         <v>659.34000000000015</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="80">
         <v>90</v>
       </c>
-      <c r="L42" s="35"/>
+      <c r="L42" s="82"/>
       <c r="M42" s="19">
         <f t="shared" si="1"/>
         <v>89.1</v>
       </c>
-      <c r="N42" s="33">
+      <c r="N42" s="80">
         <v>550</v>
       </c>
-      <c r="O42" s="35"/>
+      <c r="O42" s="82"/>
       <c r="P42" s="19">
         <f t="shared" si="2"/>
         <v>544.5</v>
       </c>
-      <c r="Q42" s="33">
+      <c r="Q42" s="80">
         <v>1400</v>
       </c>
-      <c r="R42" s="35"/>
+      <c r="R42" s="82"/>
       <c r="S42" s="19">
         <f t="shared" si="3"/>
         <v>1386</v>
       </c>
-      <c r="T42" s="33">
+      <c r="T42" s="80">
         <v>4500</v>
       </c>
-      <c r="U42" s="35"/>
+      <c r="U42" s="82"/>
       <c r="V42" s="19">
         <f t="shared" si="4"/>
         <v>4455</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="48">
+      <c r="B43" s="35">
         <v>12</v>
       </c>
-      <c r="C43" s="49"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="5">
         <f t="shared" si="5"/>
         <v>119.87999999999998</v>
@@ -8288,522 +8360,522 @@
         <f t="shared" si="10"/>
         <v>719.2800000000002</v>
       </c>
-      <c r="K43" s="33">
+      <c r="K43" s="80">
         <v>100</v>
       </c>
-      <c r="L43" s="35"/>
+      <c r="L43" s="82"/>
       <c r="M43" s="19">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="N43" s="33">
+      <c r="N43" s="80">
         <v>600</v>
       </c>
-      <c r="O43" s="35"/>
+      <c r="O43" s="82"/>
       <c r="P43" s="19">
         <f t="shared" si="2"/>
         <v>594</v>
       </c>
-      <c r="Q43" s="33">
+      <c r="Q43" s="80">
         <v>1500</v>
       </c>
-      <c r="R43" s="35"/>
+      <c r="R43" s="82"/>
       <c r="S43" s="19">
         <f t="shared" si="3"/>
         <v>1485</v>
       </c>
-      <c r="T43" s="33">
+      <c r="T43" s="80">
         <v>5000</v>
       </c>
-      <c r="U43" s="35"/>
+      <c r="U43" s="82"/>
       <c r="V43" s="19">
         <f t="shared" si="4"/>
         <v>4950</v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="K46" s="52" t="s">
+      <c r="K46" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="52"/>
-      <c r="S46" s="52"/>
-      <c r="T46" s="52"/>
-      <c r="U46" s="52"/>
-      <c r="V46" s="52"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="57"/>
+      <c r="S46" s="57"/>
+      <c r="T46" s="57"/>
+      <c r="U46" s="57"/>
+      <c r="V46" s="57"/>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="K47" s="50" t="s">
+      <c r="K47" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="L47" s="51"/>
+      <c r="L47" s="72"/>
       <c r="M47" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="N47" s="50" t="s">
+      <c r="N47" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="O47" s="51"/>
+      <c r="O47" s="72"/>
       <c r="P47" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q47" s="50" t="s">
+      <c r="Q47" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R47" s="51"/>
+      <c r="R47" s="72"/>
       <c r="S47" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="T47" s="50" t="s">
+      <c r="T47" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="U47" s="51"/>
+      <c r="U47" s="72"/>
       <c r="V47" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="K48" s="33">
+      <c r="K48" s="80">
         <v>1</v>
       </c>
-      <c r="L48" s="35"/>
+      <c r="L48" s="82"/>
       <c r="M48" s="19">
         <f>K48*$E$5</f>
         <v>0</v>
       </c>
-      <c r="N48" s="33">
+      <c r="N48" s="80">
         <v>120</v>
       </c>
-      <c r="O48" s="35"/>
+      <c r="O48" s="82"/>
       <c r="P48" s="19">
         <f>N48*$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="33">
+      <c r="Q48" s="80">
         <v>650</v>
       </c>
-      <c r="R48" s="35"/>
+      <c r="R48" s="82"/>
       <c r="S48" s="19">
         <f>Q48*$E$5</f>
         <v>0</v>
       </c>
-      <c r="T48" s="33">
+      <c r="T48" s="80">
         <v>1750</v>
       </c>
-      <c r="U48" s="35"/>
+      <c r="U48" s="82"/>
       <c r="V48" s="19">
         <f>T48*$E$5</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K49" s="33">
+      <c r="K49" s="80">
         <v>4</v>
       </c>
-      <c r="L49" s="35"/>
+      <c r="L49" s="82"/>
       <c r="M49" s="19">
         <f t="shared" ref="M49:M60" si="11">K49*$E$5</f>
         <v>0</v>
       </c>
-      <c r="N49" s="33">
+      <c r="N49" s="80">
         <v>150</v>
       </c>
-      <c r="O49" s="35"/>
+      <c r="O49" s="82"/>
       <c r="P49" s="19">
         <f t="shared" ref="P49:P60" si="12">N49*$E$5</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="33">
+      <c r="Q49" s="80">
         <v>700</v>
       </c>
-      <c r="R49" s="35"/>
+      <c r="R49" s="82"/>
       <c r="S49" s="19">
         <f t="shared" ref="S49:S60" si="13">Q49*$E$5</f>
         <v>0</v>
       </c>
-      <c r="T49" s="33">
+      <c r="T49" s="80">
         <v>2000</v>
       </c>
-      <c r="U49" s="35"/>
+      <c r="U49" s="82"/>
       <c r="V49" s="19">
         <f t="shared" ref="V49:V59" si="14">T49*$E$5</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K50" s="33">
+      <c r="K50" s="80">
         <v>8</v>
       </c>
-      <c r="L50" s="35"/>
+      <c r="L50" s="82"/>
       <c r="M50" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N50" s="33">
+      <c r="N50" s="80">
         <v>180</v>
       </c>
-      <c r="O50" s="35"/>
+      <c r="O50" s="82"/>
       <c r="P50" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="33">
+      <c r="Q50" s="80">
         <v>750</v>
       </c>
-      <c r="R50" s="35"/>
+      <c r="R50" s="82"/>
       <c r="S50" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T50" s="33">
+      <c r="T50" s="80">
         <v>2250</v>
       </c>
-      <c r="U50" s="35"/>
+      <c r="U50" s="82"/>
       <c r="V50" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K51" s="33">
+      <c r="K51" s="80">
         <v>12</v>
       </c>
-      <c r="L51" s="35"/>
+      <c r="L51" s="82"/>
       <c r="M51" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N51" s="33">
+      <c r="N51" s="80">
         <v>200</v>
       </c>
-      <c r="O51" s="35"/>
+      <c r="O51" s="82"/>
       <c r="P51" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="33">
+      <c r="Q51" s="80">
         <v>800</v>
       </c>
-      <c r="R51" s="35"/>
+      <c r="R51" s="82"/>
       <c r="S51" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T51" s="33">
+      <c r="T51" s="80">
         <v>2500</v>
       </c>
-      <c r="U51" s="35"/>
+      <c r="U51" s="82"/>
       <c r="V51" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K52" s="33">
+      <c r="K52" s="80">
         <v>20</v>
       </c>
-      <c r="L52" s="35"/>
+      <c r="L52" s="82"/>
       <c r="M52" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N52" s="33">
+      <c r="N52" s="80">
         <v>240</v>
       </c>
-      <c r="O52" s="35"/>
+      <c r="O52" s="82"/>
       <c r="P52" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="33">
+      <c r="Q52" s="80">
         <v>850</v>
       </c>
-      <c r="R52" s="35"/>
+      <c r="R52" s="82"/>
       <c r="S52" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T52" s="33">
+      <c r="T52" s="80">
         <v>2750</v>
       </c>
-      <c r="U52" s="35"/>
+      <c r="U52" s="82"/>
       <c r="V52" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K53" s="33">
+      <c r="K53" s="80">
         <v>30</v>
       </c>
-      <c r="L53" s="35"/>
+      <c r="L53" s="82"/>
       <c r="M53" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N53" s="33">
+      <c r="N53" s="80">
         <v>280</v>
       </c>
-      <c r="O53" s="35"/>
+      <c r="O53" s="82"/>
       <c r="P53" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q53" s="33">
+      <c r="Q53" s="80">
         <v>900</v>
       </c>
-      <c r="R53" s="35"/>
+      <c r="R53" s="82"/>
       <c r="S53" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T53" s="33">
+      <c r="T53" s="80">
         <v>3000</v>
       </c>
-      <c r="U53" s="35"/>
+      <c r="U53" s="82"/>
       <c r="V53" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K54" s="33">
+      <c r="K54" s="80">
         <v>40</v>
       </c>
-      <c r="L54" s="35"/>
+      <c r="L54" s="82"/>
       <c r="M54" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N54" s="33">
+      <c r="N54" s="80">
         <v>300</v>
       </c>
-      <c r="O54" s="35"/>
+      <c r="O54" s="82"/>
       <c r="P54" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q54" s="33">
+      <c r="Q54" s="80">
         <v>950</v>
       </c>
-      <c r="R54" s="35"/>
+      <c r="R54" s="82"/>
       <c r="S54" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T54" s="33">
+      <c r="T54" s="80">
         <v>3250</v>
       </c>
-      <c r="U54" s="35"/>
+      <c r="U54" s="82"/>
       <c r="V54" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K55" s="33">
+      <c r="K55" s="80">
         <v>50</v>
       </c>
-      <c r="L55" s="35"/>
+      <c r="L55" s="82"/>
       <c r="M55" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N55" s="33">
+      <c r="N55" s="80">
         <v>350</v>
       </c>
-      <c r="O55" s="35"/>
+      <c r="O55" s="82"/>
       <c r="P55" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q55" s="33">
+      <c r="Q55" s="80">
         <v>1000</v>
       </c>
-      <c r="R55" s="35"/>
+      <c r="R55" s="82"/>
       <c r="S55" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T55" s="33">
+      <c r="T55" s="80">
         <v>3500</v>
       </c>
-      <c r="U55" s="35"/>
+      <c r="U55" s="82"/>
       <c r="V55" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K56" s="33">
+      <c r="K56" s="80">
         <v>60</v>
       </c>
-      <c r="L56" s="35"/>
+      <c r="L56" s="82"/>
       <c r="M56" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N56" s="33">
+      <c r="N56" s="80">
         <v>400</v>
       </c>
-      <c r="O56" s="35"/>
+      <c r="O56" s="82"/>
       <c r="P56" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q56" s="33">
+      <c r="Q56" s="80">
         <v>1100</v>
       </c>
-      <c r="R56" s="35"/>
+      <c r="R56" s="82"/>
       <c r="S56" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T56" s="33">
+      <c r="T56" s="80">
         <v>3750</v>
       </c>
-      <c r="U56" s="35"/>
+      <c r="U56" s="82"/>
       <c r="V56" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K57" s="33">
+      <c r="K57" s="80">
         <v>70</v>
       </c>
-      <c r="L57" s="35"/>
+      <c r="L57" s="82"/>
       <c r="M57" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N57" s="33">
+      <c r="N57" s="80">
         <v>450</v>
       </c>
-      <c r="O57" s="35"/>
+      <c r="O57" s="82"/>
       <c r="P57" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="33">
+      <c r="Q57" s="80">
         <v>1200</v>
       </c>
-      <c r="R57" s="35"/>
+      <c r="R57" s="82"/>
       <c r="S57" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T57" s="33">
+      <c r="T57" s="80">
         <v>4000</v>
       </c>
-      <c r="U57" s="35"/>
+      <c r="U57" s="82"/>
       <c r="V57" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K58" s="33">
+      <c r="K58" s="80">
         <v>80</v>
       </c>
-      <c r="L58" s="35"/>
+      <c r="L58" s="82"/>
       <c r="M58" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N58" s="33">
+      <c r="N58" s="80">
         <v>500</v>
       </c>
-      <c r="O58" s="35"/>
+      <c r="O58" s="82"/>
       <c r="P58" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q58" s="33">
+      <c r="Q58" s="80">
         <v>1300</v>
       </c>
-      <c r="R58" s="35"/>
+      <c r="R58" s="82"/>
       <c r="S58" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T58" s="33">
+      <c r="T58" s="80">
         <v>4250</v>
       </c>
-      <c r="U58" s="35"/>
+      <c r="U58" s="82"/>
       <c r="V58" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K59" s="33">
+      <c r="K59" s="80">
         <v>90</v>
       </c>
-      <c r="L59" s="35"/>
+      <c r="L59" s="82"/>
       <c r="M59" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N59" s="33">
+      <c r="N59" s="80">
         <v>550</v>
       </c>
-      <c r="O59" s="35"/>
+      <c r="O59" s="82"/>
       <c r="P59" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q59" s="33">
+      <c r="Q59" s="80">
         <v>1400</v>
       </c>
-      <c r="R59" s="35"/>
+      <c r="R59" s="82"/>
       <c r="S59" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T59" s="33">
+      <c r="T59" s="80">
         <v>4500</v>
       </c>
-      <c r="U59" s="35"/>
+      <c r="U59" s="82"/>
       <c r="V59" s="19">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K60" s="33">
+      <c r="K60" s="80">
         <v>100</v>
       </c>
-      <c r="L60" s="35"/>
+      <c r="L60" s="82"/>
       <c r="M60" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N60" s="33">
+      <c r="N60" s="80">
         <v>600</v>
       </c>
-      <c r="O60" s="35"/>
+      <c r="O60" s="82"/>
       <c r="P60" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q60" s="33">
+      <c r="Q60" s="80">
         <v>1500</v>
       </c>
-      <c r="R60" s="35"/>
+      <c r="R60" s="82"/>
       <c r="S60" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T60" s="33">
+      <c r="T60" s="80">
         <v>5000</v>
       </c>
-      <c r="U60" s="35"/>
+      <c r="U60" s="82"/>
       <c r="V60" s="19">
         <f>T60*$E$5</f>
         <v>0</v>
@@ -8811,60 +8883,85 @@
     </row>
   </sheetData>
   <mergeCells count="157">
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J2:N14"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G20:H23"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="T36:U36"/>
     <mergeCell ref="K29:V29"/>
     <mergeCell ref="K46:V46"/>
     <mergeCell ref="K47:L47"/>
@@ -8889,85 +8986,60 @@
     <mergeCell ref="Q31:R31"/>
     <mergeCell ref="T31:U31"/>
     <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J2:N14"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G20:H23"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="T59:U59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8993,33 +9065,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>72</v>
-      </c>
       <c r="E1" s="30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>71</v>
-      </c>
       <c r="D2" s="26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>9</v>
@@ -9027,16 +9099,16 @@
     </row>
     <row r="3" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>8</v>
@@ -9044,13 +9116,13 @@
     </row>
     <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="31" t="s">
@@ -9059,27 +9131,27 @@
     </row>
     <row r="5" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="26"/>
@@ -9089,13 +9161,13 @@
     </row>
     <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="31" t="s">
@@ -9104,27 +9176,27 @@
     </row>
     <row r="8" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="32" t="s">
         <v>87</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/croc-o-deals-parent/doc/Croc-o-deals-rules-1.0.0.xlsx
+++ b/croc-o-deals-parent/doc/Croc-o-deals-rules-1.0.0.xlsx
@@ -1614,7 +1614,7 @@
   <dimension ref="A2:V160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J16" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
